--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -99,13 +99,21 @@
   <si>
     <t>高岭站充电量(kw)</t>
   </si>
+  <si>
+    <t>四方坪站充电量(kw)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高岭站充电量(kw)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -151,13 +159,13 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -464,10 +472,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4402,7 +4410,7 @@
         <v>45925</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C50" s="4">
         <v>748.15800000000013</v>
@@ -4558,30 +4566,164 @@
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
+      <c r="A52" s="3">
+        <v>45926</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="4">
+        <v>662.50800000000015</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1191.104</v>
+      </c>
+      <c r="E52" s="4">
+        <v>354.67700000000002</v>
+      </c>
+      <c r="F52" s="4">
+        <v>531.69899999999996</v>
+      </c>
+      <c r="G52" s="4">
+        <v>367.37600000000003</v>
+      </c>
+      <c r="H52" s="4">
+        <v>795.5870000000001</v>
+      </c>
+      <c r="I52" s="4">
+        <v>468.65300000000002</v>
+      </c>
+      <c r="J52" s="4">
+        <v>208.81200000000001</v>
+      </c>
+      <c r="K52" s="4">
+        <v>93.199999999999989</v>
+      </c>
+      <c r="L52" s="4">
+        <v>311.71899999999999</v>
+      </c>
+      <c r="M52" s="4">
+        <v>147.24900000000002</v>
+      </c>
+      <c r="N52" s="4">
+        <v>188.32300000000001</v>
+      </c>
+      <c r="O52" s="4">
+        <v>571.15900000000011</v>
+      </c>
+      <c r="P52" s="4">
+        <v>1134.703</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>358.64400000000001</v>
+      </c>
+      <c r="R52" s="4">
+        <v>441.21100000000007</v>
+      </c>
+      <c r="S52" s="4">
+        <v>217.81900000000002</v>
+      </c>
+      <c r="T52" s="4">
+        <v>181.90899999999999</v>
+      </c>
+      <c r="U52" s="4">
+        <v>168.417</v>
+      </c>
+      <c r="V52" s="4">
+        <v>70</v>
+      </c>
+      <c r="W52" s="4">
+        <v>89.754999999999995</v>
+      </c>
+      <c r="X52" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y52" s="4">
+        <v>108.33</v>
+      </c>
+      <c r="Z52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>45926</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="4">
+        <v>234.22900000000001</v>
+      </c>
+      <c r="D53" s="4">
+        <v>404.65100000000007</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>27.227</v>
+      </c>
+      <c r="G53" s="4">
+        <v>4.9290000000000003</v>
+      </c>
+      <c r="H53" s="4">
+        <v>149.34399999999997</v>
+      </c>
+      <c r="I53" s="4">
+        <v>301.42500000000007</v>
+      </c>
+      <c r="J53" s="4">
+        <v>196.98099999999999</v>
+      </c>
+      <c r="K53" s="4">
+        <v>179.54</v>
+      </c>
+      <c r="L53" s="4">
+        <v>194.93900000000002</v>
+      </c>
+      <c r="M53" s="4">
+        <v>67.661000000000001</v>
+      </c>
+      <c r="N53" s="4">
+        <v>31.058999999999997</v>
+      </c>
+      <c r="O53" s="4">
+        <v>503.18600000000004</v>
+      </c>
+      <c r="P53" s="4">
+        <v>635.75</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>145.81799999999998</v>
+      </c>
+      <c r="R53" s="4">
+        <v>148.726</v>
+      </c>
+      <c r="S53" s="4">
+        <v>73.664000000000001</v>
+      </c>
+      <c r="T53" s="4">
+        <v>138.06300000000002</v>
+      </c>
+      <c r="U53" s="4">
+        <v>56.284999999999997</v>
+      </c>
+      <c r="V53" s="4">
+        <v>10.811</v>
+      </c>
+      <c r="W53" s="4">
+        <v>56.838000000000001</v>
+      </c>
+      <c r="X53" s="4">
+        <v>63.162999999999997</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>19.667999999999999</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>42.03</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -472,10 +472,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4725,6 +4725,166 @@
         <v>42.03</v>
       </c>
     </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>45927</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>770.45399999999984</v>
+      </c>
+      <c r="D54">
+        <v>1074.317</v>
+      </c>
+      <c r="E54">
+        <v>458.66000000000008</v>
+      </c>
+      <c r="F54">
+        <v>710.23699999999997</v>
+      </c>
+      <c r="G54">
+        <v>391.58699999999993</v>
+      </c>
+      <c r="H54">
+        <v>683.07500000000005</v>
+      </c>
+      <c r="I54">
+        <v>434.56100000000009</v>
+      </c>
+      <c r="J54">
+        <v>213.12</v>
+      </c>
+      <c r="K54">
+        <v>301.85500000000002</v>
+      </c>
+      <c r="L54">
+        <v>229.68</v>
+      </c>
+      <c r="M54">
+        <v>247.38400000000001</v>
+      </c>
+      <c r="N54">
+        <v>69.656000000000006</v>
+      </c>
+      <c r="O54">
+        <v>864.14400000000023</v>
+      </c>
+      <c r="P54">
+        <v>952.14699999999993</v>
+      </c>
+      <c r="Q54">
+        <v>465.35699999999997</v>
+      </c>
+      <c r="R54">
+        <v>386.322</v>
+      </c>
+      <c r="S54">
+        <v>390.822</v>
+      </c>
+      <c r="T54">
+        <v>172.47899999999998</v>
+      </c>
+      <c r="U54">
+        <v>149.07</v>
+      </c>
+      <c r="V54">
+        <v>53.460000000000008</v>
+      </c>
+      <c r="W54">
+        <v>309.45999999999998</v>
+      </c>
+      <c r="X54">
+        <v>75.671999999999997</v>
+      </c>
+      <c r="Y54">
+        <v>238.70000000000002</v>
+      </c>
+      <c r="Z54">
+        <v>47.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>45927</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>306.58899999999994</v>
+      </c>
+      <c r="D55">
+        <v>332.67</v>
+      </c>
+      <c r="E55">
+        <v>221.01899999999998</v>
+      </c>
+      <c r="F55">
+        <v>117.91999999999999</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>171.62</v>
+      </c>
+      <c r="I55">
+        <v>153.208</v>
+      </c>
+      <c r="J55">
+        <v>141.57999999999998</v>
+      </c>
+      <c r="K55">
+        <v>290.202</v>
+      </c>
+      <c r="L55">
+        <v>284.27300000000002</v>
+      </c>
+      <c r="M55">
+        <v>207.22900000000001</v>
+      </c>
+      <c r="N55">
+        <v>164.00799999999998</v>
+      </c>
+      <c r="O55">
+        <v>230.99400000000003</v>
+      </c>
+      <c r="P55">
+        <v>276.983</v>
+      </c>
+      <c r="Q55">
+        <v>278.98599999999999</v>
+      </c>
+      <c r="R55">
+        <v>215.41200000000001</v>
+      </c>
+      <c r="S55">
+        <v>217.76799999999997</v>
+      </c>
+      <c r="T55">
+        <v>182.55</v>
+      </c>
+      <c r="U55">
+        <v>51.75</v>
+      </c>
+      <c r="V55">
+        <v>55.25</v>
+      </c>
+      <c r="W55">
+        <v>50.36</v>
+      </c>
+      <c r="X55">
+        <v>43.875</v>
+      </c>
+      <c r="Y55">
+        <v>72.350000000000009</v>
+      </c>
+      <c r="Z55">
+        <v>82.106999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -472,10 +472,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z55"/>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4885,6 +4885,166 @@
         <v>82.106999999999999</v>
       </c>
     </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>45928</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="4">
+        <v>833.23699999999997</v>
+      </c>
+      <c r="D56" s="4">
+        <v>911.19700000000023</v>
+      </c>
+      <c r="E56" s="4">
+        <v>534.726</v>
+      </c>
+      <c r="F56" s="4">
+        <v>426.75</v>
+      </c>
+      <c r="G56" s="4">
+        <v>227.999</v>
+      </c>
+      <c r="H56" s="4">
+        <v>639.88800000000015</v>
+      </c>
+      <c r="I56" s="4">
+        <v>437.94</v>
+      </c>
+      <c r="J56" s="4">
+        <v>187.88300000000004</v>
+      </c>
+      <c r="K56" s="4">
+        <v>132.74799999999999</v>
+      </c>
+      <c r="L56" s="4">
+        <v>254.53000000000003</v>
+      </c>
+      <c r="M56" s="4">
+        <v>123.41999999999999</v>
+      </c>
+      <c r="N56" s="4">
+        <v>179.68700000000001</v>
+      </c>
+      <c r="O56" s="4">
+        <v>575.58800000000019</v>
+      </c>
+      <c r="P56" s="4">
+        <v>1449.7339999999992</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>396.62599999999998</v>
+      </c>
+      <c r="R56" s="4">
+        <v>357.48900000000003</v>
+      </c>
+      <c r="S56" s="4">
+        <v>305.55799999999999</v>
+      </c>
+      <c r="T56" s="4">
+        <v>290.072</v>
+      </c>
+      <c r="U56" s="4">
+        <v>171.59099999999998</v>
+      </c>
+      <c r="V56" s="4">
+        <v>141.47599999999997</v>
+      </c>
+      <c r="W56" s="4">
+        <v>60.64</v>
+      </c>
+      <c r="X56" s="4">
+        <v>191.029</v>
+      </c>
+      <c r="Y56" s="4">
+        <v>170.19</v>
+      </c>
+      <c r="Z56" s="4">
+        <v>85.036000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>45928</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="4">
+        <v>653.05199999999991</v>
+      </c>
+      <c r="D57" s="4">
+        <v>590.49400000000003</v>
+      </c>
+      <c r="E57" s="4">
+        <v>310.74300000000005</v>
+      </c>
+      <c r="F57" s="4">
+        <v>25.172000000000001</v>
+      </c>
+      <c r="G57" s="4">
+        <v>87.162999999999997</v>
+      </c>
+      <c r="H57" s="4">
+        <v>209.50799999999998</v>
+      </c>
+      <c r="I57" s="4">
+        <v>104.65199999999999</v>
+      </c>
+      <c r="J57" s="4">
+        <v>298.06700000000001</v>
+      </c>
+      <c r="K57" s="4">
+        <v>342.60500000000002</v>
+      </c>
+      <c r="L57" s="4">
+        <v>199.321</v>
+      </c>
+      <c r="M57" s="4">
+        <v>102.791</v>
+      </c>
+      <c r="N57" s="4">
+        <v>163.52699999999999</v>
+      </c>
+      <c r="O57" s="4">
+        <v>315.39200000000005</v>
+      </c>
+      <c r="P57" s="4">
+        <v>667.99399999999991</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>171.29500000000002</v>
+      </c>
+      <c r="R57" s="4">
+        <v>451.23099999999994</v>
+      </c>
+      <c r="S57" s="4">
+        <v>478.75299999999999</v>
+      </c>
+      <c r="T57" s="4">
+        <v>157.30799999999999</v>
+      </c>
+      <c r="U57" s="4">
+        <v>216.98599999999999</v>
+      </c>
+      <c r="V57" s="4">
+        <v>45.960999999999999</v>
+      </c>
+      <c r="W57" s="4">
+        <v>100.70899999999999</v>
+      </c>
+      <c r="X57" s="4">
+        <v>36.061999999999998</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>142.423</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -112,8 +112,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -157,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,7 +167,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -472,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z57"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -492,76 +496,76 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -572,76 +576,76 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>788.99099999999987</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>1569.4810000000002</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>360.8</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>664.13200000000006</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>482.483</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>970.32799999999986</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>714.46100000000013</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <v>295.91500000000002</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="5">
         <v>240.43699999999995</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <v>329.81</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="5">
         <v>266.62</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>172.738</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="5">
         <v>792.17399999999998</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="5">
         <v>1693.4959999999999</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="5">
         <v>496.64400000000001</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="5">
         <v>677.08</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="5">
         <v>416.43299999999994</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>291.15800000000002</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="5">
         <v>117.5</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="5">
         <v>79.460000000000008</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="5">
         <v>48.114000000000004</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="5">
         <v>11.64</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="5">
         <v>98.4</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="5">
         <v>87.28</v>
       </c>
     </row>
@@ -652,76 +656,76 @@
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>253.60400000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>554.87199999999996</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>98.486999999999995</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>43.366999999999997</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>98.082999999999998</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>128.67700000000002</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>183.23599999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>358.84299999999996</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
         <v>464.32399999999996</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>206.48399999999998</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="5">
         <v>205.80900000000003</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>75.867000000000004</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="5">
         <v>351.39499999999998</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="5">
         <v>556.41200000000003</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="5">
         <v>288.16699999999997</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="5">
         <v>224.39599999999999</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="5">
         <v>237.49600000000001</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>118.52300000000001</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="5">
         <v>49.137</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="5">
         <v>77.577999999999989</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="5">
         <v>139.733</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="5">
         <v>21.981000000000002</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="5">
         <v>0</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="5">
         <v>51.145000000000003</v>
       </c>
     </row>
@@ -732,76 +736,76 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>988.30299999999988</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>1200.5979999999997</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>466.43500000000006</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>209.22299999999998</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>443.81800000000004</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>835.42</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>318.21000000000004</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>308.13100000000003</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>233.92699999999999</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>231.79599999999999</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="5">
         <v>123.79800000000002</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>141.97499999999999</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="5">
         <v>840.55900000000008</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="5">
         <v>1510.5029999999997</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <v>406.87900000000002</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="5">
         <v>392.84199999999998</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="5">
         <v>391.95499999999998</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>161.554</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="5">
         <v>36.29</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="5">
         <v>106</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="5">
         <v>164.33999999999997</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="5">
         <v>47.5</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="5">
         <v>105.655</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -812,76 +816,76 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>495.40900000000005</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>314.06199999999995</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>77.211000000000013</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>81.730999999999995</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>146.197</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>261.48099999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>478.07000000000005</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>116.05700000000002</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <v>277.63600000000002</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="5">
         <v>123.54999999999998</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>40.534999999999997</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="5">
         <v>385.21900000000005</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="5">
         <v>520.17899999999997</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="5">
         <v>385.07</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="5">
         <v>64.929999999999993</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="5">
         <v>247.62200000000001</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>161.233</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="5">
         <v>171.929</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="5">
         <v>35.656999999999996</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="5">
         <v>52.831999999999994</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="5">
         <v>40.272999999999996</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="5">
         <v>0</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="5">
         <v>19.75</v>
       </c>
     </row>
@@ -892,76 +896,76 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>1133.232</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>1495.5989999999995</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>492.72699999999998</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>405.21999999999997</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>344.11699999999996</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>971.21200000000022</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>231.16500000000002</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>343.13</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>212.07</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>232.017</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="5">
         <v>207.71100000000001</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>254.47500000000002</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="5">
         <v>890.40100000000007</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="5">
         <v>1283.365</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="5">
         <v>501.553</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="5">
         <v>645.38599999999997</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="5">
         <v>351.27800000000002</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>204.85</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="5">
         <v>155.25899999999999</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="5">
         <v>185.35000000000002</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="5">
         <v>40.040000000000006</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="5">
         <v>23.46</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="5">
         <v>15.88</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="5">
         <v>14.2</v>
       </c>
     </row>
@@ -972,76 +976,76 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>275.71899999999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>371.548</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>117.738</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>149.946</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>227.255</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>257.30799999999999</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>324.98800000000006</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <v>267.05099999999999</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="5">
         <v>162.01</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>158.20400000000001</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="5">
         <v>516.73900000000003</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="5">
         <v>243.02600000000001</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="5">
         <v>282.61799999999999</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="5">
         <v>223.39099999999999</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="5">
         <v>109.79499999999999</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>55.006999999999998</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="5">
         <v>122.72100000000002</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="5">
         <v>176.40699999999998</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="5">
         <v>116.30600000000001</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="5">
         <v>212.661</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="5">
         <v>37.067</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1052,76 +1056,76 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>982.54200000000003</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>1446.2619999999997</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>505.86999999999995</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>451.6880000000001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>186.45400000000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>539.803</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>872.95400000000006</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <v>313.20499999999998</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <v>208.14</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <v>204.453</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="5">
         <v>287.39699999999999</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>256.46299999999997</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="5">
         <v>898.10500000000025</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="5">
         <v>1662.7639999999999</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="5">
         <v>726.51900000000001</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="5">
         <v>491.32799999999997</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="5">
         <v>244.92399999999998</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>182.72499999999999</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="5">
         <v>187.13</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="5">
         <v>134.89700000000002</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="5">
         <v>156.98699999999997</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="5">
         <v>80.17</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="5">
         <v>133.60899999999998</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="5">
         <v>56.34</v>
       </c>
     </row>
@@ -1132,76 +1136,76 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>378.62400000000002</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>192.80199999999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>200.32299999999998</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>265.40199999999999</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>82.283000000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>107.23099999999999</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>318.27600000000001</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>381.54800000000006</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>311.60000000000002</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="5">
         <v>229.30500000000001</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="5">
         <v>152.43300000000002</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>324.03500000000003</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="5">
         <v>306.29900000000004</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="5">
         <v>405.76900000000001</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="5">
         <v>198.69299999999998</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="5">
         <v>223.864</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="5">
         <v>164.773</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>91.179000000000002</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="5">
         <v>114.68700000000001</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="5">
         <v>33.878999999999998</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="5">
         <v>8.6920000000000002</v>
       </c>
-      <c r="X9" s="4">
+      <c r="X9" s="5">
         <v>23.43</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="5">
         <v>16.030999999999999</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="5">
         <v>18.952999999999999</v>
       </c>
     </row>
@@ -1212,76 +1216,76 @@
       <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>940.69999999999993</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>1779.7349999999999</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>309.255</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>368.71399999999994</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>680.01499999999999</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>665.99699999999996</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>1021.9140000000001</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <v>437.60599999999999</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="5">
         <v>236.53</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="5">
         <v>329.37700000000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="5">
         <v>135.41499999999999</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>242.96100000000001</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="5">
         <v>1276.9850000000001</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="5">
         <v>1848.8430000000008</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="5">
         <v>648.79199999999992</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="5">
         <v>548.80700000000013</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="5">
         <v>387.024</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>271.654</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="5">
         <v>260.23999999999995</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="5">
         <v>230.62200000000001</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="5">
         <v>277.31100000000004</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="5">
         <v>33.480000000000004</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="5">
         <v>15.32</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="5">
         <v>108.53999999999999</v>
       </c>
     </row>
@@ -1292,76 +1296,76 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>414.72</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>590.23799999999994</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>154.17500000000001</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>64.113</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>57.149000000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>158.33199999999999</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>491.96199999999999</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
         <v>352.87799999999999</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="5">
         <v>125.76300000000001</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
         <v>79.944999999999993</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="5">
         <v>194.154</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>226.93699999999998</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="5">
         <v>476.54</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="5">
         <v>809.16600000000005</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="5">
         <v>257.53300000000002</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="5">
         <v>356.73500000000001</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="5">
         <v>246.15699999999998</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="5">
         <v>194.328</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="5">
         <v>75.372</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="5">
         <v>60.265000000000001</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="5">
         <v>54.359000000000002</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="5">
         <v>61.463999999999999</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Y11" s="5">
         <v>37.991999999999997</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="5">
         <v>37.159999999999997</v>
       </c>
     </row>
@@ -1372,76 +1376,76 @@
       <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>831.55</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>1677.759</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>765.73299999999995</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>427.63</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>511.96499999999997</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>839.8900000000001</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>628.83100000000002</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <v>307.66900000000004</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="5">
         <v>165.83000000000004</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <v>208.62</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="5">
         <v>426.43399999999997</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>291.96000000000004</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="5">
         <v>752.17299999999989</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="5">
         <v>1274.1710000000003</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="5">
         <v>412.22900000000004</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="5">
         <v>596.67599999999993</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="5">
         <v>457.42800000000005</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>251.30700000000002</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="5">
         <v>112.5</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="5">
         <v>184.28500000000003</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="5">
         <v>26.72</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="5">
         <v>46.28</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="5">
         <v>97.38</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12" s="5">
         <v>90.870999999999995</v>
       </c>
     </row>
@@ -1452,76 +1456,76 @@
       <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>425.76</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>750.47</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>39.295000000000002</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>47.147999999999996</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>49.070999999999998</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>220.435</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <v>616.50599999999997</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <v>275.69299999999998</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <v>181.62</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="5">
         <v>95.932999999999993</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>154.16399999999999</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="5">
         <v>278.27699999999999</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="5">
         <v>666.06700000000001</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="5">
         <v>286.67399999999998</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="5">
         <v>274.45800000000003</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="5">
         <v>439.65699999999998</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>114.349</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="5">
         <v>114.63300000000001</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="5">
         <v>0</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="5">
         <v>137.16800000000001</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="5">
         <v>61.844000000000001</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y13" s="5">
         <v>22.539000000000001</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z13" s="5">
         <v>3.6949999999999998</v>
       </c>
     </row>
@@ -1532,76 +1536,76 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>636.63499999999988</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>1442.261</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>420.15600000000006</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>480.762</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>342.30099999999999</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>503.60199999999998</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <v>549.99099999999999</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="5">
         <v>280.37</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="5">
         <v>311.25100000000003</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="5">
         <v>313.34499999999997</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="5">
         <v>142.41900000000001</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>133.33799999999999</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="5">
         <v>818.44499999999982</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="5">
         <v>1112.7599999999998</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="5">
         <v>402.2</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="5">
         <v>586.39</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="5">
         <v>249.13299999999998</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>264.42399999999998</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="5">
         <v>178.73999999999998</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="5">
         <v>161.124</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="5">
         <v>137.816</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="5">
         <v>111.44499999999999</v>
       </c>
-      <c r="Y14" s="4">
+      <c r="Y14" s="5">
         <v>114.41</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Z14" s="5">
         <v>96.09</v>
       </c>
     </row>
@@ -1612,76 +1616,76 @@
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>489.03499999999991</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>465.63500000000005</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>158.679</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>44.211000000000006</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>26.202999999999999</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>139.72800000000001</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <v>92.453000000000003</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="5">
         <v>360.03100000000001</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="5">
         <v>423.73099999999994</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="5">
         <v>117.411</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="5">
         <v>187.00100000000003</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>26.83</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="5">
         <v>413.41999999999996</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="5">
         <v>289.83299999999997</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="5">
         <v>206.06199999999998</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="5">
         <v>212.07599999999996</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="5">
         <v>343.084</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>158.84900000000002</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="5">
         <v>118.374</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="5">
         <v>83.628</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="5">
         <v>130.70099999999999</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="5">
         <v>2.5939999999999999</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y15" s="5">
         <v>0</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z15" s="5">
         <v>58.507999999999996</v>
       </c>
     </row>
@@ -1692,76 +1696,76 @@
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>1017.5169999999999</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>1691.3060000000003</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>505.24</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>489.53800000000007</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>454.96399999999994</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>693.43000000000006</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <v>471.44400000000002</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <v>266.82900000000001</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="5">
         <v>240.60399999999998</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
         <v>379.22500000000002</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="5">
         <v>190.03699999999998</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>261.45300000000003</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="5">
         <v>644.72899999999993</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="5">
         <v>2044.1229999999991</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="5">
         <v>493.81600000000003</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="5">
         <v>429.041</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="5">
         <v>223.096</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>173.77299999999997</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="5">
         <v>232.98099999999999</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="5">
         <v>20.78</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="5">
         <v>152.36000000000001</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="5">
         <v>59.741</v>
       </c>
-      <c r="Y16" s="4">
+      <c r="Y16" s="5">
         <v>205.74</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="Z16" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1772,76 +1776,76 @@
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>627.22700000000009</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>646.11800000000017</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>162.934</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>25.015999999999998</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>57.601999999999997</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>210.96900000000002</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <v>209.137</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <v>190.797</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
         <v>324.58</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="5">
         <v>278.66700000000003</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="5">
         <v>137.53100000000001</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>195.99999999999997</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="5">
         <v>321.54000000000002</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="5">
         <v>787.74700000000007</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="5">
         <v>216.31</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="5">
         <v>163.45699999999999</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="5">
         <v>184.98399999999998</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>126.56399999999999</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="5">
         <v>74.659000000000006</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="5">
         <v>32.039000000000001</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="5">
         <v>22.327999999999999</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="5">
         <v>0</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z17" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1852,76 +1856,76 @@
       <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>1039.6539999999998</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>1011.239</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>343.57100000000003</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>326.60599999999999</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>316.52500000000003</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>681.15899999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <v>476.73800000000006</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="5">
         <v>169.30700000000002</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="5">
         <v>183.61199999999999</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="5">
         <v>270.267</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="5">
         <v>275.62800000000004</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>111.66</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="5">
         <v>774.3520000000002</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="5">
         <v>1288.6400000000001</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="5">
         <v>438.03100000000001</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="5">
         <v>238.50800000000001</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="5">
         <v>362.69399999999996</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>233.58500000000001</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="5">
         <v>121.06000000000002</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="5">
         <v>168.285</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="5">
         <v>99.9</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="5">
         <v>151.33000000000001</v>
       </c>
-      <c r="Y18" s="4">
+      <c r="Y18" s="5">
         <v>26.074999999999999</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="Z18" s="5">
         <v>16.93</v>
       </c>
     </row>
@@ -1932,76 +1936,76 @@
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>489.05</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>332.74</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>98.039000000000016</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>0</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>18.789000000000001</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>390.67099999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <v>191.46800000000002</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <v>292.22399999999999</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="5">
         <v>486.31399999999996</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="5">
         <v>112.03500000000001</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="5">
         <v>139.82999999999998</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <v>123.253</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="5">
         <v>364.93</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="5">
         <v>532.28700000000003</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="5">
         <v>289.08</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="5">
         <v>236.05500000000001</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="5">
         <v>206.75300000000001</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>26.465</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="5">
         <v>81.553999999999988</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="5">
         <v>70.800999999999988</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="5">
         <v>16.344000000000001</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="5">
         <v>125.75800000000001</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19" s="5">
         <v>0</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z19" s="5">
         <v>31.021999999999998</v>
       </c>
     </row>
@@ -2012,76 +2016,76 @@
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>955.45399999999984</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>1267.2800000000002</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>179.72899999999998</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>399.73500000000007</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>532.66100000000006</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>656.94200000000001</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <v>699.28600000000017</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="5">
         <v>242.96</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="5">
         <v>129.42000000000002</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="5">
         <v>119.506</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="5">
         <v>190.27700000000004</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>116.12</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="5">
         <v>1045.5520000000001</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="5">
         <v>1376.8159999999996</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="5">
         <v>516.66699999999992</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="5">
         <v>619.7399999999999</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="5">
         <v>281.37400000000002</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>313.12700000000001</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="5">
         <v>22.038</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="5">
         <v>65.22</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="5">
         <v>101</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X20" s="5">
         <v>167.97</v>
       </c>
-      <c r="Y20" s="4">
+      <c r="Y20" s="5">
         <v>16.7</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="Z20" s="5">
         <v>33.840000000000003</v>
       </c>
     </row>
@@ -2092,76 +2096,76 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>451.93</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>728.03</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>55.305</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>118.294</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>289.59699999999998</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="5">
         <v>369.28700000000003</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <v>173.85499999999999</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="5">
         <v>378.92399999999992</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="5">
         <v>157.44199999999998</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="5">
         <v>286.16399999999999</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>35.375</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="5">
         <v>401.601</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="5">
         <v>428.00099999999998</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="5">
         <v>243.67800000000003</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="5">
         <v>315.95900000000006</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="5">
         <v>252.19399999999999</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>110.90400000000001</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="5">
         <v>47.852000000000004</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="5">
         <v>63.484000000000002</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="5">
         <v>108.497</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21" s="5">
         <v>37.652999999999999</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y21" s="5">
         <v>0</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="Z21" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2172,76 +2176,76 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>840.79100000000005</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>1267.2600000000002</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <v>557.58399999999995</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>485.94600000000003</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>337.30899999999997</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>730.44299999999998</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="5">
         <v>741.38499999999999</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="5">
         <v>255.33999999999997</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="5">
         <v>177.04900000000001</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="5">
         <v>148.41800000000001</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="5">
         <v>212.697</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>254.05699999999999</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="5">
         <v>1058.3630000000003</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="5">
         <v>1583.2220000000004</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="5">
         <v>836.15999999999985</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="5">
         <v>505.21999999999986</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="5">
         <v>551.29199999999992</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>143.64999999999998</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="5">
         <v>68.34</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="5">
         <v>144.58799999999999</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22" s="5">
         <v>44.84</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X22" s="5">
         <v>134.56</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Y22" s="5">
         <v>39.1</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="Z22" s="5">
         <v>38.54</v>
       </c>
     </row>
@@ -2252,76 +2256,76 @@
       <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>440.05900000000003</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>484.72400000000005</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <v>63.742999999999995</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>46.387999999999998</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>29.280999999999999</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>204.52599999999998</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="5">
         <v>232.017</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="5">
         <v>448.51400000000001</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="5">
         <v>354.47399999999999</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="5">
         <v>175.19900000000001</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="5">
         <v>134.18700000000001</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>68.332999999999998</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="5">
         <v>362.90100000000001</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="5">
         <v>480.49200000000008</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="5">
         <v>190.70299999999997</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="5">
         <v>115.952</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="5">
         <v>244.34100000000001</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>91.564999999999998</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="5">
         <v>42.508000000000003</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="5">
         <v>54.976999999999997</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W23" s="5">
         <v>45.918999999999997</v>
       </c>
-      <c r="X23" s="4">
+      <c r="X23" s="5">
         <v>69.188000000000002</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Y23" s="5">
         <v>0</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="Z23" s="5">
         <v>45.072000000000003</v>
       </c>
     </row>
@@ -2332,76 +2336,76 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>886.4380000000001</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>1429.7619999999997</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>435.238</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>458.50000000000006</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>559.75300000000004</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>747.798</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="5">
         <v>690.30600000000015</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="5">
         <v>440.10399999999998</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="5">
         <v>127.532</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="5">
         <v>323.678</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="5">
         <v>190.27700000000002</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>266.96000000000004</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="5">
         <v>857.91400000000033</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="5">
         <v>1564.6620000000003</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="5">
         <v>663.19400000000007</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="5">
         <v>405.59999999999997</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="5">
         <v>314.60299999999995</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>327.77299999999997</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="5">
         <v>228.83100000000005</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="5">
         <v>171.48499999999999</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="5">
         <v>102.94</v>
       </c>
-      <c r="X24" s="4">
+      <c r="X24" s="5">
         <v>46.593000000000004</v>
       </c>
-      <c r="Y24" s="4">
+      <c r="Y24" s="5">
         <v>30.839999999999996</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="Z24" s="5">
         <v>65.31</v>
       </c>
     </row>
@@ -2412,76 +2416,76 @@
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>523.90899999999999</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>384.71699999999998</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>85.13300000000001</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>109.38800000000001</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>167.69499999999999</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>272.88200000000001</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="5">
         <v>381.00300000000004</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="5">
         <v>287.02499999999998</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="5">
         <v>352.23400000000004</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="5">
         <v>207.87900000000002</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="5">
         <v>203.21900000000002</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>109.411</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="5">
         <v>287.53100000000006</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="5">
         <v>666.36300000000006</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="5">
         <v>258.63499999999999</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="5">
         <v>413.012</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="5">
         <v>122.06599999999999</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>128.97900000000001</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="5">
         <v>101.532</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="5">
         <v>58.382000000000005</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25" s="5">
         <v>147.66900000000001</v>
       </c>
-      <c r="X25" s="4">
+      <c r="X25" s="5">
         <v>99.951000000000008</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="Y25" s="5">
         <v>0</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="Z25" s="5">
         <v>11.634</v>
       </c>
     </row>
@@ -2492,76 +2496,76 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>942.322</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <v>1560.413</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <v>243.36</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>494.774</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <v>500.96099999999996</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>898.35099999999989</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="5">
         <v>744.05</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="5">
         <v>347.25</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="5">
         <v>184.166</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="5">
         <v>70.009999999999991</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="5">
         <v>259.44900000000001</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>147.34599999999998</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="5">
         <v>600.471</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="5">
         <v>1819.1829999999998</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="5">
         <v>467.74599999999992</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26" s="5">
         <v>647.68500000000006</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="5">
         <v>357.19000000000005</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>317.57200000000006</v>
       </c>
-      <c r="U26" s="4">
+      <c r="U26" s="5">
         <v>108</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26" s="5">
         <v>161.48899999999998</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W26" s="5">
         <v>61.174000000000007</v>
       </c>
-      <c r="X26" s="4">
+      <c r="X26" s="5">
         <v>72.831999999999994</v>
       </c>
-      <c r="Y26" s="4">
+      <c r="Y26" s="5">
         <v>85.7</v>
       </c>
-      <c r="Z26" s="4">
+      <c r="Z26" s="5">
         <v>9.58</v>
       </c>
     </row>
@@ -2572,76 +2576,76 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <v>400.41300000000001</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="5">
         <v>494.774</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <v>273.74200000000002</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>103.89499999999998</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>36.755000000000003</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>361.29099999999994</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="5">
         <v>344.03700000000003</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="5">
         <v>216.047</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="5">
         <v>328.99599999999998</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="5">
         <v>315.50799999999998</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="5">
         <v>512.94699999999989</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>435.20399999999995</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="5">
         <v>606.42499999999995</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="5">
         <v>515.21900000000005</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="5">
         <v>485.92599999999999</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="5">
         <v>625.46799999999996</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27" s="5">
         <v>712.98500000000001</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>193.65600000000001</v>
       </c>
-      <c r="U27" s="4">
+      <c r="U27" s="5">
         <v>242.80999999999995</v>
       </c>
-      <c r="V27" s="4">
+      <c r="V27" s="5">
         <v>56.966999999999999</v>
       </c>
-      <c r="W27" s="4">
+      <c r="W27" s="5">
         <v>0</v>
       </c>
-      <c r="X27" s="4">
+      <c r="X27" s="5">
         <v>111.47699999999999</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="Y27" s="5">
         <v>31.413999999999998</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="Z27" s="5">
         <v>75.763000000000005</v>
       </c>
     </row>
@@ -2652,76 +2656,76 @@
       <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <v>1029.222</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <v>1725.0620000000006</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <v>321.71700000000004</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>470.28499999999997</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <v>591.73300000000006</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>721.89099999999985</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="5">
         <v>508.77199999999999</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="5">
         <v>240.21</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="5">
         <v>169.17300000000003</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="5">
         <v>110.21</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="5">
         <v>206.77499999999998</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>131.21</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="5">
         <v>849.45100000000002</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="5">
         <v>1066.1689999999999</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="5">
         <v>584.85</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="5">
         <v>571.33100000000002</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28" s="5">
         <v>384.16399999999999</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>221.672</v>
       </c>
-      <c r="U28" s="4">
+      <c r="U28" s="5">
         <v>132.33799999999999</v>
       </c>
-      <c r="V28" s="4">
+      <c r="V28" s="5">
         <v>109</v>
       </c>
-      <c r="W28" s="4">
+      <c r="W28" s="5">
         <v>128.32</v>
       </c>
-      <c r="X28" s="4">
+      <c r="X28" s="5">
         <v>47.911999999999992</v>
       </c>
-      <c r="Y28" s="4">
+      <c r="Y28" s="5">
         <v>159.97999999999999</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="Z28" s="5">
         <v>82.18</v>
       </c>
     </row>
@@ -2732,76 +2736,76 @@
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>390.88099999999997</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <v>588.81099999999992</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <v>830.31999999999994</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>82.25</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>92.765999999999991</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>102.227</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="5">
         <v>96.238</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="5">
         <v>133.68099999999998</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="5">
         <v>209.78100000000001</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="5">
         <v>317.76800000000003</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="5">
         <v>52.109000000000002</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>49.772000000000006</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="5">
         <v>400.93000000000006</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="5">
         <v>302.92600000000004</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="5">
         <v>530.89099999999996</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29" s="5">
         <v>169.715</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S29" s="5">
         <v>157.459</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>78.054000000000002</v>
       </c>
-      <c r="U29" s="4">
+      <c r="U29" s="5">
         <v>100.492</v>
       </c>
-      <c r="V29" s="4">
+      <c r="V29" s="5">
         <v>77.932999999999993</v>
       </c>
-      <c r="W29" s="4">
+      <c r="W29" s="5">
         <v>135.78100000000001</v>
       </c>
-      <c r="X29" s="4">
+      <c r="X29" s="5">
         <v>0</v>
       </c>
-      <c r="Y29" s="4">
+      <c r="Y29" s="5">
         <v>0</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="Z29" s="5">
         <v>56.773000000000003</v>
       </c>
     </row>
@@ -2812,76 +2816,76 @@
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>768.05799999999988</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>1307.5499999999995</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>542.19299999999987</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>430.53600000000006</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="5">
         <v>359.54199999999997</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>547.92399999999998</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="5">
         <v>873.34100000000001</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="5">
         <v>229.81300000000002</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="5">
         <v>212.19799999999998</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="5">
         <v>246.52199999999999</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="5">
         <v>221.54200000000003</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>309.44100000000003</v>
       </c>
-      <c r="O30" s="4">
+      <c r="O30" s="5">
         <v>849.82599999999979</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="5">
         <v>1720.731</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="Q30" s="5">
         <v>634.96399999999994</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="5">
         <v>404.67700000000002</v>
       </c>
-      <c r="S30" s="4">
+      <c r="S30" s="5">
         <v>345.80800000000005</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>269.20300000000003</v>
       </c>
-      <c r="U30" s="4">
+      <c r="U30" s="5">
         <v>191.97900000000001</v>
       </c>
-      <c r="V30" s="4">
+      <c r="V30" s="5">
         <v>49.14</v>
       </c>
-      <c r="W30" s="4">
+      <c r="W30" s="5">
         <v>125.65299999999999</v>
       </c>
-      <c r="X30" s="4">
+      <c r="X30" s="5">
         <v>19.78</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="Y30" s="5">
         <v>114.25</v>
       </c>
-      <c r="Z30" s="4">
+      <c r="Z30" s="5">
         <v>48.29</v>
       </c>
     </row>
@@ -2892,76 +2896,76 @@
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <v>399.78699999999998</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <v>541.87800000000004</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>0</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>157.399</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <v>77.86699999999999</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>138.285</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="5">
         <v>341.90700000000004</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="5">
         <v>198.01300000000001</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="5">
         <v>290.04199999999997</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="5">
         <v>161.465</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="5">
         <v>257.03100000000001</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>221.489</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="5">
         <v>462.13599999999991</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="5">
         <v>681.96100000000001</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="5">
         <v>198.887</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31" s="5">
         <v>86.69</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S31" s="5">
         <v>176.80500000000001</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>139.03800000000001</v>
       </c>
-      <c r="U31" s="4">
+      <c r="U31" s="5">
         <v>216.56299999999999</v>
       </c>
-      <c r="V31" s="4">
+      <c r="V31" s="5">
         <v>97.688000000000002</v>
       </c>
-      <c r="W31" s="4">
+      <c r="W31" s="5">
         <v>164.81400000000002</v>
       </c>
-      <c r="X31" s="4">
+      <c r="X31" s="5">
         <v>24.519000000000002</v>
       </c>
-      <c r="Y31" s="4">
+      <c r="Y31" s="5">
         <v>35.808999999999997</v>
       </c>
-      <c r="Z31" s="4">
+      <c r="Z31" s="5">
         <v>32.93</v>
       </c>
     </row>
@@ -2972,76 +2976,76 @@
       <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>677.73500000000013</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>1415.5590000000004</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>275.815</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>670.27499999999998</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="5">
         <v>328.67199999999997</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>759</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="5">
         <v>426.40100000000001</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="5">
         <v>373.99199999999996</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="5">
         <v>88.759999999999991</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="5">
         <v>196.23000000000002</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="5">
         <v>305.036</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>306.11499999999995</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="5">
         <v>1162.143</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="5">
         <v>1910.8520000000003</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="Q32" s="5">
         <v>615.60800000000017</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32" s="5">
         <v>511.51299999999998</v>
       </c>
-      <c r="S32" s="4">
+      <c r="S32" s="5">
         <v>472.89699999999993</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>221.10500000000005</v>
       </c>
-      <c r="U32" s="4">
+      <c r="U32" s="5">
         <v>85.225999999999999</v>
       </c>
-      <c r="V32" s="4">
+      <c r="V32" s="5">
         <v>81.180000000000007</v>
       </c>
-      <c r="W32" s="4">
+      <c r="W32" s="5">
         <v>212.95499999999998</v>
       </c>
-      <c r="X32" s="4">
+      <c r="X32" s="5">
         <v>163.59200000000001</v>
       </c>
-      <c r="Y32" s="4">
+      <c r="Y32" s="5">
         <v>54.411999999999999</v>
       </c>
-      <c r="Z32" s="4">
+      <c r="Z32" s="5">
         <v>69.866000000000014</v>
       </c>
     </row>
@@ -3052,76 +3056,76 @@
       <c r="B33" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>446.83199999999999</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="5">
         <v>531.30099999999993</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <v>75.81</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>108.852</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="5">
         <v>132.91300000000001</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="5">
         <v>207.577</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="5">
         <v>151.01999999999998</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="5">
         <v>160.31300000000002</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="5">
         <v>236.46299999999997</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="5">
         <v>258.56</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="5">
         <v>84.856999999999999</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="5">
         <v>147.596</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="5">
         <v>549.86</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="5">
         <v>434.87400000000008</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="5">
         <v>328.21199999999999</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R33" s="5">
         <v>303.24799999999999</v>
       </c>
-      <c r="S33" s="4">
+      <c r="S33" s="5">
         <v>251.447</v>
       </c>
-      <c r="T33" s="4">
+      <c r="T33" s="5">
         <v>91.11699999999999</v>
       </c>
-      <c r="U33" s="4">
+      <c r="U33" s="5">
         <v>218.34800000000001</v>
       </c>
-      <c r="V33" s="4">
+      <c r="V33" s="5">
         <v>91.77000000000001</v>
       </c>
-      <c r="W33" s="4">
+      <c r="W33" s="5">
         <v>16.712</v>
       </c>
-      <c r="X33" s="4">
+      <c r="X33" s="5">
         <v>78.225999999999999</v>
       </c>
-      <c r="Y33" s="4">
+      <c r="Y33" s="5">
         <v>35.640999999999998</v>
       </c>
-      <c r="Z33" s="4">
+      <c r="Z33" s="5">
         <v>85.852000000000004</v>
       </c>
     </row>
@@ -3132,76 +3136,76 @@
       <c r="B34" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>981.98599999999988</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>1635.4700000000005</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>345.5</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>497.97800000000001</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="5">
         <v>422.89100000000002</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="5">
         <v>551.26699999999994</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="5">
         <v>678.06799999999998</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="5">
         <v>223.68399999999997</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="5">
         <v>116.75999999999999</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="5">
         <v>283.28000000000003</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="5">
         <v>263.28199999999998</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="5">
         <v>282.05500000000001</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="5">
         <v>1467.3889999999999</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="5">
         <v>1418.7389999999998</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="5">
         <v>895.97799999999984</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R34" s="5">
         <v>492.19400000000002</v>
       </c>
-      <c r="S34" s="4">
+      <c r="S34" s="5">
         <v>315.66300000000001</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34" s="5">
         <v>361.27</v>
       </c>
-      <c r="U34" s="4">
+      <c r="U34" s="5">
         <v>136</v>
       </c>
-      <c r="V34" s="4">
+      <c r="V34" s="5">
         <v>36.18</v>
       </c>
-      <c r="W34" s="4">
+      <c r="W34" s="5">
         <v>114.47</v>
       </c>
-      <c r="X34" s="4">
+      <c r="X34" s="5">
         <v>120.029</v>
       </c>
-      <c r="Y34" s="4">
+      <c r="Y34" s="5">
         <v>127.91500000000001</v>
       </c>
-      <c r="Z34" s="4">
+      <c r="Z34" s="5">
         <v>88.28</v>
       </c>
     </row>
@@ -3212,76 +3216,76 @@
       <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>671.91700000000014</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <v>390.56200000000001</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <v>264.125</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <v>30.710999999999999</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="5">
         <v>176.048</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="5">
         <v>117.22199999999999</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="5">
         <v>251.684</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="5">
         <v>387.18599999999998</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="5">
         <v>487.42099999999994</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="5">
         <v>437.09900000000005</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="5">
         <v>170.39400000000001</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="5">
         <v>56.218000000000004</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="5">
         <v>321.75400000000002</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="5">
         <v>517.21600000000001</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="5">
         <v>408.66300000000007</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R35" s="5">
         <v>190.726</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S35" s="5">
         <v>219.261</v>
       </c>
-      <c r="T35" s="4">
+      <c r="T35" s="5">
         <v>90.316999999999993</v>
       </c>
-      <c r="U35" s="4">
+      <c r="U35" s="5">
         <v>60.167999999999999</v>
       </c>
-      <c r="V35" s="4">
+      <c r="V35" s="5">
         <v>32.869999999999997</v>
       </c>
-      <c r="W35" s="4">
+      <c r="W35" s="5">
         <v>46.055</v>
       </c>
-      <c r="X35" s="4">
+      <c r="X35" s="5">
         <v>90.828000000000003</v>
       </c>
-      <c r="Y35" s="4">
+      <c r="Y35" s="5">
         <v>51.632999999999996</v>
       </c>
-      <c r="Z35" s="4">
+      <c r="Z35" s="5">
         <v>65.813000000000002</v>
       </c>
     </row>
@@ -3292,76 +3296,76 @@
       <c r="B36" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>1174.5060000000001</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <v>1147.4760000000001</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <v>352.76099999999997</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>394.88000000000011</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="5">
         <v>404.76099999999997</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="5">
         <v>888.64899999999989</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="5">
         <v>605.72599999999989</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="5">
         <v>327.74699999999996</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="5">
         <v>206.87699999999998</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="5">
         <v>389.65799999999996</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="5">
         <v>169.20099999999999</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="5">
         <v>235.03</v>
       </c>
-      <c r="O36" s="4">
+      <c r="O36" s="5">
         <v>813.83000000000015</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36" s="5">
         <v>992.41200000000003</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="Q36" s="5">
         <v>287.56</v>
       </c>
-      <c r="R36" s="4">
+      <c r="R36" s="5">
         <v>240.161</v>
       </c>
-      <c r="S36" s="4">
+      <c r="S36" s="5">
         <v>344.63799999999998</v>
       </c>
-      <c r="T36" s="4">
+      <c r="T36" s="5">
         <v>141.90100000000001</v>
       </c>
-      <c r="U36" s="4">
+      <c r="U36" s="5">
         <v>63.239999999999995</v>
       </c>
-      <c r="V36" s="4">
+      <c r="V36" s="5">
         <v>59.76</v>
       </c>
-      <c r="W36" s="4">
+      <c r="W36" s="5">
         <v>56.06</v>
       </c>
-      <c r="X36" s="4">
+      <c r="X36" s="5">
         <v>128.63</v>
       </c>
-      <c r="Y36" s="4">
+      <c r="Y36" s="5">
         <v>157.9</v>
       </c>
-      <c r="Z36" s="4">
+      <c r="Z36" s="5">
         <v>78.968000000000004</v>
       </c>
     </row>
@@ -3372,76 +3376,76 @@
       <c r="B37" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <v>367.50900000000001</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="5">
         <v>453.80099999999999</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <v>79.992999999999995</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <v>61.153999999999996</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="5">
         <v>0</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="5">
         <v>459.17699999999996</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="5">
         <v>84.644999999999996</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="5">
         <v>125.29499999999999</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="5">
         <v>451.25600000000009</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="5">
         <v>216.45400000000001</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="5">
         <v>91.15</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="5">
         <v>83.24</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="5">
         <v>363.14300000000003</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="5">
         <v>329.57799999999992</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="5">
         <v>156.17500000000001</v>
       </c>
-      <c r="R37" s="4">
+      <c r="R37" s="5">
         <v>203.51900000000001</v>
       </c>
-      <c r="S37" s="4">
+      <c r="S37" s="5">
         <v>140.81800000000001</v>
       </c>
-      <c r="T37" s="4">
+      <c r="T37" s="5">
         <v>103.423</v>
       </c>
-      <c r="U37" s="4">
+      <c r="U37" s="5">
         <v>126.5</v>
       </c>
-      <c r="V37" s="4">
+      <c r="V37" s="5">
         <v>28.950000000000003</v>
       </c>
-      <c r="W37" s="4">
+      <c r="W37" s="5">
         <v>28.1</v>
       </c>
-      <c r="X37" s="4">
+      <c r="X37" s="5">
         <v>198.83500000000001</v>
       </c>
-      <c r="Y37" s="4">
+      <c r="Y37" s="5">
         <v>0</v>
       </c>
-      <c r="Z37" s="4">
+      <c r="Z37" s="5">
         <v>46.140999999999998</v>
       </c>
     </row>
@@ -3452,76 +3456,76 @@
       <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <v>796.4369999999999</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <v>836.17599999999993</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <v>548.96699999999998</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <v>274.82299999999998</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="5">
         <v>291.27499999999998</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="5">
         <v>657.84900000000005</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="5">
         <v>490.37000000000006</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="5">
         <v>143.18900000000002</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="5">
         <v>154.89499999999998</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="5">
         <v>193.18</v>
       </c>
-      <c r="M38" s="4">
+      <c r="M38" s="5">
         <v>246.48700000000002</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="5">
         <v>199.86599999999999</v>
       </c>
-      <c r="O38" s="4">
+      <c r="O38" s="5">
         <v>491.80999999999989</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="5">
         <v>784.21800000000007</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q38" s="5">
         <v>644.95699999999999</v>
       </c>
-      <c r="R38" s="4">
+      <c r="R38" s="5">
         <v>229.74</v>
       </c>
-      <c r="S38" s="4">
+      <c r="S38" s="5">
         <v>151.68699999999998</v>
       </c>
-      <c r="T38" s="4">
+      <c r="T38" s="5">
         <v>228.934</v>
       </c>
-      <c r="U38" s="4">
+      <c r="U38" s="5">
         <v>54.415999999999997</v>
       </c>
-      <c r="V38" s="4">
+      <c r="V38" s="5">
         <v>41.129999999999995</v>
       </c>
-      <c r="W38" s="4">
+      <c r="W38" s="5">
         <v>55.78</v>
       </c>
-      <c r="X38" s="4">
+      <c r="X38" s="5">
         <v>11.86</v>
       </c>
-      <c r="Y38" s="4">
+      <c r="Y38" s="5">
         <v>28.76</v>
       </c>
-      <c r="Z38" s="4">
+      <c r="Z38" s="5">
         <v>5</v>
       </c>
     </row>
@@ -3532,76 +3536,76 @@
       <c r="B39" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="5">
         <v>413.57799999999997</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <v>260.82399999999996</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="5">
         <v>95.597999999999999</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <v>77.545000000000002</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <v>108.92099999999999</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="5">
         <v>316.90700000000004</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="5">
         <v>174.06300000000002</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="5">
         <v>146.06800000000001</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="5">
         <v>388.51499999999999</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="5">
         <v>269.66399999999999</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M39" s="5">
         <v>446.11</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="5">
         <v>199.06900000000002</v>
       </c>
-      <c r="O39" s="4">
+      <c r="O39" s="5">
         <v>172.42700000000002</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="5">
         <v>668.21599999999989</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q39" s="5">
         <v>113.45099999999999</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R39" s="5">
         <v>302.27699999999999</v>
       </c>
-      <c r="S39" s="4">
+      <c r="S39" s="5">
         <v>62.827999999999996</v>
       </c>
-      <c r="T39" s="4">
+      <c r="T39" s="5">
         <v>0</v>
       </c>
-      <c r="U39" s="4">
+      <c r="U39" s="5">
         <v>73.784999999999997</v>
       </c>
-      <c r="V39" s="4">
+      <c r="V39" s="5">
         <v>66.522999999999996</v>
       </c>
-      <c r="W39" s="4">
+      <c r="W39" s="5">
         <v>17.355</v>
       </c>
-      <c r="X39" s="4">
+      <c r="X39" s="5">
         <v>142.36099999999999</v>
       </c>
-      <c r="Y39" s="4">
+      <c r="Y39" s="5">
         <v>100.97</v>
       </c>
-      <c r="Z39" s="4">
+      <c r="Z39" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3612,76 +3616,76 @@
       <c r="B40" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="5">
         <v>914.76099999999974</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="5">
         <v>1042.6110000000001</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="5">
         <v>573.33199999999999</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <v>339.06399999999996</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="5">
         <v>369.94</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="5">
         <v>652.06099999999992</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="5">
         <v>580.29800000000012</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="5">
         <v>286.28199999999998</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="5">
         <v>240.26400000000001</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="5">
         <v>156.98300000000003</v>
       </c>
-      <c r="M40" s="4">
+      <c r="M40" s="5">
         <v>298.23400000000004</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="5">
         <v>272.48699999999997</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="5">
         <v>630.61799999999994</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="5">
         <v>1107.7429999999999</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q40" s="5">
         <v>439.59199999999998</v>
       </c>
-      <c r="R40" s="4">
+      <c r="R40" s="5">
         <v>333.20400000000001</v>
       </c>
-      <c r="S40" s="4">
+      <c r="S40" s="5">
         <v>336.74300000000005</v>
       </c>
-      <c r="T40" s="4">
+      <c r="T40" s="5">
         <v>213.65800000000002</v>
       </c>
-      <c r="U40" s="4">
+      <c r="U40" s="5">
         <v>122.053</v>
       </c>
-      <c r="V40" s="4">
+      <c r="V40" s="5">
         <v>71.11</v>
       </c>
-      <c r="W40" s="4">
+      <c r="W40" s="5">
         <v>132.85900000000001</v>
       </c>
-      <c r="X40" s="4">
+      <c r="X40" s="5">
         <v>95.12</v>
       </c>
-      <c r="Y40" s="4">
+      <c r="Y40" s="5">
         <v>186.90499999999997</v>
       </c>
-      <c r="Z40" s="4">
+      <c r="Z40" s="5">
         <v>32.133000000000003</v>
       </c>
     </row>
@@ -3692,76 +3696,76 @@
       <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="5">
         <v>282.63799999999998</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
         <v>659.89499999999998</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="5">
         <v>25.530999999999999</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <v>16.452999999999999</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="5">
         <v>196.101</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="5">
         <v>132.99599999999998</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="5">
         <v>128.49199999999999</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="5">
         <v>137.96099999999998</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="5">
         <v>266.39</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="5">
         <v>373.78200000000004</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41" s="5">
         <v>103.374</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="5">
         <v>199.637</v>
       </c>
-      <c r="O41" s="4">
+      <c r="O41" s="5">
         <v>570.13699999999994</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="5">
         <v>439.78399999999999</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q41" s="5">
         <v>266.89800000000002</v>
       </c>
-      <c r="R41" s="4">
+      <c r="R41" s="5">
         <v>110.35300000000001</v>
       </c>
-      <c r="S41" s="4">
+      <c r="S41" s="5">
         <v>138.774</v>
       </c>
-      <c r="T41" s="4">
+      <c r="T41" s="5">
         <v>108.268</v>
       </c>
-      <c r="U41" s="4">
+      <c r="U41" s="5">
         <v>92.300000000000011</v>
       </c>
-      <c r="V41" s="4">
+      <c r="V41" s="5">
         <v>45.991999999999997</v>
       </c>
-      <c r="W41" s="4">
+      <c r="W41" s="5">
         <v>64.691000000000003</v>
       </c>
-      <c r="X41" s="4">
+      <c r="X41" s="5">
         <v>0</v>
       </c>
-      <c r="Y41" s="4">
+      <c r="Y41" s="5">
         <v>94.896000000000001</v>
       </c>
-      <c r="Z41" s="4">
+      <c r="Z41" s="5">
         <v>40.789000000000001</v>
       </c>
     </row>
@@ -3772,76 +3776,76 @@
       <c r="B42" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="5">
         <v>952.65699999999993</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <v>944.98500000000013</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="5">
         <v>723.66399999999987</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <v>564.59400000000005</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="5">
         <v>409.34599999999995</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="5">
         <v>696.08399999999995</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="5">
         <v>461.81000000000006</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="5">
         <v>245.417</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="5">
         <v>98.213999999999999</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="5">
         <v>248.38</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="5">
         <v>172.51</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="5">
         <v>218.69</v>
       </c>
-      <c r="O42" s="4">
+      <c r="O42" s="5">
         <v>637.85300000000007</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="5">
         <v>947.88300000000015</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="Q42" s="5">
         <v>358.78299999999996</v>
       </c>
-      <c r="R42" s="4">
+      <c r="R42" s="5">
         <v>306.72699999999998</v>
       </c>
-      <c r="S42" s="4">
+      <c r="S42" s="5">
         <v>425.13399999999996</v>
       </c>
-      <c r="T42" s="4">
+      <c r="T42" s="5">
         <v>52.912999999999997</v>
       </c>
-      <c r="U42" s="4">
+      <c r="U42" s="5">
         <v>137.6</v>
       </c>
-      <c r="V42" s="4">
+      <c r="V42" s="5">
         <v>49.84</v>
       </c>
-      <c r="W42" s="4">
+      <c r="W42" s="5">
         <v>48.96</v>
       </c>
-      <c r="X42" s="4">
+      <c r="X42" s="5">
         <v>0</v>
       </c>
-      <c r="Y42" s="4">
+      <c r="Y42" s="5">
         <v>74.539999999999992</v>
       </c>
-      <c r="Z42" s="4">
+      <c r="Z42" s="5">
         <v>118.84</v>
       </c>
     </row>
@@ -3852,76 +3856,76 @@
       <c r="B43" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="5">
         <v>201.285</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="5">
         <v>489.41699999999997</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="5">
         <v>235.642</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <v>111.637</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="5">
         <v>3.125</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="5">
         <v>176.142</v>
       </c>
-      <c r="I43" s="4">
+      <c r="I43" s="5">
         <v>244.78899999999999</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="5">
         <v>159.35199999999998</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="5">
         <v>192.18900000000002</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="5">
         <v>135.40100000000001</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43" s="5">
         <v>192.58699999999999</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="5">
         <v>50.883000000000003</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="5">
         <v>362.56400000000002</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="5">
         <v>417.00599999999997</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q43" s="5">
         <v>415.78499999999997</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R43" s="5">
         <v>170.114</v>
       </c>
-      <c r="S43" s="4">
+      <c r="S43" s="5">
         <v>334.89600000000007</v>
       </c>
-      <c r="T43" s="4">
+      <c r="T43" s="5">
         <v>203.22800000000001</v>
       </c>
-      <c r="U43" s="4">
+      <c r="U43" s="5">
         <v>48.550000000000004</v>
       </c>
-      <c r="V43" s="4">
+      <c r="V43" s="5">
         <v>27.280999999999999</v>
       </c>
-      <c r="W43" s="4">
+      <c r="W43" s="5">
         <v>39.438000000000002</v>
       </c>
-      <c r="X43" s="4">
+      <c r="X43" s="5">
         <v>0</v>
       </c>
-      <c r="Y43" s="4">
+      <c r="Y43" s="5">
         <v>38.055</v>
       </c>
-      <c r="Z43" s="4">
+      <c r="Z43" s="5">
         <v>23.070999999999998</v>
       </c>
     </row>
@@ -3932,76 +3936,76 @@
       <c r="B44" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="5">
         <v>706.04700000000003</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="5">
         <v>978.74</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="5">
         <v>294.42</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <v>403.77899999999994</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="5">
         <v>430.42899999999997</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="5">
         <v>714.27600000000007</v>
       </c>
-      <c r="I44" s="4">
+      <c r="I44" s="5">
         <v>433.26799999999997</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="5">
         <v>203.529</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="5">
         <v>98.195999999999998</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="5">
         <v>240.01000000000002</v>
       </c>
-      <c r="M44" s="4">
+      <c r="M44" s="5">
         <v>158.898</v>
       </c>
-      <c r="N44" s="4">
+      <c r="N44" s="5">
         <v>227.93000000000004</v>
       </c>
-      <c r="O44" s="4">
+      <c r="O44" s="5">
         <v>822.86599999999999</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44" s="5">
         <v>790.33599999999979</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="Q44" s="5">
         <v>427.00600000000003</v>
       </c>
-      <c r="R44" s="4">
+      <c r="R44" s="5">
         <v>168.60400000000001</v>
       </c>
-      <c r="S44" s="4">
+      <c r="S44" s="5">
         <v>308.65699999999998</v>
       </c>
-      <c r="T44" s="4">
+      <c r="T44" s="5">
         <v>193.88999999999996</v>
       </c>
-      <c r="U44" s="4">
+      <c r="U44" s="5">
         <v>140.02800000000002</v>
       </c>
-      <c r="V44" s="4">
+      <c r="V44" s="5">
         <v>116.545</v>
       </c>
-      <c r="W44" s="4">
+      <c r="W44" s="5">
         <v>85.38</v>
       </c>
-      <c r="X44" s="4">
+      <c r="X44" s="5">
         <v>14.32</v>
       </c>
-      <c r="Y44" s="4">
+      <c r="Y44" s="5">
         <v>82</v>
       </c>
-      <c r="Z44" s="4">
+      <c r="Z44" s="5">
         <v>49.8</v>
       </c>
     </row>
@@ -4012,76 +4016,76 @@
       <c r="B45" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="5">
         <v>328.85700000000003</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <v>440.39000000000004</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="5">
         <v>130.16500000000002</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
         <v>152.172</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="5">
         <v>68.335999999999999</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="5">
         <v>161.024</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="5">
         <v>94.902999999999992</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="5">
         <v>148.65900000000002</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="5">
         <v>167.18400000000003</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="5">
         <v>109.316</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M45" s="5">
         <v>143.67299999999997</v>
       </c>
-      <c r="N45" s="4">
+      <c r="N45" s="5">
         <v>204.21800000000002</v>
       </c>
-      <c r="O45" s="4">
+      <c r="O45" s="5">
         <v>253.06200000000001</v>
       </c>
-      <c r="P45" s="4">
+      <c r="P45" s="5">
         <v>457.21399999999994</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="Q45" s="5">
         <v>314.67600000000004</v>
       </c>
-      <c r="R45" s="4">
+      <c r="R45" s="5">
         <v>190.21599999999998</v>
       </c>
-      <c r="S45" s="4">
+      <c r="S45" s="5">
         <v>183.74099999999999</v>
       </c>
-      <c r="T45" s="4">
+      <c r="T45" s="5">
         <v>107.377</v>
       </c>
-      <c r="U45" s="4">
+      <c r="U45" s="5">
         <v>61.265999999999998</v>
       </c>
-      <c r="V45" s="4">
+      <c r="V45" s="5">
         <v>130.98500000000001</v>
       </c>
-      <c r="W45" s="4">
+      <c r="W45" s="5">
         <v>56.663000000000004</v>
       </c>
-      <c r="X45" s="4">
+      <c r="X45" s="5">
         <v>63.766000000000005</v>
       </c>
-      <c r="Y45" s="4">
+      <c r="Y45" s="5">
         <v>0</v>
       </c>
-      <c r="Z45" s="4">
+      <c r="Z45" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4092,76 +4096,76 @@
       <c r="B46" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="5">
         <v>729.01400000000012</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>868.27499999999998</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="5">
         <v>299.40499999999997</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <v>415.47599999999994</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="5">
         <v>456.47500000000002</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="5">
         <v>556.24600000000009</v>
       </c>
-      <c r="I46" s="4">
+      <c r="I46" s="5">
         <v>379.642</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="5">
         <v>314.03399999999999</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="5">
         <v>124.30399999999999</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="5">
         <v>198.797</v>
       </c>
-      <c r="M46" s="4">
+      <c r="M46" s="5">
         <v>98.253999999999991</v>
       </c>
-      <c r="N46" s="4">
+      <c r="N46" s="5">
         <v>210.50300000000001</v>
       </c>
-      <c r="O46" s="4">
+      <c r="O46" s="5">
         <v>848.04099999999983</v>
       </c>
-      <c r="P46" s="4">
+      <c r="P46" s="5">
         <v>1226.713</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="Q46" s="5">
         <v>581</v>
       </c>
-      <c r="R46" s="4">
+      <c r="R46" s="5">
         <v>264.26400000000001</v>
       </c>
-      <c r="S46" s="4">
+      <c r="S46" s="5">
         <v>274.46200000000005</v>
       </c>
-      <c r="T46" s="4">
+      <c r="T46" s="5">
         <v>227.07000000000002</v>
       </c>
-      <c r="U46" s="4">
+      <c r="U46" s="5">
         <v>114.61199999999999</v>
       </c>
-      <c r="V46" s="4">
+      <c r="V46" s="5">
         <v>125.77600000000001</v>
       </c>
-      <c r="W46" s="4">
+      <c r="W46" s="5">
         <v>60.397999999999996</v>
       </c>
-      <c r="X46" s="4">
+      <c r="X46" s="5">
         <v>0</v>
       </c>
-      <c r="Y46" s="4">
+      <c r="Y46" s="5">
         <v>105.52000000000001</v>
       </c>
-      <c r="Z46" s="4">
+      <c r="Z46" s="5">
         <v>28.82</v>
       </c>
     </row>
@@ -4172,76 +4176,76 @@
       <c r="B47" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="5">
         <v>451.59499999999997</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <v>457.71999999999997</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="5">
         <v>197.80200000000002</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <v>0</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="5">
         <v>116.902</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="5">
         <v>93.938000000000002</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="5">
         <v>289.03699999999998</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="5">
         <v>126.89400000000002</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="5">
         <v>208.262</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="5">
         <v>171.23699999999999</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="5">
         <v>174.00699999999998</v>
       </c>
-      <c r="N47" s="4">
+      <c r="N47" s="5">
         <v>456.988</v>
       </c>
-      <c r="O47" s="4">
+      <c r="O47" s="5">
         <v>519.91300000000001</v>
       </c>
-      <c r="P47" s="4">
+      <c r="P47" s="5">
         <v>806.79899999999986</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="Q47" s="5">
         <v>392.25399999999991</v>
       </c>
-      <c r="R47" s="4">
+      <c r="R47" s="5">
         <v>293.38600000000002</v>
       </c>
-      <c r="S47" s="4">
+      <c r="S47" s="5">
         <v>98.687000000000012</v>
       </c>
-      <c r="T47" s="4">
+      <c r="T47" s="5">
         <v>83.52000000000001</v>
       </c>
-      <c r="U47" s="4">
+      <c r="U47" s="5">
         <v>9.8710000000000004</v>
       </c>
-      <c r="V47" s="4">
+      <c r="V47" s="5">
         <v>79.925000000000011</v>
       </c>
-      <c r="W47" s="4">
+      <c r="W47" s="5">
         <v>64.579000000000008</v>
       </c>
-      <c r="X47" s="4">
+      <c r="X47" s="5">
         <v>33.546999999999997</v>
       </c>
-      <c r="Y47" s="4">
+      <c r="Y47" s="5">
         <v>44.132000000000005</v>
       </c>
-      <c r="Z47" s="4">
+      <c r="Z47" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4252,76 +4256,76 @@
       <c r="B48" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="5">
         <v>624.79200000000014</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="5">
         <v>1097.6999999999998</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="5">
         <v>526.38099999999997</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <v>284.34699999999998</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="5">
         <v>410.97399999999993</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="5">
         <v>488.99800000000005</v>
       </c>
-      <c r="I48" s="4">
+      <c r="I48" s="5">
         <v>328.00600000000009</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="5">
         <v>184.3</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="5">
         <v>140.94</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="5">
         <v>67.25</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48" s="5">
         <v>188.095</v>
       </c>
-      <c r="N48" s="4">
+      <c r="N48" s="5">
         <v>329.48999999999995</v>
       </c>
-      <c r="O48" s="4">
+      <c r="O48" s="5">
         <v>840.8810000000002</v>
       </c>
-      <c r="P48" s="4">
+      <c r="P48" s="5">
         <v>893.65399999999977</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q48" s="5">
         <v>604.81700000000023</v>
       </c>
-      <c r="R48" s="4">
+      <c r="R48" s="5">
         <v>308.77999999999997</v>
       </c>
-      <c r="S48" s="4">
+      <c r="S48" s="5">
         <v>189.21599999999998</v>
       </c>
-      <c r="T48" s="4">
+      <c r="T48" s="5">
         <v>81.355999999999995</v>
       </c>
-      <c r="U48" s="4">
+      <c r="U48" s="5">
         <v>46.953999999999994</v>
       </c>
-      <c r="V48" s="4">
+      <c r="V48" s="5">
         <v>39.5</v>
       </c>
-      <c r="W48" s="4">
+      <c r="W48" s="5">
         <v>159.74</v>
       </c>
-      <c r="X48" s="4">
+      <c r="X48" s="5">
         <v>111.69999999999999</v>
       </c>
-      <c r="Y48" s="4">
+      <c r="Y48" s="5">
         <v>23.91</v>
       </c>
-      <c r="Z48" s="4">
+      <c r="Z48" s="5">
         <v>40.929000000000002</v>
       </c>
     </row>
@@ -4332,76 +4336,76 @@
       <c r="B49" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="5">
         <v>268.88199999999995</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="5">
         <v>334.43999999999994</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="5">
         <v>297.375</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="5">
         <v>115.78999999999999</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="5">
         <v>0</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="5">
         <v>117.78100000000001</v>
       </c>
-      <c r="I49" s="4">
+      <c r="I49" s="5">
         <v>134.65699999999998</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="5">
         <v>259.53399999999999</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="5">
         <v>380.65500000000003</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="5">
         <v>156.37300000000002</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M49" s="5">
         <v>137.85499999999999</v>
       </c>
-      <c r="N49" s="4">
+      <c r="N49" s="5">
         <v>94.483999999999995</v>
       </c>
-      <c r="O49" s="4">
+      <c r="O49" s="5">
         <v>360.89700000000005</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P49" s="5">
         <v>537.86899999999991</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="Q49" s="5">
         <v>313.95</v>
       </c>
-      <c r="R49" s="4">
+      <c r="R49" s="5">
         <v>219.8</v>
       </c>
-      <c r="S49" s="4">
+      <c r="S49" s="5">
         <v>57.268000000000001</v>
       </c>
-      <c r="T49" s="4">
+      <c r="T49" s="5">
         <v>113.47500000000001</v>
       </c>
-      <c r="U49" s="4">
+      <c r="U49" s="5">
         <v>49.128999999999998</v>
       </c>
-      <c r="V49" s="4">
+      <c r="V49" s="5">
         <v>43.96</v>
       </c>
-      <c r="W49" s="4">
+      <c r="W49" s="5">
         <v>0</v>
       </c>
-      <c r="X49" s="4">
+      <c r="X49" s="5">
         <v>42.101999999999997</v>
       </c>
-      <c r="Y49" s="4">
+      <c r="Y49" s="5">
         <v>8.3610000000000007</v>
       </c>
-      <c r="Z49" s="4">
+      <c r="Z49" s="5">
         <v>15.414</v>
       </c>
     </row>
@@ -4412,76 +4416,76 @@
       <c r="B50" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="5">
         <v>748.15800000000013</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="5">
         <v>940.00300000000004</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="5">
         <v>549.24299999999994</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="5">
         <v>351.4</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="5">
         <v>388.178</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="5">
         <v>739.92400000000009</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I50" s="5">
         <v>327.21800000000002</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="5">
         <v>210.25300000000001</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="5">
         <v>102.57900000000001</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="5">
         <v>191.24799999999999</v>
       </c>
-      <c r="M50" s="4">
+      <c r="M50" s="5">
         <v>125.72200000000001</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="5">
         <v>76.849999999999994</v>
       </c>
-      <c r="O50" s="4">
+      <c r="O50" s="5">
         <v>756.10399999999981</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="5">
         <v>979.14800000000025</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50" s="5">
         <v>651.28099999999995</v>
       </c>
-      <c r="R50" s="4">
+      <c r="R50" s="5">
         <v>294.93399999999997</v>
       </c>
-      <c r="S50" s="4">
+      <c r="S50" s="5">
         <v>158.548</v>
       </c>
-      <c r="T50" s="4">
+      <c r="T50" s="5">
         <v>153.25</v>
       </c>
-      <c r="U50" s="4">
+      <c r="U50" s="5">
         <v>124.499</v>
       </c>
-      <c r="V50" s="4">
+      <c r="V50" s="5">
         <v>180.88499999999999</v>
       </c>
-      <c r="W50" s="4">
+      <c r="W50" s="5">
         <v>180.39</v>
       </c>
-      <c r="X50" s="4">
+      <c r="X50" s="5">
         <v>95.990000000000009</v>
       </c>
-      <c r="Y50" s="4">
+      <c r="Y50" s="5">
         <v>0</v>
       </c>
-      <c r="Z50" s="4">
+      <c r="Z50" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4492,76 +4496,76 @@
       <c r="B51" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="5">
         <v>270.5</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="5">
         <v>441.47199999999998</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="5">
         <v>100.563</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="5">
         <v>37.625</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="5">
         <v>107.09</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="5">
         <v>185.76599999999999</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="5">
         <v>351.68099999999998</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="5">
         <v>139.465</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="5">
         <v>218.631</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="5">
         <v>133.52600000000001</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M51" s="5">
         <v>170.80699999999999</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="5">
         <v>256.36399999999998</v>
       </c>
-      <c r="O51" s="4">
+      <c r="O51" s="5">
         <v>484.25299999999993</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="5">
         <v>293.84399999999999</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="Q51" s="5">
         <v>182.20599999999999</v>
       </c>
-      <c r="R51" s="4">
+      <c r="R51" s="5">
         <v>340.21399999999994</v>
       </c>
-      <c r="S51" s="4">
+      <c r="S51" s="5">
         <v>296.93700000000001</v>
       </c>
-      <c r="T51" s="4">
+      <c r="T51" s="5">
         <v>70.621000000000009</v>
       </c>
-      <c r="U51" s="4">
+      <c r="U51" s="5">
         <v>128.12100000000001</v>
       </c>
-      <c r="V51" s="4">
+      <c r="V51" s="5">
         <v>147.05500000000001</v>
       </c>
-      <c r="W51" s="4">
+      <c r="W51" s="5">
         <v>38.585999999999999</v>
       </c>
-      <c r="X51" s="4">
+      <c r="X51" s="5">
         <v>0</v>
       </c>
-      <c r="Y51" s="4">
+      <c r="Y51" s="5">
         <v>0</v>
       </c>
-      <c r="Z51" s="4">
+      <c r="Z51" s="5">
         <v>58.469000000000001</v>
       </c>
     </row>
@@ -4572,76 +4576,76 @@
       <c r="B52" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="5">
         <v>662.50800000000015</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="5">
         <v>1191.104</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="5">
         <v>354.67700000000002</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="5">
         <v>531.69899999999996</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="5">
         <v>367.37600000000003</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="5">
         <v>795.5870000000001</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="5">
         <v>468.65300000000002</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="5">
         <v>208.81200000000001</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="5">
         <v>93.199999999999989</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="5">
         <v>311.71899999999999</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52" s="5">
         <v>147.24900000000002</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="5">
         <v>188.32300000000001</v>
       </c>
-      <c r="O52" s="4">
+      <c r="O52" s="5">
         <v>571.15900000000011</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="5">
         <v>1134.703</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="Q52" s="5">
         <v>358.64400000000001</v>
       </c>
-      <c r="R52" s="4">
+      <c r="R52" s="5">
         <v>441.21100000000007</v>
       </c>
-      <c r="S52" s="4">
+      <c r="S52" s="5">
         <v>217.81900000000002</v>
       </c>
-      <c r="T52" s="4">
+      <c r="T52" s="5">
         <v>181.90899999999999</v>
       </c>
-      <c r="U52" s="4">
+      <c r="U52" s="5">
         <v>168.417</v>
       </c>
-      <c r="V52" s="4">
+      <c r="V52" s="5">
         <v>70</v>
       </c>
-      <c r="W52" s="4">
+      <c r="W52" s="5">
         <v>89.754999999999995</v>
       </c>
-      <c r="X52" s="4">
+      <c r="X52" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y52" s="4">
+      <c r="Y52" s="5">
         <v>108.33</v>
       </c>
-      <c r="Z52" s="4">
+      <c r="Z52" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4652,76 +4656,76 @@
       <c r="B53" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="5">
         <v>234.22900000000001</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="5">
         <v>404.65100000000007</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="5">
         <v>0</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="5">
         <v>27.227</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="5">
         <v>4.9290000000000003</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="5">
         <v>149.34399999999997</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="5">
         <v>301.42500000000007</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="5">
         <v>196.98099999999999</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="5">
         <v>179.54</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="5">
         <v>194.93900000000002</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="5">
         <v>67.661000000000001</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="5">
         <v>31.058999999999997</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="5">
         <v>503.18600000000004</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="5">
         <v>635.75</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="Q53" s="5">
         <v>145.81799999999998</v>
       </c>
-      <c r="R53" s="4">
+      <c r="R53" s="5">
         <v>148.726</v>
       </c>
-      <c r="S53" s="4">
+      <c r="S53" s="5">
         <v>73.664000000000001</v>
       </c>
-      <c r="T53" s="4">
+      <c r="T53" s="5">
         <v>138.06300000000002</v>
       </c>
-      <c r="U53" s="4">
+      <c r="U53" s="5">
         <v>56.284999999999997</v>
       </c>
-      <c r="V53" s="4">
+      <c r="V53" s="5">
         <v>10.811</v>
       </c>
-      <c r="W53" s="4">
+      <c r="W53" s="5">
         <v>56.838000000000001</v>
       </c>
-      <c r="X53" s="4">
+      <c r="X53" s="5">
         <v>63.162999999999997</v>
       </c>
-      <c r="Y53" s="4">
+      <c r="Y53" s="5">
         <v>19.667999999999999</v>
       </c>
-      <c r="Z53" s="4">
+      <c r="Z53" s="5">
         <v>42.03</v>
       </c>
     </row>
@@ -4732,76 +4736,76 @@
       <c r="B54" t="s">
         <v>26</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5">
         <v>770.45399999999984</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="5">
         <v>1074.317</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="5">
         <v>458.66000000000008</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="5">
         <v>710.23699999999997</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="5">
         <v>391.58699999999993</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="5">
         <v>683.07500000000005</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="5">
         <v>434.56100000000009</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="5">
         <v>213.12</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="5">
         <v>301.85500000000002</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="5">
         <v>229.68</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="5">
         <v>247.38400000000001</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="5">
         <v>69.656000000000006</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="5">
         <v>864.14400000000023</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="5">
         <v>952.14699999999993</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="5">
         <v>465.35699999999997</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="5">
         <v>386.322</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="5">
         <v>390.822</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="5">
         <v>172.47899999999998</v>
       </c>
-      <c r="U54">
+      <c r="U54" s="5">
         <v>149.07</v>
       </c>
-      <c r="V54">
+      <c r="V54" s="5">
         <v>53.460000000000008</v>
       </c>
-      <c r="W54">
+      <c r="W54" s="5">
         <v>309.45999999999998</v>
       </c>
-      <c r="X54">
+      <c r="X54" s="5">
         <v>75.671999999999997</v>
       </c>
-      <c r="Y54">
+      <c r="Y54" s="5">
         <v>238.70000000000002</v>
       </c>
-      <c r="Z54">
+      <c r="Z54" s="5">
         <v>47.25</v>
       </c>
     </row>
@@ -4812,76 +4816,76 @@
       <c r="B55" t="s">
         <v>27</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="5">
         <v>306.58899999999994</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="5">
         <v>332.67</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="5">
         <v>221.01899999999998</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="5">
         <v>117.91999999999999</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="5">
         <v>0</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="5">
         <v>171.62</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="5">
         <v>153.208</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="5">
         <v>141.57999999999998</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="5">
         <v>290.202</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="5">
         <v>284.27300000000002</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="5">
         <v>207.22900000000001</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="5">
         <v>164.00799999999998</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="5">
         <v>230.99400000000003</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="5">
         <v>276.983</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="5">
         <v>278.98599999999999</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="5">
         <v>215.41200000000001</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="5">
         <v>217.76799999999997</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="5">
         <v>182.55</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="5">
         <v>51.75</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="5">
         <v>55.25</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="5">
         <v>50.36</v>
       </c>
-      <c r="X55">
+      <c r="X55" s="5">
         <v>43.875</v>
       </c>
-      <c r="Y55">
+      <c r="Y55" s="5">
         <v>72.350000000000009</v>
       </c>
-      <c r="Z55">
+      <c r="Z55" s="5">
         <v>82.106999999999999</v>
       </c>
     </row>
@@ -4892,76 +4896,76 @@
       <c r="B56" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="5">
         <v>833.23699999999997</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="5">
         <v>911.19700000000023</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="5">
         <v>534.726</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="5">
         <v>426.75</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="5">
         <v>227.999</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="5">
         <v>639.88800000000015</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="5">
         <v>437.94</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="5">
         <v>187.88300000000004</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="5">
         <v>132.74799999999999</v>
       </c>
-      <c r="L56" s="4">
+      <c r="L56" s="5">
         <v>254.53000000000003</v>
       </c>
-      <c r="M56" s="4">
+      <c r="M56" s="5">
         <v>123.41999999999999</v>
       </c>
-      <c r="N56" s="4">
+      <c r="N56" s="5">
         <v>179.68700000000001</v>
       </c>
-      <c r="O56" s="4">
+      <c r="O56" s="5">
         <v>575.58800000000019</v>
       </c>
-      <c r="P56" s="4">
+      <c r="P56" s="5">
         <v>1449.7339999999992</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="Q56" s="5">
         <v>396.62599999999998</v>
       </c>
-      <c r="R56" s="4">
+      <c r="R56" s="5">
         <v>357.48900000000003</v>
       </c>
-      <c r="S56" s="4">
+      <c r="S56" s="5">
         <v>305.55799999999999</v>
       </c>
-      <c r="T56" s="4">
+      <c r="T56" s="5">
         <v>290.072</v>
       </c>
-      <c r="U56" s="4">
+      <c r="U56" s="5">
         <v>171.59099999999998</v>
       </c>
-      <c r="V56" s="4">
+      <c r="V56" s="5">
         <v>141.47599999999997</v>
       </c>
-      <c r="W56" s="4">
+      <c r="W56" s="5">
         <v>60.64</v>
       </c>
-      <c r="X56" s="4">
+      <c r="X56" s="5">
         <v>191.029</v>
       </c>
-      <c r="Y56" s="4">
+      <c r="Y56" s="5">
         <v>170.19</v>
       </c>
-      <c r="Z56" s="4">
+      <c r="Z56" s="5">
         <v>85.036000000000001</v>
       </c>
     </row>
@@ -4972,77 +4976,237 @@
       <c r="B57" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="5">
         <v>653.05199999999991</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="5">
         <v>590.49400000000003</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="5">
         <v>310.74300000000005</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="5">
         <v>25.172000000000001</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="5">
         <v>87.162999999999997</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="5">
         <v>209.50799999999998</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="5">
         <v>104.65199999999999</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="5">
         <v>298.06700000000001</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="5">
         <v>342.60500000000002</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="5">
         <v>199.321</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57" s="5">
         <v>102.791</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N57" s="5">
         <v>163.52699999999999</v>
       </c>
-      <c r="O57" s="4">
+      <c r="O57" s="5">
         <v>315.39200000000005</v>
       </c>
-      <c r="P57" s="4">
+      <c r="P57" s="5">
         <v>667.99399999999991</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57" s="5">
         <v>171.29500000000002</v>
       </c>
-      <c r="R57" s="4">
+      <c r="R57" s="5">
         <v>451.23099999999994</v>
       </c>
-      <c r="S57" s="4">
+      <c r="S57" s="5">
         <v>478.75299999999999</v>
       </c>
-      <c r="T57" s="4">
+      <c r="T57" s="5">
         <v>157.30799999999999</v>
       </c>
-      <c r="U57" s="4">
+      <c r="U57" s="5">
         <v>216.98599999999999</v>
       </c>
-      <c r="V57" s="4">
+      <c r="V57" s="5">
         <v>45.960999999999999</v>
       </c>
-      <c r="W57" s="4">
+      <c r="W57" s="5">
         <v>100.70899999999999</v>
       </c>
-      <c r="X57" s="4">
+      <c r="X57" s="5">
         <v>36.061999999999998</v>
       </c>
-      <c r="Y57" s="4">
+      <c r="Y57" s="5">
         <v>142.423</v>
       </c>
-      <c r="Z57" s="4">
+      <c r="Z57" s="5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>45929</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="5">
+        <v>675.29900000000009</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1135.3129999999999</v>
+      </c>
+      <c r="E58" s="5">
+        <v>530.74</v>
+      </c>
+      <c r="F58" s="5">
+        <v>296.42200000000003</v>
+      </c>
+      <c r="G58" s="5">
+        <v>506.52</v>
+      </c>
+      <c r="H58" s="5">
+        <v>773.39699999999993</v>
+      </c>
+      <c r="I58" s="5">
+        <v>434.142</v>
+      </c>
+      <c r="J58" s="5">
+        <v>175.66399999999999</v>
+      </c>
+      <c r="K58" s="5">
+        <v>135.32</v>
+      </c>
+      <c r="L58" s="5">
+        <v>124.56</v>
+      </c>
+      <c r="M58" s="5">
+        <v>265.851</v>
+      </c>
+      <c r="N58" s="5">
+        <v>286.96699999999998</v>
+      </c>
+      <c r="O58" s="5">
+        <v>722.66199999999992</v>
+      </c>
+      <c r="P58" s="5">
+        <v>1237.2370000000001</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>569.9</v>
+      </c>
+      <c r="R58" s="5">
+        <v>255.57400000000001</v>
+      </c>
+      <c r="S58" s="5">
+        <v>298.21799999999996</v>
+      </c>
+      <c r="T58" s="5">
+        <v>157.57500000000002</v>
+      </c>
+      <c r="U58" s="5">
+        <v>123.009</v>
+      </c>
+      <c r="V58" s="5">
+        <v>105.88</v>
+      </c>
+      <c r="W58" s="5">
+        <v>87.460999999999999</v>
+      </c>
+      <c r="X58" s="5">
+        <v>111.69</v>
+      </c>
+      <c r="Y58" s="5">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Z58" s="5">
+        <v>124.51000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>45929</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="5">
+        <v>202.53899999999999</v>
+      </c>
+      <c r="D59" s="5">
+        <v>567.72399999999993</v>
+      </c>
+      <c r="E59" s="5">
+        <v>278.44599999999997</v>
+      </c>
+      <c r="F59" s="5">
+        <v>109.587</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
+        <v>394.68799999999999</v>
+      </c>
+      <c r="I59" s="5">
+        <v>242.80299999999997</v>
+      </c>
+      <c r="J59" s="5">
+        <v>253.59300000000005</v>
+      </c>
+      <c r="K59" s="5">
+        <v>108.48099999999999</v>
+      </c>
+      <c r="L59" s="5">
+        <v>250.96200000000002</v>
+      </c>
+      <c r="M59" s="5">
+        <v>199.459</v>
+      </c>
+      <c r="N59" s="5">
+        <v>165.80100000000002</v>
+      </c>
+      <c r="O59" s="5">
+        <v>537.71199999999988</v>
+      </c>
+      <c r="P59" s="5">
+        <v>435.58199999999999</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>232.80799999999999</v>
+      </c>
+      <c r="R59" s="5">
+        <v>149.98399999999998</v>
+      </c>
+      <c r="S59" s="5">
+        <v>173.221</v>
+      </c>
+      <c r="T59" s="5">
+        <v>150.745</v>
+      </c>
+      <c r="U59" s="5">
+        <v>217.32299999999998</v>
+      </c>
+      <c r="V59" s="5">
+        <v>60.613999999999997</v>
+      </c>
+      <c r="W59" s="5">
+        <v>31.921999999999997</v>
+      </c>
+      <c r="X59" s="5">
+        <v>136.21800000000002</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>43.75</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>5.484</v>
       </c>
     </row>
   </sheetData>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -112,9 +112,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -158,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,10 +168,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,10 +478,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5209,6 +5211,166 @@
         <v>5.484</v>
       </c>
     </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>45930</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="6">
+        <v>802.48400000000004</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1289.6679999999999</v>
+      </c>
+      <c r="E60" s="6">
+        <v>322.73</v>
+      </c>
+      <c r="F60" s="6">
+        <v>568.67400000000009</v>
+      </c>
+      <c r="G60" s="6">
+        <v>319.57599999999996</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1086.7180000000001</v>
+      </c>
+      <c r="I60" s="6">
+        <v>516.76400000000001</v>
+      </c>
+      <c r="J60" s="6">
+        <v>318.90299999999996</v>
+      </c>
+      <c r="K60" s="6">
+        <v>120.36499999999999</v>
+      </c>
+      <c r="L60" s="6">
+        <v>185.059</v>
+      </c>
+      <c r="M60" s="6">
+        <v>305.01</v>
+      </c>
+      <c r="N60" s="6">
+        <v>224.76100000000002</v>
+      </c>
+      <c r="O60" s="6">
+        <v>729.596</v>
+      </c>
+      <c r="P60" s="6">
+        <v>1496.3490000000002</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>576.20499999999993</v>
+      </c>
+      <c r="R60" s="6">
+        <v>535.8599999999999</v>
+      </c>
+      <c r="S60" s="6">
+        <v>423.15800000000002</v>
+      </c>
+      <c r="T60" s="6">
+        <v>325.97999999999996</v>
+      </c>
+      <c r="U60" s="6">
+        <v>139.9</v>
+      </c>
+      <c r="V60" s="6">
+        <v>253.36999999999998</v>
+      </c>
+      <c r="W60" s="6">
+        <v>224.85999999999996</v>
+      </c>
+      <c r="X60" s="6">
+        <v>72.738</v>
+      </c>
+      <c r="Y60" s="6">
+        <v>53.84</v>
+      </c>
+      <c r="Z60" s="6">
+        <v>86.343000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>45930</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="6">
+        <v>471.54399999999998</v>
+      </c>
+      <c r="D61" s="6">
+        <v>352.48</v>
+      </c>
+      <c r="E61" s="6">
+        <v>254.34899999999999</v>
+      </c>
+      <c r="F61" s="6">
+        <v>102.94499999999999</v>
+      </c>
+      <c r="G61" s="6">
+        <v>35.75</v>
+      </c>
+      <c r="H61" s="6">
+        <v>256.024</v>
+      </c>
+      <c r="I61" s="6">
+        <v>385.82400000000007</v>
+      </c>
+      <c r="J61" s="6">
+        <v>303.59100000000001</v>
+      </c>
+      <c r="K61" s="6">
+        <v>456.80400000000003</v>
+      </c>
+      <c r="L61" s="6">
+        <v>235.15699999999998</v>
+      </c>
+      <c r="M61" s="6">
+        <v>72.616000000000014</v>
+      </c>
+      <c r="N61" s="6">
+        <v>303.95300000000003</v>
+      </c>
+      <c r="O61" s="6">
+        <v>288.54100000000005</v>
+      </c>
+      <c r="P61" s="6">
+        <v>332.07600000000002</v>
+      </c>
+      <c r="Q61" s="6">
+        <v>526.17500000000007</v>
+      </c>
+      <c r="R61" s="6">
+        <v>260.428</v>
+      </c>
+      <c r="S61" s="6">
+        <v>117.21000000000001</v>
+      </c>
+      <c r="T61" s="6">
+        <v>88.77600000000001</v>
+      </c>
+      <c r="U61" s="6">
+        <v>176.86600000000001</v>
+      </c>
+      <c r="V61" s="6">
+        <v>89.134</v>
+      </c>
+      <c r="W61" s="6">
+        <v>131.29599999999999</v>
+      </c>
+      <c r="X61" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="Y61" s="6">
+        <v>130.91400000000002</v>
+      </c>
+      <c r="Z61" s="6">
+        <v>55.676000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -112,10 +112,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -159,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,7 +171,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,17 +476,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="26" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="10.25" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -5218,76 +5216,76 @@
       <c r="B60" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>802.48400000000004</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>1289.6679999999999</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>322.73</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="5">
         <v>568.67400000000009</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <v>319.57599999999996</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="5">
         <v>1086.7180000000001</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="5">
         <v>516.76400000000001</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="5">
         <v>318.90299999999996</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="5">
         <v>120.36499999999999</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="5">
         <v>185.059</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M60" s="5">
         <v>305.01</v>
       </c>
-      <c r="N60" s="6">
+      <c r="N60" s="5">
         <v>224.76100000000002</v>
       </c>
-      <c r="O60" s="6">
+      <c r="O60" s="5">
         <v>729.596</v>
       </c>
-      <c r="P60" s="6">
+      <c r="P60" s="5">
         <v>1496.3490000000002</v>
       </c>
-      <c r="Q60" s="6">
+      <c r="Q60" s="5">
         <v>576.20499999999993</v>
       </c>
-      <c r="R60" s="6">
+      <c r="R60" s="5">
         <v>535.8599999999999</v>
       </c>
-      <c r="S60" s="6">
+      <c r="S60" s="5">
         <v>423.15800000000002</v>
       </c>
-      <c r="T60" s="6">
+      <c r="T60" s="5">
         <v>325.97999999999996</v>
       </c>
-      <c r="U60" s="6">
+      <c r="U60" s="5">
         <v>139.9</v>
       </c>
-      <c r="V60" s="6">
+      <c r="V60" s="5">
         <v>253.36999999999998</v>
       </c>
-      <c r="W60" s="6">
+      <c r="W60" s="5">
         <v>224.85999999999996</v>
       </c>
-      <c r="X60" s="6">
+      <c r="X60" s="5">
         <v>72.738</v>
       </c>
-      <c r="Y60" s="6">
+      <c r="Y60" s="5">
         <v>53.84</v>
       </c>
-      <c r="Z60" s="6">
+      <c r="Z60" s="5">
         <v>86.343000000000004</v>
       </c>
     </row>
@@ -5298,77 +5296,237 @@
       <c r="B61" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>471.54399999999998</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>352.48</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>254.34899999999999</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="5">
         <v>102.94499999999999</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="5">
         <v>35.75</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="5">
         <v>256.024</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="5">
         <v>385.82400000000007</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="5">
         <v>303.59100000000001</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
         <v>456.80400000000003</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="5">
         <v>235.15699999999998</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61" s="5">
         <v>72.616000000000014</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N61" s="5">
         <v>303.95300000000003</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O61" s="5">
         <v>288.54100000000005</v>
       </c>
-      <c r="P61" s="6">
+      <c r="P61" s="5">
         <v>332.07600000000002</v>
       </c>
-      <c r="Q61" s="6">
+      <c r="Q61" s="5">
         <v>526.17500000000007</v>
       </c>
-      <c r="R61" s="6">
+      <c r="R61" s="5">
         <v>260.428</v>
       </c>
-      <c r="S61" s="6">
+      <c r="S61" s="5">
         <v>117.21000000000001</v>
       </c>
-      <c r="T61" s="6">
+      <c r="T61" s="5">
         <v>88.77600000000001</v>
       </c>
-      <c r="U61" s="6">
+      <c r="U61" s="5">
         <v>176.86600000000001</v>
       </c>
-      <c r="V61" s="6">
+      <c r="V61" s="5">
         <v>89.134</v>
       </c>
-      <c r="W61" s="6">
+      <c r="W61" s="5">
         <v>131.29599999999999</v>
       </c>
-      <c r="X61" s="6">
+      <c r="X61" s="5">
         <v>3.57</v>
       </c>
-      <c r="Y61" s="6">
+      <c r="Y61" s="5">
         <v>130.91400000000002</v>
       </c>
-      <c r="Z61" s="6">
+      <c r="Z61" s="5">
         <v>55.676000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>45931</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1013.4469999999997</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1001.6139999999999</v>
+      </c>
+      <c r="E62" s="5">
+        <v>553.38499999999999</v>
+      </c>
+      <c r="F62" s="5">
+        <v>632.12200000000007</v>
+      </c>
+      <c r="G62" s="5">
+        <v>388.05899999999997</v>
+      </c>
+      <c r="H62" s="5">
+        <v>680.71</v>
+      </c>
+      <c r="I62" s="5">
+        <v>516.81200000000001</v>
+      </c>
+      <c r="J62" s="5">
+        <v>313.529</v>
+      </c>
+      <c r="K62" s="5">
+        <v>206.36699999999999</v>
+      </c>
+      <c r="L62" s="5">
+        <v>121.34700000000001</v>
+      </c>
+      <c r="M62" s="5">
+        <v>120.15000000000002</v>
+      </c>
+      <c r="N62" s="5">
+        <v>114.52999999999999</v>
+      </c>
+      <c r="O62" s="5">
+        <v>910.47899999999993</v>
+      </c>
+      <c r="P62" s="5">
+        <v>1230.4620000000002</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>656.68100000000004</v>
+      </c>
+      <c r="R62" s="5">
+        <v>483.54799999999994</v>
+      </c>
+      <c r="S62" s="5">
+        <v>312.60599999999999</v>
+      </c>
+      <c r="T62" s="5">
+        <v>397.10299999999995</v>
+      </c>
+      <c r="U62" s="5">
+        <v>166.01</v>
+      </c>
+      <c r="V62" s="5">
+        <v>175.94699999999997</v>
+      </c>
+      <c r="W62" s="5">
+        <v>195.047</v>
+      </c>
+      <c r="X62" s="5">
+        <v>100.42</v>
+      </c>
+      <c r="Y62" s="5">
+        <v>78.039999999999992</v>
+      </c>
+      <c r="Z62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>45931</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="5">
+        <v>484.98399999999998</v>
+      </c>
+      <c r="D63" s="5">
+        <v>592.49200000000008</v>
+      </c>
+      <c r="E63" s="5">
+        <v>375.18700000000001</v>
+      </c>
+      <c r="F63" s="5">
+        <v>121.37</v>
+      </c>
+      <c r="G63" s="5">
+        <v>91.953000000000003</v>
+      </c>
+      <c r="H63" s="5">
+        <v>231.90299999999999</v>
+      </c>
+      <c r="I63" s="5">
+        <v>206.29</v>
+      </c>
+      <c r="J63" s="5">
+        <v>260.23100000000005</v>
+      </c>
+      <c r="K63" s="5">
+        <v>276.42499999999995</v>
+      </c>
+      <c r="L63" s="5">
+        <v>148.411</v>
+      </c>
+      <c r="M63" s="5">
+        <v>203.16099999999997</v>
+      </c>
+      <c r="N63" s="5">
+        <v>167.84099999999998</v>
+      </c>
+      <c r="O63" s="5">
+        <v>269.83699999999999</v>
+      </c>
+      <c r="P63" s="5">
+        <v>320.24700000000001</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>337.99700000000001</v>
+      </c>
+      <c r="R63" s="5">
+        <v>99.02600000000001</v>
+      </c>
+      <c r="S63" s="5">
+        <v>221.66399999999999</v>
+      </c>
+      <c r="T63" s="5">
+        <v>128.18799999999999</v>
+      </c>
+      <c r="U63" s="5">
+        <v>67.52</v>
+      </c>
+      <c r="V63" s="5">
+        <v>40.704999999999998</v>
+      </c>
+      <c r="W63" s="5">
+        <v>61.893000000000001</v>
+      </c>
+      <c r="X63" s="5">
+        <v>54.847000000000001</v>
+      </c>
+      <c r="Y63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -478,15 +478,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="26" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="10.25" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -4486,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="5">
-        <v>0</v>
+        <v>17.177</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.15">
@@ -4566,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="5">
-        <v>58.469000000000001</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.15">
@@ -4646,7 +4648,7 @@
         <v>108.33</v>
       </c>
       <c r="Z52" s="5">
-        <v>0</v>
+        <v>18.091999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.15">
@@ -4966,7 +4968,7 @@
         <v>170.19</v>
       </c>
       <c r="Z56" s="5">
-        <v>85.036000000000001</v>
+        <v>93.575999999999993</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.15">
@@ -5046,7 +5048,7 @@
         <v>142.423</v>
       </c>
       <c r="Z57" s="5">
-        <v>0</v>
+        <v>5.7889999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.15">
@@ -5126,7 +5128,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="Z58" s="5">
-        <v>124.51000000000002</v>
+        <v>142.13800000000001</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.15">
@@ -5206,7 +5208,7 @@
         <v>43.75</v>
       </c>
       <c r="Z59" s="5">
-        <v>5.484</v>
+        <v>13.225999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.15">

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -478,8 +478,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5368,7 +5368,7 @@
         <v>130.91400000000002</v>
       </c>
       <c r="Z61" s="5">
-        <v>55.676000000000002</v>
+        <v>87.227000000000004</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.15">
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="5">
-        <v>0</v>
+        <v>29.593</v>
       </c>
     </row>
   </sheetData>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5531,6 +5531,166 @@
         <v>29.593</v>
       </c>
     </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>45932</v>
+      </c>
+      <c r="B64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="5">
+        <v>797.86700000000008</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1132.2600000000002</v>
+      </c>
+      <c r="E64" s="5">
+        <v>561.88099999999997</v>
+      </c>
+      <c r="F64" s="5">
+        <v>501.08199999999999</v>
+      </c>
+      <c r="G64" s="5">
+        <v>286.29700000000003</v>
+      </c>
+      <c r="H64" s="5">
+        <v>786.66499999999996</v>
+      </c>
+      <c r="I64" s="5">
+        <v>426.47900000000004</v>
+      </c>
+      <c r="J64" s="5">
+        <v>179.68899999999999</v>
+      </c>
+      <c r="K64" s="5">
+        <v>80.180000000000007</v>
+      </c>
+      <c r="L64" s="5">
+        <v>136.81299999999999</v>
+      </c>
+      <c r="M64" s="5">
+        <v>207.07200000000006</v>
+      </c>
+      <c r="N64" s="5">
+        <v>159.25</v>
+      </c>
+      <c r="O64" s="5">
+        <v>616.62499999999989</v>
+      </c>
+      <c r="P64" s="5">
+        <v>1192.2559999999999</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>509.90899999999999</v>
+      </c>
+      <c r="R64" s="5">
+        <v>519.452</v>
+      </c>
+      <c r="S64" s="5">
+        <v>247.398</v>
+      </c>
+      <c r="T64" s="5">
+        <v>286.31099999999998</v>
+      </c>
+      <c r="U64" s="5">
+        <v>198.16</v>
+      </c>
+      <c r="V64" s="5">
+        <v>150.166</v>
+      </c>
+      <c r="W64" s="5">
+        <v>159.70700000000002</v>
+      </c>
+      <c r="X64" s="5">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="Y64" s="5">
+        <v>130.12</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>90.855000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>45932</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="5">
+        <v>270.62299999999999</v>
+      </c>
+      <c r="D65" s="5">
+        <v>508.86800000000005</v>
+      </c>
+      <c r="E65" s="5">
+        <v>179.03199999999998</v>
+      </c>
+      <c r="F65" s="5">
+        <v>154.90299999999999</v>
+      </c>
+      <c r="G65" s="5">
+        <v>52.469000000000001</v>
+      </c>
+      <c r="H65" s="5">
+        <v>307.63000000000005</v>
+      </c>
+      <c r="I65" s="5">
+        <v>169.39099999999999</v>
+      </c>
+      <c r="J65" s="5">
+        <v>122.90700000000001</v>
+      </c>
+      <c r="K65" s="5">
+        <v>259.47200000000004</v>
+      </c>
+      <c r="L65" s="5">
+        <v>196.90699999999998</v>
+      </c>
+      <c r="M65" s="5">
+        <v>138.26</v>
+      </c>
+      <c r="N65" s="5">
+        <v>92.878999999999991</v>
+      </c>
+      <c r="O65" s="5">
+        <v>463.03699999999992</v>
+      </c>
+      <c r="P65" s="5">
+        <v>412.21200000000005</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>405.20699999999999</v>
+      </c>
+      <c r="R65" s="5">
+        <v>416.78100000000001</v>
+      </c>
+      <c r="S65" s="5">
+        <v>202.08199999999999</v>
+      </c>
+      <c r="T65" s="5">
+        <v>173.76100000000002</v>
+      </c>
+      <c r="U65" s="5">
+        <v>29.18</v>
+      </c>
+      <c r="V65" s="5">
+        <v>43.742000000000004</v>
+      </c>
+      <c r="W65" s="5">
+        <v>17.265999999999998</v>
+      </c>
+      <c r="X65" s="5">
+        <v>43.777000000000001</v>
+      </c>
+      <c r="Y65" s="5">
+        <v>31.625</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z65"/>
+  <dimension ref="A1:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5691,6 +5691,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
+        <v>45933</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="5">
+        <v>576.20799999999997</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1179.5839999999998</v>
+      </c>
+      <c r="E66" s="5">
+        <v>435.02899999999994</v>
+      </c>
+      <c r="F66" s="5">
+        <v>650.00299999999993</v>
+      </c>
+      <c r="G66" s="5">
+        <v>473.85599999999994</v>
+      </c>
+      <c r="H66" s="5">
+        <v>820.72500000000002</v>
+      </c>
+      <c r="I66" s="5">
+        <v>488.029</v>
+      </c>
+      <c r="J66" s="5">
+        <v>240.227</v>
+      </c>
+      <c r="K66" s="5">
+        <v>133.07599999999999</v>
+      </c>
+      <c r="L66" s="5">
+        <v>223.92599999999999</v>
+      </c>
+      <c r="M66" s="5">
+        <v>206.53300000000002</v>
+      </c>
+      <c r="N66" s="5">
+        <v>187.64699999999999</v>
+      </c>
+      <c r="O66" s="5">
+        <v>860.8950000000001</v>
+      </c>
+      <c r="P66" s="5">
+        <v>966.72400000000016</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>323.42900000000003</v>
+      </c>
+      <c r="R66" s="5">
+        <v>457.43</v>
+      </c>
+      <c r="S66" s="5">
+        <v>346.26499999999999</v>
+      </c>
+      <c r="T66" s="5">
+        <v>250.32299999999998</v>
+      </c>
+      <c r="U66" s="5">
+        <v>146.06</v>
+      </c>
+      <c r="V66" s="5">
+        <v>54.919999999999995</v>
+      </c>
+      <c r="W66" s="5">
+        <v>212.50200000000001</v>
+      </c>
+      <c r="X66" s="5">
+        <v>82.54</v>
+      </c>
+      <c r="Y66" s="5">
+        <v>48.12</v>
+      </c>
+      <c r="Z66" s="5">
+        <v>18.740000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
+        <v>45933</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="5">
+        <v>454.21100000000001</v>
+      </c>
+      <c r="D67" s="5">
+        <v>588.02700000000004</v>
+      </c>
+      <c r="E67" s="5">
+        <v>190.36699999999999</v>
+      </c>
+      <c r="F67" s="5">
+        <v>117.895</v>
+      </c>
+      <c r="G67" s="5">
+        <v>18.335999999999999</v>
+      </c>
+      <c r="H67" s="5">
+        <v>258.53199999999998</v>
+      </c>
+      <c r="I67" s="5">
+        <v>176.58300000000003</v>
+      </c>
+      <c r="J67" s="5">
+        <v>13.478</v>
+      </c>
+      <c r="K67" s="5">
+        <v>166.113</v>
+      </c>
+      <c r="L67" s="5">
+        <v>172.57699999999997</v>
+      </c>
+      <c r="M67" s="5">
+        <v>85.188000000000002</v>
+      </c>
+      <c r="N67" s="5">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="O67" s="5">
+        <v>177.34100000000001</v>
+      </c>
+      <c r="P67" s="5">
+        <v>204.85199999999998</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>209.23500000000001</v>
+      </c>
+      <c r="R67" s="5">
+        <v>78.531000000000006</v>
+      </c>
+      <c r="S67" s="5">
+        <v>59.597000000000001</v>
+      </c>
+      <c r="T67" s="5">
+        <v>52.978000000000002</v>
+      </c>
+      <c r="U67" s="5">
+        <v>97.835000000000008</v>
+      </c>
+      <c r="V67" s="5">
+        <v>31.820999999999998</v>
+      </c>
+      <c r="W67" s="5">
+        <v>0</v>
+      </c>
+      <c r="X67" s="5">
+        <v>49.234000000000002</v>
+      </c>
+      <c r="Y67" s="5">
+        <v>12.827999999999999</v>
+      </c>
+      <c r="Z67" s="5">
+        <v>37.262</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5851,6 +5851,166 @@
         <v>37.262</v>
       </c>
     </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>45934</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="5">
+        <v>439.15499999999997</v>
+      </c>
+      <c r="D68" s="5">
+        <v>829.96</v>
+      </c>
+      <c r="E68" s="5">
+        <v>795.94500000000005</v>
+      </c>
+      <c r="F68" s="5">
+        <v>519.45400000000006</v>
+      </c>
+      <c r="G68" s="5">
+        <v>211.40900000000002</v>
+      </c>
+      <c r="H68" s="5">
+        <v>976.58500000000015</v>
+      </c>
+      <c r="I68" s="5">
+        <v>276.95000000000005</v>
+      </c>
+      <c r="J68" s="5">
+        <v>289.524</v>
+      </c>
+      <c r="K68" s="5">
+        <v>130.24</v>
+      </c>
+      <c r="L68" s="5">
+        <v>115.77099999999999</v>
+      </c>
+      <c r="M68" s="5">
+        <v>127.62599999999999</v>
+      </c>
+      <c r="N68" s="5">
+        <v>159.93200000000002</v>
+      </c>
+      <c r="O68" s="5">
+        <v>474.80999999999983</v>
+      </c>
+      <c r="P68" s="5">
+        <v>1021.1700000000002</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>311.03399999999999</v>
+      </c>
+      <c r="R68" s="5">
+        <v>415.59</v>
+      </c>
+      <c r="S68" s="5">
+        <v>235.69</v>
+      </c>
+      <c r="T68" s="5">
+        <v>202.285</v>
+      </c>
+      <c r="U68" s="5">
+        <v>132.74</v>
+      </c>
+      <c r="V68" s="5">
+        <v>221.97999999999996</v>
+      </c>
+      <c r="W68" s="5">
+        <v>56.41</v>
+      </c>
+      <c r="X68" s="5">
+        <v>118.96000000000001</v>
+      </c>
+      <c r="Y68" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="Z68" s="5">
+        <v>175.184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
+        <v>45934</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="5">
+        <v>412.27199999999993</v>
+      </c>
+      <c r="D69" s="5">
+        <v>394.13800000000003</v>
+      </c>
+      <c r="E69" s="5">
+        <v>159.5</v>
+      </c>
+      <c r="F69" s="5">
+        <v>70.581000000000003</v>
+      </c>
+      <c r="G69" s="5">
+        <v>173.84100000000001</v>
+      </c>
+      <c r="H69" s="5">
+        <v>173.45999999999998</v>
+      </c>
+      <c r="I69" s="5">
+        <v>179.70400000000001</v>
+      </c>
+      <c r="J69" s="5">
+        <v>38.918999999999997</v>
+      </c>
+      <c r="K69" s="5">
+        <v>311.149</v>
+      </c>
+      <c r="L69" s="5">
+        <v>151.29</v>
+      </c>
+      <c r="M69" s="5">
+        <v>132.96199999999999</v>
+      </c>
+      <c r="N69" s="5">
+        <v>194.55699999999999</v>
+      </c>
+      <c r="O69" s="5">
+        <v>340.01999999999992</v>
+      </c>
+      <c r="P69" s="5">
+        <v>234.58600000000001</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>258.04800000000006</v>
+      </c>
+      <c r="R69" s="5">
+        <v>240.87100000000001</v>
+      </c>
+      <c r="S69" s="5">
+        <v>158.02199999999999</v>
+      </c>
+      <c r="T69" s="5">
+        <v>78.882999999999996</v>
+      </c>
+      <c r="U69" s="5">
+        <v>50.030999999999999</v>
+      </c>
+      <c r="V69" s="5">
+        <v>86.652000000000001</v>
+      </c>
+      <c r="W69" s="5">
+        <v>28.125</v>
+      </c>
+      <c r="X69" s="5">
+        <v>92.718999999999994</v>
+      </c>
+      <c r="Y69" s="5">
+        <v>4.5860000000000003</v>
+      </c>
+      <c r="Z69" s="5">
+        <v>22.934000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:Z71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6011,6 +6011,166 @@
         <v>22.934000000000001</v>
       </c>
     </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>45935</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="5">
+        <v>591.58000000000004</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1127.3609999999996</v>
+      </c>
+      <c r="E70" s="5">
+        <v>586.33300000000008</v>
+      </c>
+      <c r="F70" s="5">
+        <v>369.3</v>
+      </c>
+      <c r="G70" s="5">
+        <v>508.61100000000016</v>
+      </c>
+      <c r="H70" s="5">
+        <v>637.76800000000003</v>
+      </c>
+      <c r="I70" s="5">
+        <v>354.12500000000006</v>
+      </c>
+      <c r="J70" s="5">
+        <v>207.398</v>
+      </c>
+      <c r="K70" s="5">
+        <v>139.733</v>
+      </c>
+      <c r="L70" s="5">
+        <v>150.70600000000002</v>
+      </c>
+      <c r="M70" s="5">
+        <v>260.17500000000001</v>
+      </c>
+      <c r="N70" s="5">
+        <v>233.191</v>
+      </c>
+      <c r="O70" s="5">
+        <v>871.71399999999994</v>
+      </c>
+      <c r="P70" s="5">
+        <v>935.64600000000007</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>548.70699999999999</v>
+      </c>
+      <c r="R70" s="5">
+        <v>550.36700000000008</v>
+      </c>
+      <c r="S70" s="5">
+        <v>463.19</v>
+      </c>
+      <c r="T70" s="5">
+        <v>172.41500000000002</v>
+      </c>
+      <c r="U70" s="5">
+        <v>113.03</v>
+      </c>
+      <c r="V70" s="5">
+        <v>89.75</v>
+      </c>
+      <c r="W70" s="5">
+        <v>96.320000000000007</v>
+      </c>
+      <c r="X70" s="5">
+        <v>62.82</v>
+      </c>
+      <c r="Y70" s="5">
+        <v>50.09</v>
+      </c>
+      <c r="Z70" s="5">
+        <v>13.46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
+        <v>45935</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="5">
+        <v>479.173</v>
+      </c>
+      <c r="D71" s="5">
+        <v>510.654</v>
+      </c>
+      <c r="E71" s="5">
+        <v>199.649</v>
+      </c>
+      <c r="F71" s="5">
+        <v>149.22800000000001</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <v>161.69499999999999</v>
+      </c>
+      <c r="I71" s="5">
+        <v>49.418000000000006</v>
+      </c>
+      <c r="J71" s="5">
+        <v>176.91300000000001</v>
+      </c>
+      <c r="K71" s="5">
+        <v>199.00700000000001</v>
+      </c>
+      <c r="L71" s="5">
+        <v>130.27699999999999</v>
+      </c>
+      <c r="M71" s="5">
+        <v>191.07499999999999</v>
+      </c>
+      <c r="N71" s="5">
+        <v>190.73</v>
+      </c>
+      <c r="O71" s="5">
+        <v>273.36400000000003</v>
+      </c>
+      <c r="P71" s="5">
+        <v>328.447</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>36.871000000000002</v>
+      </c>
+      <c r="R71" s="5">
+        <v>257.50799999999998</v>
+      </c>
+      <c r="S71" s="5">
+        <v>145.03800000000001</v>
+      </c>
+      <c r="T71" s="5">
+        <v>23.234000000000002</v>
+      </c>
+      <c r="U71" s="5">
+        <v>10.338999999999999</v>
+      </c>
+      <c r="V71" s="5">
+        <v>41.927999999999997</v>
+      </c>
+      <c r="W71" s="5">
+        <v>22</v>
+      </c>
+      <c r="X71" s="5">
+        <v>55.576999999999998</v>
+      </c>
+      <c r="Y71" s="5">
+        <v>14.25</v>
+      </c>
+      <c r="Z71" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z71"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6171,6 +6171,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
+        <v>45936</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="5">
+        <v>723.42100000000016</v>
+      </c>
+      <c r="D72" s="5">
+        <v>867.16</v>
+      </c>
+      <c r="E72" s="5">
+        <v>591.80799999999999</v>
+      </c>
+      <c r="F72" s="5">
+        <v>427.90800000000002</v>
+      </c>
+      <c r="G72" s="5">
+        <v>382.923</v>
+      </c>
+      <c r="H72" s="5">
+        <v>803.00599999999997</v>
+      </c>
+      <c r="I72" s="5">
+        <v>341.93299999999999</v>
+      </c>
+      <c r="J72" s="5">
+        <v>174.39000000000001</v>
+      </c>
+      <c r="K72" s="5">
+        <v>127.74000000000001</v>
+      </c>
+      <c r="L72" s="5">
+        <v>90.864000000000004</v>
+      </c>
+      <c r="M72" s="5">
+        <v>167.101</v>
+      </c>
+      <c r="N72" s="5">
+        <v>57.319999999999993</v>
+      </c>
+      <c r="O72" s="5">
+        <v>512.63499999999988</v>
+      </c>
+      <c r="P72" s="5">
+        <v>704.94999999999993</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>729.33299999999997</v>
+      </c>
+      <c r="R72" s="5">
+        <v>360.53800000000001</v>
+      </c>
+      <c r="S72" s="5">
+        <v>374.56400000000008</v>
+      </c>
+      <c r="T72" s="5">
+        <v>135.208</v>
+      </c>
+      <c r="U72" s="5">
+        <v>84.28</v>
+      </c>
+      <c r="V72" s="5">
+        <v>159.73000000000002</v>
+      </c>
+      <c r="W72" s="5">
+        <v>171.85300000000001</v>
+      </c>
+      <c r="X72" s="5">
+        <v>99.47999999999999</v>
+      </c>
+      <c r="Y72" s="5">
+        <v>29.5</v>
+      </c>
+      <c r="Z72" s="5">
+        <v>75.339999999999989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <v>45936</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="5">
+        <v>354.05399999999997</v>
+      </c>
+      <c r="D73" s="5">
+        <v>300.61099999999993</v>
+      </c>
+      <c r="E73" s="5">
+        <v>117.774</v>
+      </c>
+      <c r="F73" s="5">
+        <v>110.821</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <v>181.762</v>
+      </c>
+      <c r="I73" s="5">
+        <v>172.43399999999997</v>
+      </c>
+      <c r="J73" s="5">
+        <v>57.664000000000001</v>
+      </c>
+      <c r="K73" s="5">
+        <v>80.317999999999998</v>
+      </c>
+      <c r="L73" s="5">
+        <v>143.376</v>
+      </c>
+      <c r="M73" s="5">
+        <v>49.82</v>
+      </c>
+      <c r="N73" s="5">
+        <v>62.347999999999999</v>
+      </c>
+      <c r="O73" s="5">
+        <v>98.288999999999987</v>
+      </c>
+      <c r="P73" s="5">
+        <v>188.672</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>173.107</v>
+      </c>
+      <c r="R73" s="5">
+        <v>99.652000000000001</v>
+      </c>
+      <c r="S73" s="5">
+        <v>58.768999999999998</v>
+      </c>
+      <c r="T73" s="5">
+        <v>18.312999999999999</v>
+      </c>
+      <c r="U73" s="5">
+        <v>89.256</v>
+      </c>
+      <c r="V73" s="5">
+        <v>0</v>
+      </c>
+      <c r="W73" s="5">
+        <v>47.905999999999999</v>
+      </c>
+      <c r="X73" s="5">
+        <v>20.93</v>
+      </c>
+      <c r="Y73" s="5">
+        <v>19.039000000000001</v>
+      </c>
+      <c r="Z73" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z73"/>
+  <dimension ref="A1:Z75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6331,6 +6331,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <v>45937</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="5">
+        <v>688.202</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1207.3079999999998</v>
+      </c>
+      <c r="E74" s="5">
+        <v>578.75400000000013</v>
+      </c>
+      <c r="F74" s="5">
+        <v>404.12200000000001</v>
+      </c>
+      <c r="G74" s="5">
+        <v>405.77499999999998</v>
+      </c>
+      <c r="H74" s="5">
+        <v>902.00399999999991</v>
+      </c>
+      <c r="I74" s="5">
+        <v>558.01100000000008</v>
+      </c>
+      <c r="J74" s="5">
+        <v>316.005</v>
+      </c>
+      <c r="K74" s="5">
+        <v>282.28899999999999</v>
+      </c>
+      <c r="L74" s="5">
+        <v>59.16</v>
+      </c>
+      <c r="M74" s="5">
+        <v>236.57300000000004</v>
+      </c>
+      <c r="N74" s="5">
+        <v>199.18</v>
+      </c>
+      <c r="O74" s="5">
+        <v>712.54799999999989</v>
+      </c>
+      <c r="P74" s="5">
+        <v>1346.643</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>746.34199999999998</v>
+      </c>
+      <c r="R74" s="5">
+        <v>499.62499999999994</v>
+      </c>
+      <c r="S74" s="5">
+        <v>188.49199999999999</v>
+      </c>
+      <c r="T74" s="5">
+        <v>286.73</v>
+      </c>
+      <c r="U74" s="5">
+        <v>223.67</v>
+      </c>
+      <c r="V74" s="5">
+        <v>58.959999999999994</v>
+      </c>
+      <c r="W74" s="5">
+        <v>151.86799999999999</v>
+      </c>
+      <c r="X74" s="5">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="Y74" s="5">
+        <v>110.42</v>
+      </c>
+      <c r="Z74" s="5">
+        <v>110.44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
+        <v>45937</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="5">
+        <v>461.488</v>
+      </c>
+      <c r="D75" s="5">
+        <v>361.11</v>
+      </c>
+      <c r="E75" s="5">
+        <v>215.96099999999998</v>
+      </c>
+      <c r="F75" s="5">
+        <v>31.062999999999999</v>
+      </c>
+      <c r="G75" s="5">
+        <v>45.914000000000001</v>
+      </c>
+      <c r="H75" s="5">
+        <v>207.82</v>
+      </c>
+      <c r="I75" s="5">
+        <v>59.335999999999999</v>
+      </c>
+      <c r="J75" s="5">
+        <v>86.826999999999998</v>
+      </c>
+      <c r="K75" s="5">
+        <v>329.04599999999999</v>
+      </c>
+      <c r="L75" s="5">
+        <v>180.84700000000004</v>
+      </c>
+      <c r="M75" s="5">
+        <v>183.72399999999999</v>
+      </c>
+      <c r="N75" s="5">
+        <v>79.369</v>
+      </c>
+      <c r="O75" s="5">
+        <v>399.96200000000005</v>
+      </c>
+      <c r="P75" s="5">
+        <v>455.37700000000001</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>408.24000000000007</v>
+      </c>
+      <c r="R75" s="5">
+        <v>175.20800000000003</v>
+      </c>
+      <c r="S75" s="5">
+        <v>37.445</v>
+      </c>
+      <c r="T75" s="5">
+        <v>84.465000000000003</v>
+      </c>
+      <c r="U75" s="5">
+        <v>70.382000000000005</v>
+      </c>
+      <c r="V75" s="5">
+        <v>60.86</v>
+      </c>
+      <c r="W75" s="5">
+        <v>40.155999999999999</v>
+      </c>
+      <c r="X75" s="5">
+        <v>40.311999999999998</v>
+      </c>
+      <c r="Y75" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="5">
+        <v>41.152000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z75"/>
+  <dimension ref="A1:Z77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6491,6 +6491,166 @@
         <v>41.152000000000001</v>
       </c>
     </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>45938</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="5">
+        <v>660.81</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1503.4819999999995</v>
+      </c>
+      <c r="E76" s="5">
+        <v>493.37</v>
+      </c>
+      <c r="F76" s="5">
+        <v>575.68700000000001</v>
+      </c>
+      <c r="G76" s="5">
+        <v>467.75500000000005</v>
+      </c>
+      <c r="H76" s="5">
+        <v>961.72299999999996</v>
+      </c>
+      <c r="I76" s="5">
+        <v>695.04700000000003</v>
+      </c>
+      <c r="J76" s="5">
+        <v>233.27099999999999</v>
+      </c>
+      <c r="K76" s="5">
+        <v>246.87</v>
+      </c>
+      <c r="L76" s="5">
+        <v>263.73</v>
+      </c>
+      <c r="M76" s="5">
+        <v>316.19799999999998</v>
+      </c>
+      <c r="N76" s="5">
+        <v>239.143</v>
+      </c>
+      <c r="O76" s="5">
+        <v>948.20999999999981</v>
+      </c>
+      <c r="P76" s="5">
+        <v>1408.0909999999997</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>1026.7720000000002</v>
+      </c>
+      <c r="R76" s="5">
+        <v>411.98799999999994</v>
+      </c>
+      <c r="S76" s="5">
+        <v>430.79299999999995</v>
+      </c>
+      <c r="T76" s="5">
+        <v>144.74700000000001</v>
+      </c>
+      <c r="U76" s="5">
+        <v>114.69499999999999</v>
+      </c>
+      <c r="V76" s="5">
+        <v>43.379999999999995</v>
+      </c>
+      <c r="W76" s="5">
+        <v>70.057999999999993</v>
+      </c>
+      <c r="X76" s="5">
+        <v>179.95</v>
+      </c>
+      <c r="Y76" s="5">
+        <v>88.56</v>
+      </c>
+      <c r="Z76" s="5">
+        <v>35.08</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <v>45938</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="5">
+        <v>597.40899999999988</v>
+      </c>
+      <c r="D77" s="5">
+        <v>658.54899999999998</v>
+      </c>
+      <c r="E77" s="5">
+        <v>221.90199999999999</v>
+      </c>
+      <c r="F77" s="5">
+        <v>27.780999999999999</v>
+      </c>
+      <c r="G77" s="5">
+        <v>10.654999999999999</v>
+      </c>
+      <c r="H77" s="5">
+        <v>245.54400000000001</v>
+      </c>
+      <c r="I77" s="5">
+        <v>149.524</v>
+      </c>
+      <c r="J77" s="5">
+        <v>171.054</v>
+      </c>
+      <c r="K77" s="5">
+        <v>213.858</v>
+      </c>
+      <c r="L77" s="5">
+        <v>390.09299999999996</v>
+      </c>
+      <c r="M77" s="5">
+        <v>105.744</v>
+      </c>
+      <c r="N77" s="5">
+        <v>356.48800000000006</v>
+      </c>
+      <c r="O77" s="5">
+        <v>217.072</v>
+      </c>
+      <c r="P77" s="5">
+        <v>447.46599999999995</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>572.20499999999993</v>
+      </c>
+      <c r="R77" s="5">
+        <v>414.30200000000002</v>
+      </c>
+      <c r="S77" s="5">
+        <v>27.597999999999999</v>
+      </c>
+      <c r="T77" s="5">
+        <v>204.79400000000001</v>
+      </c>
+      <c r="U77" s="5">
+        <v>194.50200000000001</v>
+      </c>
+      <c r="V77" s="5">
+        <v>82.32</v>
+      </c>
+      <c r="W77" s="5">
+        <v>70.768999999999991</v>
+      </c>
+      <c r="X77" s="5">
+        <v>153.13200000000001</v>
+      </c>
+      <c r="Y77" s="5">
+        <v>27.375</v>
+      </c>
+      <c r="Z77" s="5">
+        <v>19.997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:Z81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6651,6 +6651,326 @@
         <v>19.997</v>
       </c>
     </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
+        <v>45939</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="5">
+        <v>886.94400000000007</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1280.3550000000002</v>
+      </c>
+      <c r="E78" s="5">
+        <v>446.76000000000005</v>
+      </c>
+      <c r="F78" s="5">
+        <v>619.61300000000006</v>
+      </c>
+      <c r="G78" s="5">
+        <v>540.86599999999999</v>
+      </c>
+      <c r="H78" s="5">
+        <v>688.09899999999993</v>
+      </c>
+      <c r="I78" s="5">
+        <v>585.82299999999998</v>
+      </c>
+      <c r="J78" s="5">
+        <v>335.48500000000001</v>
+      </c>
+      <c r="K78" s="5">
+        <v>134.5</v>
+      </c>
+      <c r="L78" s="5">
+        <v>436.24400000000003</v>
+      </c>
+      <c r="M78" s="5">
+        <v>158.55500000000001</v>
+      </c>
+      <c r="N78" s="5">
+        <v>263.22000000000003</v>
+      </c>
+      <c r="O78" s="5">
+        <v>997.20699999999999</v>
+      </c>
+      <c r="P78" s="5">
+        <v>1514.5870000000002</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>555.029</v>
+      </c>
+      <c r="R78" s="5">
+        <v>567.91700000000014</v>
+      </c>
+      <c r="S78" s="5">
+        <v>332.71099999999996</v>
+      </c>
+      <c r="T78" s="5">
+        <v>94.455999999999989</v>
+      </c>
+      <c r="U78" s="5">
+        <v>145.66</v>
+      </c>
+      <c r="V78" s="5">
+        <v>171.71999999999997</v>
+      </c>
+      <c r="W78" s="5">
+        <v>69.13</v>
+      </c>
+      <c r="X78" s="5">
+        <v>112.30000000000001</v>
+      </c>
+      <c r="Y78" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="Z78" s="5">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>45939</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="5">
+        <v>681.17899999999986</v>
+      </c>
+      <c r="D79" s="5">
+        <v>526.1640000000001</v>
+      </c>
+      <c r="E79" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="F79" s="5">
+        <v>10.188000000000001</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
+      <c r="H79" s="5">
+        <v>129.54599999999999</v>
+      </c>
+      <c r="I79" s="5">
+        <v>196.81299999999999</v>
+      </c>
+      <c r="J79" s="5">
+        <v>344.14500000000004</v>
+      </c>
+      <c r="K79" s="5">
+        <v>327.57900000000001</v>
+      </c>
+      <c r="L79" s="5">
+        <v>132.387</v>
+      </c>
+      <c r="M79" s="5">
+        <v>244.458</v>
+      </c>
+      <c r="N79" s="5">
+        <v>211.197</v>
+      </c>
+      <c r="O79" s="5">
+        <v>486.00099999999998</v>
+      </c>
+      <c r="P79" s="5">
+        <v>645.1049999999999</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>238.88500000000002</v>
+      </c>
+      <c r="R79" s="5">
+        <v>369.64000000000004</v>
+      </c>
+      <c r="S79" s="5">
+        <v>148.09</v>
+      </c>
+      <c r="T79" s="5">
+        <v>195.75</v>
+      </c>
+      <c r="U79" s="5">
+        <v>68.329000000000008</v>
+      </c>
+      <c r="V79" s="5">
+        <v>25.774000000000001</v>
+      </c>
+      <c r="W79" s="5">
+        <v>0</v>
+      </c>
+      <c r="X79" s="5">
+        <v>29.094000000000001</v>
+      </c>
+      <c r="Y79" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="5">
+        <v>99.465000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>45940</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="5">
+        <v>769.63999999999987</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1456.8319999999999</v>
+      </c>
+      <c r="E80" s="5">
+        <v>245.96500000000003</v>
+      </c>
+      <c r="F80" s="5">
+        <v>335.91700000000003</v>
+      </c>
+      <c r="G80" s="5">
+        <v>626.51999999999987</v>
+      </c>
+      <c r="H80" s="5">
+        <v>591.226</v>
+      </c>
+      <c r="I80" s="5">
+        <v>517.13599999999997</v>
+      </c>
+      <c r="J80" s="5">
+        <v>265.03699999999998</v>
+      </c>
+      <c r="K80" s="5">
+        <v>180.68700000000001</v>
+      </c>
+      <c r="L80" s="5">
+        <v>279.43400000000003</v>
+      </c>
+      <c r="M80" s="5">
+        <v>144.38299999999998</v>
+      </c>
+      <c r="N80" s="5">
+        <v>172.60999999999999</v>
+      </c>
+      <c r="O80" s="5">
+        <v>921.97100000000012</v>
+      </c>
+      <c r="P80" s="5">
+        <v>1532.7189999999998</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>586.82000000000005</v>
+      </c>
+      <c r="R80" s="5">
+        <v>437.27399999999994</v>
+      </c>
+      <c r="S80" s="5">
+        <v>555.17800000000011</v>
+      </c>
+      <c r="T80" s="5">
+        <v>127.57000000000001</v>
+      </c>
+      <c r="U80" s="5">
+        <v>61.260000000000005</v>
+      </c>
+      <c r="V80" s="5">
+        <v>232.98</v>
+      </c>
+      <c r="W80" s="5">
+        <v>24.68</v>
+      </c>
+      <c r="X80" s="5">
+        <v>106.559</v>
+      </c>
+      <c r="Y80" s="5">
+        <v>50.89</v>
+      </c>
+      <c r="Z80" s="5">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <v>45940</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="5">
+        <v>407.14000000000004</v>
+      </c>
+      <c r="D81" s="5">
+        <v>502.07700000000006</v>
+      </c>
+      <c r="E81" s="5">
+        <v>36.07</v>
+      </c>
+      <c r="F81" s="5">
+        <v>189.82400000000001</v>
+      </c>
+      <c r="G81" s="5">
+        <v>68.289000000000001</v>
+      </c>
+      <c r="H81" s="5">
+        <v>159.73500000000001</v>
+      </c>
+      <c r="I81" s="5">
+        <v>150.226</v>
+      </c>
+      <c r="J81" s="5">
+        <v>249.48699999999994</v>
+      </c>
+      <c r="K81" s="5">
+        <v>351.99800000000005</v>
+      </c>
+      <c r="L81" s="5">
+        <v>250.45600000000005</v>
+      </c>
+      <c r="M81" s="5">
+        <v>182.54599999999999</v>
+      </c>
+      <c r="N81" s="5">
+        <v>298.392</v>
+      </c>
+      <c r="O81" s="5">
+        <v>267.12300000000005</v>
+      </c>
+      <c r="P81" s="5">
+        <v>729.20800000000008</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>311.584</v>
+      </c>
+      <c r="R81" s="5">
+        <v>223.46100000000001</v>
+      </c>
+      <c r="S81" s="5">
+        <v>159.32400000000001</v>
+      </c>
+      <c r="T81" s="5">
+        <v>257.14</v>
+      </c>
+      <c r="U81" s="5">
+        <v>81.396000000000001</v>
+      </c>
+      <c r="V81" s="5">
+        <v>10.132999999999999</v>
+      </c>
+      <c r="W81" s="5">
+        <v>61.464999999999989</v>
+      </c>
+      <c r="X81" s="5">
+        <v>106.045</v>
+      </c>
+      <c r="Y81" s="5">
+        <v>12.273</v>
+      </c>
+      <c r="Z81" s="5">
+        <v>89.150999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z81"/>
+  <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6971,6 +6971,166 @@
         <v>89.150999999999996</v>
       </c>
     </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A82" s="3">
+        <v>45941</v>
+      </c>
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="5">
+        <v>650.91600000000005</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1805.6980000000001</v>
+      </c>
+      <c r="E82" s="5">
+        <v>614.50699999999995</v>
+      </c>
+      <c r="F82" s="5">
+        <v>289.21699999999998</v>
+      </c>
+      <c r="G82" s="5">
+        <v>230.96999999999997</v>
+      </c>
+      <c r="H82" s="5">
+        <v>774.67300000000012</v>
+      </c>
+      <c r="I82" s="5">
+        <v>687.78899999999999</v>
+      </c>
+      <c r="J82" s="5">
+        <v>255.61199999999997</v>
+      </c>
+      <c r="K82" s="5">
+        <v>154.262</v>
+      </c>
+      <c r="L82" s="5">
+        <v>219.44499999999999</v>
+      </c>
+      <c r="M82" s="5">
+        <v>228.96799999999999</v>
+      </c>
+      <c r="N82" s="5">
+        <v>290.70000000000005</v>
+      </c>
+      <c r="O82" s="5">
+        <v>1086.5380000000002</v>
+      </c>
+      <c r="P82" s="5">
+        <v>1170.1410000000001</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>681.84699999999987</v>
+      </c>
+      <c r="R82" s="5">
+        <v>284.46600000000001</v>
+      </c>
+      <c r="S82" s="5">
+        <v>320.90800000000002</v>
+      </c>
+      <c r="T82" s="5">
+        <v>271.601</v>
+      </c>
+      <c r="U82" s="5">
+        <v>85.941999999999993</v>
+      </c>
+      <c r="V82" s="5">
+        <v>168.36</v>
+      </c>
+      <c r="W82" s="5">
+        <v>73.893000000000001</v>
+      </c>
+      <c r="X82" s="5">
+        <v>95.699999999999989</v>
+      </c>
+      <c r="Y82" s="5">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="Z82" s="5">
+        <v>30.768000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A83" s="3">
+        <v>45941</v>
+      </c>
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="5">
+        <v>470.464</v>
+      </c>
+      <c r="D83" s="5">
+        <v>402.50300000000004</v>
+      </c>
+      <c r="E83" s="5">
+        <v>283.34100000000001</v>
+      </c>
+      <c r="F83" s="5">
+        <v>112.515</v>
+      </c>
+      <c r="G83" s="5">
+        <v>126.26299999999999</v>
+      </c>
+      <c r="H83" s="5">
+        <v>93.281000000000006</v>
+      </c>
+      <c r="I83" s="5">
+        <v>163.25900000000001</v>
+      </c>
+      <c r="J83" s="5">
+        <v>258.25299999999999</v>
+      </c>
+      <c r="K83" s="5">
+        <v>604.54799999999989</v>
+      </c>
+      <c r="L83" s="5">
+        <v>210.62699999999998</v>
+      </c>
+      <c r="M83" s="5">
+        <v>106.637</v>
+      </c>
+      <c r="N83" s="5">
+        <v>222.51999999999998</v>
+      </c>
+      <c r="O83" s="5">
+        <v>488.00599999999997</v>
+      </c>
+      <c r="P83" s="5">
+        <v>599.27499999999986</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>324.86799999999999</v>
+      </c>
+      <c r="R83" s="5">
+        <v>296.42699999999996</v>
+      </c>
+      <c r="S83" s="5">
+        <v>152.18</v>
+      </c>
+      <c r="T83" s="5">
+        <v>95.593999999999994</v>
+      </c>
+      <c r="U83" s="5">
+        <v>128</v>
+      </c>
+      <c r="V83" s="5">
+        <v>0</v>
+      </c>
+      <c r="W83" s="5">
+        <v>0</v>
+      </c>
+      <c r="X83" s="5">
+        <v>41.198999999999998</v>
+      </c>
+      <c r="Y83" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="5">
+        <v>11.922000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z83"/>
+  <dimension ref="A1:Z85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7131,6 +7131,166 @@
         <v>11.922000000000001</v>
       </c>
     </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A84" s="3">
+        <v>45942</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="5">
+        <v>909.57299999999998</v>
+      </c>
+      <c r="D84" s="5">
+        <v>961.38400000000001</v>
+      </c>
+      <c r="E84" s="5">
+        <v>413.96199999999993</v>
+      </c>
+      <c r="F84" s="5">
+        <v>575.78</v>
+      </c>
+      <c r="G84" s="5">
+        <v>323.08099999999996</v>
+      </c>
+      <c r="H84" s="5">
+        <v>620.75</v>
+      </c>
+      <c r="I84" s="5">
+        <v>395.74799999999993</v>
+      </c>
+      <c r="J84" s="5">
+        <v>198.625</v>
+      </c>
+      <c r="K84" s="5">
+        <v>209.88399999999999</v>
+      </c>
+      <c r="L84" s="5">
+        <v>219.06999999999996</v>
+      </c>
+      <c r="M84" s="5">
+        <v>292.64300000000003</v>
+      </c>
+      <c r="N84" s="5">
+        <v>58.23</v>
+      </c>
+      <c r="O84" s="5">
+        <v>832.62799999999982</v>
+      </c>
+      <c r="P84" s="5">
+        <v>1288.6610000000001</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>505.65899999999993</v>
+      </c>
+      <c r="R84" s="5">
+        <v>351.233</v>
+      </c>
+      <c r="S84" s="5">
+        <v>396.98199999999997</v>
+      </c>
+      <c r="T84" s="5">
+        <v>232.09</v>
+      </c>
+      <c r="U84" s="5">
+        <v>54.519999999999996</v>
+      </c>
+      <c r="V84" s="5">
+        <v>85.179999999999993</v>
+      </c>
+      <c r="W84" s="5">
+        <v>82.22</v>
+      </c>
+      <c r="X84" s="5">
+        <v>46.8</v>
+      </c>
+      <c r="Y84" s="5">
+        <v>7.78</v>
+      </c>
+      <c r="Z84" s="5">
+        <v>162.553</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A85" s="3">
+        <v>45942</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="5">
+        <v>426.35700000000008</v>
+      </c>
+      <c r="D85" s="5">
+        <v>395.31300000000005</v>
+      </c>
+      <c r="E85" s="5">
+        <v>216.524</v>
+      </c>
+      <c r="F85" s="5">
+        <v>34.25</v>
+      </c>
+      <c r="G85" s="5">
+        <v>40.296999999999997</v>
+      </c>
+      <c r="H85" s="5">
+        <v>185.99999999999997</v>
+      </c>
+      <c r="I85" s="5">
+        <v>101.64100000000002</v>
+      </c>
+      <c r="J85" s="5">
+        <v>212.07299999999998</v>
+      </c>
+      <c r="K85" s="5">
+        <v>294.39600000000002</v>
+      </c>
+      <c r="L85" s="5">
+        <v>87.300999999999988</v>
+      </c>
+      <c r="M85" s="5">
+        <v>112.85899999999999</v>
+      </c>
+      <c r="N85" s="5">
+        <v>120.09100000000001</v>
+      </c>
+      <c r="O85" s="5">
+        <v>396.44400000000002</v>
+      </c>
+      <c r="P85" s="5">
+        <v>368.49200000000002</v>
+      </c>
+      <c r="Q85" s="5">
+        <v>159.042</v>
+      </c>
+      <c r="R85" s="5">
+        <v>214.59900000000002</v>
+      </c>
+      <c r="S85" s="5">
+        <v>72.312999999999988</v>
+      </c>
+      <c r="T85" s="5">
+        <v>105.23</v>
+      </c>
+      <c r="U85" s="5">
+        <v>51.852999999999994</v>
+      </c>
+      <c r="V85" s="5">
+        <v>51.391999999999996</v>
+      </c>
+      <c r="W85" s="5">
+        <v>61.811999999999998</v>
+      </c>
+      <c r="X85" s="5">
+        <v>28.067</v>
+      </c>
+      <c r="Y85" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="5">
+        <v>41.29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z85"/>
+  <dimension ref="A1:Z87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7291,6 +7291,166 @@
         <v>41.29</v>
       </c>
     </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
+        <v>45943</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="5">
+        <v>686.52800000000013</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1304.1330000000003</v>
+      </c>
+      <c r="E86" s="5">
+        <v>370.28000000000003</v>
+      </c>
+      <c r="F86" s="5">
+        <v>240.32999999999998</v>
+      </c>
+      <c r="G86" s="5">
+        <v>385.92099999999999</v>
+      </c>
+      <c r="H86" s="5">
+        <v>807.36500000000012</v>
+      </c>
+      <c r="I86" s="5">
+        <v>281.28800000000001</v>
+      </c>
+      <c r="J86" s="5">
+        <v>153.38799999999998</v>
+      </c>
+      <c r="K86" s="5">
+        <v>233.89499999999998</v>
+      </c>
+      <c r="L86" s="5">
+        <v>166.18199999999999</v>
+      </c>
+      <c r="M86" s="5">
+        <v>136.15100000000001</v>
+      </c>
+      <c r="N86" s="5">
+        <v>151.255</v>
+      </c>
+      <c r="O86" s="5">
+        <v>754.95099999999991</v>
+      </c>
+      <c r="P86" s="5">
+        <v>1017.9290000000002</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>512.26700000000005</v>
+      </c>
+      <c r="R86" s="5">
+        <v>185.57399999999998</v>
+      </c>
+      <c r="S86" s="5">
+        <v>269.23399999999998</v>
+      </c>
+      <c r="T86" s="5">
+        <v>205.44200000000001</v>
+      </c>
+      <c r="U86" s="5">
+        <v>175.94</v>
+      </c>
+      <c r="V86" s="5">
+        <v>29.7</v>
+      </c>
+      <c r="W86" s="5">
+        <v>92.1</v>
+      </c>
+      <c r="X86" s="5">
+        <v>76.36</v>
+      </c>
+      <c r="Y86" s="5">
+        <v>113</v>
+      </c>
+      <c r="Z86" s="5">
+        <v>84.878</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A87" s="3">
+        <v>45943</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="5">
+        <v>387.25599999999997</v>
+      </c>
+      <c r="D87" s="5">
+        <v>279.29799999999994</v>
+      </c>
+      <c r="E87" s="5">
+        <v>206.82900000000001</v>
+      </c>
+      <c r="F87" s="5">
+        <v>138.49600000000001</v>
+      </c>
+      <c r="G87" s="5">
+        <v>241.48099999999999</v>
+      </c>
+      <c r="H87" s="5">
+        <v>27.344000000000001</v>
+      </c>
+      <c r="I87" s="5">
+        <v>339.67399999999998</v>
+      </c>
+      <c r="J87" s="5">
+        <v>201.61399999999998</v>
+      </c>
+      <c r="K87" s="5">
+        <v>330.10300000000007</v>
+      </c>
+      <c r="L87" s="5">
+        <v>100.03</v>
+      </c>
+      <c r="M87" s="5">
+        <v>87.811000000000007</v>
+      </c>
+      <c r="N87" s="5">
+        <v>213.20600000000002</v>
+      </c>
+      <c r="O87" s="5">
+        <v>510.49199999999996</v>
+      </c>
+      <c r="P87" s="5">
+        <v>391.79700000000008</v>
+      </c>
+      <c r="Q87" s="5">
+        <v>168.63799999999998</v>
+      </c>
+      <c r="R87" s="5">
+        <v>190.215</v>
+      </c>
+      <c r="S87" s="5">
+        <v>181.16300000000001</v>
+      </c>
+      <c r="T87" s="5">
+        <v>71.247</v>
+      </c>
+      <c r="U87" s="5">
+        <v>41.218999999999994</v>
+      </c>
+      <c r="V87" s="5">
+        <v>90.092000000000013</v>
+      </c>
+      <c r="W87" s="5">
+        <v>50.563000000000002</v>
+      </c>
+      <c r="X87" s="5">
+        <v>46.07</v>
+      </c>
+      <c r="Y87" s="5">
+        <v>39.257999999999996</v>
+      </c>
+      <c r="Z87" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z87"/>
+  <dimension ref="A1:Z89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7451,6 +7451,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>45944</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="5">
+        <v>722.47399999999982</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1269.9000000000001</v>
+      </c>
+      <c r="E88" s="5">
+        <v>337.05599999999993</v>
+      </c>
+      <c r="F88" s="5">
+        <v>403.80700000000002</v>
+      </c>
+      <c r="G88" s="5">
+        <v>446.70000000000005</v>
+      </c>
+      <c r="H88" s="5">
+        <v>556.23</v>
+      </c>
+      <c r="I88" s="5">
+        <v>602.20400000000006</v>
+      </c>
+      <c r="J88" s="5">
+        <v>205.35599999999999</v>
+      </c>
+      <c r="K88" s="5">
+        <v>130.86099999999999</v>
+      </c>
+      <c r="L88" s="5">
+        <v>181.23900000000003</v>
+      </c>
+      <c r="M88" s="5">
+        <v>158.60200000000003</v>
+      </c>
+      <c r="N88" s="5">
+        <v>225.41</v>
+      </c>
+      <c r="O88" s="5">
+        <v>1061.979</v>
+      </c>
+      <c r="P88" s="5">
+        <v>893.90100000000018</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>419.84399999999999</v>
+      </c>
+      <c r="R88" s="5">
+        <v>257.52000000000004</v>
+      </c>
+      <c r="S88" s="5">
+        <v>306.30499999999995</v>
+      </c>
+      <c r="T88" s="5">
+        <v>265.41699999999997</v>
+      </c>
+      <c r="U88" s="5">
+        <v>86.798000000000002</v>
+      </c>
+      <c r="V88" s="5">
+        <v>143.863</v>
+      </c>
+      <c r="W88" s="5">
+        <v>24.54</v>
+      </c>
+      <c r="X88" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="Y88" s="5">
+        <v>11.602</v>
+      </c>
+      <c r="Z88" s="5">
+        <v>42.647999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>45944</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="5">
+        <v>434.911</v>
+      </c>
+      <c r="D89" s="5">
+        <v>287.24900000000002</v>
+      </c>
+      <c r="E89" s="5">
+        <v>41.295999999999999</v>
+      </c>
+      <c r="F89" s="5">
+        <v>111.29299999999998</v>
+      </c>
+      <c r="G89" s="5">
+        <v>57.765000000000001</v>
+      </c>
+      <c r="H89" s="5">
+        <v>237.15</v>
+      </c>
+      <c r="I89" s="5">
+        <v>84.281000000000006</v>
+      </c>
+      <c r="J89" s="5">
+        <v>223.36600000000001</v>
+      </c>
+      <c r="K89" s="5">
+        <v>328.72599999999994</v>
+      </c>
+      <c r="L89" s="5">
+        <v>120.17099999999999</v>
+      </c>
+      <c r="M89" s="5">
+        <v>82.073999999999998</v>
+      </c>
+      <c r="N89" s="5">
+        <v>78.890000000000015</v>
+      </c>
+      <c r="O89" s="5">
+        <v>470.36900000000003</v>
+      </c>
+      <c r="P89" s="5">
+        <v>517.41399999999987</v>
+      </c>
+      <c r="Q89" s="5">
+        <v>328.63200000000001</v>
+      </c>
+      <c r="R89" s="5">
+        <v>156.256</v>
+      </c>
+      <c r="S89" s="5">
+        <v>132.08100000000002</v>
+      </c>
+      <c r="T89" s="5">
+        <v>121.26499999999999</v>
+      </c>
+      <c r="U89" s="5">
+        <v>96.436999999999998</v>
+      </c>
+      <c r="V89" s="5">
+        <v>70.354000000000013</v>
+      </c>
+      <c r="W89" s="5">
+        <v>18.972000000000001</v>
+      </c>
+      <c r="X89" s="5">
+        <v>8.9529999999999994</v>
+      </c>
+      <c r="Y89" s="5">
+        <v>22.055</v>
+      </c>
+      <c r="Z89" s="5">
+        <v>26.774000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z89"/>
+  <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7611,6 +7611,166 @@
         <v>26.774000000000001</v>
       </c>
     </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
+        <v>45945</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="5">
+        <v>575.55399999999997</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1022.312</v>
+      </c>
+      <c r="E90" s="5">
+        <v>369.726</v>
+      </c>
+      <c r="F90" s="5">
+        <v>401.375</v>
+      </c>
+      <c r="G90" s="5">
+        <v>380.48500000000001</v>
+      </c>
+      <c r="H90" s="5">
+        <v>576.86099999999999</v>
+      </c>
+      <c r="I90" s="5">
+        <v>607.52699999999993</v>
+      </c>
+      <c r="J90" s="5">
+        <v>292.76</v>
+      </c>
+      <c r="K90" s="5">
+        <v>210.85400000000001</v>
+      </c>
+      <c r="L90" s="5">
+        <v>73.7</v>
+      </c>
+      <c r="M90" s="5">
+        <v>143.511</v>
+      </c>
+      <c r="N90" s="5">
+        <v>271.45699999999999</v>
+      </c>
+      <c r="O90" s="5">
+        <v>648.15999999999985</v>
+      </c>
+      <c r="P90" s="5">
+        <v>1354.2189999999996</v>
+      </c>
+      <c r="Q90" s="5">
+        <v>524.53800000000001</v>
+      </c>
+      <c r="R90" s="5">
+        <v>245.34999999999997</v>
+      </c>
+      <c r="S90" s="5">
+        <v>199.75399999999999</v>
+      </c>
+      <c r="T90" s="5">
+        <v>165.27199999999999</v>
+      </c>
+      <c r="U90" s="5">
+        <v>50.06</v>
+      </c>
+      <c r="V90" s="5">
+        <v>88.57</v>
+      </c>
+      <c r="W90" s="5">
+        <v>105.58000000000001</v>
+      </c>
+      <c r="X90" s="5">
+        <v>94.049000000000007</v>
+      </c>
+      <c r="Y90" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="5">
+        <v>138.28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
+        <v>45945</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="5">
+        <v>327.19999999999993</v>
+      </c>
+      <c r="D91" s="5">
+        <v>392.48599999999993</v>
+      </c>
+      <c r="E91" s="5">
+        <v>91.914000000000016</v>
+      </c>
+      <c r="F91" s="5">
+        <v>153.24600000000001</v>
+      </c>
+      <c r="G91" s="5">
+        <v>27.390999999999998</v>
+      </c>
+      <c r="H91" s="5">
+        <v>46.585000000000001</v>
+      </c>
+      <c r="I91" s="5">
+        <v>481.11799999999994</v>
+      </c>
+      <c r="J91" s="5">
+        <v>206.77500000000003</v>
+      </c>
+      <c r="K91" s="5">
+        <v>242.19200000000001</v>
+      </c>
+      <c r="L91" s="5">
+        <v>173.62200000000001</v>
+      </c>
+      <c r="M91" s="5">
+        <v>30.800999999999998</v>
+      </c>
+      <c r="N91" s="5">
+        <v>265.14599999999996</v>
+      </c>
+      <c r="O91" s="5">
+        <v>292.88099999999997</v>
+      </c>
+      <c r="P91" s="5">
+        <v>484.23799999999989</v>
+      </c>
+      <c r="Q91" s="5">
+        <v>419.62700000000001</v>
+      </c>
+      <c r="R91" s="5">
+        <v>245.23400000000001</v>
+      </c>
+      <c r="S91" s="5">
+        <v>181.45099999999999</v>
+      </c>
+      <c r="T91" s="5">
+        <v>112.736</v>
+      </c>
+      <c r="U91" s="5">
+        <v>0</v>
+      </c>
+      <c r="V91" s="5">
+        <v>71.274000000000001</v>
+      </c>
+      <c r="W91" s="5">
+        <v>7.0549999999999997</v>
+      </c>
+      <c r="X91" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="5">
+        <v>46.429000000000002</v>
+      </c>
+      <c r="Z91" s="5">
+        <v>60.953000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z91"/>
+  <dimension ref="A1:Z93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7771,6 +7771,166 @@
         <v>60.953000000000003</v>
       </c>
     </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A92" s="3">
+        <v>45946</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92" s="5">
+        <v>919.90299999999991</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1034.1699999999998</v>
+      </c>
+      <c r="E92" s="5">
+        <v>480.23299999999995</v>
+      </c>
+      <c r="F92" s="5">
+        <v>443.35900000000004</v>
+      </c>
+      <c r="G92" s="5">
+        <v>353.44100000000003</v>
+      </c>
+      <c r="H92" s="5">
+        <v>730.66700000000037</v>
+      </c>
+      <c r="I92" s="5">
+        <v>469.48499999999996</v>
+      </c>
+      <c r="J92" s="5">
+        <v>228.10999999999999</v>
+      </c>
+      <c r="K92" s="5">
+        <v>204.62899999999999</v>
+      </c>
+      <c r="L92" s="5">
+        <v>68.197000000000003</v>
+      </c>
+      <c r="M92" s="5">
+        <v>142.256</v>
+      </c>
+      <c r="N92" s="5">
+        <v>121.02000000000001</v>
+      </c>
+      <c r="O92" s="5">
+        <v>625.00400000000013</v>
+      </c>
+      <c r="P92" s="5">
+        <v>1303.299</v>
+      </c>
+      <c r="Q92" s="5">
+        <v>482.36500000000001</v>
+      </c>
+      <c r="R92" s="5">
+        <v>339.03</v>
+      </c>
+      <c r="S92" s="5">
+        <v>302.52999999999997</v>
+      </c>
+      <c r="T92" s="5">
+        <v>218.88799999999998</v>
+      </c>
+      <c r="U92" s="5">
+        <v>52.32</v>
+      </c>
+      <c r="V92" s="5">
+        <v>6.18</v>
+      </c>
+      <c r="W92" s="5">
+        <v>22.44</v>
+      </c>
+      <c r="X92" s="5">
+        <v>22.62</v>
+      </c>
+      <c r="Y92" s="5">
+        <v>49.64</v>
+      </c>
+      <c r="Z92" s="5">
+        <v>17.829000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A93" s="3">
+        <v>45946</v>
+      </c>
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="5">
+        <v>470.37599999999992</v>
+      </c>
+      <c r="D93" s="5">
+        <v>396.26900000000006</v>
+      </c>
+      <c r="E93" s="5">
+        <v>87.545999999999992</v>
+      </c>
+      <c r="F93" s="5">
+        <v>80.507000000000005</v>
+      </c>
+      <c r="G93" s="5">
+        <v>16.68</v>
+      </c>
+      <c r="H93" s="5">
+        <v>30.046999999999997</v>
+      </c>
+      <c r="I93" s="5">
+        <v>121.277</v>
+      </c>
+      <c r="J93" s="5">
+        <v>150.477</v>
+      </c>
+      <c r="K93" s="5">
+        <v>327.01399999999995</v>
+      </c>
+      <c r="L93" s="5">
+        <v>233.535</v>
+      </c>
+      <c r="M93" s="5">
+        <v>134.67400000000001</v>
+      </c>
+      <c r="N93" s="5">
+        <v>264.495</v>
+      </c>
+      <c r="O93" s="5">
+        <v>434.62099999999992</v>
+      </c>
+      <c r="P93" s="5">
+        <v>622.08000000000015</v>
+      </c>
+      <c r="Q93" s="5">
+        <v>35.010000000000005</v>
+      </c>
+      <c r="R93" s="5">
+        <v>104.956</v>
+      </c>
+      <c r="S93" s="5">
+        <v>116.99999999999999</v>
+      </c>
+      <c r="T93" s="5">
+        <v>125.798</v>
+      </c>
+      <c r="U93" s="5">
+        <v>35.004000000000005</v>
+      </c>
+      <c r="V93" s="5">
+        <v>26.949000000000002</v>
+      </c>
+      <c r="W93" s="5">
+        <v>19.835999999999999</v>
+      </c>
+      <c r="X93" s="5">
+        <v>101.74499999999999</v>
+      </c>
+      <c r="Y93" s="5">
+        <v>16.765000000000001</v>
+      </c>
+      <c r="Z93" s="5">
+        <v>20.077999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z93"/>
+  <dimension ref="A1:Z95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7931,6 +7931,166 @@
         <v>20.077999999999999</v>
       </c>
     </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A94" s="3">
+        <v>45947</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="5">
+        <v>650.25500000000011</v>
+      </c>
+      <c r="D94" s="5">
+        <v>930.06399999999974</v>
+      </c>
+      <c r="E94" s="5">
+        <v>397.02599999999995</v>
+      </c>
+      <c r="F94" s="5">
+        <v>435.1</v>
+      </c>
+      <c r="G94" s="5">
+        <v>297.50799999999998</v>
+      </c>
+      <c r="H94" s="5">
+        <v>679.91599999999983</v>
+      </c>
+      <c r="I94" s="5">
+        <v>445.98900000000009</v>
+      </c>
+      <c r="J94" s="5">
+        <v>260.89699999999999</v>
+      </c>
+      <c r="K94" s="5">
+        <v>246.73599999999999</v>
+      </c>
+      <c r="L94" s="5">
+        <v>155.21100000000001</v>
+      </c>
+      <c r="M94" s="5">
+        <v>132.928</v>
+      </c>
+      <c r="N94" s="5">
+        <v>58.849999999999994</v>
+      </c>
+      <c r="O94" s="5">
+        <v>899.13500000000022</v>
+      </c>
+      <c r="P94" s="5">
+        <v>1084.961</v>
+      </c>
+      <c r="Q94" s="5">
+        <v>425.56</v>
+      </c>
+      <c r="R94" s="5">
+        <v>308.702</v>
+      </c>
+      <c r="S94" s="5">
+        <v>195.36099999999999</v>
+      </c>
+      <c r="T94" s="5">
+        <v>267.88300000000004</v>
+      </c>
+      <c r="U94" s="5">
+        <v>118.155</v>
+      </c>
+      <c r="V94" s="5">
+        <v>91.419999999999987</v>
+      </c>
+      <c r="W94" s="5">
+        <v>69.08</v>
+      </c>
+      <c r="X94" s="5">
+        <v>30.84</v>
+      </c>
+      <c r="Y94" s="5">
+        <v>102.51600000000001</v>
+      </c>
+      <c r="Z94" s="5">
+        <v>77.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A95" s="3">
+        <v>45947</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="5">
+        <v>283.77299999999997</v>
+      </c>
+      <c r="D95" s="5">
+        <v>178.89300000000003</v>
+      </c>
+      <c r="E95" s="5">
+        <v>86.751000000000005</v>
+      </c>
+      <c r="F95" s="5">
+        <v>151.09300000000002</v>
+      </c>
+      <c r="G95" s="5">
+        <v>105.629</v>
+      </c>
+      <c r="H95" s="5">
+        <v>217.26299999999998</v>
+      </c>
+      <c r="I95" s="5">
+        <v>283.42399999999998</v>
+      </c>
+      <c r="J95" s="5">
+        <v>125.997</v>
+      </c>
+      <c r="K95" s="5">
+        <v>277.68499999999995</v>
+      </c>
+      <c r="L95" s="5">
+        <v>96.781000000000006</v>
+      </c>
+      <c r="M95" s="5">
+        <v>108.54900000000001</v>
+      </c>
+      <c r="N95" s="5">
+        <v>180.06399999999999</v>
+      </c>
+      <c r="O95" s="5">
+        <v>473.57900000000001</v>
+      </c>
+      <c r="P95" s="5">
+        <v>418.93400000000003</v>
+      </c>
+      <c r="Q95" s="5">
+        <v>127.012</v>
+      </c>
+      <c r="R95" s="5">
+        <v>84.215999999999994</v>
+      </c>
+      <c r="S95" s="5">
+        <v>173.839</v>
+      </c>
+      <c r="T95" s="5">
+        <v>36.914000000000001</v>
+      </c>
+      <c r="U95" s="5">
+        <v>33.704000000000001</v>
+      </c>
+      <c r="V95" s="5">
+        <v>0</v>
+      </c>
+      <c r="W95" s="5">
+        <v>11.127000000000001</v>
+      </c>
+      <c r="X95" s="5">
+        <v>15.148999999999999</v>
+      </c>
+      <c r="Y95" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z95"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8091,6 +8091,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A96" s="3">
+        <v>45948</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="5">
+        <v>798.36700000000019</v>
+      </c>
+      <c r="D96" s="5">
+        <v>1416.1250000000005</v>
+      </c>
+      <c r="E96" s="5">
+        <v>508.31700000000001</v>
+      </c>
+      <c r="F96" s="5">
+        <v>499.35200000000003</v>
+      </c>
+      <c r="G96" s="5">
+        <v>510.37999999999994</v>
+      </c>
+      <c r="H96" s="5">
+        <v>520.12400000000002</v>
+      </c>
+      <c r="I96" s="5">
+        <v>554.03099999999995</v>
+      </c>
+      <c r="J96" s="5">
+        <v>280.76400000000001</v>
+      </c>
+      <c r="K96" s="5">
+        <v>231.26699999999994</v>
+      </c>
+      <c r="L96" s="5">
+        <v>132.76600000000002</v>
+      </c>
+      <c r="M96" s="5">
+        <v>265.32100000000003</v>
+      </c>
+      <c r="N96" s="5">
+        <v>170.77999999999997</v>
+      </c>
+      <c r="O96" s="5">
+        <v>656.71100000000001</v>
+      </c>
+      <c r="P96" s="5">
+        <v>1502.8520000000001</v>
+      </c>
+      <c r="Q96" s="5">
+        <v>620.44199999999989</v>
+      </c>
+      <c r="R96" s="5">
+        <v>419.42199999999991</v>
+      </c>
+      <c r="S96" s="5">
+        <v>375.59200000000004</v>
+      </c>
+      <c r="T96" s="5">
+        <v>199.70399999999998</v>
+      </c>
+      <c r="U96" s="5">
+        <v>135.86500000000001</v>
+      </c>
+      <c r="V96" s="5">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="W96" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="X96" s="5">
+        <v>65.62</v>
+      </c>
+      <c r="Y96" s="5">
+        <v>11.036</v>
+      </c>
+      <c r="Z96" s="5">
+        <v>45.89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
+        <v>45948</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="5">
+        <v>374.58500000000004</v>
+      </c>
+      <c r="D97" s="5">
+        <v>446.161</v>
+      </c>
+      <c r="E97" s="5">
+        <v>167.32399999999998</v>
+      </c>
+      <c r="F97" s="5">
+        <v>4.6130000000000004</v>
+      </c>
+      <c r="G97" s="5">
+        <v>36.421999999999997</v>
+      </c>
+      <c r="H97" s="5">
+        <v>93.38300000000001</v>
+      </c>
+      <c r="I97" s="5">
+        <v>210.88200000000001</v>
+      </c>
+      <c r="J97" s="5">
+        <v>185.30500000000001</v>
+      </c>
+      <c r="K97" s="5">
+        <v>145.58200000000002</v>
+      </c>
+      <c r="L97" s="5">
+        <v>209.29699999999997</v>
+      </c>
+      <c r="M97" s="5">
+        <v>299.25199999999995</v>
+      </c>
+      <c r="N97" s="5">
+        <v>158.078</v>
+      </c>
+      <c r="O97" s="5">
+        <v>424.92799999999994</v>
+      </c>
+      <c r="P97" s="5">
+        <v>318.28300000000007</v>
+      </c>
+      <c r="Q97" s="5">
+        <v>228.20499999999998</v>
+      </c>
+      <c r="R97" s="5">
+        <v>191.78899999999999</v>
+      </c>
+      <c r="S97" s="5">
+        <v>147.11799999999999</v>
+      </c>
+      <c r="T97" s="5">
+        <v>110.31300000000002</v>
+      </c>
+      <c r="U97" s="5">
+        <v>56.346999999999994</v>
+      </c>
+      <c r="V97" s="5">
+        <v>41.14</v>
+      </c>
+      <c r="W97" s="5">
+        <v>67.546999999999997</v>
+      </c>
+      <c r="X97" s="5">
+        <v>16.68</v>
+      </c>
+      <c r="Y97" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="5">
+        <v>11.734</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+      <selection activeCell="S104" sqref="S104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8251,6 +8251,166 @@
         <v>11.734</v>
       </c>
     </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A98" s="3">
+        <v>45949</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="5">
+        <v>580.31700000000001</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1176.8040000000003</v>
+      </c>
+      <c r="E98" s="5">
+        <v>520.91800000000012</v>
+      </c>
+      <c r="F98" s="5">
+        <v>263.53699999999998</v>
+      </c>
+      <c r="G98" s="5">
+        <v>480.93099999999993</v>
+      </c>
+      <c r="H98" s="5">
+        <v>575.10699999999997</v>
+      </c>
+      <c r="I98" s="5">
+        <v>433.06100000000004</v>
+      </c>
+      <c r="J98" s="5">
+        <v>320.76199999999994</v>
+      </c>
+      <c r="K98" s="5">
+        <v>134.96799999999999</v>
+      </c>
+      <c r="L98" s="5">
+        <v>97.206999999999994</v>
+      </c>
+      <c r="M98" s="5">
+        <v>295.06400000000002</v>
+      </c>
+      <c r="N98" s="5">
+        <v>179.67999999999998</v>
+      </c>
+      <c r="O98" s="5">
+        <v>586.91500000000008</v>
+      </c>
+      <c r="P98" s="5">
+        <v>956.95300000000009</v>
+      </c>
+      <c r="Q98" s="5">
+        <v>629.37100000000009</v>
+      </c>
+      <c r="R98" s="5">
+        <v>493.46599999999995</v>
+      </c>
+      <c r="S98" s="5">
+        <v>279.16799999999995</v>
+      </c>
+      <c r="T98" s="5">
+        <v>344.44</v>
+      </c>
+      <c r="U98" s="5">
+        <v>173.32700000000003</v>
+      </c>
+      <c r="V98" s="5">
+        <v>99.399999999999991</v>
+      </c>
+      <c r="W98" s="5">
+        <v>97.88000000000001</v>
+      </c>
+      <c r="X98" s="5">
+        <v>84.35</v>
+      </c>
+      <c r="Y98" s="5">
+        <v>93.799999999999983</v>
+      </c>
+      <c r="Z98" s="5">
+        <v>23.62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A99" s="3">
+        <v>45949</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="5">
+        <v>329.83699999999999</v>
+      </c>
+      <c r="D99" s="5">
+        <v>690.73299999999995</v>
+      </c>
+      <c r="E99" s="5">
+        <v>212.85399999999998</v>
+      </c>
+      <c r="F99" s="5">
+        <v>82.168999999999997</v>
+      </c>
+      <c r="G99" s="5">
+        <v>159.64599999999999</v>
+      </c>
+      <c r="H99" s="5">
+        <v>169.34399999999999</v>
+      </c>
+      <c r="I99" s="5">
+        <v>185.70400000000001</v>
+      </c>
+      <c r="J99" s="5">
+        <v>174.73100000000002</v>
+      </c>
+      <c r="K99" s="5">
+        <v>160.88</v>
+      </c>
+      <c r="L99" s="5">
+        <v>95.643000000000001</v>
+      </c>
+      <c r="M99" s="5">
+        <v>75.251999999999995</v>
+      </c>
+      <c r="N99" s="5">
+        <v>139.10500000000002</v>
+      </c>
+      <c r="O99" s="5">
+        <v>203.863</v>
+      </c>
+      <c r="P99" s="5">
+        <v>372.50700000000001</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>119.598</v>
+      </c>
+      <c r="R99" s="5">
+        <v>449.84299999999996</v>
+      </c>
+      <c r="S99" s="5">
+        <v>193.64399999999998</v>
+      </c>
+      <c r="T99" s="5">
+        <v>84.968000000000004</v>
+      </c>
+      <c r="U99" s="5">
+        <v>37.36</v>
+      </c>
+      <c r="V99" s="5">
+        <v>60.201000000000001</v>
+      </c>
+      <c r="W99" s="5">
+        <v>148.42600000000002</v>
+      </c>
+      <c r="X99" s="5">
+        <v>56.063000000000002</v>
+      </c>
+      <c r="Y99" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="5">
+        <v>67.164000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z99"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="S104" sqref="S104"/>
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8411,6 +8411,166 @@
         <v>67.164000000000001</v>
       </c>
     </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A100" s="3">
+        <v>45950</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="5">
+        <v>643.02200000000016</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1586.8579999999999</v>
+      </c>
+      <c r="E100" s="5">
+        <v>556.79099999999994</v>
+      </c>
+      <c r="F100" s="5">
+        <v>626.68399999999997</v>
+      </c>
+      <c r="G100" s="5">
+        <v>547.19600000000003</v>
+      </c>
+      <c r="H100" s="5">
+        <v>747.92100000000005</v>
+      </c>
+      <c r="I100" s="5">
+        <v>583.53399999999999</v>
+      </c>
+      <c r="J100" s="5">
+        <v>347.63499999999999</v>
+      </c>
+      <c r="K100" s="5">
+        <v>127.49299999999999</v>
+      </c>
+      <c r="L100" s="5">
+        <v>182.32</v>
+      </c>
+      <c r="M100" s="5">
+        <v>302.86400000000003</v>
+      </c>
+      <c r="N100" s="5">
+        <v>242.61099999999999</v>
+      </c>
+      <c r="O100" s="5">
+        <v>653.22699999999986</v>
+      </c>
+      <c r="P100" s="5">
+        <v>1674.3929999999996</v>
+      </c>
+      <c r="Q100" s="5">
+        <v>629.46699999999987</v>
+      </c>
+      <c r="R100" s="5">
+        <v>343.89299999999997</v>
+      </c>
+      <c r="S100" s="5">
+        <v>312.10100000000006</v>
+      </c>
+      <c r="T100" s="5">
+        <v>352.49699999999996</v>
+      </c>
+      <c r="U100" s="5">
+        <v>160.91</v>
+      </c>
+      <c r="V100" s="5">
+        <v>42.72</v>
+      </c>
+      <c r="W100" s="5">
+        <v>54.622</v>
+      </c>
+      <c r="X100" s="5">
+        <v>26.38</v>
+      </c>
+      <c r="Y100" s="5">
+        <v>70.92</v>
+      </c>
+      <c r="Z100" s="5">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A101" s="3">
+        <v>45950</v>
+      </c>
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="5">
+        <v>420.97699999999992</v>
+      </c>
+      <c r="D101" s="5">
+        <v>358.74200000000002</v>
+      </c>
+      <c r="E101" s="5">
+        <v>133.96199999999999</v>
+      </c>
+      <c r="F101" s="5">
+        <v>126.20700000000001</v>
+      </c>
+      <c r="G101" s="5">
+        <v>7.617</v>
+      </c>
+      <c r="H101" s="5">
+        <v>69.319999999999993</v>
+      </c>
+      <c r="I101" s="5">
+        <v>344.96799999999996</v>
+      </c>
+      <c r="J101" s="5">
+        <v>94.983000000000004</v>
+      </c>
+      <c r="K101" s="5">
+        <v>290.846</v>
+      </c>
+      <c r="L101" s="5">
+        <v>179.25</v>
+      </c>
+      <c r="M101" s="5">
+        <v>110.834</v>
+      </c>
+      <c r="N101" s="5">
+        <v>17.16</v>
+      </c>
+      <c r="O101" s="5">
+        <v>465.4740000000001</v>
+      </c>
+      <c r="P101" s="5">
+        <v>739.73099999999988</v>
+      </c>
+      <c r="Q101" s="5">
+        <v>307.73199999999997</v>
+      </c>
+      <c r="R101" s="5">
+        <v>235.54499999999999</v>
+      </c>
+      <c r="S101" s="5">
+        <v>192.28899999999999</v>
+      </c>
+      <c r="T101" s="5">
+        <v>113.13200000000001</v>
+      </c>
+      <c r="U101" s="5">
+        <v>16.408999999999999</v>
+      </c>
+      <c r="V101" s="5">
+        <v>58.495999999999995</v>
+      </c>
+      <c r="W101" s="5">
+        <v>184.04599999999999</v>
+      </c>
+      <c r="X101" s="5">
+        <v>49.586999999999996</v>
+      </c>
+      <c r="Y101" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z101"/>
+  <dimension ref="A1:Z103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8571,6 +8571,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A102" s="3">
+        <v>45951</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="5">
+        <v>857.52099999999984</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1466.3820000000003</v>
+      </c>
+      <c r="E102" s="5">
+        <v>479.98</v>
+      </c>
+      <c r="F102" s="5">
+        <v>539.16899999999998</v>
+      </c>
+      <c r="G102" s="5">
+        <v>493.20499999999993</v>
+      </c>
+      <c r="H102" s="5">
+        <v>625.346</v>
+      </c>
+      <c r="I102" s="5">
+        <v>390.88000000000005</v>
+      </c>
+      <c r="J102" s="5">
+        <v>345.15300000000002</v>
+      </c>
+      <c r="K102" s="5">
+        <v>185.28000000000003</v>
+      </c>
+      <c r="L102" s="5">
+        <v>162.74</v>
+      </c>
+      <c r="M102" s="5">
+        <v>172.44899999999998</v>
+      </c>
+      <c r="N102" s="5">
+        <v>164.58999999999997</v>
+      </c>
+      <c r="O102" s="5">
+        <v>916.23400000000004</v>
+      </c>
+      <c r="P102" s="5">
+        <v>1404.0079999999998</v>
+      </c>
+      <c r="Q102" s="5">
+        <v>490.19</v>
+      </c>
+      <c r="R102" s="5">
+        <v>234.20499999999998</v>
+      </c>
+      <c r="S102" s="5">
+        <v>224.02</v>
+      </c>
+      <c r="T102" s="5">
+        <v>205.00700000000001</v>
+      </c>
+      <c r="U102" s="5">
+        <v>68.490000000000009</v>
+      </c>
+      <c r="V102" s="5">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="W102" s="5">
+        <v>52.459999999999994</v>
+      </c>
+      <c r="X102" s="5">
+        <v>99.52</v>
+      </c>
+      <c r="Y102" s="5">
+        <v>61.91</v>
+      </c>
+      <c r="Z102" s="5">
+        <v>46.322000000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A103" s="3">
+        <v>45951</v>
+      </c>
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="5">
+        <v>383.12700000000001</v>
+      </c>
+      <c r="D103" s="5">
+        <v>717.8839999999999</v>
+      </c>
+      <c r="E103" s="5">
+        <v>295.90899999999999</v>
+      </c>
+      <c r="F103" s="5">
+        <v>45.890999999999998</v>
+      </c>
+      <c r="G103" s="5">
+        <v>19.938000000000002</v>
+      </c>
+      <c r="H103" s="5">
+        <v>461.00799999999998</v>
+      </c>
+      <c r="I103" s="5">
+        <v>302.74400000000003</v>
+      </c>
+      <c r="J103" s="5">
+        <v>160.67800000000003</v>
+      </c>
+      <c r="K103" s="5">
+        <v>385.49099999999999</v>
+      </c>
+      <c r="L103" s="5">
+        <v>207.84299999999996</v>
+      </c>
+      <c r="M103" s="5">
+        <v>110.67400000000001</v>
+      </c>
+      <c r="N103" s="5">
+        <v>437.09899999999999</v>
+      </c>
+      <c r="O103" s="5">
+        <v>718.36899999999991</v>
+      </c>
+      <c r="P103" s="5">
+        <v>743.57199999999978</v>
+      </c>
+      <c r="Q103" s="5">
+        <v>179.71499999999997</v>
+      </c>
+      <c r="R103" s="5">
+        <v>198.86999999999998</v>
+      </c>
+      <c r="S103" s="5">
+        <v>130.11500000000001</v>
+      </c>
+      <c r="T103" s="5">
+        <v>179.92200000000003</v>
+      </c>
+      <c r="U103" s="5">
+        <v>68.594999999999999</v>
+      </c>
+      <c r="V103" s="5">
+        <v>62.534000000000006</v>
+      </c>
+      <c r="W103" s="5">
+        <v>41.984000000000002</v>
+      </c>
+      <c r="X103" s="5">
+        <v>21.210999999999999</v>
+      </c>
+      <c r="Y103" s="5">
+        <v>34.519000000000005</v>
+      </c>
+      <c r="Z103" s="5">
+        <v>39.335999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z103"/>
+  <dimension ref="A1:Z105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8731,6 +8731,166 @@
         <v>39.335999999999999</v>
       </c>
     </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A104" s="3">
+        <v>45952</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="5">
+        <v>683.76599999999996</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1435.3520000000003</v>
+      </c>
+      <c r="E104" s="5">
+        <v>421.40200000000004</v>
+      </c>
+      <c r="F104" s="5">
+        <v>262.94200000000001</v>
+      </c>
+      <c r="G104" s="5">
+        <v>338.40600000000001</v>
+      </c>
+      <c r="H104" s="5">
+        <v>618.05100000000004</v>
+      </c>
+      <c r="I104" s="5">
+        <v>651.89700000000005</v>
+      </c>
+      <c r="J104" s="5">
+        <v>221.23400000000001</v>
+      </c>
+      <c r="K104" s="5">
+        <v>192.49299999999999</v>
+      </c>
+      <c r="L104" s="5">
+        <v>297.64599999999996</v>
+      </c>
+      <c r="M104" s="5">
+        <v>211.80999999999997</v>
+      </c>
+      <c r="N104" s="5">
+        <v>188.45999999999998</v>
+      </c>
+      <c r="O104" s="5">
+        <v>795.20499999999993</v>
+      </c>
+      <c r="P104" s="5">
+        <v>1107.029</v>
+      </c>
+      <c r="Q104" s="5">
+        <v>628.84599999999989</v>
+      </c>
+      <c r="R104" s="5">
+        <v>255.65899999999999</v>
+      </c>
+      <c r="S104" s="5">
+        <v>179.59799999999998</v>
+      </c>
+      <c r="T104" s="5">
+        <v>189.03199999999995</v>
+      </c>
+      <c r="U104" s="5">
+        <v>69.89</v>
+      </c>
+      <c r="V104" s="5">
+        <v>63.78</v>
+      </c>
+      <c r="W104" s="5">
+        <v>29.27</v>
+      </c>
+      <c r="X104" s="5">
+        <v>74.259999999999991</v>
+      </c>
+      <c r="Y104" s="5">
+        <v>59.76</v>
+      </c>
+      <c r="Z104" s="5">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A105" s="3">
+        <v>45952</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="5">
+        <v>311.86599999999999</v>
+      </c>
+      <c r="D105" s="5">
+        <v>259.83999999999997</v>
+      </c>
+      <c r="E105" s="5">
+        <v>113.44499999999999</v>
+      </c>
+      <c r="F105" s="5">
+        <v>158.54599999999999</v>
+      </c>
+      <c r="G105" s="5">
+        <v>80.239999999999995</v>
+      </c>
+      <c r="H105" s="5">
+        <v>232.22499999999999</v>
+      </c>
+      <c r="I105" s="5">
+        <v>317.279</v>
+      </c>
+      <c r="J105" s="5">
+        <v>193.02</v>
+      </c>
+      <c r="K105" s="5">
+        <v>191.702</v>
+      </c>
+      <c r="L105" s="5">
+        <v>204.23100000000002</v>
+      </c>
+      <c r="M105" s="5">
+        <v>156.04400000000001</v>
+      </c>
+      <c r="N105" s="5">
+        <v>372.18600000000004</v>
+      </c>
+      <c r="O105" s="5">
+        <v>417.92300000000006</v>
+      </c>
+      <c r="P105" s="5">
+        <v>832.17100000000005</v>
+      </c>
+      <c r="Q105" s="5">
+        <v>290.19600000000003</v>
+      </c>
+      <c r="R105" s="5">
+        <v>295.27899999999994</v>
+      </c>
+      <c r="S105" s="5">
+        <v>313.53699999999992</v>
+      </c>
+      <c r="T105" s="5">
+        <v>182.071</v>
+      </c>
+      <c r="U105" s="5">
+        <v>16.414000000000001</v>
+      </c>
+      <c r="V105" s="5">
+        <v>65.305000000000007</v>
+      </c>
+      <c r="W105" s="5">
+        <v>72.326999999999998</v>
+      </c>
+      <c r="X105" s="5">
+        <v>26.658999999999999</v>
+      </c>
+      <c r="Y105" s="5">
+        <v>36.389000000000003</v>
+      </c>
+      <c r="Z105" s="5">
+        <v>36.136000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z105"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8891,6 +8891,166 @@
         <v>36.136000000000003</v>
       </c>
     </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A106" s="3">
+        <v>45953</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="5">
+        <v>667.08100000000013</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1653.7469999999992</v>
+      </c>
+      <c r="E106" s="5">
+        <v>499.49999999999994</v>
+      </c>
+      <c r="F106" s="5">
+        <v>391.28300000000002</v>
+      </c>
+      <c r="G106" s="5">
+        <v>339.226</v>
+      </c>
+      <c r="H106" s="5">
+        <v>643.15899999999988</v>
+      </c>
+      <c r="I106" s="5">
+        <v>538.99900000000002</v>
+      </c>
+      <c r="J106" s="5">
+        <v>234.21199999999999</v>
+      </c>
+      <c r="K106" s="5">
+        <v>191.19099999999997</v>
+      </c>
+      <c r="L106" s="5">
+        <v>249.21700000000004</v>
+      </c>
+      <c r="M106" s="5">
+        <v>166.32000000000002</v>
+      </c>
+      <c r="N106" s="5">
+        <v>208.91399999999996</v>
+      </c>
+      <c r="O106" s="5">
+        <v>575.14199999999994</v>
+      </c>
+      <c r="P106" s="5">
+        <v>1932.2579999999998</v>
+      </c>
+      <c r="Q106" s="5">
+        <v>631.38200000000006</v>
+      </c>
+      <c r="R106" s="5">
+        <v>399.44099999999997</v>
+      </c>
+      <c r="S106" s="5">
+        <v>250.32699999999997</v>
+      </c>
+      <c r="T106" s="5">
+        <v>61.343000000000004</v>
+      </c>
+      <c r="U106" s="5">
+        <v>115.816</v>
+      </c>
+      <c r="V106" s="5">
+        <v>117.5</v>
+      </c>
+      <c r="W106" s="5">
+        <v>45.81</v>
+      </c>
+      <c r="X106" s="5">
+        <v>94.54</v>
+      </c>
+      <c r="Y106" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="5">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A107" s="3">
+        <v>45953</v>
+      </c>
+      <c r="B107" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="5">
+        <v>401.74799999999999</v>
+      </c>
+      <c r="D107" s="5">
+        <v>343.37299999999999</v>
+      </c>
+      <c r="E107" s="5">
+        <v>90.745000000000005</v>
+      </c>
+      <c r="F107" s="5">
+        <v>42.969000000000001</v>
+      </c>
+      <c r="G107" s="5">
+        <v>62.645000000000003</v>
+      </c>
+      <c r="H107" s="5">
+        <v>231.13</v>
+      </c>
+      <c r="I107" s="5">
+        <v>249.79</v>
+      </c>
+      <c r="J107" s="5">
+        <v>229.44800000000001</v>
+      </c>
+      <c r="K107" s="5">
+        <v>285.13299999999998</v>
+      </c>
+      <c r="L107" s="5">
+        <v>271.70599999999996</v>
+      </c>
+      <c r="M107" s="5">
+        <v>330.9129999999999</v>
+      </c>
+      <c r="N107" s="5">
+        <v>326.52199999999999</v>
+      </c>
+      <c r="O107" s="5">
+        <v>561.93600000000004</v>
+      </c>
+      <c r="P107" s="5">
+        <v>585.37100000000009</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>282.61699999999996</v>
+      </c>
+      <c r="R107" s="5">
+        <v>271.65000000000003</v>
+      </c>
+      <c r="S107" s="5">
+        <v>390.19900000000007</v>
+      </c>
+      <c r="T107" s="5">
+        <v>193.51999999999998</v>
+      </c>
+      <c r="U107" s="5">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="V107" s="5">
+        <v>36.227000000000004</v>
+      </c>
+      <c r="W107" s="5">
+        <v>79.051000000000002</v>
+      </c>
+      <c r="X107" s="5">
+        <v>62.741999999999997</v>
+      </c>
+      <c r="Y107" s="5">
+        <v>20.72</v>
+      </c>
+      <c r="Z107" s="5">
+        <v>10.468999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z107"/>
+  <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9051,6 +9051,166 @@
         <v>10.468999999999999</v>
       </c>
     </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A108" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="5">
+        <v>874.30599999999993</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1060.5149999999999</v>
+      </c>
+      <c r="E108" s="5">
+        <v>747.50800000000004</v>
+      </c>
+      <c r="F108" s="5">
+        <v>445.40000000000009</v>
+      </c>
+      <c r="G108" s="5">
+        <v>227.21200000000005</v>
+      </c>
+      <c r="H108" s="5">
+        <v>563.44199999999989</v>
+      </c>
+      <c r="I108" s="5">
+        <v>490.36600000000004</v>
+      </c>
+      <c r="J108" s="5">
+        <v>257.30200000000002</v>
+      </c>
+      <c r="K108" s="5">
+        <v>248.54199999999997</v>
+      </c>
+      <c r="L108" s="5">
+        <v>178.49199999999999</v>
+      </c>
+      <c r="M108" s="5">
+        <v>106.33</v>
+      </c>
+      <c r="N108" s="5">
+        <v>271.24</v>
+      </c>
+      <c r="O108" s="5">
+        <v>569.16</v>
+      </c>
+      <c r="P108" s="5">
+        <v>1709.1939999999993</v>
+      </c>
+      <c r="Q108" s="5">
+        <v>342.46100000000007</v>
+      </c>
+      <c r="R108" s="5">
+        <v>446.62500000000011</v>
+      </c>
+      <c r="S108" s="5">
+        <v>203.965</v>
+      </c>
+      <c r="T108" s="5">
+        <v>235.38500000000002</v>
+      </c>
+      <c r="U108" s="5">
+        <v>126.614</v>
+      </c>
+      <c r="V108" s="5">
+        <v>69.34</v>
+      </c>
+      <c r="W108" s="5">
+        <v>73.490000000000009</v>
+      </c>
+      <c r="X108" s="5">
+        <v>16.84</v>
+      </c>
+      <c r="Y108" s="5">
+        <v>98.498000000000019</v>
+      </c>
+      <c r="Z108" s="5">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A109" s="3">
+        <v>45954</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="5">
+        <v>378.55699999999996</v>
+      </c>
+      <c r="D109" s="5">
+        <v>561.33500000000004</v>
+      </c>
+      <c r="E109" s="5">
+        <v>100.078</v>
+      </c>
+      <c r="F109" s="5">
+        <v>104.42999999999999</v>
+      </c>
+      <c r="G109" s="5">
+        <v>47.692</v>
+      </c>
+      <c r="H109" s="5">
+        <v>200.446</v>
+      </c>
+      <c r="I109" s="5">
+        <v>57.234999999999999</v>
+      </c>
+      <c r="J109" s="5">
+        <v>172.09199999999998</v>
+      </c>
+      <c r="K109" s="5">
+        <v>471.4790000000001</v>
+      </c>
+      <c r="L109" s="5">
+        <v>231.19900000000001</v>
+      </c>
+      <c r="M109" s="5">
+        <v>280.65299999999996</v>
+      </c>
+      <c r="N109" s="5">
+        <v>447.09600000000012</v>
+      </c>
+      <c r="O109" s="5">
+        <v>454.20800000000008</v>
+      </c>
+      <c r="P109" s="5">
+        <v>567.8359999999999</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>269.16899999999998</v>
+      </c>
+      <c r="R109" s="5">
+        <v>444.10100000000006</v>
+      </c>
+      <c r="S109" s="5">
+        <v>171.86999999999998</v>
+      </c>
+      <c r="T109" s="5">
+        <v>168.99900000000002</v>
+      </c>
+      <c r="U109" s="5">
+        <v>153.994</v>
+      </c>
+      <c r="V109" s="5">
+        <v>72.294999999999987</v>
+      </c>
+      <c r="W109" s="5">
+        <v>16.797000000000001</v>
+      </c>
+      <c r="X109" s="5">
+        <v>15.547000000000001</v>
+      </c>
+      <c r="Y109" s="5">
+        <v>5.0469999999999997</v>
+      </c>
+      <c r="Z109" s="5">
+        <v>13.180000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z109"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D112" sqref="D112"/>
+      <selection activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9211,6 +9211,166 @@
         <v>13.180000000000001</v>
       </c>
     </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A110" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="5">
+        <v>900.97700000000009</v>
+      </c>
+      <c r="D110" s="5">
+        <v>1702.6160000000004</v>
+      </c>
+      <c r="E110" s="5">
+        <v>374.84000000000003</v>
+      </c>
+      <c r="F110" s="5">
+        <v>618.02599999999984</v>
+      </c>
+      <c r="G110" s="5">
+        <v>385.91400000000004</v>
+      </c>
+      <c r="H110" s="5">
+        <v>655.79700000000014</v>
+      </c>
+      <c r="I110" s="5">
+        <v>463.88899999999995</v>
+      </c>
+      <c r="J110" s="5">
+        <v>247.92599999999996</v>
+      </c>
+      <c r="K110" s="5">
+        <v>80.251000000000005</v>
+      </c>
+      <c r="L110" s="5">
+        <v>168.73000000000002</v>
+      </c>
+      <c r="M110" s="5">
+        <v>222.25</v>
+      </c>
+      <c r="N110" s="5">
+        <v>263.529</v>
+      </c>
+      <c r="O110" s="5">
+        <v>782.66300000000012</v>
+      </c>
+      <c r="P110" s="5">
+        <v>1338.4579999999999</v>
+      </c>
+      <c r="Q110" s="5">
+        <v>747.38</v>
+      </c>
+      <c r="R110" s="5">
+        <v>354.37400000000002</v>
+      </c>
+      <c r="S110" s="5">
+        <v>239.41900000000004</v>
+      </c>
+      <c r="T110" s="5">
+        <v>267.00300000000004</v>
+      </c>
+      <c r="U110" s="5">
+        <v>92.65</v>
+      </c>
+      <c r="V110" s="5">
+        <v>173.49</v>
+      </c>
+      <c r="W110" s="5">
+        <v>47.365000000000002</v>
+      </c>
+      <c r="X110" s="5">
+        <v>62.66</v>
+      </c>
+      <c r="Y110" s="5">
+        <v>85.97</v>
+      </c>
+      <c r="Z110" s="5">
+        <v>133.22399999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A111" s="3">
+        <v>45955</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="5">
+        <v>363.14699999999999</v>
+      </c>
+      <c r="D111" s="5">
+        <v>331.78399999999999</v>
+      </c>
+      <c r="E111" s="5">
+        <v>384.15</v>
+      </c>
+      <c r="F111" s="5">
+        <v>44.338999999999999</v>
+      </c>
+      <c r="G111" s="5">
+        <v>67.266000000000005</v>
+      </c>
+      <c r="H111" s="5">
+        <v>202.733</v>
+      </c>
+      <c r="I111" s="5">
+        <v>374.48099999999999</v>
+      </c>
+      <c r="J111" s="5">
+        <v>113.149</v>
+      </c>
+      <c r="K111" s="5">
+        <v>389.02600000000007</v>
+      </c>
+      <c r="L111" s="5">
+        <v>92.569000000000003</v>
+      </c>
+      <c r="M111" s="5">
+        <v>186.673</v>
+      </c>
+      <c r="N111" s="5">
+        <v>352.68700000000001</v>
+      </c>
+      <c r="O111" s="5">
+        <v>416.73399999999998</v>
+      </c>
+      <c r="P111" s="5">
+        <v>516.01299999999992</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>258.74599999999998</v>
+      </c>
+      <c r="R111" s="5">
+        <v>334.11500000000001</v>
+      </c>
+      <c r="S111" s="5">
+        <v>250.09199999999998</v>
+      </c>
+      <c r="T111" s="5">
+        <v>182.23299999999998</v>
+      </c>
+      <c r="U111" s="5">
+        <v>0</v>
+      </c>
+      <c r="V111" s="5">
+        <v>27.478000000000002</v>
+      </c>
+      <c r="W111" s="5">
+        <v>138.542</v>
+      </c>
+      <c r="X111" s="5">
+        <v>22.335999999999999</v>
+      </c>
+      <c r="Y111" s="5">
+        <v>54.697000000000003</v>
+      </c>
+      <c r="Z111" s="5">
+        <v>11.282</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z111"/>
+  <dimension ref="A1:Z113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="J114" sqref="J114"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9371,6 +9371,166 @@
         <v>11.282</v>
       </c>
     </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A112" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B112" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="5">
+        <v>629.23</v>
+      </c>
+      <c r="D112" s="5">
+        <v>1388.5029999999997</v>
+      </c>
+      <c r="E112" s="5">
+        <v>277.02100000000002</v>
+      </c>
+      <c r="F112" s="5">
+        <v>462.41500000000002</v>
+      </c>
+      <c r="G112" s="5">
+        <v>640.7639999999999</v>
+      </c>
+      <c r="H112" s="5">
+        <v>746.50300000000004</v>
+      </c>
+      <c r="I112" s="5">
+        <v>447.74399999999997</v>
+      </c>
+      <c r="J112" s="5">
+        <v>276.74900000000002</v>
+      </c>
+      <c r="K112" s="5">
+        <v>163.73999999999998</v>
+      </c>
+      <c r="L112" s="5">
+        <v>154.79999999999998</v>
+      </c>
+      <c r="M112" s="5">
+        <v>256.77</v>
+      </c>
+      <c r="N112" s="5">
+        <v>323.23700000000008</v>
+      </c>
+      <c r="O112" s="5">
+        <v>749.7299999999999</v>
+      </c>
+      <c r="P112" s="5">
+        <v>1156.8309999999999</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>554.84500000000014</v>
+      </c>
+      <c r="R112" s="5">
+        <v>252.60599999999997</v>
+      </c>
+      <c r="S112" s="5">
+        <v>350.75700000000001</v>
+      </c>
+      <c r="T112" s="5">
+        <v>264.11400000000003</v>
+      </c>
+      <c r="U112" s="5">
+        <v>100.18</v>
+      </c>
+      <c r="V112" s="5">
+        <v>106.56</v>
+      </c>
+      <c r="W112" s="5">
+        <v>89.054000000000002</v>
+      </c>
+      <c r="X112" s="5">
+        <v>98.962000000000003</v>
+      </c>
+      <c r="Y112" s="5">
+        <v>167.01999999999998</v>
+      </c>
+      <c r="Z112" s="5">
+        <v>37.070999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A113" s="3">
+        <v>45956</v>
+      </c>
+      <c r="B113" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="5">
+        <v>405.16400000000004</v>
+      </c>
+      <c r="D113" s="5">
+        <v>391.51800000000003</v>
+      </c>
+      <c r="E113" s="5">
+        <v>224.29399999999998</v>
+      </c>
+      <c r="F113" s="5">
+        <v>156.797</v>
+      </c>
+      <c r="G113" s="5">
+        <v>15.297000000000001</v>
+      </c>
+      <c r="H113" s="5">
+        <v>155.69600000000003</v>
+      </c>
+      <c r="I113" s="5">
+        <v>105.41800000000001</v>
+      </c>
+      <c r="J113" s="5">
+        <v>118.53999999999999</v>
+      </c>
+      <c r="K113" s="5">
+        <v>281.46100000000001</v>
+      </c>
+      <c r="L113" s="5">
+        <v>338.99699999999996</v>
+      </c>
+      <c r="M113" s="5">
+        <v>28.116</v>
+      </c>
+      <c r="N113" s="5">
+        <v>243.30300000000003</v>
+      </c>
+      <c r="O113" s="5">
+        <v>492.25299999999993</v>
+      </c>
+      <c r="P113" s="5">
+        <v>162.977</v>
+      </c>
+      <c r="Q113" s="5">
+        <v>352.91200000000003</v>
+      </c>
+      <c r="R113" s="5">
+        <v>396.93200000000002</v>
+      </c>
+      <c r="S113" s="5">
+        <v>155.72099999999998</v>
+      </c>
+      <c r="T113" s="5">
+        <v>28.703000000000003</v>
+      </c>
+      <c r="U113" s="5">
+        <v>60.279000000000003</v>
+      </c>
+      <c r="V113" s="5">
+        <v>58.762999999999998</v>
+      </c>
+      <c r="W113" s="5">
+        <v>30.273</v>
+      </c>
+      <c r="X113" s="5">
+        <v>16.213999999999999</v>
+      </c>
+      <c r="Y113" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z113"/>
+  <dimension ref="A1:Z115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9531,6 +9531,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A114" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="5">
+        <v>529.37099999999987</v>
+      </c>
+      <c r="D114" s="5">
+        <v>1180.3180000000002</v>
+      </c>
+      <c r="E114" s="5">
+        <v>370.83</v>
+      </c>
+      <c r="F114" s="5">
+        <v>510.38800000000003</v>
+      </c>
+      <c r="G114" s="5">
+        <v>376.40499999999997</v>
+      </c>
+      <c r="H114" s="5">
+        <v>555.9380000000001</v>
+      </c>
+      <c r="I114" s="5">
+        <v>395.12200000000001</v>
+      </c>
+      <c r="J114" s="5">
+        <v>273.95600000000002</v>
+      </c>
+      <c r="K114" s="5">
+        <v>70.944000000000003</v>
+      </c>
+      <c r="L114" s="5">
+        <v>118.11599999999999</v>
+      </c>
+      <c r="M114" s="5">
+        <v>209.08799999999999</v>
+      </c>
+      <c r="N114" s="5">
+        <v>201.95999999999998</v>
+      </c>
+      <c r="O114" s="5">
+        <v>800.4259999999997</v>
+      </c>
+      <c r="P114" s="5">
+        <v>954.38800000000015</v>
+      </c>
+      <c r="Q114" s="5">
+        <v>584.83400000000017</v>
+      </c>
+      <c r="R114" s="5">
+        <v>307.79000000000002</v>
+      </c>
+      <c r="S114" s="5">
+        <v>187.97</v>
+      </c>
+      <c r="T114" s="5">
+        <v>200.46</v>
+      </c>
+      <c r="U114" s="5">
+        <v>81.64</v>
+      </c>
+      <c r="V114" s="5">
+        <v>187.08</v>
+      </c>
+      <c r="W114" s="5">
+        <v>18.549999999999997</v>
+      </c>
+      <c r="X114" s="5">
+        <v>13.6</v>
+      </c>
+      <c r="Y114" s="5">
+        <v>29.93</v>
+      </c>
+      <c r="Z114" s="5">
+        <v>93.722999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A115" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B115" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="5">
+        <v>425.51800000000003</v>
+      </c>
+      <c r="D115" s="5">
+        <v>269.279</v>
+      </c>
+      <c r="E115" s="5">
+        <v>107.187</v>
+      </c>
+      <c r="F115" s="5">
+        <v>99.769000000000005</v>
+      </c>
+      <c r="G115" s="5">
+        <v>65.304000000000002</v>
+      </c>
+      <c r="H115" s="5">
+        <v>82.179000000000002</v>
+      </c>
+      <c r="I115" s="5">
+        <v>133.63200000000001</v>
+      </c>
+      <c r="J115" s="5">
+        <v>124.744</v>
+      </c>
+      <c r="K115" s="5">
+        <v>151.97499999999999</v>
+      </c>
+      <c r="L115" s="5">
+        <v>158.934</v>
+      </c>
+      <c r="M115" s="5">
+        <v>88.349000000000004</v>
+      </c>
+      <c r="N115" s="5">
+        <v>188.28500000000003</v>
+      </c>
+      <c r="O115" s="5">
+        <v>454.41200000000003</v>
+      </c>
+      <c r="P115" s="5">
+        <v>415.29500000000002</v>
+      </c>
+      <c r="Q115" s="5">
+        <v>271.20599999999996</v>
+      </c>
+      <c r="R115" s="5">
+        <v>428.75600000000003</v>
+      </c>
+      <c r="S115" s="5">
+        <v>369.78</v>
+      </c>
+      <c r="T115" s="5">
+        <v>99.925999999999988</v>
+      </c>
+      <c r="U115" s="5">
+        <v>101.342</v>
+      </c>
+      <c r="V115" s="5">
+        <v>20.172000000000001</v>
+      </c>
+      <c r="W115" s="5">
+        <v>52.210999999999999</v>
+      </c>
+      <c r="X115" s="5">
+        <v>40.272999999999996</v>
+      </c>
+      <c r="Y115" s="5">
+        <v>82.632999999999996</v>
+      </c>
+      <c r="Z115" s="5">
+        <v>7.641</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z115"/>
+  <dimension ref="A1:Z117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9691,6 +9691,166 @@
         <v>7.641</v>
       </c>
     </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A116" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="5">
+        <v>714.13399999999979</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1319.0340000000001</v>
+      </c>
+      <c r="E116" s="5">
+        <v>461.16599999999994</v>
+      </c>
+      <c r="F116" s="5">
+        <v>313.209</v>
+      </c>
+      <c r="G116" s="5">
+        <v>317.17599999999999</v>
+      </c>
+      <c r="H116" s="5">
+        <v>676.3280000000002</v>
+      </c>
+      <c r="I116" s="5">
+        <v>421.11899999999997</v>
+      </c>
+      <c r="J116" s="5">
+        <v>259.50100000000003</v>
+      </c>
+      <c r="K116" s="5">
+        <v>91.561999999999998</v>
+      </c>
+      <c r="L116" s="5">
+        <v>264.81900000000002</v>
+      </c>
+      <c r="M116" s="5">
+        <v>203.65700000000004</v>
+      </c>
+      <c r="N116" s="5">
+        <v>203.48</v>
+      </c>
+      <c r="O116" s="5">
+        <v>736.24499999999989</v>
+      </c>
+      <c r="P116" s="5">
+        <v>1044.749</v>
+      </c>
+      <c r="Q116" s="5">
+        <v>422.04600000000005</v>
+      </c>
+      <c r="R116" s="5">
+        <v>288.19200000000001</v>
+      </c>
+      <c r="S116" s="5">
+        <v>323.04400000000004</v>
+      </c>
+      <c r="T116" s="5">
+        <v>110.13500000000001</v>
+      </c>
+      <c r="U116" s="5">
+        <v>131.54500000000002</v>
+      </c>
+      <c r="V116" s="5">
+        <v>100.76700000000001</v>
+      </c>
+      <c r="W116" s="5">
+        <v>126.93</v>
+      </c>
+      <c r="X116" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="5">
+        <v>19.78</v>
+      </c>
+      <c r="Z116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A117" s="3">
+        <v>45958</v>
+      </c>
+      <c r="B117" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="5">
+        <v>539.44799999999998</v>
+      </c>
+      <c r="D117" s="5">
+        <v>270.93700000000001</v>
+      </c>
+      <c r="E117" s="5">
+        <v>122.70299999999999</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0</v>
+      </c>
+      <c r="G117" s="5">
+        <v>0</v>
+      </c>
+      <c r="H117" s="5">
+        <v>89.805000000000007</v>
+      </c>
+      <c r="I117" s="5">
+        <v>322.286</v>
+      </c>
+      <c r="J117" s="5">
+        <v>124.20000000000002</v>
+      </c>
+      <c r="K117" s="5">
+        <v>236.12299999999999</v>
+      </c>
+      <c r="L117" s="5">
+        <v>399.98899999999998</v>
+      </c>
+      <c r="M117" s="5">
+        <v>118.52</v>
+      </c>
+      <c r="N117" s="5">
+        <v>286.50400000000002</v>
+      </c>
+      <c r="O117" s="5">
+        <v>263.79300000000001</v>
+      </c>
+      <c r="P117" s="5">
+        <v>356.65400000000005</v>
+      </c>
+      <c r="Q117" s="5">
+        <v>141.678</v>
+      </c>
+      <c r="R117" s="5">
+        <v>258.40100000000001</v>
+      </c>
+      <c r="S117" s="5">
+        <v>121.767</v>
+      </c>
+      <c r="T117" s="5">
+        <v>70.86</v>
+      </c>
+      <c r="U117" s="5">
+        <v>67.61</v>
+      </c>
+      <c r="V117" s="5">
+        <v>26.148000000000003</v>
+      </c>
+      <c r="W117" s="5">
+        <v>13.375</v>
+      </c>
+      <c r="X117" s="5">
+        <v>83.830000000000013</v>
+      </c>
+      <c r="Y117" s="5">
+        <v>75.516000000000005</v>
+      </c>
+      <c r="Z117" s="5">
+        <v>39.813000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z117"/>
+  <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+      <selection activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9851,6 +9851,166 @@
         <v>39.813000000000002</v>
       </c>
     </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A118" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B118" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" s="5">
+        <v>998.51400000000001</v>
+      </c>
+      <c r="D118" s="5">
+        <v>1190.1950000000002</v>
+      </c>
+      <c r="E118" s="5">
+        <v>191.11199999999999</v>
+      </c>
+      <c r="F118" s="5">
+        <v>384.40000000000009</v>
+      </c>
+      <c r="G118" s="5">
+        <v>260.87400000000002</v>
+      </c>
+      <c r="H118" s="5">
+        <v>720.13000000000011</v>
+      </c>
+      <c r="I118" s="5">
+        <v>174.32399999999998</v>
+      </c>
+      <c r="J118" s="5">
+        <v>188.15299999999999</v>
+      </c>
+      <c r="K118" s="5">
+        <v>191.16199999999998</v>
+      </c>
+      <c r="L118" s="5">
+        <v>158.39099999999999</v>
+      </c>
+      <c r="M118" s="5">
+        <v>205.76999999999998</v>
+      </c>
+      <c r="N118" s="5">
+        <v>288.36</v>
+      </c>
+      <c r="O118" s="5">
+        <v>718.14800000000002</v>
+      </c>
+      <c r="P118" s="5">
+        <v>1420.376</v>
+      </c>
+      <c r="Q118" s="5">
+        <v>426.06999999999994</v>
+      </c>
+      <c r="R118" s="5">
+        <v>430.28800000000007</v>
+      </c>
+      <c r="S118" s="5">
+        <v>179.30999999999997</v>
+      </c>
+      <c r="T118" s="5">
+        <v>244.65500000000003</v>
+      </c>
+      <c r="U118" s="5">
+        <v>61.646000000000001</v>
+      </c>
+      <c r="V118" s="5">
+        <v>85.034000000000006</v>
+      </c>
+      <c r="W118" s="5">
+        <v>78.62299999999999</v>
+      </c>
+      <c r="X118" s="5">
+        <v>32.893999999999998</v>
+      </c>
+      <c r="Y118" s="5">
+        <v>63.78</v>
+      </c>
+      <c r="Z118" s="5">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A119" s="3">
+        <v>45959</v>
+      </c>
+      <c r="B119" t="s">
+        <v>27</v>
+      </c>
+      <c r="C119" s="5">
+        <v>311.92400000000004</v>
+      </c>
+      <c r="D119" s="5">
+        <v>309.21100000000001</v>
+      </c>
+      <c r="E119" s="5">
+        <v>161.53100000000001</v>
+      </c>
+      <c r="F119" s="5">
+        <v>62.046999999999997</v>
+      </c>
+      <c r="G119" s="5">
+        <v>112.52000000000001</v>
+      </c>
+      <c r="H119" s="5">
+        <v>63.858999999999995</v>
+      </c>
+      <c r="I119" s="5">
+        <v>36.969000000000001</v>
+      </c>
+      <c r="J119" s="5">
+        <v>91.103000000000009</v>
+      </c>
+      <c r="K119" s="5">
+        <v>222.23599999999999</v>
+      </c>
+      <c r="L119" s="5">
+        <v>170.76900000000001</v>
+      </c>
+      <c r="M119" s="5">
+        <v>169.24199999999999</v>
+      </c>
+      <c r="N119" s="5">
+        <v>145.19899999999998</v>
+      </c>
+      <c r="O119" s="5">
+        <v>439.50899999999996</v>
+      </c>
+      <c r="P119" s="5">
+        <v>402.39000000000004</v>
+      </c>
+      <c r="Q119" s="5">
+        <v>224.57100000000003</v>
+      </c>
+      <c r="R119" s="5">
+        <v>212.78</v>
+      </c>
+      <c r="S119" s="5">
+        <v>66.461000000000013</v>
+      </c>
+      <c r="T119" s="5">
+        <v>31.405000000000001</v>
+      </c>
+      <c r="U119" s="5">
+        <v>57.529000000000003</v>
+      </c>
+      <c r="V119" s="5">
+        <v>23.407</v>
+      </c>
+      <c r="W119" s="5">
+        <v>27.57</v>
+      </c>
+      <c r="X119" s="5">
+        <v>14.055</v>
+      </c>
+      <c r="Y119" s="5">
+        <v>7.0629999999999997</v>
+      </c>
+      <c r="Z119" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z119"/>
+  <dimension ref="A1:Z123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="N122" sqref="N122"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10011,6 +10011,326 @@
         <v>0</v>
       </c>
     </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A120" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B120" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" s="5">
+        <v>989.6149999999999</v>
+      </c>
+      <c r="D120" s="5">
+        <v>734.03</v>
+      </c>
+      <c r="E120" s="5">
+        <v>445.57700000000006</v>
+      </c>
+      <c r="F120" s="5">
+        <v>311</v>
+      </c>
+      <c r="G120" s="5">
+        <v>409.13800000000003</v>
+      </c>
+      <c r="H120" s="5">
+        <v>608.76799999999992</v>
+      </c>
+      <c r="I120" s="5">
+        <v>280.58100000000002</v>
+      </c>
+      <c r="J120" s="5">
+        <v>115.31300000000002</v>
+      </c>
+      <c r="K120" s="5">
+        <v>181.61100000000002</v>
+      </c>
+      <c r="L120" s="5">
+        <v>168.91200000000001</v>
+      </c>
+      <c r="M120" s="5">
+        <v>135.65200000000002</v>
+      </c>
+      <c r="N120" s="5">
+        <v>124.774</v>
+      </c>
+      <c r="O120" s="5">
+        <v>806.14900000000011</v>
+      </c>
+      <c r="P120" s="5">
+        <v>1129.0839999999998</v>
+      </c>
+      <c r="Q120" s="5">
+        <v>556.45500000000004</v>
+      </c>
+      <c r="R120" s="5">
+        <v>414.06400000000008</v>
+      </c>
+      <c r="S120" s="5">
+        <v>335.22399999999999</v>
+      </c>
+      <c r="T120" s="5">
+        <v>133.941</v>
+      </c>
+      <c r="U120" s="5">
+        <v>42.72</v>
+      </c>
+      <c r="V120" s="5">
+        <v>282.62299999999999</v>
+      </c>
+      <c r="W120" s="5">
+        <v>86.783000000000001</v>
+      </c>
+      <c r="X120" s="5">
+        <v>213.98999999999998</v>
+      </c>
+      <c r="Y120" s="5">
+        <v>23.824000000000002</v>
+      </c>
+      <c r="Z120" s="5">
+        <v>33.78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A121" s="3">
+        <v>45960</v>
+      </c>
+      <c r="B121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="5">
+        <v>293.13900000000001</v>
+      </c>
+      <c r="D121" s="5">
+        <v>285.20399999999995</v>
+      </c>
+      <c r="E121" s="5">
+        <v>118.218</v>
+      </c>
+      <c r="F121" s="5">
+        <v>60.241999999999997</v>
+      </c>
+      <c r="G121" s="5">
+        <v>33.692</v>
+      </c>
+      <c r="H121" s="5">
+        <v>185.57900000000004</v>
+      </c>
+      <c r="I121" s="5">
+        <v>159.172</v>
+      </c>
+      <c r="J121" s="5">
+        <v>132.84700000000001</v>
+      </c>
+      <c r="K121" s="5">
+        <v>141.11199999999999</v>
+      </c>
+      <c r="L121" s="5">
+        <v>278.24400000000003</v>
+      </c>
+      <c r="M121" s="5">
+        <v>150.92099999999999</v>
+      </c>
+      <c r="N121" s="5">
+        <v>188.73699999999997</v>
+      </c>
+      <c r="O121" s="5">
+        <v>387.25900000000007</v>
+      </c>
+      <c r="P121" s="5">
+        <v>233.34200000000001</v>
+      </c>
+      <c r="Q121" s="5">
+        <v>313.71899999999999</v>
+      </c>
+      <c r="R121" s="5">
+        <v>177.96899999999999</v>
+      </c>
+      <c r="S121" s="5">
+        <v>425.65800000000002</v>
+      </c>
+      <c r="T121" s="5">
+        <v>128.017</v>
+      </c>
+      <c r="U121" s="5">
+        <v>36.773000000000003</v>
+      </c>
+      <c r="V121" s="5">
+        <v>190.48299999999998</v>
+      </c>
+      <c r="W121" s="5">
+        <v>52.43</v>
+      </c>
+      <c r="X121" s="5">
+        <v>78.98</v>
+      </c>
+      <c r="Y121" s="5">
+        <v>15.257</v>
+      </c>
+      <c r="Z121" s="5">
+        <v>42.008000000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A122" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B122" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="5">
+        <v>616.39100000000008</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1017.5880000000001</v>
+      </c>
+      <c r="E122" s="5">
+        <v>397.84200000000004</v>
+      </c>
+      <c r="F122" s="5">
+        <v>651.91200000000003</v>
+      </c>
+      <c r="G122" s="5">
+        <v>129.25</v>
+      </c>
+      <c r="H122" s="5">
+        <v>793.01699999999994</v>
+      </c>
+      <c r="I122" s="5">
+        <v>354.01799999999997</v>
+      </c>
+      <c r="J122" s="5">
+        <v>170.83500000000001</v>
+      </c>
+      <c r="K122" s="5">
+        <v>119.13</v>
+      </c>
+      <c r="L122" s="5">
+        <v>154.23099999999999</v>
+      </c>
+      <c r="M122" s="5">
+        <v>163.32999999999998</v>
+      </c>
+      <c r="N122" s="5">
+        <v>179.72000000000003</v>
+      </c>
+      <c r="O122" s="5">
+        <v>715.08199999999999</v>
+      </c>
+      <c r="P122" s="5">
+        <v>1469.6569999999997</v>
+      </c>
+      <c r="Q122" s="5">
+        <v>598.197</v>
+      </c>
+      <c r="R122" s="5">
+        <v>548.22800000000007</v>
+      </c>
+      <c r="S122" s="5">
+        <v>451.88099999999997</v>
+      </c>
+      <c r="T122" s="5">
+        <v>364.17399999999998</v>
+      </c>
+      <c r="U122" s="5">
+        <v>87.78</v>
+      </c>
+      <c r="V122" s="5">
+        <v>43.012999999999998</v>
+      </c>
+      <c r="W122" s="5">
+        <v>265.32400000000001</v>
+      </c>
+      <c r="X122" s="5">
+        <v>46.18</v>
+      </c>
+      <c r="Y122" s="5">
+        <v>71.62</v>
+      </c>
+      <c r="Z122" s="5">
+        <v>132.85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A123" s="3">
+        <v>45961</v>
+      </c>
+      <c r="B123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="5">
+        <v>502.28399999999999</v>
+      </c>
+      <c r="D123" s="5">
+        <v>317.34600000000006</v>
+      </c>
+      <c r="E123" s="5">
+        <v>145.398</v>
+      </c>
+      <c r="F123" s="5">
+        <v>87.664000000000001</v>
+      </c>
+      <c r="G123" s="5">
+        <v>60.992999999999995</v>
+      </c>
+      <c r="H123" s="5">
+        <v>69.507999999999996</v>
+      </c>
+      <c r="I123" s="5">
+        <v>241.77199999999999</v>
+      </c>
+      <c r="J123" s="5">
+        <v>189.33199999999999</v>
+      </c>
+      <c r="K123" s="5">
+        <v>216.34899999999999</v>
+      </c>
+      <c r="L123" s="5">
+        <v>182.83499999999998</v>
+      </c>
+      <c r="M123" s="5">
+        <v>181.51</v>
+      </c>
+      <c r="N123" s="5">
+        <v>176.26400000000001</v>
+      </c>
+      <c r="O123" s="5">
+        <v>306.68099999999998</v>
+      </c>
+      <c r="P123" s="5">
+        <v>632.60599999999988</v>
+      </c>
+      <c r="Q123" s="5">
+        <v>683.46100000000001</v>
+      </c>
+      <c r="R123" s="5">
+        <v>220.37299999999996</v>
+      </c>
+      <c r="S123" s="5">
+        <v>334.89300000000003</v>
+      </c>
+      <c r="T123" s="5">
+        <v>189.06200000000001</v>
+      </c>
+      <c r="U123" s="5">
+        <v>49.533999999999999</v>
+      </c>
+      <c r="V123" s="5">
+        <v>18.952999999999999</v>
+      </c>
+      <c r="W123" s="5">
+        <v>87.822000000000003</v>
+      </c>
+      <c r="X123" s="5">
+        <v>26.047000000000001</v>
+      </c>
+      <c r="Y123" s="5">
+        <v>70.031000000000006</v>
+      </c>
+      <c r="Z123" s="5">
+        <v>13.016</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z123"/>
+  <dimension ref="A1:Z125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10331,6 +10331,166 @@
         <v>13.016</v>
       </c>
     </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A124" s="3">
+        <v>45962</v>
+      </c>
+      <c r="B124" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" s="5">
+        <v>722.69799999999998</v>
+      </c>
+      <c r="D124" s="5">
+        <v>965.54900000000009</v>
+      </c>
+      <c r="E124" s="5">
+        <v>377.76099999999997</v>
+      </c>
+      <c r="F124" s="5">
+        <v>626.81700000000001</v>
+      </c>
+      <c r="G124" s="5">
+        <v>404.702</v>
+      </c>
+      <c r="H124" s="5">
+        <v>847.86099999999999</v>
+      </c>
+      <c r="I124" s="5">
+        <v>283.32</v>
+      </c>
+      <c r="J124" s="5">
+        <v>117.751</v>
+      </c>
+      <c r="K124" s="5">
+        <v>131.708</v>
+      </c>
+      <c r="L124" s="5">
+        <v>155.36000000000001</v>
+      </c>
+      <c r="M124" s="5">
+        <v>178.00700000000001</v>
+      </c>
+      <c r="N124" s="5">
+        <v>121.34699999999999</v>
+      </c>
+      <c r="O124" s="5">
+        <v>736.77199999999993</v>
+      </c>
+      <c r="P124" s="5">
+        <v>1069.1089999999999</v>
+      </c>
+      <c r="Q124" s="5">
+        <v>450.74300000000005</v>
+      </c>
+      <c r="R124" s="5">
+        <v>462.99299999999999</v>
+      </c>
+      <c r="S124" s="5">
+        <v>290.30700000000002</v>
+      </c>
+      <c r="T124" s="5">
+        <v>140.965</v>
+      </c>
+      <c r="U124" s="5">
+        <v>119.48699999999999</v>
+      </c>
+      <c r="V124" s="5">
+        <v>114.97</v>
+      </c>
+      <c r="W124" s="5">
+        <v>146.57999999999998</v>
+      </c>
+      <c r="X124" s="5">
+        <v>59.137999999999991</v>
+      </c>
+      <c r="Y124" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z124" s="5">
+        <v>36.86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A125" s="3">
+        <v>45962</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="5">
+        <v>309.17599999999999</v>
+      </c>
+      <c r="D125" s="5">
+        <v>308.83199999999999</v>
+      </c>
+      <c r="E125" s="5">
+        <v>204.727</v>
+      </c>
+      <c r="F125" s="5">
+        <v>37.29</v>
+      </c>
+      <c r="G125" s="5">
+        <v>45.563000000000002</v>
+      </c>
+      <c r="H125" s="5">
+        <v>167.958</v>
+      </c>
+      <c r="I125" s="5">
+        <v>70.707999999999998</v>
+      </c>
+      <c r="J125" s="5">
+        <v>227.64600000000002</v>
+      </c>
+      <c r="K125" s="5">
+        <v>144.465</v>
+      </c>
+      <c r="L125" s="5">
+        <v>190.23099999999999</v>
+      </c>
+      <c r="M125" s="5">
+        <v>201.69099999999997</v>
+      </c>
+      <c r="N125" s="5">
+        <v>309.42</v>
+      </c>
+      <c r="O125" s="5">
+        <v>447.286</v>
+      </c>
+      <c r="P125" s="5">
+        <v>232.10600000000002</v>
+      </c>
+      <c r="Q125" s="5">
+        <v>147.76999999999998</v>
+      </c>
+      <c r="R125" s="5">
+        <v>362.01299999999998</v>
+      </c>
+      <c r="S125" s="5">
+        <v>154.672</v>
+      </c>
+      <c r="T125" s="5">
+        <v>14.298000000000002</v>
+      </c>
+      <c r="U125" s="5">
+        <v>59.260999999999996</v>
+      </c>
+      <c r="V125" s="5">
+        <v>48.57</v>
+      </c>
+      <c r="W125" s="5">
+        <v>54.748000000000005</v>
+      </c>
+      <c r="X125" s="5">
+        <v>22.914000000000001</v>
+      </c>
+      <c r="Y125" s="5">
+        <v>39.867999999999995</v>
+      </c>
+      <c r="Z125" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z125"/>
+  <dimension ref="A1:Z127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10491,6 +10491,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A126" s="3">
+        <v>45963</v>
+      </c>
+      <c r="B126" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="5">
+        <v>684.98099999999999</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1061.0350000000001</v>
+      </c>
+      <c r="E126" s="5">
+        <v>325.52999999999992</v>
+      </c>
+      <c r="F126" s="5">
+        <v>610.65300000000013</v>
+      </c>
+      <c r="G126" s="5">
+        <v>484.96100000000001</v>
+      </c>
+      <c r="H126" s="5">
+        <v>677.04699999999991</v>
+      </c>
+      <c r="I126" s="5">
+        <v>432.94899999999996</v>
+      </c>
+      <c r="J126" s="5">
+        <v>197.279</v>
+      </c>
+      <c r="K126" s="5">
+        <v>136.76499999999999</v>
+      </c>
+      <c r="L126" s="5">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="M126" s="5">
+        <v>189.48400000000001</v>
+      </c>
+      <c r="N126" s="5">
+        <v>292.15000000000003</v>
+      </c>
+      <c r="O126" s="5">
+        <v>638.58199999999999</v>
+      </c>
+      <c r="P126" s="5">
+        <v>840.05500000000006</v>
+      </c>
+      <c r="Q126" s="5">
+        <v>474.9439999999999</v>
+      </c>
+      <c r="R126" s="5">
+        <v>477.66099999999994</v>
+      </c>
+      <c r="S126" s="5">
+        <v>314.47200000000009</v>
+      </c>
+      <c r="T126" s="5">
+        <v>306.77600000000001</v>
+      </c>
+      <c r="U126" s="5">
+        <v>94.339999999999989</v>
+      </c>
+      <c r="V126" s="5">
+        <v>30.04</v>
+      </c>
+      <c r="W126" s="5">
+        <v>128.01999999999998</v>
+      </c>
+      <c r="X126" s="5">
+        <v>102.47999999999999</v>
+      </c>
+      <c r="Y126" s="5">
+        <v>114.36</v>
+      </c>
+      <c r="Z126" s="5">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A127" s="3">
+        <v>45963</v>
+      </c>
+      <c r="B127" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="5">
+        <v>468.04199999999997</v>
+      </c>
+      <c r="D127" s="5">
+        <v>466.83499999999998</v>
+      </c>
+      <c r="E127" s="5">
+        <v>154.173</v>
+      </c>
+      <c r="F127" s="5">
+        <v>52.551000000000002</v>
+      </c>
+      <c r="G127" s="5">
+        <v>31.664000000000001</v>
+      </c>
+      <c r="H127" s="5">
+        <v>25.812999999999999</v>
+      </c>
+      <c r="I127" s="5">
+        <v>378.62099999999998</v>
+      </c>
+      <c r="J127" s="5">
+        <v>207.42399999999998</v>
+      </c>
+      <c r="K127" s="5">
+        <v>337.15000000000009</v>
+      </c>
+      <c r="L127" s="5">
+        <v>75.388999999999996</v>
+      </c>
+      <c r="M127" s="5">
+        <v>268.26099999999997</v>
+      </c>
+      <c r="N127" s="5">
+        <v>260.49</v>
+      </c>
+      <c r="O127" s="5">
+        <v>418.57899999999995</v>
+      </c>
+      <c r="P127" s="5">
+        <v>417.19499999999999</v>
+      </c>
+      <c r="Q127" s="5">
+        <v>179.61500000000001</v>
+      </c>
+      <c r="R127" s="5">
+        <v>159.23099999999999</v>
+      </c>
+      <c r="S127" s="5">
+        <v>78.625</v>
+      </c>
+      <c r="T127" s="5">
+        <v>140.28500000000003</v>
+      </c>
+      <c r="U127" s="5">
+        <v>50.866999999999997</v>
+      </c>
+      <c r="V127" s="5">
+        <v>33.140999999999998</v>
+      </c>
+      <c r="W127" s="5">
+        <v>38.993000000000002</v>
+      </c>
+      <c r="X127" s="5">
+        <v>92.67</v>
+      </c>
+      <c r="Y127" s="5">
+        <v>43.870000000000005</v>
+      </c>
+      <c r="Z127" s="5">
+        <v>12.663</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z127"/>
+  <dimension ref="A1:Z129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10651,6 +10651,166 @@
         <v>12.663</v>
       </c>
     </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A128" s="3">
+        <v>45964</v>
+      </c>
+      <c r="B128" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" s="5">
+        <v>720.62400000000002</v>
+      </c>
+      <c r="D128" s="5">
+        <v>846.43000000000018</v>
+      </c>
+      <c r="E128" s="5">
+        <v>446.14000000000004</v>
+      </c>
+      <c r="F128" s="5">
+        <v>488.16600000000005</v>
+      </c>
+      <c r="G128" s="5">
+        <v>549.76400000000001</v>
+      </c>
+      <c r="H128" s="5">
+        <v>682.923</v>
+      </c>
+      <c r="I128" s="5">
+        <v>598.96400000000006</v>
+      </c>
+      <c r="J128" s="5">
+        <v>180.054</v>
+      </c>
+      <c r="K128" s="5">
+        <v>93.56</v>
+      </c>
+      <c r="L128" s="5">
+        <v>258.72399999999999</v>
+      </c>
+      <c r="M128" s="5">
+        <v>154.66999999999999</v>
+      </c>
+      <c r="N128" s="5">
+        <v>291.78499999999997</v>
+      </c>
+      <c r="O128" s="5">
+        <v>739.65300000000002</v>
+      </c>
+      <c r="P128" s="5">
+        <v>1495.8519999999996</v>
+      </c>
+      <c r="Q128" s="5">
+        <v>561.79300000000012</v>
+      </c>
+      <c r="R128" s="5">
+        <v>336.68800000000005</v>
+      </c>
+      <c r="S128" s="5">
+        <v>406.45300000000003</v>
+      </c>
+      <c r="T128" s="5">
+        <v>69.432000000000002</v>
+      </c>
+      <c r="U128" s="5">
+        <v>164.71699999999998</v>
+      </c>
+      <c r="V128" s="5">
+        <v>141.38999999999999</v>
+      </c>
+      <c r="W128" s="5">
+        <v>140.14000000000001</v>
+      </c>
+      <c r="X128" s="5">
+        <v>24.1</v>
+      </c>
+      <c r="Y128" s="5">
+        <v>82.738</v>
+      </c>
+      <c r="Z128" s="5">
+        <v>40.43</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A129" s="3">
+        <v>45964</v>
+      </c>
+      <c r="B129" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="5">
+        <v>317.54700000000003</v>
+      </c>
+      <c r="D129" s="5">
+        <v>280.52600000000001</v>
+      </c>
+      <c r="E129" s="5">
+        <v>89.284999999999997</v>
+      </c>
+      <c r="F129" s="5">
+        <v>90.562000000000012</v>
+      </c>
+      <c r="G129" s="5">
+        <v>113.648</v>
+      </c>
+      <c r="H129" s="5">
+        <v>213.80500000000001</v>
+      </c>
+      <c r="I129" s="5">
+        <v>165.42400000000001</v>
+      </c>
+      <c r="J129" s="5">
+        <v>51.927</v>
+      </c>
+      <c r="K129" s="5">
+        <v>147.12100000000001</v>
+      </c>
+      <c r="L129" s="5">
+        <v>139.22</v>
+      </c>
+      <c r="M129" s="5">
+        <v>175.637</v>
+      </c>
+      <c r="N129" s="5">
+        <v>220.61899999999997</v>
+      </c>
+      <c r="O129" s="5">
+        <v>562.68899999999996</v>
+      </c>
+      <c r="P129" s="5">
+        <v>465.57599999999991</v>
+      </c>
+      <c r="Q129" s="5">
+        <v>241.18200000000002</v>
+      </c>
+      <c r="R129" s="5">
+        <v>55.242000000000004</v>
+      </c>
+      <c r="S129" s="5">
+        <v>182.36199999999999</v>
+      </c>
+      <c r="T129" s="5">
+        <v>74.338999999999999</v>
+      </c>
+      <c r="U129" s="5">
+        <v>29.107000000000003</v>
+      </c>
+      <c r="V129" s="5">
+        <v>87.120999999999995</v>
+      </c>
+      <c r="W129" s="5">
+        <v>7.282</v>
+      </c>
+      <c r="X129" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,7 +476,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z129"/>
+  <dimension ref="A1:Z131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
       <selection activeCell="G134" sqref="G134"/>
@@ -10811,6 +10811,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A130" s="3">
+        <v>45965</v>
+      </c>
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="5">
+        <v>580.29999999999995</v>
+      </c>
+      <c r="D130" s="5">
+        <v>1302.6900000000003</v>
+      </c>
+      <c r="E130" s="5">
+        <v>512.1869999999999</v>
+      </c>
+      <c r="F130" s="5">
+        <v>497.57899999999995</v>
+      </c>
+      <c r="G130" s="5">
+        <v>188.35500000000002</v>
+      </c>
+      <c r="H130" s="5">
+        <v>647.16300000000012</v>
+      </c>
+      <c r="I130" s="5">
+        <v>621.56000000000017</v>
+      </c>
+      <c r="J130" s="5">
+        <v>106.857</v>
+      </c>
+      <c r="K130" s="5">
+        <v>121.711</v>
+      </c>
+      <c r="L130" s="5">
+        <v>127.67999999999999</v>
+      </c>
+      <c r="M130" s="5">
+        <v>259.02499999999998</v>
+      </c>
+      <c r="N130" s="5">
+        <v>356.32799999999997</v>
+      </c>
+      <c r="O130" s="5">
+        <v>902.93599999999992</v>
+      </c>
+      <c r="P130" s="5">
+        <v>1428.2729999999997</v>
+      </c>
+      <c r="Q130" s="5">
+        <v>525.58699999999999</v>
+      </c>
+      <c r="R130" s="5">
+        <v>362.791</v>
+      </c>
+      <c r="S130" s="5">
+        <v>232.25</v>
+      </c>
+      <c r="T130" s="5">
+        <v>135.70700000000002</v>
+      </c>
+      <c r="U130" s="5">
+        <v>60.6</v>
+      </c>
+      <c r="V130" s="5">
+        <v>76.960000000000008</v>
+      </c>
+      <c r="W130" s="5">
+        <v>50.555</v>
+      </c>
+      <c r="X130" s="5">
+        <v>160.46</v>
+      </c>
+      <c r="Y130" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z130" s="5">
+        <v>28.19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A131" s="3">
+        <v>45965</v>
+      </c>
+      <c r="B131" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="5">
+        <v>346.10400000000004</v>
+      </c>
+      <c r="D131" s="5">
+        <v>197.57</v>
+      </c>
+      <c r="E131" s="5">
+        <v>124.304</v>
+      </c>
+      <c r="F131" s="5">
+        <v>79.046999999999997</v>
+      </c>
+      <c r="G131" s="5">
+        <v>43.555</v>
+      </c>
+      <c r="H131" s="5">
+        <v>178.89699999999999</v>
+      </c>
+      <c r="I131" s="5">
+        <v>332.29399999999998</v>
+      </c>
+      <c r="J131" s="5">
+        <v>116.553</v>
+      </c>
+      <c r="K131" s="5">
+        <v>377.46199999999999</v>
+      </c>
+      <c r="L131" s="5">
+        <v>153.18100000000001</v>
+      </c>
+      <c r="M131" s="5">
+        <v>70.730999999999995</v>
+      </c>
+      <c r="N131" s="5">
+        <v>272.697</v>
+      </c>
+      <c r="O131" s="5">
+        <v>411.57400000000001</v>
+      </c>
+      <c r="P131" s="5">
+        <v>455.19599999999997</v>
+      </c>
+      <c r="Q131" s="5">
+        <v>250.80699999999996</v>
+      </c>
+      <c r="R131" s="5">
+        <v>183.779</v>
+      </c>
+      <c r="S131" s="5">
+        <v>85.147000000000006</v>
+      </c>
+      <c r="T131" s="5">
+        <v>54.954000000000008</v>
+      </c>
+      <c r="U131" s="5">
+        <v>21.207000000000001</v>
+      </c>
+      <c r="V131" s="5">
+        <v>0</v>
+      </c>
+      <c r="W131" s="5">
+        <v>81.977999999999994</v>
+      </c>
+      <c r="X131" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y131" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z131"/>
+  <dimension ref="A1:Z133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10971,6 +10971,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A132" s="3">
+        <v>45966</v>
+      </c>
+      <c r="B132" t="s">
+        <v>26</v>
+      </c>
+      <c r="C132" s="5">
+        <v>502.87600000000009</v>
+      </c>
+      <c r="D132" s="5">
+        <v>1052.605</v>
+      </c>
+      <c r="E132" s="5">
+        <v>275.60999999999996</v>
+      </c>
+      <c r="F132" s="5">
+        <v>568.29200000000003</v>
+      </c>
+      <c r="G132" s="5">
+        <v>277.39500000000004</v>
+      </c>
+      <c r="H132" s="5">
+        <v>483.81099999999998</v>
+      </c>
+      <c r="I132" s="5">
+        <v>480.23699999999997</v>
+      </c>
+      <c r="J132" s="5">
+        <v>175.91299999999998</v>
+      </c>
+      <c r="K132" s="5">
+        <v>25.12</v>
+      </c>
+      <c r="L132" s="5">
+        <v>120.462</v>
+      </c>
+      <c r="M132" s="5">
+        <v>186.88200000000001</v>
+      </c>
+      <c r="N132" s="5">
+        <v>199.10999999999999</v>
+      </c>
+      <c r="O132" s="5">
+        <v>905.01199999999983</v>
+      </c>
+      <c r="P132" s="5">
+        <v>887.77300000000002</v>
+      </c>
+      <c r="Q132" s="5">
+        <v>843.45</v>
+      </c>
+      <c r="R132" s="5">
+        <v>298.089</v>
+      </c>
+      <c r="S132" s="5">
+        <v>234.46599999999998</v>
+      </c>
+      <c r="T132" s="5">
+        <v>137.86600000000001</v>
+      </c>
+      <c r="U132" s="5">
+        <v>23.07</v>
+      </c>
+      <c r="V132" s="5">
+        <v>81.364000000000004</v>
+      </c>
+      <c r="W132" s="5">
+        <v>62.75</v>
+      </c>
+      <c r="X132" s="5">
+        <v>42.3</v>
+      </c>
+      <c r="Y132" s="5">
+        <v>86.18</v>
+      </c>
+      <c r="Z132" s="5">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A133" s="3">
+        <v>45966</v>
+      </c>
+      <c r="B133" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="5">
+        <v>475.58600000000001</v>
+      </c>
+      <c r="D133" s="5">
+        <v>401.46799999999996</v>
+      </c>
+      <c r="E133" s="5">
+        <v>153.67500000000001</v>
+      </c>
+      <c r="F133" s="5">
+        <v>59.007999999999996</v>
+      </c>
+      <c r="G133" s="5">
+        <v>22.094000000000001</v>
+      </c>
+      <c r="H133" s="5">
+        <v>215.505</v>
+      </c>
+      <c r="I133" s="5">
+        <v>90.561999999999998</v>
+      </c>
+      <c r="J133" s="5">
+        <v>257.38300000000004</v>
+      </c>
+      <c r="K133" s="5">
+        <v>216.953</v>
+      </c>
+      <c r="L133" s="5">
+        <v>148.61499999999998</v>
+      </c>
+      <c r="M133" s="5">
+        <v>271.75300000000004</v>
+      </c>
+      <c r="N133" s="5">
+        <v>486.733</v>
+      </c>
+      <c r="O133" s="5">
+        <v>659.13300000000004</v>
+      </c>
+      <c r="P133" s="5">
+        <v>453.49499999999995</v>
+      </c>
+      <c r="Q133" s="5">
+        <v>249.077</v>
+      </c>
+      <c r="R133" s="5">
+        <v>532.44099999999992</v>
+      </c>
+      <c r="S133" s="5">
+        <v>504.37400000000002</v>
+      </c>
+      <c r="T133" s="5">
+        <v>55.431000000000004</v>
+      </c>
+      <c r="U133" s="5">
+        <v>0</v>
+      </c>
+      <c r="V133" s="5">
+        <v>95.512</v>
+      </c>
+      <c r="W133" s="5">
+        <v>74.247</v>
+      </c>
+      <c r="X133" s="5">
+        <v>40.289000000000001</v>
+      </c>
+      <c r="Y133" s="5">
+        <v>25.367000000000001</v>
+      </c>
+      <c r="Z133" s="5">
+        <v>69.843999999999994</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z133"/>
+  <dimension ref="A1:Z135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+      <selection activeCell="S137" sqref="S137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11131,6 +11131,166 @@
         <v>69.843999999999994</v>
       </c>
     </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A134" s="3">
+        <v>45967</v>
+      </c>
+      <c r="B134" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="5">
+        <v>546.71900000000005</v>
+      </c>
+      <c r="D134" s="5">
+        <v>960.6389999999999</v>
+      </c>
+      <c r="E134" s="5">
+        <v>382.25800000000004</v>
+      </c>
+      <c r="F134" s="5">
+        <v>416.26900000000001</v>
+      </c>
+      <c r="G134" s="5">
+        <v>382.01600000000002</v>
+      </c>
+      <c r="H134" s="5">
+        <v>497.27700000000004</v>
+      </c>
+      <c r="I134" s="5">
+        <v>338.74299999999999</v>
+      </c>
+      <c r="J134" s="5">
+        <v>164.655</v>
+      </c>
+      <c r="K134" s="5">
+        <v>116.19800000000002</v>
+      </c>
+      <c r="L134" s="5">
+        <v>203.88099999999997</v>
+      </c>
+      <c r="M134" s="5">
+        <v>176.322</v>
+      </c>
+      <c r="N134" s="5">
+        <v>210.744</v>
+      </c>
+      <c r="O134" s="5">
+        <v>949.0780000000002</v>
+      </c>
+      <c r="P134" s="5">
+        <v>1139.5529999999999</v>
+      </c>
+      <c r="Q134" s="5">
+        <v>372.87</v>
+      </c>
+      <c r="R134" s="5">
+        <v>522.47799999999995</v>
+      </c>
+      <c r="S134" s="5">
+        <v>236.14099999999999</v>
+      </c>
+      <c r="T134" s="5">
+        <v>152.84100000000001</v>
+      </c>
+      <c r="U134" s="5">
+        <v>23.16</v>
+      </c>
+      <c r="V134" s="5">
+        <v>94.579999999999984</v>
+      </c>
+      <c r="W134" s="5">
+        <v>41.28</v>
+      </c>
+      <c r="X134" s="5">
+        <v>53.28</v>
+      </c>
+      <c r="Y134" s="5">
+        <v>58.929999999999993</v>
+      </c>
+      <c r="Z134" s="5">
+        <v>63.64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A135" s="3">
+        <v>45967</v>
+      </c>
+      <c r="B135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="5">
+        <v>403.916</v>
+      </c>
+      <c r="D135" s="5">
+        <v>192.77699999999999</v>
+      </c>
+      <c r="E135" s="5">
+        <v>39.664000000000001</v>
+      </c>
+      <c r="F135" s="5">
+        <v>95.661000000000001</v>
+      </c>
+      <c r="G135" s="5">
+        <v>54.812000000000005</v>
+      </c>
+      <c r="H135" s="5">
+        <v>232.149</v>
+      </c>
+      <c r="I135" s="5">
+        <v>324.27700000000004</v>
+      </c>
+      <c r="J135" s="5">
+        <v>100.821</v>
+      </c>
+      <c r="K135" s="5">
+        <v>90.173000000000002</v>
+      </c>
+      <c r="L135" s="5">
+        <v>116.274</v>
+      </c>
+      <c r="M135" s="5">
+        <v>228.197</v>
+      </c>
+      <c r="N135" s="5">
+        <v>158.10499999999999</v>
+      </c>
+      <c r="O135" s="5">
+        <v>390.56899999999996</v>
+      </c>
+      <c r="P135" s="5">
+        <v>431.11300000000006</v>
+      </c>
+      <c r="Q135" s="5">
+        <v>418.12399999999997</v>
+      </c>
+      <c r="R135" s="5">
+        <v>27.13</v>
+      </c>
+      <c r="S135" s="5">
+        <v>142.16399999999999</v>
+      </c>
+      <c r="T135" s="5">
+        <v>21.695999999999998</v>
+      </c>
+      <c r="U135" s="5">
+        <v>109.58699999999999</v>
+      </c>
+      <c r="V135" s="5">
+        <v>144.59299999999999</v>
+      </c>
+      <c r="W135" s="5">
+        <v>131.41300000000001</v>
+      </c>
+      <c r="X135" s="5">
+        <v>66.688000000000002</v>
+      </c>
+      <c r="Y135" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z135" s="5">
+        <v>20.922000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z135"/>
+  <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="S137" sqref="S137"/>
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11291,6 +11291,166 @@
         <v>20.922000000000001</v>
       </c>
     </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A136" s="3">
+        <v>45968</v>
+      </c>
+      <c r="B136" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" s="5">
+        <v>736.95999999999992</v>
+      </c>
+      <c r="D136" s="5">
+        <v>1129.3860000000004</v>
+      </c>
+      <c r="E136" s="5">
+        <v>238.02300000000002</v>
+      </c>
+      <c r="F136" s="5">
+        <v>326.798</v>
+      </c>
+      <c r="G136" s="5">
+        <v>401.50900000000001</v>
+      </c>
+      <c r="H136" s="5">
+        <v>441.18799999999993</v>
+      </c>
+      <c r="I136" s="5">
+        <v>395.35399999999998</v>
+      </c>
+      <c r="J136" s="5">
+        <v>129.619</v>
+      </c>
+      <c r="K136" s="5">
+        <v>127.55099999999999</v>
+      </c>
+      <c r="L136" s="5">
+        <v>204.94</v>
+      </c>
+      <c r="M136" s="5">
+        <v>92.874000000000009</v>
+      </c>
+      <c r="N136" s="5">
+        <v>410.03300000000002</v>
+      </c>
+      <c r="O136" s="5">
+        <v>797.97899999999993</v>
+      </c>
+      <c r="P136" s="5">
+        <v>870.77600000000007</v>
+      </c>
+      <c r="Q136" s="5">
+        <v>545.45899999999995</v>
+      </c>
+      <c r="R136" s="5">
+        <v>244.18799999999999</v>
+      </c>
+      <c r="S136" s="5">
+        <v>260.036</v>
+      </c>
+      <c r="T136" s="5">
+        <v>178.26999999999998</v>
+      </c>
+      <c r="U136" s="5">
+        <v>103.22999999999999</v>
+      </c>
+      <c r="V136" s="5">
+        <v>64.139999999999986</v>
+      </c>
+      <c r="W136" s="5">
+        <v>83.21</v>
+      </c>
+      <c r="X136" s="5">
+        <v>179.84000000000003</v>
+      </c>
+      <c r="Y136" s="5">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="Z136" s="5">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A137" s="3">
+        <v>45968</v>
+      </c>
+      <c r="B137" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="5">
+        <v>495.21699999999998</v>
+      </c>
+      <c r="D137" s="5">
+        <v>483.74300000000005</v>
+      </c>
+      <c r="E137" s="5">
+        <v>102.55199999999999</v>
+      </c>
+      <c r="F137" s="5">
+        <v>46.171999999999997</v>
+      </c>
+      <c r="G137" s="5">
+        <v>59.742999999999995</v>
+      </c>
+      <c r="H137" s="5">
+        <v>268.495</v>
+      </c>
+      <c r="I137" s="5">
+        <v>220.39599999999999</v>
+      </c>
+      <c r="J137" s="5">
+        <v>162.44499999999999</v>
+      </c>
+      <c r="K137" s="5">
+        <v>189.59700000000001</v>
+      </c>
+      <c r="L137" s="5">
+        <v>272.50099999999998</v>
+      </c>
+      <c r="M137" s="5">
+        <v>337.94499999999999</v>
+      </c>
+      <c r="N137" s="5">
+        <v>129.238</v>
+      </c>
+      <c r="O137" s="5">
+        <v>186.82400000000001</v>
+      </c>
+      <c r="P137" s="5">
+        <v>471.40499999999997</v>
+      </c>
+      <c r="Q137" s="5">
+        <v>381.84899999999993</v>
+      </c>
+      <c r="R137" s="5">
+        <v>115.39800000000001</v>
+      </c>
+      <c r="S137" s="5">
+        <v>141.25700000000001</v>
+      </c>
+      <c r="T137" s="5">
+        <v>92.267999999999986</v>
+      </c>
+      <c r="U137" s="5">
+        <v>28.359000000000002</v>
+      </c>
+      <c r="V137" s="5">
+        <v>31.5</v>
+      </c>
+      <c r="W137" s="5">
+        <v>14.898</v>
+      </c>
+      <c r="X137" s="5">
+        <v>67.233999999999995</v>
+      </c>
+      <c r="Y137" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z137"/>
+  <dimension ref="A1:Z139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11451,6 +11451,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A138" s="3">
+        <v>45969</v>
+      </c>
+      <c r="B138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C138" s="5">
+        <v>587.23</v>
+      </c>
+      <c r="D138" s="5">
+        <v>1326.1529999999998</v>
+      </c>
+      <c r="E138" s="5">
+        <v>471.2</v>
+      </c>
+      <c r="F138" s="5">
+        <v>631.96</v>
+      </c>
+      <c r="G138" s="5">
+        <v>492.0680000000001</v>
+      </c>
+      <c r="H138" s="5">
+        <v>741.75599999999997</v>
+      </c>
+      <c r="I138" s="5">
+        <v>470.78200000000004</v>
+      </c>
+      <c r="J138" s="5">
+        <v>194.02499999999998</v>
+      </c>
+      <c r="K138" s="5">
+        <v>161.10899999999998</v>
+      </c>
+      <c r="L138" s="5">
+        <v>102.57999999999998</v>
+      </c>
+      <c r="M138" s="5">
+        <v>200.70499999999998</v>
+      </c>
+      <c r="N138" s="5">
+        <v>296.52600000000007</v>
+      </c>
+      <c r="O138" s="5">
+        <v>1016.7249999999999</v>
+      </c>
+      <c r="P138" s="5">
+        <v>1704.3670000000002</v>
+      </c>
+      <c r="Q138" s="5">
+        <v>705.08799999999985</v>
+      </c>
+      <c r="R138" s="5">
+        <v>769.94799999999975</v>
+      </c>
+      <c r="S138" s="5">
+        <v>317.54199999999997</v>
+      </c>
+      <c r="T138" s="5">
+        <v>289.54700000000003</v>
+      </c>
+      <c r="U138" s="5">
+        <v>187.78799999999998</v>
+      </c>
+      <c r="V138" s="5">
+        <v>108.67999999999999</v>
+      </c>
+      <c r="W138" s="5">
+        <v>59.54</v>
+      </c>
+      <c r="X138" s="5">
+        <v>84.72</v>
+      </c>
+      <c r="Y138" s="5">
+        <v>75.09</v>
+      </c>
+      <c r="Z138" s="5">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A139" s="3">
+        <v>45969</v>
+      </c>
+      <c r="B139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="5">
+        <v>323.71000000000004</v>
+      </c>
+      <c r="D139" s="5">
+        <v>538.50800000000004</v>
+      </c>
+      <c r="E139" s="5">
+        <v>0</v>
+      </c>
+      <c r="F139" s="5">
+        <v>114.75800000000001</v>
+      </c>
+      <c r="G139" s="5">
+        <v>132.464</v>
+      </c>
+      <c r="H139" s="5">
+        <v>183.27700000000002</v>
+      </c>
+      <c r="I139" s="5">
+        <v>161.20299999999997</v>
+      </c>
+      <c r="J139" s="5">
+        <v>130.14399999999998</v>
+      </c>
+      <c r="K139" s="5">
+        <v>111.58599999999998</v>
+      </c>
+      <c r="L139" s="5">
+        <v>249.32199999999997</v>
+      </c>
+      <c r="M139" s="5">
+        <v>210.53100000000001</v>
+      </c>
+      <c r="N139" s="5">
+        <v>115.703</v>
+      </c>
+      <c r="O139" s="5">
+        <v>413.06900000000007</v>
+      </c>
+      <c r="P139" s="5">
+        <v>549.46100000000013</v>
+      </c>
+      <c r="Q139" s="5">
+        <v>322.13300000000004</v>
+      </c>
+      <c r="R139" s="5">
+        <v>138.65700000000001</v>
+      </c>
+      <c r="S139" s="5">
+        <v>128.86800000000002</v>
+      </c>
+      <c r="T139" s="5">
+        <v>122.10900000000001</v>
+      </c>
+      <c r="U139" s="5">
+        <v>125.74299999999999</v>
+      </c>
+      <c r="V139" s="5">
+        <v>66.885999999999996</v>
+      </c>
+      <c r="W139" s="5">
+        <v>54.328000000000003</v>
+      </c>
+      <c r="X139" s="5">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="Y139" s="5">
+        <v>25.75</v>
+      </c>
+      <c r="Z139" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z139"/>
+  <dimension ref="A1:Z141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="H142" sqref="H142"/>
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11611,6 +11611,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A140" s="3">
+        <v>45970</v>
+      </c>
+      <c r="B140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" s="5">
+        <v>611.32899999999984</v>
+      </c>
+      <c r="D140" s="5">
+        <v>1426.4450000000004</v>
+      </c>
+      <c r="E140" s="5">
+        <v>595.00599999999997</v>
+      </c>
+      <c r="F140" s="5">
+        <v>573.70699999999999</v>
+      </c>
+      <c r="G140" s="5">
+        <v>319.41499999999996</v>
+      </c>
+      <c r="H140" s="5">
+        <v>593.57400000000007</v>
+      </c>
+      <c r="I140" s="5">
+        <v>333.37800000000004</v>
+      </c>
+      <c r="J140" s="5">
+        <v>375.72999999999996</v>
+      </c>
+      <c r="K140" s="5">
+        <v>184.06399999999999</v>
+      </c>
+      <c r="L140" s="5">
+        <v>181.57499999999999</v>
+      </c>
+      <c r="M140" s="5">
+        <v>192.989</v>
+      </c>
+      <c r="N140" s="5">
+        <v>276.928</v>
+      </c>
+      <c r="O140" s="5">
+        <v>536.27499999999998</v>
+      </c>
+      <c r="P140" s="5">
+        <v>1518.5669999999998</v>
+      </c>
+      <c r="Q140" s="5">
+        <v>586.20500000000004</v>
+      </c>
+      <c r="R140" s="5">
+        <v>524.69899999999996</v>
+      </c>
+      <c r="S140" s="5">
+        <v>466.86900000000003</v>
+      </c>
+      <c r="T140" s="5">
+        <v>127.21300000000001</v>
+      </c>
+      <c r="U140" s="5">
+        <v>127.75</v>
+      </c>
+      <c r="V140" s="5">
+        <v>67.597999999999999</v>
+      </c>
+      <c r="W140" s="5">
+        <v>100.16</v>
+      </c>
+      <c r="X140" s="5">
+        <v>56.034999999999997</v>
+      </c>
+      <c r="Y140" s="5">
+        <v>105.12</v>
+      </c>
+      <c r="Z140" s="5">
+        <v>182.86100000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A141" s="3">
+        <v>45970</v>
+      </c>
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="5">
+        <v>451.00600000000003</v>
+      </c>
+      <c r="D141" s="5">
+        <v>279.55300000000005</v>
+      </c>
+      <c r="E141" s="5">
+        <v>73.14</v>
+      </c>
+      <c r="F141" s="5">
+        <v>86.156000000000006</v>
+      </c>
+      <c r="G141" s="5">
+        <v>53.258000000000003</v>
+      </c>
+      <c r="H141" s="5">
+        <v>195.351</v>
+      </c>
+      <c r="I141" s="5">
+        <v>90.531000000000006</v>
+      </c>
+      <c r="J141" s="5">
+        <v>85.1</v>
+      </c>
+      <c r="K141" s="5">
+        <v>237.809</v>
+      </c>
+      <c r="L141" s="5">
+        <v>150.55500000000001</v>
+      </c>
+      <c r="M141" s="5">
+        <v>236.876</v>
+      </c>
+      <c r="N141" s="5">
+        <v>241.12899999999999</v>
+      </c>
+      <c r="O141" s="5">
+        <v>351.04700000000003</v>
+      </c>
+      <c r="P141" s="5">
+        <v>554.33299999999997</v>
+      </c>
+      <c r="Q141" s="5">
+        <v>368.04200000000003</v>
+      </c>
+      <c r="R141" s="5">
+        <v>278.73500000000001</v>
+      </c>
+      <c r="S141" s="5">
+        <v>213.804</v>
+      </c>
+      <c r="T141" s="5">
+        <v>76.393000000000001</v>
+      </c>
+      <c r="U141" s="5">
+        <v>54.21</v>
+      </c>
+      <c r="V141" s="5">
+        <v>11.93</v>
+      </c>
+      <c r="W141" s="5">
+        <v>11.875</v>
+      </c>
+      <c r="X141" s="5">
+        <v>41.265999999999998</v>
+      </c>
+      <c r="Y141" s="5">
+        <v>61.039000000000001</v>
+      </c>
+      <c r="Z141" s="5">
+        <v>57.561999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z141"/>
+  <dimension ref="A1:Z143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11771,6 +11771,166 @@
         <v>57.561999999999998</v>
       </c>
     </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A142" s="3">
+        <v>45971</v>
+      </c>
+      <c r="B142" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" s="5">
+        <v>664.46300000000008</v>
+      </c>
+      <c r="D142" s="5">
+        <v>1537.576</v>
+      </c>
+      <c r="E142" s="5">
+        <v>548.98</v>
+      </c>
+      <c r="F142" s="5">
+        <v>448.92899999999997</v>
+      </c>
+      <c r="G142" s="5">
+        <v>231.18400000000003</v>
+      </c>
+      <c r="H142" s="5">
+        <v>649.60699999999997</v>
+      </c>
+      <c r="I142" s="5">
+        <v>611.38300000000004</v>
+      </c>
+      <c r="J142" s="5">
+        <v>195.26499999999999</v>
+      </c>
+      <c r="K142" s="5">
+        <v>157.02700000000002</v>
+      </c>
+      <c r="L142" s="5">
+        <v>251.97999999999996</v>
+      </c>
+      <c r="M142" s="5">
+        <v>229.76500000000004</v>
+      </c>
+      <c r="N142" s="5">
+        <v>221.51599999999996</v>
+      </c>
+      <c r="O142" s="5">
+        <v>936.72900000000016</v>
+      </c>
+      <c r="P142" s="5">
+        <v>1657.9210000000003</v>
+      </c>
+      <c r="Q142" s="5">
+        <v>696.02999999999986</v>
+      </c>
+      <c r="R142" s="5">
+        <v>558.32199999999989</v>
+      </c>
+      <c r="S142" s="5">
+        <v>445.42399999999998</v>
+      </c>
+      <c r="T142" s="5">
+        <v>198.34200000000001</v>
+      </c>
+      <c r="U142" s="5">
+        <v>258.58</v>
+      </c>
+      <c r="V142" s="5">
+        <v>54.53</v>
+      </c>
+      <c r="W142" s="5">
+        <v>131.39099999999999</v>
+      </c>
+      <c r="X142" s="5">
+        <v>73.349999999999994</v>
+      </c>
+      <c r="Y142" s="5">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="Z142" s="5">
+        <v>31.32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A143" s="3">
+        <v>45971</v>
+      </c>
+      <c r="B143" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="5">
+        <v>269.74399999999997</v>
+      </c>
+      <c r="D143" s="5">
+        <v>286.83199999999999</v>
+      </c>
+      <c r="E143" s="5">
+        <v>123.21099999999998</v>
+      </c>
+      <c r="F143" s="5">
+        <v>29.231999999999999</v>
+      </c>
+      <c r="G143" s="5">
+        <v>30.695</v>
+      </c>
+      <c r="H143" s="5">
+        <v>20.062999999999999</v>
+      </c>
+      <c r="I143" s="5">
+        <v>356.65999999999997</v>
+      </c>
+      <c r="J143" s="5">
+        <v>139.41399999999999</v>
+      </c>
+      <c r="K143" s="5">
+        <v>24.742000000000001</v>
+      </c>
+      <c r="L143" s="5">
+        <v>127.43600000000001</v>
+      </c>
+      <c r="M143" s="5">
+        <v>174.83799999999999</v>
+      </c>
+      <c r="N143" s="5">
+        <v>220.428</v>
+      </c>
+      <c r="O143" s="5">
+        <v>237.071</v>
+      </c>
+      <c r="P143" s="5">
+        <v>890.33700000000022</v>
+      </c>
+      <c r="Q143" s="5">
+        <v>297.39100000000002</v>
+      </c>
+      <c r="R143" s="5">
+        <v>290.61699999999996</v>
+      </c>
+      <c r="S143" s="5">
+        <v>371.60300000000001</v>
+      </c>
+      <c r="T143" s="5">
+        <v>232.33699999999999</v>
+      </c>
+      <c r="U143" s="5">
+        <v>64.076999999999998</v>
+      </c>
+      <c r="V143" s="5">
+        <v>130.917</v>
+      </c>
+      <c r="W143" s="5">
+        <v>29.67</v>
+      </c>
+      <c r="X143" s="5">
+        <v>119.809</v>
+      </c>
+      <c r="Y143" s="5">
+        <v>54.661999999999999</v>
+      </c>
+      <c r="Z143" s="5">
+        <v>33.094000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z143"/>
+  <dimension ref="A1:Z145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+      <selection activeCell="E148" sqref="E148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11931,6 +11931,166 @@
         <v>33.094000000000001</v>
       </c>
     </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A144" s="3">
+        <v>45972</v>
+      </c>
+      <c r="B144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" s="5">
+        <v>492.38900000000001</v>
+      </c>
+      <c r="D144" s="5">
+        <v>1235.8040000000005</v>
+      </c>
+      <c r="E144" s="5">
+        <v>449.37</v>
+      </c>
+      <c r="F144" s="5">
+        <v>405.92999999999995</v>
+      </c>
+      <c r="G144" s="5">
+        <v>354.09699999999998</v>
+      </c>
+      <c r="H144" s="5">
+        <v>520.25099999999998</v>
+      </c>
+      <c r="I144" s="5">
+        <v>561.40199999999993</v>
+      </c>
+      <c r="J144" s="5">
+        <v>214.316</v>
+      </c>
+      <c r="K144" s="5">
+        <v>54.720000000000006</v>
+      </c>
+      <c r="L144" s="5">
+        <v>47.040000000000006</v>
+      </c>
+      <c r="M144" s="5">
+        <v>243.93400000000003</v>
+      </c>
+      <c r="N144" s="5">
+        <v>157.69</v>
+      </c>
+      <c r="O144" s="5">
+        <v>613.20900000000006</v>
+      </c>
+      <c r="P144" s="5">
+        <v>1440.0790000000002</v>
+      </c>
+      <c r="Q144" s="5">
+        <v>791.76699999999983</v>
+      </c>
+      <c r="R144" s="5">
+        <v>173.71000000000004</v>
+      </c>
+      <c r="S144" s="5">
+        <v>381.56200000000001</v>
+      </c>
+      <c r="T144" s="5">
+        <v>183.21700000000004</v>
+      </c>
+      <c r="U144" s="5">
+        <v>36.82</v>
+      </c>
+      <c r="V144" s="5">
+        <v>83.86</v>
+      </c>
+      <c r="W144" s="5">
+        <v>90.64</v>
+      </c>
+      <c r="X144" s="5">
+        <v>35.81</v>
+      </c>
+      <c r="Y144" s="5">
+        <v>87.94</v>
+      </c>
+      <c r="Z144" s="5">
+        <v>60.860999999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A145" s="3">
+        <v>45972</v>
+      </c>
+      <c r="B145" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="5">
+        <v>100.717</v>
+      </c>
+      <c r="D145" s="5">
+        <v>331.10899999999998</v>
+      </c>
+      <c r="E145" s="5">
+        <v>93.274000000000001</v>
+      </c>
+      <c r="F145" s="5">
+        <v>32.695999999999998</v>
+      </c>
+      <c r="G145" s="5">
+        <v>34.195</v>
+      </c>
+      <c r="H145" s="5">
+        <v>187.80799999999999</v>
+      </c>
+      <c r="I145" s="5">
+        <v>212.44699999999997</v>
+      </c>
+      <c r="J145" s="5">
+        <v>244.47299999999998</v>
+      </c>
+      <c r="K145" s="5">
+        <v>300.30399999999997</v>
+      </c>
+      <c r="L145" s="5">
+        <v>170.255</v>
+      </c>
+      <c r="M145" s="5">
+        <v>135.40199999999999</v>
+      </c>
+      <c r="N145" s="5">
+        <v>158.13899999999998</v>
+      </c>
+      <c r="O145" s="5">
+        <v>421.839</v>
+      </c>
+      <c r="P145" s="5">
+        <v>656.18600000000004</v>
+      </c>
+      <c r="Q145" s="5">
+        <v>295.87199999999996</v>
+      </c>
+      <c r="R145" s="5">
+        <v>230.15099999999998</v>
+      </c>
+      <c r="S145" s="5">
+        <v>175.36799999999999</v>
+      </c>
+      <c r="T145" s="5">
+        <v>135.42599999999999</v>
+      </c>
+      <c r="U145" s="5">
+        <v>46.097000000000001</v>
+      </c>
+      <c r="V145" s="5">
+        <v>38.814999999999998</v>
+      </c>
+      <c r="W145" s="5">
+        <v>107.387</v>
+      </c>
+      <c r="X145" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="5">
+        <v>17.109000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z145"/>
+  <dimension ref="A1:Z147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12091,6 +12091,166 @@
         <v>17.109000000000002</v>
       </c>
     </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A146" s="3">
+        <v>45973</v>
+      </c>
+      <c r="B146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" s="5">
+        <v>449.863</v>
+      </c>
+      <c r="D146" s="5">
+        <v>1237.5750000000003</v>
+      </c>
+      <c r="E146" s="5">
+        <v>392.76</v>
+      </c>
+      <c r="F146" s="5">
+        <v>269.76300000000003</v>
+      </c>
+      <c r="G146" s="5">
+        <v>343.61699999999996</v>
+      </c>
+      <c r="H146" s="5">
+        <v>587.90499999999997</v>
+      </c>
+      <c r="I146" s="5">
+        <v>358.90300000000002</v>
+      </c>
+      <c r="J146" s="5">
+        <v>158.786</v>
+      </c>
+      <c r="K146" s="5">
+        <v>148.13900000000001</v>
+      </c>
+      <c r="L146" s="5">
+        <v>237.64000000000001</v>
+      </c>
+      <c r="M146" s="5">
+        <v>291.92500000000001</v>
+      </c>
+      <c r="N146" s="5">
+        <v>175.49</v>
+      </c>
+      <c r="O146" s="5">
+        <v>982.87800000000016</v>
+      </c>
+      <c r="P146" s="5">
+        <v>1048.23</v>
+      </c>
+      <c r="Q146" s="5">
+        <v>304.76799999999997</v>
+      </c>
+      <c r="R146" s="5">
+        <v>443.279</v>
+      </c>
+      <c r="S146" s="5">
+        <v>209.01599999999999</v>
+      </c>
+      <c r="T146" s="5">
+        <v>146.59500000000003</v>
+      </c>
+      <c r="U146" s="5">
+        <v>75.387</v>
+      </c>
+      <c r="V146" s="5">
+        <v>173.78000000000003</v>
+      </c>
+      <c r="W146" s="5">
+        <v>69.33</v>
+      </c>
+      <c r="X146" s="5">
+        <v>144.94</v>
+      </c>
+      <c r="Y146" s="5">
+        <v>42.480000000000004</v>
+      </c>
+      <c r="Z146" s="5">
+        <v>72.89</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A147" s="3">
+        <v>45973</v>
+      </c>
+      <c r="B147" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" s="5">
+        <v>210.30400000000003</v>
+      </c>
+      <c r="D147" s="5">
+        <v>402.40699999999998</v>
+      </c>
+      <c r="E147" s="5">
+        <v>138.82</v>
+      </c>
+      <c r="F147" s="5">
+        <v>143.86799999999999</v>
+      </c>
+      <c r="G147" s="5">
+        <v>0</v>
+      </c>
+      <c r="H147" s="5">
+        <v>102.57499999999999</v>
+      </c>
+      <c r="I147" s="5">
+        <v>354.30099999999999</v>
+      </c>
+      <c r="J147" s="5">
+        <v>265.68099999999998</v>
+      </c>
+      <c r="K147" s="5">
+        <v>172.53800000000001</v>
+      </c>
+      <c r="L147" s="5">
+        <v>94.256</v>
+      </c>
+      <c r="M147" s="5">
+        <v>239.815</v>
+      </c>
+      <c r="N147" s="5">
+        <v>240.05500000000001</v>
+      </c>
+      <c r="O147" s="5">
+        <v>400.279</v>
+      </c>
+      <c r="P147" s="5">
+        <v>418.98099999999999</v>
+      </c>
+      <c r="Q147" s="5">
+        <v>372.07800000000003</v>
+      </c>
+      <c r="R147" s="5">
+        <v>224.238</v>
+      </c>
+      <c r="S147" s="5">
+        <v>221.90499999999997</v>
+      </c>
+      <c r="T147" s="5">
+        <v>199.76100000000002</v>
+      </c>
+      <c r="U147" s="5">
+        <v>116.20400000000001</v>
+      </c>
+      <c r="V147" s="5">
+        <v>56.335999999999999</v>
+      </c>
+      <c r="W147" s="5">
+        <v>98.685999999999993</v>
+      </c>
+      <c r="X147" s="5">
+        <v>39.241999999999997</v>
+      </c>
+      <c r="Y147" s="5">
+        <v>50.230000000000004</v>
+      </c>
+      <c r="Z147" s="5">
+        <v>7.0430000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z147"/>
+  <dimension ref="A1:Z149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12251,6 +12251,166 @@
         <v>7.0430000000000001</v>
       </c>
     </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A148" s="3">
+        <v>45974</v>
+      </c>
+      <c r="B148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148" s="5">
+        <v>600.55099999999993</v>
+      </c>
+      <c r="D148" s="5">
+        <v>1166.8229999999999</v>
+      </c>
+      <c r="E148" s="5">
+        <v>300.40199999999999</v>
+      </c>
+      <c r="F148" s="5">
+        <v>214.78999999999996</v>
+      </c>
+      <c r="G148" s="5">
+        <v>238.92</v>
+      </c>
+      <c r="H148" s="5">
+        <v>563.19399999999996</v>
+      </c>
+      <c r="I148" s="5">
+        <v>490.38300000000004</v>
+      </c>
+      <c r="J148" s="5">
+        <v>194.34100000000001</v>
+      </c>
+      <c r="K148" s="5">
+        <v>103.79999999999998</v>
+      </c>
+      <c r="L148" s="5">
+        <v>244.18799999999999</v>
+      </c>
+      <c r="M148" s="5">
+        <v>268.65999999999997</v>
+      </c>
+      <c r="N148" s="5">
+        <v>415.89800000000002</v>
+      </c>
+      <c r="O148" s="5">
+        <v>809.74900000000002</v>
+      </c>
+      <c r="P148" s="5">
+        <v>1317.7050000000002</v>
+      </c>
+      <c r="Q148" s="5">
+        <v>290.13400000000001</v>
+      </c>
+      <c r="R148" s="5">
+        <v>288.78700000000003</v>
+      </c>
+      <c r="S148" s="5">
+        <v>408.07799999999992</v>
+      </c>
+      <c r="T148" s="5">
+        <v>189.14</v>
+      </c>
+      <c r="U148" s="5">
+        <v>209.76</v>
+      </c>
+      <c r="V148" s="5">
+        <v>74.11</v>
+      </c>
+      <c r="W148" s="5">
+        <v>0</v>
+      </c>
+      <c r="X148" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="Y148" s="5">
+        <v>26.28</v>
+      </c>
+      <c r="Z148" s="5">
+        <v>103.57000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A149" s="3">
+        <v>45974</v>
+      </c>
+      <c r="B149" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" s="5">
+        <v>383.89600000000002</v>
+      </c>
+      <c r="D149" s="5">
+        <v>380.11199999999997</v>
+      </c>
+      <c r="E149" s="5">
+        <v>105.59399999999999</v>
+      </c>
+      <c r="F149" s="5">
+        <v>0</v>
+      </c>
+      <c r="G149" s="5">
+        <v>32.75</v>
+      </c>
+      <c r="H149" s="5">
+        <v>67.085999999999999</v>
+      </c>
+      <c r="I149" s="5">
+        <v>326.99699999999996</v>
+      </c>
+      <c r="J149" s="5">
+        <v>101.76400000000001</v>
+      </c>
+      <c r="K149" s="5">
+        <v>254.80099999999999</v>
+      </c>
+      <c r="L149" s="5">
+        <v>212.46800000000002</v>
+      </c>
+      <c r="M149" s="5">
+        <v>275.62700000000001</v>
+      </c>
+      <c r="N149" s="5">
+        <v>193.02699999999999</v>
+      </c>
+      <c r="O149" s="5">
+        <v>364.81700000000001</v>
+      </c>
+      <c r="P149" s="5">
+        <v>343.14599999999996</v>
+      </c>
+      <c r="Q149" s="5">
+        <v>354.86799999999994</v>
+      </c>
+      <c r="R149" s="5">
+        <v>406.72899999999998</v>
+      </c>
+      <c r="S149" s="5">
+        <v>101.32900000000001</v>
+      </c>
+      <c r="T149" s="5">
+        <v>109.39</v>
+      </c>
+      <c r="U149" s="5">
+        <v>49.675000000000004</v>
+      </c>
+      <c r="V149" s="5">
+        <v>48.998000000000005</v>
+      </c>
+      <c r="W149" s="5">
+        <v>34.008000000000003</v>
+      </c>
+      <c r="X149" s="5">
+        <v>38.125</v>
+      </c>
+      <c r="Y149" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z149" s="5">
+        <v>11.852</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z149"/>
+  <dimension ref="A1:Z151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+      <selection activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12411,6 +12411,166 @@
         <v>11.852</v>
       </c>
     </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A150" s="3">
+        <v>45975</v>
+      </c>
+      <c r="B150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C150" s="5">
+        <v>603.87599999999998</v>
+      </c>
+      <c r="D150" s="5">
+        <v>982.20799999999997</v>
+      </c>
+      <c r="E150" s="5">
+        <v>598.04199999999992</v>
+      </c>
+      <c r="F150" s="5">
+        <v>288.44600000000003</v>
+      </c>
+      <c r="G150" s="5">
+        <v>377.75300000000004</v>
+      </c>
+      <c r="H150" s="5">
+        <v>704.98699999999997</v>
+      </c>
+      <c r="I150" s="5">
+        <v>540.93799999999999</v>
+      </c>
+      <c r="J150" s="5">
+        <v>185.40600000000001</v>
+      </c>
+      <c r="K150" s="5">
+        <v>197.84800000000001</v>
+      </c>
+      <c r="L150" s="5">
+        <v>156.93299999999999</v>
+      </c>
+      <c r="M150" s="5">
+        <v>121.42</v>
+      </c>
+      <c r="N150" s="5">
+        <v>222.60699999999997</v>
+      </c>
+      <c r="O150" s="5">
+        <v>767.0200000000001</v>
+      </c>
+      <c r="P150" s="5">
+        <v>1226.1940000000002</v>
+      </c>
+      <c r="Q150" s="5">
+        <v>587.59999999999991</v>
+      </c>
+      <c r="R150" s="5">
+        <v>471.44800000000004</v>
+      </c>
+      <c r="S150" s="5">
+        <v>345.44400000000007</v>
+      </c>
+      <c r="T150" s="5">
+        <v>225.9</v>
+      </c>
+      <c r="U150" s="5">
+        <v>280.17599999999999</v>
+      </c>
+      <c r="V150" s="5">
+        <v>68.02000000000001</v>
+      </c>
+      <c r="W150" s="5">
+        <v>66.44</v>
+      </c>
+      <c r="X150" s="5">
+        <v>15.9</v>
+      </c>
+      <c r="Y150" s="5">
+        <v>95.789999999999992</v>
+      </c>
+      <c r="Z150" s="5">
+        <v>49.595999999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A151" s="3">
+        <v>45975</v>
+      </c>
+      <c r="B151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" s="5">
+        <v>489.9729999999999</v>
+      </c>
+      <c r="D151" s="5">
+        <v>329.01599999999996</v>
+      </c>
+      <c r="E151" s="5">
+        <v>23.039000000000001</v>
+      </c>
+      <c r="F151" s="5">
+        <v>116.78199999999998</v>
+      </c>
+      <c r="G151" s="5">
+        <v>55.382999999999996</v>
+      </c>
+      <c r="H151" s="5">
+        <v>292.858</v>
+      </c>
+      <c r="I151" s="5">
+        <v>139.69599999999997</v>
+      </c>
+      <c r="J151" s="5">
+        <v>62.625</v>
+      </c>
+      <c r="K151" s="5">
+        <v>393.28800000000001</v>
+      </c>
+      <c r="L151" s="5">
+        <v>213.70599999999999</v>
+      </c>
+      <c r="M151" s="5">
+        <v>164.36</v>
+      </c>
+      <c r="N151" s="5">
+        <v>344.11599999999999</v>
+      </c>
+      <c r="O151" s="5">
+        <v>419.209</v>
+      </c>
+      <c r="P151" s="5">
+        <v>512.44399999999996</v>
+      </c>
+      <c r="Q151" s="5">
+        <v>146.80300000000003</v>
+      </c>
+      <c r="R151" s="5">
+        <v>299.72300000000001</v>
+      </c>
+      <c r="S151" s="5">
+        <v>131.14400000000001</v>
+      </c>
+      <c r="T151" s="5">
+        <v>165.07300000000001</v>
+      </c>
+      <c r="U151" s="5">
+        <v>38.938000000000002</v>
+      </c>
+      <c r="V151" s="5">
+        <v>111.524</v>
+      </c>
+      <c r="W151" s="5">
+        <v>44.719000000000001</v>
+      </c>
+      <c r="X151" s="5">
+        <v>72.203000000000003</v>
+      </c>
+      <c r="Y151" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z151" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z151"/>
+  <dimension ref="A1:Z153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D155" sqref="D155"/>
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12571,6 +12571,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A152" s="3">
+        <v>45976</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" s="5">
+        <v>603.46799999999996</v>
+      </c>
+      <c r="D152" s="5">
+        <v>1137.6000000000004</v>
+      </c>
+      <c r="E152" s="5">
+        <v>472.62999999999994</v>
+      </c>
+      <c r="F152" s="5">
+        <v>318.36099999999999</v>
+      </c>
+      <c r="G152" s="5">
+        <v>433.39700000000005</v>
+      </c>
+      <c r="H152" s="5">
+        <v>627.99300000000005</v>
+      </c>
+      <c r="I152" s="5">
+        <v>682.64800000000002</v>
+      </c>
+      <c r="J152" s="5">
+        <v>105.188</v>
+      </c>
+      <c r="K152" s="5">
+        <v>81.757999999999996</v>
+      </c>
+      <c r="L152" s="5">
+        <v>152.809</v>
+      </c>
+      <c r="M152" s="5">
+        <v>139.11500000000001</v>
+      </c>
+      <c r="N152" s="5">
+        <v>312.71100000000001</v>
+      </c>
+      <c r="O152" s="5">
+        <v>661.42500000000018</v>
+      </c>
+      <c r="P152" s="5">
+        <v>1323.2009999999998</v>
+      </c>
+      <c r="Q152" s="5">
+        <v>547.1400000000001</v>
+      </c>
+      <c r="R152" s="5">
+        <v>639.99199999999996</v>
+      </c>
+      <c r="S152" s="5">
+        <v>454.41300000000001</v>
+      </c>
+      <c r="T152" s="5">
+        <v>108.733</v>
+      </c>
+      <c r="U152" s="5">
+        <v>144.44</v>
+      </c>
+      <c r="V152" s="5">
+        <v>41.37</v>
+      </c>
+      <c r="W152" s="5">
+        <v>107.88000000000001</v>
+      </c>
+      <c r="X152" s="5">
+        <v>76.16</v>
+      </c>
+      <c r="Y152" s="5">
+        <v>133.64000000000001</v>
+      </c>
+      <c r="Z152" s="5">
+        <v>36.69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A153" s="3">
+        <v>45976</v>
+      </c>
+      <c r="B153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="5">
+        <v>355.154</v>
+      </c>
+      <c r="D153" s="5">
+        <v>666.49900000000002</v>
+      </c>
+      <c r="E153" s="5">
+        <v>59.892000000000003</v>
+      </c>
+      <c r="F153" s="5">
+        <v>137.85400000000001</v>
+      </c>
+      <c r="G153" s="5">
+        <v>68.26400000000001</v>
+      </c>
+      <c r="H153" s="5">
+        <v>279.78099999999995</v>
+      </c>
+      <c r="I153" s="5">
+        <v>85.421000000000006</v>
+      </c>
+      <c r="J153" s="5">
+        <v>85.734000000000009</v>
+      </c>
+      <c r="K153" s="5">
+        <v>243.41499999999999</v>
+      </c>
+      <c r="L153" s="5">
+        <v>193.952</v>
+      </c>
+      <c r="M153" s="5">
+        <v>82.155000000000001</v>
+      </c>
+      <c r="N153" s="5">
+        <v>187.35899999999998</v>
+      </c>
+      <c r="O153" s="5">
+        <v>273.80100000000004</v>
+      </c>
+      <c r="P153" s="5">
+        <v>378.71399999999994</v>
+      </c>
+      <c r="Q153" s="5">
+        <v>199.51</v>
+      </c>
+      <c r="R153" s="5">
+        <v>220.94400000000002</v>
+      </c>
+      <c r="S153" s="5">
+        <v>104.372</v>
+      </c>
+      <c r="T153" s="5">
+        <v>256.47399999999999</v>
+      </c>
+      <c r="U153" s="5">
+        <v>72.444999999999993</v>
+      </c>
+      <c r="V153" s="5">
+        <v>0</v>
+      </c>
+      <c r="W153" s="5">
+        <v>0</v>
+      </c>
+      <c r="X153" s="5">
+        <v>110.96199999999999</v>
+      </c>
+      <c r="Y153" s="5">
+        <v>51.497999999999998</v>
+      </c>
+      <c r="Z153" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z153"/>
+  <dimension ref="A1:Z155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12731,6 +12731,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A154" s="3">
+        <v>45977</v>
+      </c>
+      <c r="B154" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154" s="5">
+        <v>741.34500000000003</v>
+      </c>
+      <c r="D154" s="5">
+        <v>1114.3920000000001</v>
+      </c>
+      <c r="E154" s="5">
+        <v>562.45699999999999</v>
+      </c>
+      <c r="F154" s="5">
+        <v>378.298</v>
+      </c>
+      <c r="G154" s="5">
+        <v>191.78300000000002</v>
+      </c>
+      <c r="H154" s="5">
+        <v>647.02800000000013</v>
+      </c>
+      <c r="I154" s="5">
+        <v>450.04500000000007</v>
+      </c>
+      <c r="J154" s="5">
+        <v>152.26399999999998</v>
+      </c>
+      <c r="K154" s="5">
+        <v>119.02</v>
+      </c>
+      <c r="L154" s="5">
+        <v>118.67200000000001</v>
+      </c>
+      <c r="M154" s="5">
+        <v>126.1</v>
+      </c>
+      <c r="N154" s="5">
+        <v>248.54800000000003</v>
+      </c>
+      <c r="O154" s="5">
+        <v>704.72300000000018</v>
+      </c>
+      <c r="P154" s="5">
+        <v>1105.2009999999998</v>
+      </c>
+      <c r="Q154" s="5">
+        <v>582.89900000000011</v>
+      </c>
+      <c r="R154" s="5">
+        <v>299.07499999999999</v>
+      </c>
+      <c r="S154" s="5">
+        <v>323.84800000000001</v>
+      </c>
+      <c r="T154" s="5">
+        <v>350.50399999999991</v>
+      </c>
+      <c r="U154" s="5">
+        <v>139.41200000000001</v>
+      </c>
+      <c r="V154" s="5">
+        <v>175.71899999999999</v>
+      </c>
+      <c r="W154" s="5">
+        <v>77.34</v>
+      </c>
+      <c r="X154" s="5">
+        <v>72.960000000000008</v>
+      </c>
+      <c r="Y154" s="5">
+        <v>47.06</v>
+      </c>
+      <c r="Z154" s="5">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A155" s="3">
+        <v>45977</v>
+      </c>
+      <c r="B155" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="5">
+        <v>480.63400000000001</v>
+      </c>
+      <c r="D155" s="5">
+        <v>277.923</v>
+      </c>
+      <c r="E155" s="5">
+        <v>155.92000000000002</v>
+      </c>
+      <c r="F155" s="5">
+        <v>75.436999999999998</v>
+      </c>
+      <c r="G155" s="5">
+        <v>117.49299999999999</v>
+      </c>
+      <c r="H155" s="5">
+        <v>153.39100000000002</v>
+      </c>
+      <c r="I155" s="5">
+        <v>319.58299999999997</v>
+      </c>
+      <c r="J155" s="5">
+        <v>42.933999999999997</v>
+      </c>
+      <c r="K155" s="5">
+        <v>414.70800000000008</v>
+      </c>
+      <c r="L155" s="5">
+        <v>298.20800000000008</v>
+      </c>
+      <c r="M155" s="5">
+        <v>386.30300000000005</v>
+      </c>
+      <c r="N155" s="5">
+        <v>76.567000000000007</v>
+      </c>
+      <c r="O155" s="5">
+        <v>264.53100000000001</v>
+      </c>
+      <c r="P155" s="5">
+        <v>332.57400000000007</v>
+      </c>
+      <c r="Q155" s="5">
+        <v>243.56200000000001</v>
+      </c>
+      <c r="R155" s="5">
+        <v>307.75799999999992</v>
+      </c>
+      <c r="S155" s="5">
+        <v>153.92700000000002</v>
+      </c>
+      <c r="T155" s="5">
+        <v>141.10599999999999</v>
+      </c>
+      <c r="U155" s="5">
+        <v>84.961000000000013</v>
+      </c>
+      <c r="V155" s="5">
+        <v>23.696000000000002</v>
+      </c>
+      <c r="W155" s="5">
+        <v>6.9109999999999996</v>
+      </c>
+      <c r="X155" s="5">
+        <v>163.33799999999999</v>
+      </c>
+      <c r="Y155" s="5">
+        <v>15.667999999999999</v>
+      </c>
+      <c r="Z155" s="5">
+        <v>4.1059999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z155"/>
+  <dimension ref="A1:Z157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12891,6 +12891,166 @@
         <v>4.1059999999999999</v>
       </c>
     </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A156" s="3">
+        <v>45978</v>
+      </c>
+      <c r="B156" t="s">
+        <v>26</v>
+      </c>
+      <c r="C156" s="5">
+        <v>569.40300000000013</v>
+      </c>
+      <c r="D156" s="5">
+        <v>1221.558</v>
+      </c>
+      <c r="E156" s="5">
+        <v>495.73</v>
+      </c>
+      <c r="F156" s="5">
+        <v>324.49800000000005</v>
+      </c>
+      <c r="G156" s="5">
+        <v>304.755</v>
+      </c>
+      <c r="H156" s="5">
+        <v>535.14900000000011</v>
+      </c>
+      <c r="I156" s="5">
+        <v>440.57</v>
+      </c>
+      <c r="J156" s="5">
+        <v>201.44100000000003</v>
+      </c>
+      <c r="K156" s="5">
+        <v>113.11</v>
+      </c>
+      <c r="L156" s="5">
+        <v>200.84799999999998</v>
+      </c>
+      <c r="M156" s="5">
+        <v>176.82</v>
+      </c>
+      <c r="N156" s="5">
+        <v>254.76999999999998</v>
+      </c>
+      <c r="O156" s="5">
+        <v>876.27499999999975</v>
+      </c>
+      <c r="P156" s="5">
+        <v>1195.0020000000002</v>
+      </c>
+      <c r="Q156" s="5">
+        <v>802.72900000000004</v>
+      </c>
+      <c r="R156" s="5">
+        <v>330.33500000000004</v>
+      </c>
+      <c r="S156" s="5">
+        <v>609.1350000000001</v>
+      </c>
+      <c r="T156" s="5">
+        <v>93.587999999999994</v>
+      </c>
+      <c r="U156" s="5">
+        <v>159.80500000000001</v>
+      </c>
+      <c r="V156" s="5">
+        <v>173.18</v>
+      </c>
+      <c r="W156" s="5">
+        <v>127.97699999999999</v>
+      </c>
+      <c r="X156" s="5">
+        <v>219.30199999999999</v>
+      </c>
+      <c r="Y156" s="5">
+        <v>126.8</v>
+      </c>
+      <c r="Z156" s="5">
+        <v>44.372</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A157" s="3">
+        <v>45978</v>
+      </c>
+      <c r="B157" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" s="5">
+        <v>435.54599999999999</v>
+      </c>
+      <c r="D157" s="5">
+        <v>242.50400000000002</v>
+      </c>
+      <c r="E157" s="5">
+        <v>136.03199999999998</v>
+      </c>
+      <c r="F157" s="5">
+        <v>112.60100000000001</v>
+      </c>
+      <c r="G157" s="5">
+        <v>31.95</v>
+      </c>
+      <c r="H157" s="5">
+        <v>116.90700000000001</v>
+      </c>
+      <c r="I157" s="5">
+        <v>377.14800000000002</v>
+      </c>
+      <c r="J157" s="5">
+        <v>235.24299999999999</v>
+      </c>
+      <c r="K157" s="5">
+        <v>232.30699999999999</v>
+      </c>
+      <c r="L157" s="5">
+        <v>152.35500000000002</v>
+      </c>
+      <c r="M157" s="5">
+        <v>74.727000000000004</v>
+      </c>
+      <c r="N157" s="5">
+        <v>213.90500000000003</v>
+      </c>
+      <c r="O157" s="5">
+        <v>299.47399999999999</v>
+      </c>
+      <c r="P157" s="5">
+        <v>769.1719999999998</v>
+      </c>
+      <c r="Q157" s="5">
+        <v>94.414000000000001</v>
+      </c>
+      <c r="R157" s="5">
+        <v>429.93300000000005</v>
+      </c>
+      <c r="S157" s="5">
+        <v>107.023</v>
+      </c>
+      <c r="T157" s="5">
+        <v>203.392</v>
+      </c>
+      <c r="U157" s="5">
+        <v>172.58599999999998</v>
+      </c>
+      <c r="V157" s="5">
+        <v>43.292000000000002</v>
+      </c>
+      <c r="W157" s="5">
+        <v>102.101</v>
+      </c>
+      <c r="X157" s="5">
+        <v>113.70400000000001</v>
+      </c>
+      <c r="Y157" s="5">
+        <v>87.210000000000008</v>
+      </c>
+      <c r="Z157" s="5">
+        <v>65.11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z157"/>
+  <dimension ref="A1:Z159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="F162" sqref="F162"/>
+      <selection activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13051,6 +13051,166 @@
         <v>65.11</v>
       </c>
     </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A158" s="3">
+        <v>45979</v>
+      </c>
+      <c r="B158" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="5">
+        <v>528.7600000000001</v>
+      </c>
+      <c r="D158" s="5">
+        <v>1349.6229999999996</v>
+      </c>
+      <c r="E158" s="5">
+        <v>583.40499999999997</v>
+      </c>
+      <c r="F158" s="5">
+        <v>453.99200000000008</v>
+      </c>
+      <c r="G158" s="5">
+        <v>396.47</v>
+      </c>
+      <c r="H158" s="5">
+        <v>482.54700000000003</v>
+      </c>
+      <c r="I158" s="5">
+        <v>652.70900000000006</v>
+      </c>
+      <c r="J158" s="5">
+        <v>227.01200000000003</v>
+      </c>
+      <c r="K158" s="5">
+        <v>116.179</v>
+      </c>
+      <c r="L158" s="5">
+        <v>135.32999999999998</v>
+      </c>
+      <c r="M158" s="5">
+        <v>100.97000000000001</v>
+      </c>
+      <c r="N158" s="5">
+        <v>241.584</v>
+      </c>
+      <c r="O158" s="5">
+        <v>945.55299999999977</v>
+      </c>
+      <c r="P158" s="5">
+        <v>1418.0979999999995</v>
+      </c>
+      <c r="Q158" s="5">
+        <v>606.21</v>
+      </c>
+      <c r="R158" s="5">
+        <v>417.39100000000008</v>
+      </c>
+      <c r="S158" s="5">
+        <v>340.04499999999996</v>
+      </c>
+      <c r="T158" s="5">
+        <v>353.04399999999998</v>
+      </c>
+      <c r="U158" s="5">
+        <v>141.04000000000002</v>
+      </c>
+      <c r="V158" s="5">
+        <v>162.14400000000001</v>
+      </c>
+      <c r="W158" s="5">
+        <v>46.5</v>
+      </c>
+      <c r="X158" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="Y158" s="5">
+        <v>159.76699999999997</v>
+      </c>
+      <c r="Z158" s="5">
+        <v>102.96000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A159" s="3">
+        <v>45979</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="5">
+        <v>346.99200000000002</v>
+      </c>
+      <c r="D159" s="5">
+        <v>510.98899999999998</v>
+      </c>
+      <c r="E159" s="5">
+        <v>122.672</v>
+      </c>
+      <c r="F159" s="5">
+        <v>94.592999999999989</v>
+      </c>
+      <c r="G159" s="5">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="H159" s="5">
+        <v>5.7189999999999994</v>
+      </c>
+      <c r="I159" s="5">
+        <v>405.27799999999996</v>
+      </c>
+      <c r="J159" s="5">
+        <v>145.898</v>
+      </c>
+      <c r="K159" s="5">
+        <v>321.83200000000005</v>
+      </c>
+      <c r="L159" s="5">
+        <v>348.471</v>
+      </c>
+      <c r="M159" s="5">
+        <v>297.73699999999997</v>
+      </c>
+      <c r="N159" s="5">
+        <v>303.50899999999996</v>
+      </c>
+      <c r="O159" s="5">
+        <v>538.49899999999991</v>
+      </c>
+      <c r="P159" s="5">
+        <v>797.64200000000017</v>
+      </c>
+      <c r="Q159" s="5">
+        <v>391.89699999999999</v>
+      </c>
+      <c r="R159" s="5">
+        <v>410.05200000000008</v>
+      </c>
+      <c r="S159" s="5">
+        <v>297.37200000000001</v>
+      </c>
+      <c r="T159" s="5">
+        <v>70.186999999999983</v>
+      </c>
+      <c r="U159" s="5">
+        <v>59.524000000000001</v>
+      </c>
+      <c r="V159" s="5">
+        <v>87.137</v>
+      </c>
+      <c r="W159" s="5">
+        <v>60.516999999999996</v>
+      </c>
+      <c r="X159" s="5">
+        <v>125.52199999999999</v>
+      </c>
+      <c r="Y159" s="5">
+        <v>33.305</v>
+      </c>
+      <c r="Z159" s="5">
+        <v>15.484</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z159"/>
+  <dimension ref="A1:Z161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="E163" sqref="E163"/>
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13211,6 +13211,166 @@
         <v>15.484</v>
       </c>
     </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A160" s="3">
+        <v>45980</v>
+      </c>
+      <c r="B160" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" s="5">
+        <v>687.83099999999979</v>
+      </c>
+      <c r="D160" s="5">
+        <v>1365.4719999999995</v>
+      </c>
+      <c r="E160" s="5">
+        <v>604.38999999999987</v>
+      </c>
+      <c r="F160" s="5">
+        <v>210.67</v>
+      </c>
+      <c r="G160" s="5">
+        <v>211.61399999999998</v>
+      </c>
+      <c r="H160" s="5">
+        <v>637.13100000000009</v>
+      </c>
+      <c r="I160" s="5">
+        <v>744.99200000000008</v>
+      </c>
+      <c r="J160" s="5">
+        <v>122.47</v>
+      </c>
+      <c r="K160" s="5">
+        <v>97.295000000000002</v>
+      </c>
+      <c r="L160" s="5">
+        <v>122.227</v>
+      </c>
+      <c r="M160" s="5">
+        <v>115.81399999999999</v>
+      </c>
+      <c r="N160" s="5">
+        <v>87.589999999999989</v>
+      </c>
+      <c r="O160" s="5">
+        <v>768.08</v>
+      </c>
+      <c r="P160" s="5">
+        <v>1482.1590000000001</v>
+      </c>
+      <c r="Q160" s="5">
+        <v>520.89099999999996</v>
+      </c>
+      <c r="R160" s="5">
+        <v>356.99599999999998</v>
+      </c>
+      <c r="S160" s="5">
+        <v>368.53300000000002</v>
+      </c>
+      <c r="T160" s="5">
+        <v>188.70199999999997</v>
+      </c>
+      <c r="U160" s="5">
+        <v>10.28</v>
+      </c>
+      <c r="V160" s="5">
+        <v>72.472000000000008</v>
+      </c>
+      <c r="W160" s="5">
+        <v>80.48</v>
+      </c>
+      <c r="X160" s="5">
+        <v>67.31</v>
+      </c>
+      <c r="Y160" s="5">
+        <v>126.58000000000001</v>
+      </c>
+      <c r="Z160" s="5">
+        <v>81.62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A161" s="3">
+        <v>45980</v>
+      </c>
+      <c r="B161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" s="5">
+        <v>458.11500000000001</v>
+      </c>
+      <c r="D161" s="5">
+        <v>167.25800000000001</v>
+      </c>
+      <c r="E161" s="5">
+        <v>152.392</v>
+      </c>
+      <c r="F161" s="5">
+        <v>98.835000000000008</v>
+      </c>
+      <c r="G161" s="5">
+        <v>37.335999999999999</v>
+      </c>
+      <c r="H161" s="5">
+        <v>73.182000000000002</v>
+      </c>
+      <c r="I161" s="5">
+        <v>379.74299999999999</v>
+      </c>
+      <c r="J161" s="5">
+        <v>177.52900000000002</v>
+      </c>
+      <c r="K161" s="5">
+        <v>221.41200000000001</v>
+      </c>
+      <c r="L161" s="5">
+        <v>91.929000000000002</v>
+      </c>
+      <c r="M161" s="5">
+        <v>261.64499999999998</v>
+      </c>
+      <c r="N161" s="5">
+        <v>195.34800000000001</v>
+      </c>
+      <c r="O161" s="5">
+        <v>674.74599999999998</v>
+      </c>
+      <c r="P161" s="5">
+        <v>531.87899999999991</v>
+      </c>
+      <c r="Q161" s="5">
+        <v>362.30199999999996</v>
+      </c>
+      <c r="R161" s="5">
+        <v>317.48199999999997</v>
+      </c>
+      <c r="S161" s="5">
+        <v>99.697000000000003</v>
+      </c>
+      <c r="T161" s="5">
+        <v>75.588999999999999</v>
+      </c>
+      <c r="U161" s="5">
+        <v>100.88600000000001</v>
+      </c>
+      <c r="V161" s="5">
+        <v>112.066</v>
+      </c>
+      <c r="W161" s="5">
+        <v>9.6370000000000005</v>
+      </c>
+      <c r="X161" s="5">
+        <v>150.57</v>
+      </c>
+      <c r="Y161" s="5">
+        <v>152.761</v>
+      </c>
+      <c r="Z161" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,7 +476,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z161"/>
+  <dimension ref="A1:Z163"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
       <selection activeCell="E166" sqref="E166"/>
@@ -13371,6 +13371,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A162" s="3">
+        <v>45981</v>
+      </c>
+      <c r="B162" t="s">
+        <v>26</v>
+      </c>
+      <c r="C162" s="5">
+        <v>580.41199999999992</v>
+      </c>
+      <c r="D162" s="5">
+        <v>1073.7449999999999</v>
+      </c>
+      <c r="E162" s="5">
+        <v>557.44999999999993</v>
+      </c>
+      <c r="F162" s="5">
+        <v>433.66300000000001</v>
+      </c>
+      <c r="G162" s="5">
+        <v>300.21100000000001</v>
+      </c>
+      <c r="H162" s="5">
+        <v>575.346</v>
+      </c>
+      <c r="I162" s="5">
+        <v>470.05599999999993</v>
+      </c>
+      <c r="J162" s="5">
+        <v>182.21899999999999</v>
+      </c>
+      <c r="K162" s="5">
+        <v>122.34</v>
+      </c>
+      <c r="L162" s="5">
+        <v>78.63</v>
+      </c>
+      <c r="M162" s="5">
+        <v>278.8</v>
+      </c>
+      <c r="N162" s="5">
+        <v>257.36200000000002</v>
+      </c>
+      <c r="O162" s="5">
+        <v>721.62500000000011</v>
+      </c>
+      <c r="P162" s="5">
+        <v>1451.1109999999999</v>
+      </c>
+      <c r="Q162" s="5">
+        <v>565.21300000000008</v>
+      </c>
+      <c r="R162" s="5">
+        <v>433.66800000000006</v>
+      </c>
+      <c r="S162" s="5">
+        <v>326.17900000000003</v>
+      </c>
+      <c r="T162" s="5">
+        <v>179.739</v>
+      </c>
+      <c r="U162" s="5">
+        <v>154.05399999999997</v>
+      </c>
+      <c r="V162" s="5">
+        <v>199.684</v>
+      </c>
+      <c r="W162" s="5">
+        <v>155.97999999999999</v>
+      </c>
+      <c r="X162" s="5">
+        <v>87.42</v>
+      </c>
+      <c r="Y162" s="5">
+        <v>106.92</v>
+      </c>
+      <c r="Z162" s="5">
+        <v>49.26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A163" s="3">
+        <v>45981</v>
+      </c>
+      <c r="B163" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="5">
+        <v>396.28499999999997</v>
+      </c>
+      <c r="D163" s="5">
+        <v>364.96800000000002</v>
+      </c>
+      <c r="E163" s="5">
+        <v>77.546999999999997</v>
+      </c>
+      <c r="F163" s="5">
+        <v>74.992999999999995</v>
+      </c>
+      <c r="G163" s="5">
+        <v>0</v>
+      </c>
+      <c r="H163" s="5">
+        <v>141.42099999999999</v>
+      </c>
+      <c r="I163" s="5">
+        <v>140</v>
+      </c>
+      <c r="J163" s="5">
+        <v>120.104</v>
+      </c>
+      <c r="K163" s="5">
+        <v>292.18799999999999</v>
+      </c>
+      <c r="L163" s="5">
+        <v>110.786</v>
+      </c>
+      <c r="M163" s="5">
+        <v>208.21399999999997</v>
+      </c>
+      <c r="N163" s="5">
+        <v>159.197</v>
+      </c>
+      <c r="O163" s="5">
+        <v>434.38300000000004</v>
+      </c>
+      <c r="P163" s="5">
+        <v>419.37799999999993</v>
+      </c>
+      <c r="Q163" s="5">
+        <v>146.82499999999999</v>
+      </c>
+      <c r="R163" s="5">
+        <v>217.79900000000001</v>
+      </c>
+      <c r="S163" s="5">
+        <v>214.24200000000002</v>
+      </c>
+      <c r="T163" s="5">
+        <v>45.936999999999998</v>
+      </c>
+      <c r="U163" s="5">
+        <v>120.33600000000001</v>
+      </c>
+      <c r="V163" s="5">
+        <v>71.989000000000004</v>
+      </c>
+      <c r="W163" s="5">
+        <v>0</v>
+      </c>
+      <c r="X163" s="5">
+        <v>59.983999999999995</v>
+      </c>
+      <c r="Y163" s="5">
+        <v>179.839</v>
+      </c>
+      <c r="Z163" s="5">
+        <v>87.644999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z163"/>
+  <dimension ref="A1:Z165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13531,6 +13531,166 @@
         <v>87.644999999999996</v>
       </c>
     </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A164" s="3">
+        <v>45982</v>
+      </c>
+      <c r="B164" t="s">
+        <v>26</v>
+      </c>
+      <c r="C164" s="5">
+        <v>536.3889999999999</v>
+      </c>
+      <c r="D164" s="5">
+        <v>900.40700000000004</v>
+      </c>
+      <c r="E164" s="5">
+        <v>610.46399999999994</v>
+      </c>
+      <c r="F164" s="5">
+        <v>322.66899999999998</v>
+      </c>
+      <c r="G164" s="5">
+        <v>219.5</v>
+      </c>
+      <c r="H164" s="5">
+        <v>786.43300000000011</v>
+      </c>
+      <c r="I164" s="5">
+        <v>511.53200000000004</v>
+      </c>
+      <c r="J164" s="5">
+        <v>207.00299999999999</v>
+      </c>
+      <c r="K164" s="5">
+        <v>144.37299999999999</v>
+      </c>
+      <c r="L164" s="5">
+        <v>162.679</v>
+      </c>
+      <c r="M164" s="5">
+        <v>97.82</v>
+      </c>
+      <c r="N164" s="5">
+        <v>172.48</v>
+      </c>
+      <c r="O164" s="5">
+        <v>688.69999999999993</v>
+      </c>
+      <c r="P164" s="5">
+        <v>1665.2529999999992</v>
+      </c>
+      <c r="Q164" s="5">
+        <v>639.9409999999998</v>
+      </c>
+      <c r="R164" s="5">
+        <v>391.43099999999998</v>
+      </c>
+      <c r="S164" s="5">
+        <v>306.68900000000002</v>
+      </c>
+      <c r="T164" s="5">
+        <v>370.34899999999999</v>
+      </c>
+      <c r="U164" s="5">
+        <v>112.849</v>
+      </c>
+      <c r="V164" s="5">
+        <v>76.63</v>
+      </c>
+      <c r="W164" s="5">
+        <v>128.53</v>
+      </c>
+      <c r="X164" s="5">
+        <v>223.54099999999997</v>
+      </c>
+      <c r="Y164" s="5">
+        <v>94.99</v>
+      </c>
+      <c r="Z164" s="5">
+        <v>30.22</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A165" s="3">
+        <v>45982</v>
+      </c>
+      <c r="B165" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" s="5">
+        <v>702.70600000000013</v>
+      </c>
+      <c r="D165" s="5">
+        <v>251.00300000000001</v>
+      </c>
+      <c r="E165" s="5">
+        <v>170.58700000000002</v>
+      </c>
+      <c r="F165" s="5">
+        <v>37.859000000000002</v>
+      </c>
+      <c r="G165" s="5">
+        <v>94.738</v>
+      </c>
+      <c r="H165" s="5">
+        <v>348.56100000000004</v>
+      </c>
+      <c r="I165" s="5">
+        <v>175.81700000000001</v>
+      </c>
+      <c r="J165" s="5">
+        <v>119.809</v>
+      </c>
+      <c r="K165" s="5">
+        <v>205.34500000000003</v>
+      </c>
+      <c r="L165" s="5">
+        <v>222.06299999999999</v>
+      </c>
+      <c r="M165" s="5">
+        <v>175.80500000000001</v>
+      </c>
+      <c r="N165" s="5">
+        <v>298.74899999999997</v>
+      </c>
+      <c r="O165" s="5">
+        <v>337.26600000000002</v>
+      </c>
+      <c r="P165" s="5">
+        <v>436.37900000000008</v>
+      </c>
+      <c r="Q165" s="5">
+        <v>389.06299999999999</v>
+      </c>
+      <c r="R165" s="5">
+        <v>435.89299999999992</v>
+      </c>
+      <c r="S165" s="5">
+        <v>115.999</v>
+      </c>
+      <c r="T165" s="5">
+        <v>126.24599999999998</v>
+      </c>
+      <c r="U165" s="5">
+        <v>36.57</v>
+      </c>
+      <c r="V165" s="5">
+        <v>77.968999999999994</v>
+      </c>
+      <c r="W165" s="5">
+        <v>83.352000000000004</v>
+      </c>
+      <c r="X165" s="5">
+        <v>72.13300000000001</v>
+      </c>
+      <c r="Y165" s="5">
+        <v>34.823</v>
+      </c>
+      <c r="Z165" s="5">
+        <v>29.445</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z165"/>
+  <dimension ref="A1:Z171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13691,6 +13691,486 @@
         <v>29.445</v>
       </c>
     </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A166" s="3">
+        <v>45983</v>
+      </c>
+      <c r="B166" t="s">
+        <v>26</v>
+      </c>
+      <c r="C166" s="5">
+        <v>670.0139999999999</v>
+      </c>
+      <c r="D166" s="5">
+        <v>923.12</v>
+      </c>
+      <c r="E166" s="5">
+        <v>483.62</v>
+      </c>
+      <c r="F166" s="5">
+        <v>398.62099999999998</v>
+      </c>
+      <c r="G166" s="5">
+        <v>300.78399999999999</v>
+      </c>
+      <c r="H166" s="5">
+        <v>838.82900000000006</v>
+      </c>
+      <c r="I166" s="5">
+        <v>408.012</v>
+      </c>
+      <c r="J166" s="5">
+        <v>141.018</v>
+      </c>
+      <c r="K166" s="5">
+        <v>96.125</v>
+      </c>
+      <c r="L166" s="5">
+        <v>121.24600000000001</v>
+      </c>
+      <c r="M166" s="5">
+        <v>199.822</v>
+      </c>
+      <c r="N166" s="5">
+        <v>235.10000000000002</v>
+      </c>
+      <c r="O166" s="5">
+        <v>556.5089999999999</v>
+      </c>
+      <c r="P166" s="5">
+        <v>1625.6069999999997</v>
+      </c>
+      <c r="Q166" s="5">
+        <v>646.00100000000009</v>
+      </c>
+      <c r="R166" s="5">
+        <v>349.05099999999993</v>
+      </c>
+      <c r="S166" s="5">
+        <v>499.56</v>
+      </c>
+      <c r="T166" s="5">
+        <v>150.54599999999999</v>
+      </c>
+      <c r="U166" s="5">
+        <v>141.13000000000002</v>
+      </c>
+      <c r="V166" s="5">
+        <v>255.21000000000004</v>
+      </c>
+      <c r="W166" s="5">
+        <v>215.99199999999999</v>
+      </c>
+      <c r="X166" s="5">
+        <v>60.317999999999998</v>
+      </c>
+      <c r="Y166" s="5">
+        <v>93.5</v>
+      </c>
+      <c r="Z166" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A167" s="3">
+        <v>45983</v>
+      </c>
+      <c r="B167" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" s="5">
+        <v>624.41999999999985</v>
+      </c>
+      <c r="D167" s="5">
+        <v>459.88699999999994</v>
+      </c>
+      <c r="E167" s="5">
+        <v>288.83699999999999</v>
+      </c>
+      <c r="F167" s="5">
+        <v>156.98099999999999</v>
+      </c>
+      <c r="G167" s="5">
+        <v>98.022999999999996</v>
+      </c>
+      <c r="H167" s="5">
+        <v>57.707999999999998</v>
+      </c>
+      <c r="I167" s="5">
+        <v>346.673</v>
+      </c>
+      <c r="J167" s="5">
+        <v>165.02100000000002</v>
+      </c>
+      <c r="K167" s="5">
+        <v>367.81400000000002</v>
+      </c>
+      <c r="L167" s="5">
+        <v>295.80100000000004</v>
+      </c>
+      <c r="M167" s="5">
+        <v>188.79500000000002</v>
+      </c>
+      <c r="N167" s="5">
+        <v>165.91199999999998</v>
+      </c>
+      <c r="O167" s="5">
+        <v>633.11400000000003</v>
+      </c>
+      <c r="P167" s="5">
+        <v>191.10000000000002</v>
+      </c>
+      <c r="Q167" s="5">
+        <v>226.989</v>
+      </c>
+      <c r="R167" s="5">
+        <v>143.38900000000001</v>
+      </c>
+      <c r="S167" s="5">
+        <v>202.471</v>
+      </c>
+      <c r="T167" s="5">
+        <v>131.398</v>
+      </c>
+      <c r="U167" s="5">
+        <v>115.98400000000001</v>
+      </c>
+      <c r="V167" s="5">
+        <v>51.144000000000005</v>
+      </c>
+      <c r="W167" s="5">
+        <v>200.77900000000002</v>
+      </c>
+      <c r="X167" s="5">
+        <v>9.7810000000000006</v>
+      </c>
+      <c r="Y167" s="5">
+        <v>33.226999999999997</v>
+      </c>
+      <c r="Z167" s="5">
+        <v>59.389000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A168" s="3">
+        <v>45984</v>
+      </c>
+      <c r="B168" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168" s="5">
+        <v>662.43500000000006</v>
+      </c>
+      <c r="D168" s="5">
+        <v>1006.067</v>
+      </c>
+      <c r="E168" s="5">
+        <v>531.57600000000002</v>
+      </c>
+      <c r="F168" s="5">
+        <v>454.58300000000003</v>
+      </c>
+      <c r="G168" s="5">
+        <v>278.31899999999996</v>
+      </c>
+      <c r="H168" s="5">
+        <v>557.27199999999993</v>
+      </c>
+      <c r="I168" s="5">
+        <v>368.34300000000007</v>
+      </c>
+      <c r="J168" s="5">
+        <v>56.472999999999999</v>
+      </c>
+      <c r="K168" s="5">
+        <v>148.601</v>
+      </c>
+      <c r="L168" s="5">
+        <v>61.36</v>
+      </c>
+      <c r="M168" s="5">
+        <v>187.15199999999999</v>
+      </c>
+      <c r="N168" s="5">
+        <v>131.00799999999998</v>
+      </c>
+      <c r="O168" s="5">
+        <v>488.03399999999999</v>
+      </c>
+      <c r="P168" s="5">
+        <v>1463.778</v>
+      </c>
+      <c r="Q168" s="5">
+        <v>825.5200000000001</v>
+      </c>
+      <c r="R168" s="5">
+        <v>643.52200000000016</v>
+      </c>
+      <c r="S168" s="5">
+        <v>289.87099999999998</v>
+      </c>
+      <c r="T168" s="5">
+        <v>198.47100000000003</v>
+      </c>
+      <c r="U168" s="5">
+        <v>49.7</v>
+      </c>
+      <c r="V168" s="5">
+        <v>142.62</v>
+      </c>
+      <c r="W168" s="5">
+        <v>74.911000000000001</v>
+      </c>
+      <c r="X168" s="5">
+        <v>39.54</v>
+      </c>
+      <c r="Y168" s="5">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="Z168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A169" s="3">
+        <v>45984</v>
+      </c>
+      <c r="B169" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="5">
+        <v>318.24700000000007</v>
+      </c>
+      <c r="D169" s="5">
+        <v>365.11699999999996</v>
+      </c>
+      <c r="E169" s="5">
+        <v>195.81199999999998</v>
+      </c>
+      <c r="F169" s="5">
+        <v>67.710999999999999</v>
+      </c>
+      <c r="G169" s="5">
+        <v>39.772999999999996</v>
+      </c>
+      <c r="H169" s="5">
+        <v>90.694999999999993</v>
+      </c>
+      <c r="I169" s="5">
+        <v>247.95500000000001</v>
+      </c>
+      <c r="J169" s="5">
+        <v>258.05400000000003</v>
+      </c>
+      <c r="K169" s="5">
+        <v>151.75899999999999</v>
+      </c>
+      <c r="L169" s="5">
+        <v>104.02799999999999</v>
+      </c>
+      <c r="M169" s="5">
+        <v>191.88900000000001</v>
+      </c>
+      <c r="N169" s="5">
+        <v>244.84200000000001</v>
+      </c>
+      <c r="O169" s="5">
+        <v>296.13199999999995</v>
+      </c>
+      <c r="P169" s="5">
+        <v>441.30899999999997</v>
+      </c>
+      <c r="Q169" s="5">
+        <v>64.082999999999998</v>
+      </c>
+      <c r="R169" s="5">
+        <v>256.76099999999997</v>
+      </c>
+      <c r="S169" s="5">
+        <v>158.41799999999998</v>
+      </c>
+      <c r="T169" s="5">
+        <v>37.664000000000001</v>
+      </c>
+      <c r="U169" s="5">
+        <v>72.281000000000006</v>
+      </c>
+      <c r="V169" s="5">
+        <v>13.064</v>
+      </c>
+      <c r="W169" s="5">
+        <v>26.445</v>
+      </c>
+      <c r="X169" s="5">
+        <v>40.381999999999998</v>
+      </c>
+      <c r="Y169" s="5">
+        <v>58.048000000000002</v>
+      </c>
+      <c r="Z169" s="5">
+        <v>30.913999999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A170" s="3">
+        <v>45985</v>
+      </c>
+      <c r="B170" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170" s="5">
+        <v>850.55300000000022</v>
+      </c>
+      <c r="D170" s="5">
+        <v>752.85500000000002</v>
+      </c>
+      <c r="E170" s="5">
+        <v>250.8</v>
+      </c>
+      <c r="F170" s="5">
+        <v>352.55799999999994</v>
+      </c>
+      <c r="G170" s="5">
+        <v>328.435</v>
+      </c>
+      <c r="H170" s="5">
+        <v>381.35400000000004</v>
+      </c>
+      <c r="I170" s="5">
+        <v>504.73099999999999</v>
+      </c>
+      <c r="J170" s="5">
+        <v>166.95100000000002</v>
+      </c>
+      <c r="K170" s="5">
+        <v>154.411</v>
+      </c>
+      <c r="L170" s="5">
+        <v>218.387</v>
+      </c>
+      <c r="M170" s="5">
+        <v>121.7</v>
+      </c>
+      <c r="N170" s="5">
+        <v>209.42400000000001</v>
+      </c>
+      <c r="O170" s="5">
+        <v>823.70200000000023</v>
+      </c>
+      <c r="P170" s="5">
+        <v>1409.3730000000005</v>
+      </c>
+      <c r="Q170" s="5">
+        <v>321.92399999999998</v>
+      </c>
+      <c r="R170" s="5">
+        <v>475.02100000000007</v>
+      </c>
+      <c r="S170" s="5">
+        <v>409.90600000000001</v>
+      </c>
+      <c r="T170" s="5">
+        <v>264.06600000000003</v>
+      </c>
+      <c r="U170" s="5">
+        <v>44.597999999999999</v>
+      </c>
+      <c r="V170" s="5">
+        <v>107.04</v>
+      </c>
+      <c r="W170" s="5">
+        <v>111.16000000000001</v>
+      </c>
+      <c r="X170" s="5">
+        <v>140.346</v>
+      </c>
+      <c r="Y170" s="5">
+        <v>55.26</v>
+      </c>
+      <c r="Z170" s="5">
+        <v>80.323000000000008</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A171" s="3">
+        <v>45985</v>
+      </c>
+      <c r="B171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171" s="5">
+        <v>694.00099999999998</v>
+      </c>
+      <c r="D171" s="5">
+        <v>354.22600000000006</v>
+      </c>
+      <c r="E171" s="5">
+        <v>126.453</v>
+      </c>
+      <c r="F171" s="5">
+        <v>48.798999999999999</v>
+      </c>
+      <c r="G171" s="5">
+        <v>25.234000000000002</v>
+      </c>
+      <c r="H171" s="5">
+        <v>109.613</v>
+      </c>
+      <c r="I171" s="5">
+        <v>78.415000000000006</v>
+      </c>
+      <c r="J171" s="5">
+        <v>99.015999999999991</v>
+      </c>
+      <c r="K171" s="5">
+        <v>224.22400000000002</v>
+      </c>
+      <c r="L171" s="5">
+        <v>149.459</v>
+      </c>
+      <c r="M171" s="5">
+        <v>388.99599999999998</v>
+      </c>
+      <c r="N171" s="5">
+        <v>238.41600000000003</v>
+      </c>
+      <c r="O171" s="5">
+        <v>368.13499999999999</v>
+      </c>
+      <c r="P171" s="5">
+        <v>422.96100000000001</v>
+      </c>
+      <c r="Q171" s="5">
+        <v>274.47699999999998</v>
+      </c>
+      <c r="R171" s="5">
+        <v>60.598999999999997</v>
+      </c>
+      <c r="S171" s="5">
+        <v>16.227</v>
+      </c>
+      <c r="T171" s="5">
+        <v>35.423999999999999</v>
+      </c>
+      <c r="U171" s="5">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="V171" s="5">
+        <v>10.516</v>
+      </c>
+      <c r="W171" s="5">
+        <v>43.164000000000001</v>
+      </c>
+      <c r="X171" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y171" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z171" s="5">
+        <v>4.07</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z171"/>
+  <dimension ref="A1:Z173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14171,6 +14171,166 @@
         <v>4.07</v>
       </c>
     </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A172" s="3">
+        <v>45986</v>
+      </c>
+      <c r="B172" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172" s="5">
+        <v>562.94899999999996</v>
+      </c>
+      <c r="D172" s="5">
+        <v>931.83399999999995</v>
+      </c>
+      <c r="E172" s="5">
+        <v>363.98599999999999</v>
+      </c>
+      <c r="F172" s="5">
+        <v>461.97899999999998</v>
+      </c>
+      <c r="G172" s="5">
+        <v>198.97400000000002</v>
+      </c>
+      <c r="H172" s="5">
+        <v>579.83699999999999</v>
+      </c>
+      <c r="I172" s="5">
+        <v>506.33500000000009</v>
+      </c>
+      <c r="J172" s="5">
+        <v>130.81900000000002</v>
+      </c>
+      <c r="K172" s="5">
+        <v>88.313999999999993</v>
+      </c>
+      <c r="L172" s="5">
+        <v>110.264</v>
+      </c>
+      <c r="M172" s="5">
+        <v>180.63</v>
+      </c>
+      <c r="N172" s="5">
+        <v>195.42199999999997</v>
+      </c>
+      <c r="O172" s="5">
+        <v>819.18100000000015</v>
+      </c>
+      <c r="P172" s="5">
+        <v>1255.0550000000003</v>
+      </c>
+      <c r="Q172" s="5">
+        <v>403.10700000000008</v>
+      </c>
+      <c r="R172" s="5">
+        <v>341.45</v>
+      </c>
+      <c r="S172" s="5">
+        <v>261.48500000000001</v>
+      </c>
+      <c r="T172" s="5">
+        <v>200.15600000000001</v>
+      </c>
+      <c r="U172" s="5">
+        <v>65.84</v>
+      </c>
+      <c r="V172" s="5">
+        <v>136.16999999999999</v>
+      </c>
+      <c r="W172" s="5">
+        <v>40.433</v>
+      </c>
+      <c r="X172" s="5">
+        <v>187.36899999999997</v>
+      </c>
+      <c r="Y172" s="5">
+        <v>40.54</v>
+      </c>
+      <c r="Z172" s="5">
+        <v>82.444000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A173" s="3">
+        <v>45986</v>
+      </c>
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" s="5">
+        <v>236.98599999999999</v>
+      </c>
+      <c r="D173" s="5">
+        <v>431.16399999999999</v>
+      </c>
+      <c r="E173" s="5">
+        <v>44</v>
+      </c>
+      <c r="F173" s="5">
+        <v>153.95600000000002</v>
+      </c>
+      <c r="G173" s="5">
+        <v>9.8569999999999993</v>
+      </c>
+      <c r="H173" s="5">
+        <v>282.56700000000001</v>
+      </c>
+      <c r="I173" s="5">
+        <v>77.078000000000003</v>
+      </c>
+      <c r="J173" s="5">
+        <v>130.6</v>
+      </c>
+      <c r="K173" s="5">
+        <v>224.047</v>
+      </c>
+      <c r="L173" s="5">
+        <v>304.56800000000004</v>
+      </c>
+      <c r="M173" s="5">
+        <v>150.26599999999999</v>
+      </c>
+      <c r="N173" s="5">
+        <v>330.762</v>
+      </c>
+      <c r="O173" s="5">
+        <v>420.09700000000004</v>
+      </c>
+      <c r="P173" s="5">
+        <v>340.88099999999997</v>
+      </c>
+      <c r="Q173" s="5">
+        <v>346.60099999999994</v>
+      </c>
+      <c r="R173" s="5">
+        <v>125.949</v>
+      </c>
+      <c r="S173" s="5">
+        <v>77.671999999999997</v>
+      </c>
+      <c r="T173" s="5">
+        <v>78.337999999999994</v>
+      </c>
+      <c r="U173" s="5">
+        <v>14.867000000000001</v>
+      </c>
+      <c r="V173" s="5">
+        <v>39.414000000000001</v>
+      </c>
+      <c r="W173" s="5">
+        <v>79.467999999999989</v>
+      </c>
+      <c r="X173" s="5">
+        <v>9.8439999999999994</v>
+      </c>
+      <c r="Y173" s="5">
+        <v>90.647000000000006</v>
+      </c>
+      <c r="Z173" s="5">
+        <v>37.515999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z173"/>
+  <dimension ref="A1:Z175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14331,6 +14331,166 @@
         <v>37.515999999999998</v>
       </c>
     </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A174" s="3">
+        <v>45987</v>
+      </c>
+      <c r="B174" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" s="5">
+        <v>511.36600000000004</v>
+      </c>
+      <c r="D174" s="5">
+        <v>847.13100000000009</v>
+      </c>
+      <c r="E174" s="5">
+        <v>339.85699999999997</v>
+      </c>
+      <c r="F174" s="5">
+        <v>352.62099999999998</v>
+      </c>
+      <c r="G174" s="5">
+        <v>341.41800000000001</v>
+      </c>
+      <c r="H174" s="5">
+        <v>628.4910000000001</v>
+      </c>
+      <c r="I174" s="5">
+        <v>321.53799999999995</v>
+      </c>
+      <c r="J174" s="5">
+        <v>172.02900000000002</v>
+      </c>
+      <c r="K174" s="5">
+        <v>182.547</v>
+      </c>
+      <c r="L174" s="5">
+        <v>156.30199999999999</v>
+      </c>
+      <c r="M174" s="5">
+        <v>226.16000000000003</v>
+      </c>
+      <c r="N174" s="5">
+        <v>193.85900000000001</v>
+      </c>
+      <c r="O174" s="5">
+        <v>575.49</v>
+      </c>
+      <c r="P174" s="5">
+        <v>1124.0030000000002</v>
+      </c>
+      <c r="Q174" s="5">
+        <v>630.85900000000004</v>
+      </c>
+      <c r="R174" s="5">
+        <v>493.69799999999992</v>
+      </c>
+      <c r="S174" s="5">
+        <v>199.21999999999997</v>
+      </c>
+      <c r="T174" s="5">
+        <v>125.39899999999999</v>
+      </c>
+      <c r="U174" s="5">
+        <v>182.98899999999998</v>
+      </c>
+      <c r="V174" s="5">
+        <v>84.725999999999999</v>
+      </c>
+      <c r="W174" s="5">
+        <v>171.34</v>
+      </c>
+      <c r="X174" s="5">
+        <v>79.619</v>
+      </c>
+      <c r="Y174" s="5">
+        <v>17.3</v>
+      </c>
+      <c r="Z174" s="5">
+        <v>20.420000000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A175" s="3">
+        <v>45987</v>
+      </c>
+      <c r="B175" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175" s="5">
+        <v>457.23899999999998</v>
+      </c>
+      <c r="D175" s="5">
+        <v>738.03099999999984</v>
+      </c>
+      <c r="E175" s="5">
+        <v>307.92500000000001</v>
+      </c>
+      <c r="F175" s="5">
+        <v>58.226999999999997</v>
+      </c>
+      <c r="G175" s="5">
+        <v>0</v>
+      </c>
+      <c r="H175" s="5">
+        <v>81.893000000000001</v>
+      </c>
+      <c r="I175" s="5">
+        <v>311.21799999999996</v>
+      </c>
+      <c r="J175" s="5">
+        <v>186.70699999999999</v>
+      </c>
+      <c r="K175" s="5">
+        <v>173.45599999999999</v>
+      </c>
+      <c r="L175" s="5">
+        <v>320.85599999999999</v>
+      </c>
+      <c r="M175" s="5">
+        <v>292.75100000000003</v>
+      </c>
+      <c r="N175" s="5">
+        <v>364.53900000000004</v>
+      </c>
+      <c r="O175" s="5">
+        <v>592.99099999999999</v>
+      </c>
+      <c r="P175" s="5">
+        <v>487.63200000000006</v>
+      </c>
+      <c r="Q175" s="5">
+        <v>113.9</v>
+      </c>
+      <c r="R175" s="5">
+        <v>168.45699999999999</v>
+      </c>
+      <c r="S175" s="5">
+        <v>244.53</v>
+      </c>
+      <c r="T175" s="5">
+        <v>53.773000000000003</v>
+      </c>
+      <c r="U175" s="5">
+        <v>80.527999999999992</v>
+      </c>
+      <c r="V175" s="5">
+        <v>70.796999999999997</v>
+      </c>
+      <c r="W175" s="5">
+        <v>26.066000000000003</v>
+      </c>
+      <c r="X175" s="5">
+        <v>26.277000000000001</v>
+      </c>
+      <c r="Y175" s="5">
+        <v>29.516000000000002</v>
+      </c>
+      <c r="Z175" s="5">
+        <v>76.915999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z175"/>
+  <dimension ref="A1:Z177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="E179" sqref="E179"/>
+      <selection activeCell="H189" sqref="H189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14491,6 +14491,166 @@
         <v>76.915999999999997</v>
       </c>
     </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A176" s="3">
+        <v>45988</v>
+      </c>
+      <c r="B176" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" s="5">
+        <v>676.25299999999993</v>
+      </c>
+      <c r="D176" s="5">
+        <v>836.35399999999993</v>
+      </c>
+      <c r="E176" s="5">
+        <v>290.11199999999997</v>
+      </c>
+      <c r="F176" s="5">
+        <v>345.55099999999999</v>
+      </c>
+      <c r="G176" s="5">
+        <v>390.39300000000003</v>
+      </c>
+      <c r="H176" s="5">
+        <v>661.13499999999999</v>
+      </c>
+      <c r="I176" s="5">
+        <v>407.92399999999992</v>
+      </c>
+      <c r="J176" s="5">
+        <v>187.624</v>
+      </c>
+      <c r="K176" s="5">
+        <v>203.24299999999999</v>
+      </c>
+      <c r="L176" s="5">
+        <v>93.02000000000001</v>
+      </c>
+      <c r="M176" s="5">
+        <v>92.51</v>
+      </c>
+      <c r="N176" s="5">
+        <v>235.21299999999999</v>
+      </c>
+      <c r="O176" s="5">
+        <v>971.72700000000009</v>
+      </c>
+      <c r="P176" s="5">
+        <v>1064.3489999999999</v>
+      </c>
+      <c r="Q176" s="5">
+        <v>280.83399999999995</v>
+      </c>
+      <c r="R176" s="5">
+        <v>294.75799999999998</v>
+      </c>
+      <c r="S176" s="5">
+        <v>438.09000000000003</v>
+      </c>
+      <c r="T176" s="5">
+        <v>82.544000000000011</v>
+      </c>
+      <c r="U176" s="5">
+        <v>91.58</v>
+      </c>
+      <c r="V176" s="5">
+        <v>177.91400000000002</v>
+      </c>
+      <c r="W176" s="5">
+        <v>72.161000000000001</v>
+      </c>
+      <c r="X176" s="5">
+        <v>174.45999999999998</v>
+      </c>
+      <c r="Y176" s="5">
+        <v>91.899999999999991</v>
+      </c>
+      <c r="Z176" s="5">
+        <v>65.16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A177" s="3">
+        <v>45988</v>
+      </c>
+      <c r="B177" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" s="5">
+        <v>504.50799999999987</v>
+      </c>
+      <c r="D177" s="5">
+        <v>381.69200000000001</v>
+      </c>
+      <c r="E177" s="5">
+        <v>184.90699999999998</v>
+      </c>
+      <c r="F177" s="5">
+        <v>72.238</v>
+      </c>
+      <c r="G177" s="5">
+        <v>169.696</v>
+      </c>
+      <c r="H177" s="5">
+        <v>364.05500000000001</v>
+      </c>
+      <c r="I177" s="5">
+        <v>43.14</v>
+      </c>
+      <c r="J177" s="5">
+        <v>67.012</v>
+      </c>
+      <c r="K177" s="5">
+        <v>297.10700000000003</v>
+      </c>
+      <c r="L177" s="5">
+        <v>240.47800000000001</v>
+      </c>
+      <c r="M177" s="5">
+        <v>179.923</v>
+      </c>
+      <c r="N177" s="5">
+        <v>359.221</v>
+      </c>
+      <c r="O177" s="5">
+        <v>351.75299999999999</v>
+      </c>
+      <c r="P177" s="5">
+        <v>458.20500000000004</v>
+      </c>
+      <c r="Q177" s="5">
+        <v>299.08799999999997</v>
+      </c>
+      <c r="R177" s="5">
+        <v>269.59600000000006</v>
+      </c>
+      <c r="S177" s="5">
+        <v>129.59800000000001</v>
+      </c>
+      <c r="T177" s="5">
+        <v>76.906000000000006</v>
+      </c>
+      <c r="U177" s="5">
+        <v>3.68</v>
+      </c>
+      <c r="V177" s="5">
+        <v>115.506</v>
+      </c>
+      <c r="W177" s="5">
+        <v>0</v>
+      </c>
+      <c r="X177" s="5">
+        <v>32.671999999999997</v>
+      </c>
+      <c r="Y177" s="5">
+        <v>36.280999999999999</v>
+      </c>
+      <c r="Z177" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z177"/>
+  <dimension ref="A1:Z179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14651,6 +14651,166 @@
         <v>0.36</v>
       </c>
     </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A178" s="3">
+        <v>45989</v>
+      </c>
+      <c r="B178" t="s">
+        <v>26</v>
+      </c>
+      <c r="C178" s="5">
+        <v>521.91300000000001</v>
+      </c>
+      <c r="D178" s="5">
+        <v>1162.5980000000002</v>
+      </c>
+      <c r="E178" s="5">
+        <v>425.46899999999999</v>
+      </c>
+      <c r="F178" s="5">
+        <v>427.27000000000004</v>
+      </c>
+      <c r="G178" s="5">
+        <v>407.31299999999993</v>
+      </c>
+      <c r="H178" s="5">
+        <v>390.86799999999999</v>
+      </c>
+      <c r="I178" s="5">
+        <v>508.27199999999993</v>
+      </c>
+      <c r="J178" s="5">
+        <v>158.73699999999999</v>
+      </c>
+      <c r="K178" s="5">
+        <v>220.39</v>
+      </c>
+      <c r="L178" s="5">
+        <v>117.94</v>
+      </c>
+      <c r="M178" s="5">
+        <v>126.57900000000002</v>
+      </c>
+      <c r="N178" s="5">
+        <v>217.36699999999999</v>
+      </c>
+      <c r="O178" s="5">
+        <v>705.10900000000004</v>
+      </c>
+      <c r="P178" s="5">
+        <v>1369.6659999999999</v>
+      </c>
+      <c r="Q178" s="5">
+        <v>675.02300000000002</v>
+      </c>
+      <c r="R178" s="5">
+        <v>425.589</v>
+      </c>
+      <c r="S178" s="5">
+        <v>387.524</v>
+      </c>
+      <c r="T178" s="5">
+        <v>259.51499999999999</v>
+      </c>
+      <c r="U178" s="5">
+        <v>88.36</v>
+      </c>
+      <c r="V178" s="5">
+        <v>207.84400000000002</v>
+      </c>
+      <c r="W178" s="5">
+        <v>91.4</v>
+      </c>
+      <c r="X178" s="5">
+        <v>58.85</v>
+      </c>
+      <c r="Y178" s="5">
+        <v>143.24099999999999</v>
+      </c>
+      <c r="Z178" s="5">
+        <v>54.069999999999993</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A179" s="3">
+        <v>45989</v>
+      </c>
+      <c r="B179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" s="5">
+        <v>617.5870000000001</v>
+      </c>
+      <c r="D179" s="5">
+        <v>662.88900000000001</v>
+      </c>
+      <c r="E179" s="5">
+        <v>288.70600000000002</v>
+      </c>
+      <c r="F179" s="5">
+        <v>30.835999999999999</v>
+      </c>
+      <c r="G179" s="5">
+        <v>11.356</v>
+      </c>
+      <c r="H179" s="5">
+        <v>178.328</v>
+      </c>
+      <c r="I179" s="5">
+        <v>93.356999999999999</v>
+      </c>
+      <c r="J179" s="5">
+        <v>278.29400000000004</v>
+      </c>
+      <c r="K179" s="5">
+        <v>178.26000000000002</v>
+      </c>
+      <c r="L179" s="5">
+        <v>201.82399999999998</v>
+      </c>
+      <c r="M179" s="5">
+        <v>284.94</v>
+      </c>
+      <c r="N179" s="5">
+        <v>206.035</v>
+      </c>
+      <c r="O179" s="5">
+        <v>369.471</v>
+      </c>
+      <c r="P179" s="5">
+        <v>639.0680000000001</v>
+      </c>
+      <c r="Q179" s="5">
+        <v>191.667</v>
+      </c>
+      <c r="R179" s="5">
+        <v>374.971</v>
+      </c>
+      <c r="S179" s="5">
+        <v>181.31299999999999</v>
+      </c>
+      <c r="T179" s="5">
+        <v>50.766000000000005</v>
+      </c>
+      <c r="U179" s="5">
+        <v>28.875</v>
+      </c>
+      <c r="V179" s="5">
+        <v>101.553</v>
+      </c>
+      <c r="W179" s="5">
+        <v>152.96199999999999</v>
+      </c>
+      <c r="X179" s="5">
+        <v>23.867000000000001</v>
+      </c>
+      <c r="Y179" s="5">
+        <v>63.737000000000002</v>
+      </c>
+      <c r="Z179" s="5">
+        <v>67.825999999999993</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z179"/>
+  <dimension ref="A1:Z181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14811,6 +14811,166 @@
         <v>67.825999999999993</v>
       </c>
     </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A180" s="3">
+        <v>45990</v>
+      </c>
+      <c r="B180" t="s">
+        <v>26</v>
+      </c>
+      <c r="C180" s="5">
+        <v>709.98200000000008</v>
+      </c>
+      <c r="D180" s="5">
+        <v>1392.6899999999998</v>
+      </c>
+      <c r="E180" s="5">
+        <v>398.13600000000002</v>
+      </c>
+      <c r="F180" s="5">
+        <v>441.31</v>
+      </c>
+      <c r="G180" s="5">
+        <v>231.90500000000003</v>
+      </c>
+      <c r="H180" s="5">
+        <v>664.63299999999992</v>
+      </c>
+      <c r="I180" s="5">
+        <v>203.57000000000002</v>
+      </c>
+      <c r="J180" s="5">
+        <v>214.61699999999999</v>
+      </c>
+      <c r="K180" s="5">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="L180" s="5">
+        <v>127.25</v>
+      </c>
+      <c r="M180" s="5">
+        <v>366.87799999999999</v>
+      </c>
+      <c r="N180" s="5">
+        <v>165.09700000000001</v>
+      </c>
+      <c r="O180" s="5">
+        <v>651.99899999999991</v>
+      </c>
+      <c r="P180" s="5">
+        <v>1222.0829999999999</v>
+      </c>
+      <c r="Q180" s="5">
+        <v>517.97299999999996</v>
+      </c>
+      <c r="R180" s="5">
+        <v>507.24299999999994</v>
+      </c>
+      <c r="S180" s="5">
+        <v>264.51099999999997</v>
+      </c>
+      <c r="T180" s="5">
+        <v>278.69300000000004</v>
+      </c>
+      <c r="U180" s="5">
+        <v>107.86</v>
+      </c>
+      <c r="V180" s="5">
+        <v>84.536000000000001</v>
+      </c>
+      <c r="W180" s="5">
+        <v>149.22699999999998</v>
+      </c>
+      <c r="X180" s="5">
+        <v>113.42</v>
+      </c>
+      <c r="Y180" s="5">
+        <v>53.53</v>
+      </c>
+      <c r="Z180" s="5">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A181" s="3">
+        <v>45990</v>
+      </c>
+      <c r="B181" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" s="5">
+        <v>376.68499999999995</v>
+      </c>
+      <c r="D181" s="5">
+        <v>532.6690000000001</v>
+      </c>
+      <c r="E181" s="5">
+        <v>88.984000000000009</v>
+      </c>
+      <c r="F181" s="5">
+        <v>18</v>
+      </c>
+      <c r="G181" s="5">
+        <v>66.319999999999993</v>
+      </c>
+      <c r="H181" s="5">
+        <v>131.38</v>
+      </c>
+      <c r="I181" s="5">
+        <v>257.173</v>
+      </c>
+      <c r="J181" s="5">
+        <v>274.18099999999998</v>
+      </c>
+      <c r="K181" s="5">
+        <v>261.48599999999999</v>
+      </c>
+      <c r="L181" s="5">
+        <v>298.20400000000001</v>
+      </c>
+      <c r="M181" s="5">
+        <v>189.03899999999999</v>
+      </c>
+      <c r="N181" s="5">
+        <v>599.86199999999985</v>
+      </c>
+      <c r="O181" s="5">
+        <v>429.18299999999999</v>
+      </c>
+      <c r="P181" s="5">
+        <v>737.92300000000023</v>
+      </c>
+      <c r="Q181" s="5">
+        <v>229.99100000000001</v>
+      </c>
+      <c r="R181" s="5">
+        <v>472.37299999999999</v>
+      </c>
+      <c r="S181" s="5">
+        <v>110.86699999999999</v>
+      </c>
+      <c r="T181" s="5">
+        <v>119.383</v>
+      </c>
+      <c r="U181" s="5">
+        <v>139.51600000000002</v>
+      </c>
+      <c r="V181" s="5">
+        <v>24.085999999999999</v>
+      </c>
+      <c r="W181" s="5">
+        <v>0</v>
+      </c>
+      <c r="X181" s="5">
+        <v>68.668000000000006</v>
+      </c>
+      <c r="Y181" s="5">
+        <v>48.445</v>
+      </c>
+      <c r="Z181" s="5">
+        <v>77.756</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z181"/>
+  <dimension ref="A1:Z183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14971,6 +14971,166 @@
         <v>77.756</v>
       </c>
     </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A182" s="3">
+        <v>45991</v>
+      </c>
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" s="5">
+        <v>634.9190000000001</v>
+      </c>
+      <c r="D182" s="5">
+        <v>1200.3420000000001</v>
+      </c>
+      <c r="E182" s="5">
+        <v>510.91499999999996</v>
+      </c>
+      <c r="F182" s="5">
+        <v>308.36</v>
+      </c>
+      <c r="G182" s="5">
+        <v>391.97600000000006</v>
+      </c>
+      <c r="H182" s="5">
+        <v>454.04500000000002</v>
+      </c>
+      <c r="I182" s="5">
+        <v>321.31000000000006</v>
+      </c>
+      <c r="J182" s="5">
+        <v>285.53100000000001</v>
+      </c>
+      <c r="K182" s="5">
+        <v>125.06</v>
+      </c>
+      <c r="L182" s="5">
+        <v>177.471</v>
+      </c>
+      <c r="M182" s="5">
+        <v>54.413999999999994</v>
+      </c>
+      <c r="N182" s="5">
+        <v>459.29399999999998</v>
+      </c>
+      <c r="O182" s="5">
+        <v>340.63900000000001</v>
+      </c>
+      <c r="P182" s="5">
+        <v>1022.1659999999999</v>
+      </c>
+      <c r="Q182" s="5">
+        <v>718.32999999999981</v>
+      </c>
+      <c r="R182" s="5">
+        <v>480.80200000000008</v>
+      </c>
+      <c r="S182" s="5">
+        <v>539.625</v>
+      </c>
+      <c r="T182" s="5">
+        <v>154.78399999999999</v>
+      </c>
+      <c r="U182" s="5">
+        <v>187.64999999999998</v>
+      </c>
+      <c r="V182" s="5">
+        <v>80.075999999999993</v>
+      </c>
+      <c r="W182" s="5">
+        <v>83.72</v>
+      </c>
+      <c r="X182" s="5">
+        <v>94.15</v>
+      </c>
+      <c r="Y182" s="5">
+        <v>101.86000000000001</v>
+      </c>
+      <c r="Z182" s="5">
+        <v>125.87</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A183" s="3">
+        <v>45991</v>
+      </c>
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" s="5">
+        <v>460.09699999999998</v>
+      </c>
+      <c r="D183" s="5">
+        <v>562.06600000000003</v>
+      </c>
+      <c r="E183" s="5">
+        <v>337.95100000000002</v>
+      </c>
+      <c r="F183" s="5">
+        <v>35.055</v>
+      </c>
+      <c r="G183" s="5">
+        <v>27.562999999999999</v>
+      </c>
+      <c r="H183" s="5">
+        <v>120.30500000000001</v>
+      </c>
+      <c r="I183" s="5">
+        <v>56.813000000000002</v>
+      </c>
+      <c r="J183" s="5">
+        <v>47.484000000000002</v>
+      </c>
+      <c r="K183" s="5">
+        <v>121.322</v>
+      </c>
+      <c r="L183" s="5">
+        <v>349.99099999999999</v>
+      </c>
+      <c r="M183" s="5">
+        <v>421.73700000000002</v>
+      </c>
+      <c r="N183" s="5">
+        <v>681.72899999999993</v>
+      </c>
+      <c r="O183" s="5">
+        <v>409.35</v>
+      </c>
+      <c r="P183" s="5">
+        <v>763.40599999999995</v>
+      </c>
+      <c r="Q183" s="5">
+        <v>242.71600000000001</v>
+      </c>
+      <c r="R183" s="5">
+        <v>83.542000000000002</v>
+      </c>
+      <c r="S183" s="5">
+        <v>82.614000000000004</v>
+      </c>
+      <c r="T183" s="5">
+        <v>49.718000000000004</v>
+      </c>
+      <c r="U183" s="5">
+        <v>158.023</v>
+      </c>
+      <c r="V183" s="5">
+        <v>37.899000000000001</v>
+      </c>
+      <c r="W183" s="5">
+        <v>28.719000000000001</v>
+      </c>
+      <c r="X183" s="5">
+        <v>13.798</v>
+      </c>
+      <c r="Y183" s="5">
+        <v>12.07</v>
+      </c>
+      <c r="Z183" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z183"/>
+  <dimension ref="A1:Z185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15131,6 +15131,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A184" s="3">
+        <v>45992</v>
+      </c>
+      <c r="B184" t="s">
+        <v>26</v>
+      </c>
+      <c r="C184" s="5">
+        <v>579.11</v>
+      </c>
+      <c r="D184" s="5">
+        <v>917.38099999999997</v>
+      </c>
+      <c r="E184" s="5">
+        <v>636.51100000000008</v>
+      </c>
+      <c r="F184" s="5">
+        <v>284.62</v>
+      </c>
+      <c r="G184" s="5">
+        <v>242.64399999999998</v>
+      </c>
+      <c r="H184" s="5">
+        <v>641.32799999999997</v>
+      </c>
+      <c r="I184" s="5">
+        <v>335.28099999999995</v>
+      </c>
+      <c r="J184" s="5">
+        <v>172.67099999999999</v>
+      </c>
+      <c r="K184" s="5">
+        <v>93.634</v>
+      </c>
+      <c r="L184" s="5">
+        <v>309.59699999999998</v>
+      </c>
+      <c r="M184" s="5">
+        <v>81.89700000000002</v>
+      </c>
+      <c r="N184" s="5">
+        <v>195.886</v>
+      </c>
+      <c r="O184" s="5">
+        <v>493.92199999999997</v>
+      </c>
+      <c r="P184" s="5">
+        <v>1124.3910000000001</v>
+      </c>
+      <c r="Q184" s="5">
+        <v>393.84899999999999</v>
+      </c>
+      <c r="R184" s="5">
+        <v>326.8</v>
+      </c>
+      <c r="S184" s="5">
+        <v>358.39599999999996</v>
+      </c>
+      <c r="T184" s="5">
+        <v>305.74900000000002</v>
+      </c>
+      <c r="U184" s="5">
+        <v>109.434</v>
+      </c>
+      <c r="V184" s="5">
+        <v>42.23</v>
+      </c>
+      <c r="W184" s="5">
+        <v>57.8</v>
+      </c>
+      <c r="X184" s="5">
+        <v>105.85</v>
+      </c>
+      <c r="Y184" s="5">
+        <v>62.080000000000005</v>
+      </c>
+      <c r="Z184" s="5">
+        <v>66.62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A185" s="3">
+        <v>45992</v>
+      </c>
+      <c r="B185" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185" s="5">
+        <v>422.26799999999992</v>
+      </c>
+      <c r="D185" s="5">
+        <v>351.38799999999998</v>
+      </c>
+      <c r="E185" s="5">
+        <v>167.74799999999999</v>
+      </c>
+      <c r="F185" s="5">
+        <v>97.085999999999999</v>
+      </c>
+      <c r="G185" s="5">
+        <v>85.59</v>
+      </c>
+      <c r="H185" s="5">
+        <v>224.833</v>
+      </c>
+      <c r="I185" s="5">
+        <v>157.542</v>
+      </c>
+      <c r="J185" s="5">
+        <v>64.754999999999995</v>
+      </c>
+      <c r="K185" s="5">
+        <v>275.56299999999999</v>
+      </c>
+      <c r="L185" s="5">
+        <v>174.89999999999998</v>
+      </c>
+      <c r="M185" s="5">
+        <v>210.322</v>
+      </c>
+      <c r="N185" s="5">
+        <v>144.643</v>
+      </c>
+      <c r="O185" s="5">
+        <v>499.19900000000001</v>
+      </c>
+      <c r="P185" s="5">
+        <v>332.07500000000005</v>
+      </c>
+      <c r="Q185" s="5">
+        <v>189.904</v>
+      </c>
+      <c r="R185" s="5">
+        <v>225.28299999999999</v>
+      </c>
+      <c r="S185" s="5">
+        <v>415.20399999999995</v>
+      </c>
+      <c r="T185" s="5">
+        <v>21.422000000000004</v>
+      </c>
+      <c r="U185" s="5">
+        <v>0</v>
+      </c>
+      <c r="V185" s="5">
+        <v>54.030999999999999</v>
+      </c>
+      <c r="W185" s="5">
+        <v>105.36699999999999</v>
+      </c>
+      <c r="X185" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y185" s="5">
+        <v>17.030999999999999</v>
+      </c>
+      <c r="Z185" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z185"/>
+  <dimension ref="A1:Z187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15291,6 +15291,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A186" s="3">
+        <v>45993</v>
+      </c>
+      <c r="B186" t="s">
+        <v>26</v>
+      </c>
+      <c r="C186" s="5">
+        <v>610.3180000000001</v>
+      </c>
+      <c r="D186" s="5">
+        <v>875.90300000000013</v>
+      </c>
+      <c r="E186" s="5">
+        <v>390.601</v>
+      </c>
+      <c r="F186" s="5">
+        <v>322.27999999999997</v>
+      </c>
+      <c r="G186" s="5">
+        <v>360.14300000000003</v>
+      </c>
+      <c r="H186" s="5">
+        <v>490.89900000000011</v>
+      </c>
+      <c r="I186" s="5">
+        <v>471.64799999999991</v>
+      </c>
+      <c r="J186" s="5">
+        <v>145.82499999999999</v>
+      </c>
+      <c r="K186" s="5">
+        <v>86.32</v>
+      </c>
+      <c r="L186" s="5">
+        <v>114.99</v>
+      </c>
+      <c r="M186" s="5">
+        <v>133.82900000000001</v>
+      </c>
+      <c r="N186" s="5">
+        <v>283.05</v>
+      </c>
+      <c r="O186" s="5">
+        <v>675.5830000000002</v>
+      </c>
+      <c r="P186" s="5">
+        <v>1297.7519999999997</v>
+      </c>
+      <c r="Q186" s="5">
+        <v>394.16999999999996</v>
+      </c>
+      <c r="R186" s="5">
+        <v>291.18200000000002</v>
+      </c>
+      <c r="S186" s="5">
+        <v>372.94900000000001</v>
+      </c>
+      <c r="T186" s="5">
+        <v>309.786</v>
+      </c>
+      <c r="U186" s="5">
+        <v>52.863</v>
+      </c>
+      <c r="V186" s="5">
+        <v>45.6</v>
+      </c>
+      <c r="W186" s="5">
+        <v>124.80000000000001</v>
+      </c>
+      <c r="X186" s="5">
+        <v>92.3</v>
+      </c>
+      <c r="Y186" s="5">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="Z186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A187" s="3">
+        <v>45993</v>
+      </c>
+      <c r="B187" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" s="5">
+        <v>251.09199999999998</v>
+      </c>
+      <c r="D187" s="5">
+        <v>259.70999999999998</v>
+      </c>
+      <c r="E187" s="5">
+        <v>69.981000000000009</v>
+      </c>
+      <c r="F187" s="5">
+        <v>213.125</v>
+      </c>
+      <c r="G187" s="5">
+        <v>45.293999999999997</v>
+      </c>
+      <c r="H187" s="5">
+        <v>156.339</v>
+      </c>
+      <c r="I187" s="5">
+        <v>318.06299999999999</v>
+      </c>
+      <c r="J187" s="5">
+        <v>132.839</v>
+      </c>
+      <c r="K187" s="5">
+        <v>251.82700000000003</v>
+      </c>
+      <c r="L187" s="5">
+        <v>327.14699999999999</v>
+      </c>
+      <c r="M187" s="5">
+        <v>339.10699999999997</v>
+      </c>
+      <c r="N187" s="5">
+        <v>381.40000000000003</v>
+      </c>
+      <c r="O187" s="5">
+        <v>707.00200000000007</v>
+      </c>
+      <c r="P187" s="5">
+        <v>661.86899999999991</v>
+      </c>
+      <c r="Q187" s="5">
+        <v>341.54699999999991</v>
+      </c>
+      <c r="R187" s="5">
+        <v>537.97799999999995</v>
+      </c>
+      <c r="S187" s="5">
+        <v>260.56600000000003</v>
+      </c>
+      <c r="T187" s="5">
+        <v>111.49299999999999</v>
+      </c>
+      <c r="U187" s="5">
+        <v>13.422000000000001</v>
+      </c>
+      <c r="V187" s="5">
+        <v>81.562000000000012</v>
+      </c>
+      <c r="W187" s="5">
+        <v>44.995999999999995</v>
+      </c>
+      <c r="X187" s="5">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="Y187" s="5">
+        <v>17.445</v>
+      </c>
+      <c r="Z187" s="5">
+        <v>88.730999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z187"/>
+  <dimension ref="A1:Z189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15451,6 +15451,166 @@
         <v>88.730999999999995</v>
       </c>
     </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A188" s="3">
+        <v>45994</v>
+      </c>
+      <c r="B188" t="s">
+        <v>26</v>
+      </c>
+      <c r="C188" s="5">
+        <v>481.87</v>
+      </c>
+      <c r="D188" s="5">
+        <v>915.02100000000019</v>
+      </c>
+      <c r="E188" s="5">
+        <v>503.20000000000005</v>
+      </c>
+      <c r="F188" s="5">
+        <v>327.57</v>
+      </c>
+      <c r="G188" s="5">
+        <v>417.61600000000004</v>
+      </c>
+      <c r="H188" s="5">
+        <v>530.22299999999996</v>
+      </c>
+      <c r="I188" s="5">
+        <v>315.45199999999994</v>
+      </c>
+      <c r="J188" s="5">
+        <v>83.567999999999998</v>
+      </c>
+      <c r="K188" s="5">
+        <v>90.38</v>
+      </c>
+      <c r="L188" s="5">
+        <v>183.59</v>
+      </c>
+      <c r="M188" s="5">
+        <v>261.18299999999999</v>
+      </c>
+      <c r="N188" s="5">
+        <v>167.66199999999998</v>
+      </c>
+      <c r="O188" s="5">
+        <v>1072.4230000000002</v>
+      </c>
+      <c r="P188" s="5">
+        <v>1237.7700000000004</v>
+      </c>
+      <c r="Q188" s="5">
+        <v>449.3830000000001</v>
+      </c>
+      <c r="R188" s="5">
+        <v>378.47800000000001</v>
+      </c>
+      <c r="S188" s="5">
+        <v>419.28099999999984</v>
+      </c>
+      <c r="T188" s="5">
+        <v>289.17899999999997</v>
+      </c>
+      <c r="U188" s="5">
+        <v>154.28</v>
+      </c>
+      <c r="V188" s="5">
+        <v>86.08</v>
+      </c>
+      <c r="W188" s="5">
+        <v>7.84</v>
+      </c>
+      <c r="X188" s="5">
+        <v>139.35500000000002</v>
+      </c>
+      <c r="Y188" s="5">
+        <v>88.09</v>
+      </c>
+      <c r="Z188" s="5">
+        <v>53.72</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A189" s="3">
+        <v>45994</v>
+      </c>
+      <c r="B189" t="s">
+        <v>27</v>
+      </c>
+      <c r="C189" s="5">
+        <v>372.02700000000004</v>
+      </c>
+      <c r="D189" s="5">
+        <v>437.34699999999998</v>
+      </c>
+      <c r="E189" s="5">
+        <v>105.28800000000001</v>
+      </c>
+      <c r="F189" s="5">
+        <v>0</v>
+      </c>
+      <c r="G189" s="5">
+        <v>97.366</v>
+      </c>
+      <c r="H189" s="5">
+        <v>67.149000000000001</v>
+      </c>
+      <c r="I189" s="5">
+        <v>133.25800000000001</v>
+      </c>
+      <c r="J189" s="5">
+        <v>130.70599999999999</v>
+      </c>
+      <c r="K189" s="5">
+        <v>325.29100000000005</v>
+      </c>
+      <c r="L189" s="5">
+        <v>283.97199999999998</v>
+      </c>
+      <c r="M189" s="5">
+        <v>158.89600000000002</v>
+      </c>
+      <c r="N189" s="5">
+        <v>285.10100000000006</v>
+      </c>
+      <c r="O189" s="5">
+        <v>588.39800000000002</v>
+      </c>
+      <c r="P189" s="5">
+        <v>458.75500000000005</v>
+      </c>
+      <c r="Q189" s="5">
+        <v>395.76900000000001</v>
+      </c>
+      <c r="R189" s="5">
+        <v>201.839</v>
+      </c>
+      <c r="S189" s="5">
+        <v>87.503999999999991</v>
+      </c>
+      <c r="T189" s="5">
+        <v>99.073000000000008</v>
+      </c>
+      <c r="U189" s="5">
+        <v>0</v>
+      </c>
+      <c r="V189" s="5">
+        <v>0</v>
+      </c>
+      <c r="W189" s="5">
+        <v>28.992000000000001</v>
+      </c>
+      <c r="X189" s="5">
+        <v>53.403999999999996</v>
+      </c>
+      <c r="Y189" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z189" s="5">
+        <v>42.36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z189"/>
+  <dimension ref="A1:Z191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15611,6 +15611,166 @@
         <v>42.36</v>
       </c>
     </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A190" s="3">
+        <v>45995</v>
+      </c>
+      <c r="B190" t="s">
+        <v>26</v>
+      </c>
+      <c r="C190" s="5">
+        <v>414.56299999999999</v>
+      </c>
+      <c r="D190" s="5">
+        <v>981.745</v>
+      </c>
+      <c r="E190" s="5">
+        <v>489.84999999999997</v>
+      </c>
+      <c r="F190" s="5">
+        <v>264.68</v>
+      </c>
+      <c r="G190" s="5">
+        <v>247.62699999999998</v>
+      </c>
+      <c r="H190" s="5">
+        <v>533.85799999999995</v>
+      </c>
+      <c r="I190" s="5">
+        <v>240.33299999999997</v>
+      </c>
+      <c r="J190" s="5">
+        <v>75.031000000000006</v>
+      </c>
+      <c r="K190" s="5">
+        <v>199.959</v>
+      </c>
+      <c r="L190" s="5">
+        <v>159.99</v>
+      </c>
+      <c r="M190" s="5">
+        <v>192.542</v>
+      </c>
+      <c r="N190" s="5">
+        <v>237.524</v>
+      </c>
+      <c r="O190" s="5">
+        <v>684.8739999999998</v>
+      </c>
+      <c r="P190" s="5">
+        <v>1774.3839999999998</v>
+      </c>
+      <c r="Q190" s="5">
+        <v>604.01</v>
+      </c>
+      <c r="R190" s="5">
+        <v>451.97699999999998</v>
+      </c>
+      <c r="S190" s="5">
+        <v>397.71199999999999</v>
+      </c>
+      <c r="T190" s="5">
+        <v>232.965</v>
+      </c>
+      <c r="U190" s="5">
+        <v>74.019000000000005</v>
+      </c>
+      <c r="V190" s="5">
+        <v>93.28</v>
+      </c>
+      <c r="W190" s="5">
+        <v>105.36</v>
+      </c>
+      <c r="X190" s="5">
+        <v>104.68</v>
+      </c>
+      <c r="Y190" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="Z190" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A191" s="3">
+        <v>45995</v>
+      </c>
+      <c r="B191" t="s">
+        <v>27</v>
+      </c>
+      <c r="C191" s="5">
+        <v>325.50799999999992</v>
+      </c>
+      <c r="D191" s="5">
+        <v>422.27300000000002</v>
+      </c>
+      <c r="E191" s="5">
+        <v>160.16399999999999</v>
+      </c>
+      <c r="F191" s="5">
+        <v>77.757999999999996</v>
+      </c>
+      <c r="G191" s="5">
+        <v>88.399000000000001</v>
+      </c>
+      <c r="H191" s="5">
+        <v>167.82900000000001</v>
+      </c>
+      <c r="I191" s="5">
+        <v>208.83799999999999</v>
+      </c>
+      <c r="J191" s="5">
+        <v>201.72399999999999</v>
+      </c>
+      <c r="K191" s="5">
+        <v>177.47300000000001</v>
+      </c>
+      <c r="L191" s="5">
+        <v>116.03399999999999</v>
+      </c>
+      <c r="M191" s="5">
+        <v>204.73899999999998</v>
+      </c>
+      <c r="N191" s="5">
+        <v>456.07499999999987</v>
+      </c>
+      <c r="O191" s="5">
+        <v>506.51</v>
+      </c>
+      <c r="P191" s="5">
+        <v>748.34599999999989</v>
+      </c>
+      <c r="Q191" s="5">
+        <v>341.88400000000001</v>
+      </c>
+      <c r="R191" s="5">
+        <v>233.59299999999999</v>
+      </c>
+      <c r="S191" s="5">
+        <v>60.507999999999996</v>
+      </c>
+      <c r="T191" s="5">
+        <v>37.736000000000004</v>
+      </c>
+      <c r="U191" s="5">
+        <v>141.708</v>
+      </c>
+      <c r="V191" s="5">
+        <v>42.68</v>
+      </c>
+      <c r="W191" s="5">
+        <v>33.164000000000001</v>
+      </c>
+      <c r="X191" s="5">
+        <v>61.289000000000001</v>
+      </c>
+      <c r="Y191" s="5">
+        <v>65.531000000000006</v>
+      </c>
+      <c r="Z191" s="5">
+        <v>60.991999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z191"/>
+  <dimension ref="A1:Z193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195"/>
+      <selection activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15771,6 +15771,166 @@
         <v>60.991999999999997</v>
       </c>
     </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A192" s="3">
+        <v>45996</v>
+      </c>
+      <c r="B192" t="s">
+        <v>26</v>
+      </c>
+      <c r="C192" s="5">
+        <v>446.91</v>
+      </c>
+      <c r="D192" s="5">
+        <v>956.67800000000011</v>
+      </c>
+      <c r="E192" s="5">
+        <v>482.76999999999992</v>
+      </c>
+      <c r="F192" s="5">
+        <v>215.10000000000002</v>
+      </c>
+      <c r="G192" s="5">
+        <v>264.23700000000002</v>
+      </c>
+      <c r="H192" s="5">
+        <v>497.9620000000001</v>
+      </c>
+      <c r="I192" s="5">
+        <v>429.95100000000008</v>
+      </c>
+      <c r="J192" s="5">
+        <v>102.524</v>
+      </c>
+      <c r="K192" s="5">
+        <v>113.17399999999999</v>
+      </c>
+      <c r="L192" s="5">
+        <v>180.00400000000002</v>
+      </c>
+      <c r="M192" s="5">
+        <v>66.94</v>
+      </c>
+      <c r="N192" s="5">
+        <v>173.20400000000004</v>
+      </c>
+      <c r="O192" s="5">
+        <v>639.32399999999984</v>
+      </c>
+      <c r="P192" s="5">
+        <v>1731.3229999999996</v>
+      </c>
+      <c r="Q192" s="5">
+        <v>719.25599999999986</v>
+      </c>
+      <c r="R192" s="5">
+        <v>492.89300000000003</v>
+      </c>
+      <c r="S192" s="5">
+        <v>367.875</v>
+      </c>
+      <c r="T192" s="5">
+        <v>316.82799999999997</v>
+      </c>
+      <c r="U192" s="5">
+        <v>78.22699999999999</v>
+      </c>
+      <c r="V192" s="5">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="W192" s="5">
+        <v>94.72999999999999</v>
+      </c>
+      <c r="X192" s="5">
+        <v>86.945999999999998</v>
+      </c>
+      <c r="Y192" s="5">
+        <v>54.36</v>
+      </c>
+      <c r="Z192" s="5">
+        <v>54.599999999999994</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A193" s="3">
+        <v>45996</v>
+      </c>
+      <c r="B193" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" s="5">
+        <v>413.89300000000003</v>
+      </c>
+      <c r="D193" s="5">
+        <v>303.50399999999996</v>
+      </c>
+      <c r="E193" s="5">
+        <v>168.148</v>
+      </c>
+      <c r="F193" s="5">
+        <v>107.506</v>
+      </c>
+      <c r="G193" s="5">
+        <v>66.811999999999998</v>
+      </c>
+      <c r="H193" s="5">
+        <v>87.385999999999996</v>
+      </c>
+      <c r="I193" s="5">
+        <v>296.54499999999996</v>
+      </c>
+      <c r="J193" s="5">
+        <v>171.548</v>
+      </c>
+      <c r="K193" s="5">
+        <v>331.24699999999996</v>
+      </c>
+      <c r="L193" s="5">
+        <v>236.25000000000003</v>
+      </c>
+      <c r="M193" s="5">
+        <v>132.49700000000001</v>
+      </c>
+      <c r="N193" s="5">
+        <v>129.94899999999998</v>
+      </c>
+      <c r="O193" s="5">
+        <v>930.32300000000021</v>
+      </c>
+      <c r="P193" s="5">
+        <v>921.13799999999992</v>
+      </c>
+      <c r="Q193" s="5">
+        <v>362.733</v>
+      </c>
+      <c r="R193" s="5">
+        <v>514.00199999999995</v>
+      </c>
+      <c r="S193" s="5">
+        <v>33.347999999999999</v>
+      </c>
+      <c r="T193" s="5">
+        <v>97.497</v>
+      </c>
+      <c r="U193" s="5">
+        <v>14.977</v>
+      </c>
+      <c r="V193" s="5">
+        <v>121.30500000000001</v>
+      </c>
+      <c r="W193" s="5">
+        <v>35.421999999999997</v>
+      </c>
+      <c r="X193" s="5">
+        <v>20.257999999999999</v>
+      </c>
+      <c r="Y193" s="5">
+        <v>48.242000000000004</v>
+      </c>
+      <c r="Z193" s="5">
+        <v>54.43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z193"/>
+  <dimension ref="A1:Z195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F198" sqref="F198"/>
+      <selection activeCell="E199" sqref="E199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15931,6 +15931,166 @@
         <v>54.43</v>
       </c>
     </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A194" s="3">
+        <v>45997</v>
+      </c>
+      <c r="B194" t="s">
+        <v>26</v>
+      </c>
+      <c r="C194" s="5">
+        <v>637.74700000000007</v>
+      </c>
+      <c r="D194" s="5">
+        <v>1449.9689999999998</v>
+      </c>
+      <c r="E194" s="5">
+        <v>548.71299999999985</v>
+      </c>
+      <c r="F194" s="5">
+        <v>625.59700000000009</v>
+      </c>
+      <c r="G194" s="5">
+        <v>282.44499999999999</v>
+      </c>
+      <c r="H194" s="5">
+        <v>630.20500000000004</v>
+      </c>
+      <c r="I194" s="5">
+        <v>495.15699999999993</v>
+      </c>
+      <c r="J194" s="5">
+        <v>230.077</v>
+      </c>
+      <c r="K194" s="5">
+        <v>182.47800000000001</v>
+      </c>
+      <c r="L194" s="5">
+        <v>133.375</v>
+      </c>
+      <c r="M194" s="5">
+        <v>135.42000000000002</v>
+      </c>
+      <c r="N194" s="5">
+        <v>358.44299999999998</v>
+      </c>
+      <c r="O194" s="5">
+        <v>734.65</v>
+      </c>
+      <c r="P194" s="5">
+        <v>1526.9880000000001</v>
+      </c>
+      <c r="Q194" s="5">
+        <v>668.6930000000001</v>
+      </c>
+      <c r="R194" s="5">
+        <v>580.06999999999994</v>
+      </c>
+      <c r="S194" s="5">
+        <v>438.36600000000004</v>
+      </c>
+      <c r="T194" s="5">
+        <v>153.953</v>
+      </c>
+      <c r="U194" s="5">
+        <v>131.45099999999999</v>
+      </c>
+      <c r="V194" s="5">
+        <v>13.698999999999998</v>
+      </c>
+      <c r="W194" s="5">
+        <v>110.83399999999999</v>
+      </c>
+      <c r="X194" s="5">
+        <v>22.159999999999997</v>
+      </c>
+      <c r="Y194" s="5">
+        <v>56.410000000000004</v>
+      </c>
+      <c r="Z194" s="5">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A195" s="3">
+        <v>45997</v>
+      </c>
+      <c r="B195" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195" s="5">
+        <v>334.43499999999995</v>
+      </c>
+      <c r="D195" s="5">
+        <v>582.17199999999991</v>
+      </c>
+      <c r="E195" s="5">
+        <v>232.34899999999999</v>
+      </c>
+      <c r="F195" s="5">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="G195" s="5">
+        <v>137.54499999999999</v>
+      </c>
+      <c r="H195" s="5">
+        <v>224.708</v>
+      </c>
+      <c r="I195" s="5">
+        <v>216.04499999999996</v>
+      </c>
+      <c r="J195" s="5">
+        <v>121.6</v>
+      </c>
+      <c r="K195" s="5">
+        <v>141.494</v>
+      </c>
+      <c r="L195" s="5">
+        <v>146.69200000000001</v>
+      </c>
+      <c r="M195" s="5">
+        <v>214.57799999999997</v>
+      </c>
+      <c r="N195" s="5">
+        <v>342.71000000000004</v>
+      </c>
+      <c r="O195" s="5">
+        <v>252.601</v>
+      </c>
+      <c r="P195" s="5">
+        <v>311.56799999999998</v>
+      </c>
+      <c r="Q195" s="5">
+        <v>295.90800000000002</v>
+      </c>
+      <c r="R195" s="5">
+        <v>418.28500000000003</v>
+      </c>
+      <c r="S195" s="5">
+        <v>244.404</v>
+      </c>
+      <c r="T195" s="5">
+        <v>172.61300000000003</v>
+      </c>
+      <c r="U195" s="5">
+        <v>95.135999999999996</v>
+      </c>
+      <c r="V195" s="5">
+        <v>37.085999999999999</v>
+      </c>
+      <c r="W195" s="5">
+        <v>0</v>
+      </c>
+      <c r="X195" s="5">
+        <v>61.686999999999998</v>
+      </c>
+      <c r="Y195" s="5">
+        <v>77.411000000000001</v>
+      </c>
+      <c r="Z195" s="5">
+        <v>60.108999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z195"/>
+  <dimension ref="A1:Z197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="E199" sqref="E199"/>
+      <selection activeCell="G203" sqref="G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16091,6 +16091,166 @@
         <v>60.108999999999995</v>
       </c>
     </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A196" s="3">
+        <v>45998</v>
+      </c>
+      <c r="B196" t="s">
+        <v>26</v>
+      </c>
+      <c r="C196" s="5">
+        <v>608.52500000000009</v>
+      </c>
+      <c r="D196" s="5">
+        <v>1021.9850000000001</v>
+      </c>
+      <c r="E196" s="5">
+        <v>453.50200000000001</v>
+      </c>
+      <c r="F196" s="5">
+        <v>485.76</v>
+      </c>
+      <c r="G196" s="5">
+        <v>85.649000000000001</v>
+      </c>
+      <c r="H196" s="5">
+        <v>552.61099999999999</v>
+      </c>
+      <c r="I196" s="5">
+        <v>492.33900000000006</v>
+      </c>
+      <c r="J196" s="5">
+        <v>170.24699999999999</v>
+      </c>
+      <c r="K196" s="5">
+        <v>113.114</v>
+      </c>
+      <c r="L196" s="5">
+        <v>115.52800000000002</v>
+      </c>
+      <c r="M196" s="5">
+        <v>216.01700000000002</v>
+      </c>
+      <c r="N196" s="5">
+        <v>212.95099999999999</v>
+      </c>
+      <c r="O196" s="5">
+        <v>498.18999999999994</v>
+      </c>
+      <c r="P196" s="5">
+        <v>1138.4869999999996</v>
+      </c>
+      <c r="Q196" s="5">
+        <v>360.78999999999996</v>
+      </c>
+      <c r="R196" s="5">
+        <v>449.399</v>
+      </c>
+      <c r="S196" s="5">
+        <v>333.6</v>
+      </c>
+      <c r="T196" s="5">
+        <v>409.45300000000003</v>
+      </c>
+      <c r="U196" s="5">
+        <v>148.14400000000003</v>
+      </c>
+      <c r="V196" s="5">
+        <v>40.54</v>
+      </c>
+      <c r="W196" s="5">
+        <v>76.16</v>
+      </c>
+      <c r="X196" s="5">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="Y196" s="5">
+        <v>95.62</v>
+      </c>
+      <c r="Z196" s="5">
+        <v>84.960000000000008</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A197" s="3">
+        <v>45998</v>
+      </c>
+      <c r="B197" t="s">
+        <v>27</v>
+      </c>
+      <c r="C197" s="5">
+        <v>293.08999999999997</v>
+      </c>
+      <c r="D197" s="5">
+        <v>597.178</v>
+      </c>
+      <c r="E197" s="5">
+        <v>98.460999999999984</v>
+      </c>
+      <c r="F197" s="5">
+        <v>60.938000000000002</v>
+      </c>
+      <c r="G197" s="5">
+        <v>0</v>
+      </c>
+      <c r="H197" s="5">
+        <v>75.085999999999999</v>
+      </c>
+      <c r="I197" s="5">
+        <v>387.47599999999994</v>
+      </c>
+      <c r="J197" s="5">
+        <v>142.14599999999999</v>
+      </c>
+      <c r="K197" s="5">
+        <v>233.196</v>
+      </c>
+      <c r="L197" s="5">
+        <v>231.05900000000003</v>
+      </c>
+      <c r="M197" s="5">
+        <v>142.83399999999997</v>
+      </c>
+      <c r="N197" s="5">
+        <v>302.72699999999998</v>
+      </c>
+      <c r="O197" s="5">
+        <v>447.58100000000002</v>
+      </c>
+      <c r="P197" s="5">
+        <v>561.63099999999986</v>
+      </c>
+      <c r="Q197" s="5">
+        <v>302.86700000000002</v>
+      </c>
+      <c r="R197" s="5">
+        <v>240.953</v>
+      </c>
+      <c r="S197" s="5">
+        <v>177.85299999999998</v>
+      </c>
+      <c r="T197" s="5">
+        <v>93.304000000000002</v>
+      </c>
+      <c r="U197" s="5">
+        <v>0</v>
+      </c>
+      <c r="V197" s="5">
+        <v>66.164000000000001</v>
+      </c>
+      <c r="W197" s="5">
+        <v>27.688000000000002</v>
+      </c>
+      <c r="X197" s="5">
+        <v>88.935000000000002</v>
+      </c>
+      <c r="Y197" s="5">
+        <v>50.058</v>
+      </c>
+      <c r="Z197" s="5">
+        <v>32.773000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z197"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="G203" sqref="G203"/>
+      <selection activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16251,6 +16251,166 @@
         <v>32.773000000000003</v>
       </c>
     </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A198" s="3">
+        <v>45999</v>
+      </c>
+      <c r="B198" t="s">
+        <v>26</v>
+      </c>
+      <c r="C198" s="5">
+        <v>612.94600000000003</v>
+      </c>
+      <c r="D198" s="5">
+        <v>1315.7599999999998</v>
+      </c>
+      <c r="E198" s="5">
+        <v>342.64100000000002</v>
+      </c>
+      <c r="F198" s="5">
+        <v>145.89500000000001</v>
+      </c>
+      <c r="G198" s="5">
+        <v>267.75899999999996</v>
+      </c>
+      <c r="H198" s="5">
+        <v>539.803</v>
+      </c>
+      <c r="I198" s="5">
+        <v>458.00300000000004</v>
+      </c>
+      <c r="J198" s="5">
+        <v>86.198000000000008</v>
+      </c>
+      <c r="K198" s="5">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="L198" s="5">
+        <v>193.352</v>
+      </c>
+      <c r="M198" s="5">
+        <v>222.96999999999997</v>
+      </c>
+      <c r="N198" s="5">
+        <v>365.62799999999999</v>
+      </c>
+      <c r="O198" s="5">
+        <v>926.07399999999996</v>
+      </c>
+      <c r="P198" s="5">
+        <v>1568.4410000000003</v>
+      </c>
+      <c r="Q198" s="5">
+        <v>439.97999999999996</v>
+      </c>
+      <c r="R198" s="5">
+        <v>393.37500000000006</v>
+      </c>
+      <c r="S198" s="5">
+        <v>251.15800000000004</v>
+      </c>
+      <c r="T198" s="5">
+        <v>220.875</v>
+      </c>
+      <c r="U198" s="5">
+        <v>43.620000000000005</v>
+      </c>
+      <c r="V198" s="5">
+        <v>128.489</v>
+      </c>
+      <c r="W198" s="5">
+        <v>0</v>
+      </c>
+      <c r="X198" s="5">
+        <v>93.503000000000014</v>
+      </c>
+      <c r="Y198" s="5">
+        <v>67.8</v>
+      </c>
+      <c r="Z198" s="5">
+        <v>89.000999999999991</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A199" s="3">
+        <v>45999</v>
+      </c>
+      <c r="B199" t="s">
+        <v>27</v>
+      </c>
+      <c r="C199" s="5">
+        <v>412.91799999999995</v>
+      </c>
+      <c r="D199" s="5">
+        <v>831.49</v>
+      </c>
+      <c r="E199" s="5">
+        <v>0</v>
+      </c>
+      <c r="F199" s="5">
+        <v>110.71900000000001</v>
+      </c>
+      <c r="G199" s="5">
+        <v>43.258000000000003</v>
+      </c>
+      <c r="H199" s="5">
+        <v>117.946</v>
+      </c>
+      <c r="I199" s="5">
+        <v>133.411</v>
+      </c>
+      <c r="J199" s="5">
+        <v>216.82700000000003</v>
+      </c>
+      <c r="K199" s="5">
+        <v>291.89499999999998</v>
+      </c>
+      <c r="L199" s="5">
+        <v>194.64199999999997</v>
+      </c>
+      <c r="M199" s="5">
+        <v>143.73699999999999</v>
+      </c>
+      <c r="N199" s="5">
+        <v>230.38</v>
+      </c>
+      <c r="O199" s="5">
+        <v>538.95100000000002</v>
+      </c>
+      <c r="P199" s="5">
+        <v>378.39400000000006</v>
+      </c>
+      <c r="Q199" s="5">
+        <v>426.08199999999994</v>
+      </c>
+      <c r="R199" s="5">
+        <v>201.82999999999998</v>
+      </c>
+      <c r="S199" s="5">
+        <v>53.960999999999999</v>
+      </c>
+      <c r="T199" s="5">
+        <v>132.50799999999998</v>
+      </c>
+      <c r="U199" s="5">
+        <v>59.320999999999998</v>
+      </c>
+      <c r="V199" s="5">
+        <v>130.00200000000001</v>
+      </c>
+      <c r="W199" s="5">
+        <v>96.117000000000004</v>
+      </c>
+      <c r="X199" s="5">
+        <v>121.33199999999999</v>
+      </c>
+      <c r="Y199" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z199" s="5">
+        <v>50.734999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:Z201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="H208" sqref="H208"/>
+      <selection activeCell="I206" sqref="I206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16411,6 +16411,166 @@
         <v>50.734999999999999</v>
       </c>
     </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A200" s="3">
+        <v>46000</v>
+      </c>
+      <c r="B200" t="s">
+        <v>26</v>
+      </c>
+      <c r="C200" s="5">
+        <v>474.19999999999993</v>
+      </c>
+      <c r="D200" s="5">
+        <v>930.1160000000001</v>
+      </c>
+      <c r="E200" s="5">
+        <v>494.93599999999992</v>
+      </c>
+      <c r="F200" s="5">
+        <v>308.40000000000003</v>
+      </c>
+      <c r="G200" s="5">
+        <v>233.22199999999998</v>
+      </c>
+      <c r="H200" s="5">
+        <v>584.02800000000013</v>
+      </c>
+      <c r="I200" s="5">
+        <v>254.76000000000005</v>
+      </c>
+      <c r="J200" s="5">
+        <v>162.53399999999999</v>
+      </c>
+      <c r="K200" s="5">
+        <v>53.08</v>
+      </c>
+      <c r="L200" s="5">
+        <v>73.690000000000012</v>
+      </c>
+      <c r="M200" s="5">
+        <v>136.51</v>
+      </c>
+      <c r="N200" s="5">
+        <v>282.95</v>
+      </c>
+      <c r="O200" s="5">
+        <v>962.14500000000021</v>
+      </c>
+      <c r="P200" s="5">
+        <v>1191.4590000000003</v>
+      </c>
+      <c r="Q200" s="5">
+        <v>398.09999999999997</v>
+      </c>
+      <c r="R200" s="5">
+        <v>324.26599999999996</v>
+      </c>
+      <c r="S200" s="5">
+        <v>311.28999999999996</v>
+      </c>
+      <c r="T200" s="5">
+        <v>226.6</v>
+      </c>
+      <c r="U200" s="5">
+        <v>80.25</v>
+      </c>
+      <c r="V200" s="5">
+        <v>104.59</v>
+      </c>
+      <c r="W200" s="5">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="X200" s="5">
+        <v>131.78</v>
+      </c>
+      <c r="Y200" s="5">
+        <v>68.14</v>
+      </c>
+      <c r="Z200" s="5">
+        <v>73.11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A201" s="3">
+        <v>46000</v>
+      </c>
+      <c r="B201" t="s">
+        <v>27</v>
+      </c>
+      <c r="C201" s="5">
+        <v>534.29200000000003</v>
+      </c>
+      <c r="D201" s="5">
+        <v>486.86399999999992</v>
+      </c>
+      <c r="E201" s="5">
+        <v>95.891999999999996</v>
+      </c>
+      <c r="F201" s="5">
+        <v>94.828000000000003</v>
+      </c>
+      <c r="G201" s="5">
+        <v>0</v>
+      </c>
+      <c r="H201" s="5">
+        <v>108.00800000000001</v>
+      </c>
+      <c r="I201" s="5">
+        <v>39.992000000000004</v>
+      </c>
+      <c r="J201" s="5">
+        <v>100.25399999999999</v>
+      </c>
+      <c r="K201" s="5">
+        <v>218.654</v>
+      </c>
+      <c r="L201" s="5">
+        <v>279.673</v>
+      </c>
+      <c r="M201" s="5">
+        <v>420.19299999999998</v>
+      </c>
+      <c r="N201" s="5">
+        <v>258.09999999999997</v>
+      </c>
+      <c r="O201" s="5">
+        <v>229.93899999999999</v>
+      </c>
+      <c r="P201" s="5">
+        <v>638.3839999999999</v>
+      </c>
+      <c r="Q201" s="5">
+        <v>309.18599999999998</v>
+      </c>
+      <c r="R201" s="5">
+        <v>97.856999999999999</v>
+      </c>
+      <c r="S201" s="5">
+        <v>83.960999999999984</v>
+      </c>
+      <c r="T201" s="5">
+        <v>64.661000000000001</v>
+      </c>
+      <c r="U201" s="5">
+        <v>10.865</v>
+      </c>
+      <c r="V201" s="5">
+        <v>31.305</v>
+      </c>
+      <c r="W201" s="5">
+        <v>33.688000000000002</v>
+      </c>
+      <c r="X201" s="5">
+        <v>34.313000000000002</v>
+      </c>
+      <c r="Y201" s="5">
+        <v>17.241999999999997</v>
+      </c>
+      <c r="Z201" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z201"/>
+  <dimension ref="A1:Z203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="I206" sqref="I206"/>
+      <selection activeCell="H206" sqref="H206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16571,6 +16571,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A202" s="3">
+        <v>46001</v>
+      </c>
+      <c r="B202" t="s">
+        <v>26</v>
+      </c>
+      <c r="C202" s="5">
+        <v>508.22200000000004</v>
+      </c>
+      <c r="D202" s="5">
+        <v>1034.752</v>
+      </c>
+      <c r="E202" s="5">
+        <v>351.16499999999996</v>
+      </c>
+      <c r="F202" s="5">
+        <v>446.49000000000007</v>
+      </c>
+      <c r="G202" s="5">
+        <v>219.32</v>
+      </c>
+      <c r="H202" s="5">
+        <v>516.99300000000005</v>
+      </c>
+      <c r="I202" s="5">
+        <v>395.82499999999993</v>
+      </c>
+      <c r="J202" s="5">
+        <v>147.62</v>
+      </c>
+      <c r="K202" s="5">
+        <v>104.46000000000001</v>
+      </c>
+      <c r="L202" s="5">
+        <v>284.68999999999994</v>
+      </c>
+      <c r="M202" s="5">
+        <v>111.33800000000001</v>
+      </c>
+      <c r="N202" s="5">
+        <v>296.58199999999999</v>
+      </c>
+      <c r="O202" s="5">
+        <v>732.28699999999992</v>
+      </c>
+      <c r="P202" s="5">
+        <v>1290.6419999999996</v>
+      </c>
+      <c r="Q202" s="5">
+        <v>523.9</v>
+      </c>
+      <c r="R202" s="5">
+        <v>330.09999999999997</v>
+      </c>
+      <c r="S202" s="5">
+        <v>468.48399999999998</v>
+      </c>
+      <c r="T202" s="5">
+        <v>157.846</v>
+      </c>
+      <c r="U202" s="5">
+        <v>55.93</v>
+      </c>
+      <c r="V202" s="5">
+        <v>98.57</v>
+      </c>
+      <c r="W202" s="5">
+        <v>108.28</v>
+      </c>
+      <c r="X202" s="5">
+        <v>52.72</v>
+      </c>
+      <c r="Y202" s="5">
+        <v>105.08</v>
+      </c>
+      <c r="Z202" s="5">
+        <v>157.04</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A203" s="3">
+        <v>46001</v>
+      </c>
+      <c r="B203" t="s">
+        <v>27</v>
+      </c>
+      <c r="C203" s="5">
+        <v>559.721</v>
+      </c>
+      <c r="D203" s="5">
+        <v>355.31700000000001</v>
+      </c>
+      <c r="E203" s="5">
+        <v>183.74599999999998</v>
+      </c>
+      <c r="F203" s="5">
+        <v>70.14</v>
+      </c>
+      <c r="G203" s="5">
+        <v>16.602</v>
+      </c>
+      <c r="H203" s="5">
+        <v>263.68700000000001</v>
+      </c>
+      <c r="I203" s="5">
+        <v>134.30500000000001</v>
+      </c>
+      <c r="J203" s="5">
+        <v>224.59200000000001</v>
+      </c>
+      <c r="K203" s="5">
+        <v>213.83699999999999</v>
+      </c>
+      <c r="L203" s="5">
+        <v>245.54600000000002</v>
+      </c>
+      <c r="M203" s="5">
+        <v>148.57300000000001</v>
+      </c>
+      <c r="N203" s="5">
+        <v>182.49700000000001</v>
+      </c>
+      <c r="O203" s="5">
+        <v>456.74600000000004</v>
+      </c>
+      <c r="P203" s="5">
+        <v>475.13199999999995</v>
+      </c>
+      <c r="Q203" s="5">
+        <v>231.72000000000003</v>
+      </c>
+      <c r="R203" s="5">
+        <v>217.62299999999999</v>
+      </c>
+      <c r="S203" s="5">
+        <v>57.984000000000009</v>
+      </c>
+      <c r="T203" s="5">
+        <v>122.414</v>
+      </c>
+      <c r="U203" s="5">
+        <v>72.088999999999999</v>
+      </c>
+      <c r="V203" s="5">
+        <v>141.76400000000001</v>
+      </c>
+      <c r="W203" s="5">
+        <v>58.771000000000001</v>
+      </c>
+      <c r="X203" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y203" s="5">
+        <v>50.828000000000003</v>
+      </c>
+      <c r="Z203" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z203"/>
+  <dimension ref="A1:Z205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="H206" sqref="H206"/>
+      <selection activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16731,6 +16731,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A204" s="3">
+        <v>46002</v>
+      </c>
+      <c r="B204" t="s">
+        <v>26</v>
+      </c>
+      <c r="C204" s="5">
+        <v>762.45499999999981</v>
+      </c>
+      <c r="D204" s="5">
+        <v>807.31399999999974</v>
+      </c>
+      <c r="E204" s="5">
+        <v>304.25</v>
+      </c>
+      <c r="F204" s="5">
+        <v>288.12599999999998</v>
+      </c>
+      <c r="G204" s="5">
+        <v>183.488</v>
+      </c>
+      <c r="H204" s="5">
+        <v>548.85</v>
+      </c>
+      <c r="I204" s="5">
+        <v>408.99699999999996</v>
+      </c>
+      <c r="J204" s="5">
+        <v>153.31799999999998</v>
+      </c>
+      <c r="K204" s="5">
+        <v>72.44</v>
+      </c>
+      <c r="L204" s="5">
+        <v>161.41999999999999</v>
+      </c>
+      <c r="M204" s="5">
+        <v>178.29299999999998</v>
+      </c>
+      <c r="N204" s="5">
+        <v>148.70199999999997</v>
+      </c>
+      <c r="O204" s="5">
+        <v>921.35099999999954</v>
+      </c>
+      <c r="P204" s="5">
+        <v>1346.0419999999999</v>
+      </c>
+      <c r="Q204" s="5">
+        <v>632.89999999999986</v>
+      </c>
+      <c r="R204" s="5">
+        <v>278.65000000000003</v>
+      </c>
+      <c r="S204" s="5">
+        <v>297.19400000000002</v>
+      </c>
+      <c r="T204" s="5">
+        <v>157.60800000000003</v>
+      </c>
+      <c r="U204" s="5">
+        <v>192.60499999999999</v>
+      </c>
+      <c r="V204" s="5">
+        <v>197.5</v>
+      </c>
+      <c r="W204" s="5">
+        <v>31.479999999999997</v>
+      </c>
+      <c r="X204" s="5">
+        <v>23.2</v>
+      </c>
+      <c r="Y204" s="5">
+        <v>25.3</v>
+      </c>
+      <c r="Z204" s="5">
+        <v>51.341999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A205" s="3">
+        <v>46002</v>
+      </c>
+      <c r="B205" t="s">
+        <v>27</v>
+      </c>
+      <c r="C205" s="5">
+        <v>382.51599999999996</v>
+      </c>
+      <c r="D205" s="5">
+        <v>570.19599999999991</v>
+      </c>
+      <c r="E205" s="5">
+        <v>37.398000000000003</v>
+      </c>
+      <c r="F205" s="5">
+        <v>90.454000000000008</v>
+      </c>
+      <c r="G205" s="5">
+        <v>151.125</v>
+      </c>
+      <c r="H205" s="5">
+        <v>66.656000000000006</v>
+      </c>
+      <c r="I205" s="5">
+        <v>100.86699999999999</v>
+      </c>
+      <c r="J205" s="5">
+        <v>88.626000000000005</v>
+      </c>
+      <c r="K205" s="5">
+        <v>231.38800000000003</v>
+      </c>
+      <c r="L205" s="5">
+        <v>165.36700000000002</v>
+      </c>
+      <c r="M205" s="5">
+        <v>203.12</v>
+      </c>
+      <c r="N205" s="5">
+        <v>226.45600000000002</v>
+      </c>
+      <c r="O205" s="5">
+        <v>390.38599999999997</v>
+      </c>
+      <c r="P205" s="5">
+        <v>573.13</v>
+      </c>
+      <c r="Q205" s="5">
+        <v>302.69799999999998</v>
+      </c>
+      <c r="R205" s="5">
+        <v>153.834</v>
+      </c>
+      <c r="S205" s="5">
+        <v>27.484999999999999</v>
+      </c>
+      <c r="T205" s="5">
+        <v>183.11599999999999</v>
+      </c>
+      <c r="U205" s="5">
+        <v>21.734000000000002</v>
+      </c>
+      <c r="V205" s="5">
+        <v>62.257999999999996</v>
+      </c>
+      <c r="W205" s="5">
+        <v>0</v>
+      </c>
+      <c r="X205" s="5">
+        <v>53.030999999999999</v>
+      </c>
+      <c r="Y205" s="5">
+        <v>41.132000000000005</v>
+      </c>
+      <c r="Z205" s="5">
+        <v>46.448</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z205"/>
+  <dimension ref="A1:Z207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209"/>
+      <selection activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16891,6 +16891,166 @@
         <v>46.448</v>
       </c>
     </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A206" s="3">
+        <v>46003</v>
+      </c>
+      <c r="B206" t="s">
+        <v>26</v>
+      </c>
+      <c r="C206" s="5">
+        <v>598.13700000000006</v>
+      </c>
+      <c r="D206" s="5">
+        <v>906.04</v>
+      </c>
+      <c r="E206" s="5">
+        <v>536.96100000000001</v>
+      </c>
+      <c r="F206" s="5">
+        <v>375.69999999999993</v>
+      </c>
+      <c r="G206" s="5">
+        <v>393.07200000000006</v>
+      </c>
+      <c r="H206" s="5">
+        <v>525.24599999999998</v>
+      </c>
+      <c r="I206" s="5">
+        <v>395.79200000000003</v>
+      </c>
+      <c r="J206" s="5">
+        <v>181.66699999999997</v>
+      </c>
+      <c r="K206" s="5">
+        <v>61.4</v>
+      </c>
+      <c r="L206" s="5">
+        <v>124.92099999999999</v>
+      </c>
+      <c r="M206" s="5">
+        <v>220.65799999999999</v>
+      </c>
+      <c r="N206" s="5">
+        <v>247.64400000000001</v>
+      </c>
+      <c r="O206" s="5">
+        <v>1010.1039999999998</v>
+      </c>
+      <c r="P206" s="5">
+        <v>1273.5010000000002</v>
+      </c>
+      <c r="Q206" s="5">
+        <v>524.13</v>
+      </c>
+      <c r="R206" s="5">
+        <v>508.39100000000002</v>
+      </c>
+      <c r="S206" s="5">
+        <v>459.21300000000002</v>
+      </c>
+      <c r="T206" s="5">
+        <v>111.85599999999999</v>
+      </c>
+      <c r="U206" s="5">
+        <v>109.41</v>
+      </c>
+      <c r="V206" s="5">
+        <v>30.07</v>
+      </c>
+      <c r="W206" s="5">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="X206" s="5">
+        <v>110.30000000000001</v>
+      </c>
+      <c r="Y206" s="5">
+        <v>82.015000000000001</v>
+      </c>
+      <c r="Z206" s="5">
+        <v>74.37</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A207" s="3">
+        <v>46003</v>
+      </c>
+      <c r="B207" t="s">
+        <v>27</v>
+      </c>
+      <c r="C207" s="5">
+        <v>507.84100000000001</v>
+      </c>
+      <c r="D207" s="5">
+        <v>412.33600000000001</v>
+      </c>
+      <c r="E207" s="5">
+        <v>15.82</v>
+      </c>
+      <c r="F207" s="5">
+        <v>213.28899999999999</v>
+      </c>
+      <c r="G207" s="5">
+        <v>58.584000000000003</v>
+      </c>
+      <c r="H207" s="5">
+        <v>109.571</v>
+      </c>
+      <c r="I207" s="5">
+        <v>397.03500000000003</v>
+      </c>
+      <c r="J207" s="5">
+        <v>118.07299999999999</v>
+      </c>
+      <c r="K207" s="5">
+        <v>162.72300000000001</v>
+      </c>
+      <c r="L207" s="5">
+        <v>254.33699999999999</v>
+      </c>
+      <c r="M207" s="5">
+        <v>336.55500000000001</v>
+      </c>
+      <c r="N207" s="5">
+        <v>261.21000000000004</v>
+      </c>
+      <c r="O207" s="5">
+        <v>262.38800000000003</v>
+      </c>
+      <c r="P207" s="5">
+        <v>473.00200000000001</v>
+      </c>
+      <c r="Q207" s="5">
+        <v>345.61400000000003</v>
+      </c>
+      <c r="R207" s="5">
+        <v>159.68100000000001</v>
+      </c>
+      <c r="S207" s="5">
+        <v>104.01599999999999</v>
+      </c>
+      <c r="T207" s="5">
+        <v>299.46699999999998</v>
+      </c>
+      <c r="U207" s="5">
+        <v>125.887</v>
+      </c>
+      <c r="V207" s="5">
+        <v>80.367999999999995</v>
+      </c>
+      <c r="W207" s="5">
+        <v>0</v>
+      </c>
+      <c r="X207" s="5">
+        <v>77.024000000000001</v>
+      </c>
+      <c r="Y207" s="5">
+        <v>81.165000000000006</v>
+      </c>
+      <c r="Z207" s="5">
+        <v>67.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z207"/>
+  <dimension ref="A1:Z209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+      <selection activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17051,6 +17051,166 @@
         <v>67.2</v>
       </c>
     </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A208" s="3">
+        <v>46004</v>
+      </c>
+      <c r="B208" t="s">
+        <v>26</v>
+      </c>
+      <c r="C208" s="5">
+        <v>465.72299999999996</v>
+      </c>
+      <c r="D208" s="5">
+        <v>1817.9249999999997</v>
+      </c>
+      <c r="E208" s="5">
+        <v>576.92600000000004</v>
+      </c>
+      <c r="F208" s="5">
+        <v>664.97999999999979</v>
+      </c>
+      <c r="G208" s="5">
+        <v>300.32900000000001</v>
+      </c>
+      <c r="H208" s="5">
+        <v>494.54699999999997</v>
+      </c>
+      <c r="I208" s="5">
+        <v>390.00099999999998</v>
+      </c>
+      <c r="J208" s="5">
+        <v>305.51399999999995</v>
+      </c>
+      <c r="K208" s="5">
+        <v>206.203</v>
+      </c>
+      <c r="L208" s="5">
+        <v>108.61200000000001</v>
+      </c>
+      <c r="M208" s="5">
+        <v>198.88500000000002</v>
+      </c>
+      <c r="N208" s="5">
+        <v>311.637</v>
+      </c>
+      <c r="O208" s="5">
+        <v>741.11000000000013</v>
+      </c>
+      <c r="P208" s="5">
+        <v>1548.1589999999999</v>
+      </c>
+      <c r="Q208" s="5">
+        <v>516.6099999999999</v>
+      </c>
+      <c r="R208" s="5">
+        <v>538.48100000000011</v>
+      </c>
+      <c r="S208" s="5">
+        <v>367.03400000000005</v>
+      </c>
+      <c r="T208" s="5">
+        <v>353.142</v>
+      </c>
+      <c r="U208" s="5">
+        <v>121.78</v>
+      </c>
+      <c r="V208" s="5">
+        <v>88.17</v>
+      </c>
+      <c r="W208" s="5">
+        <v>33.6</v>
+      </c>
+      <c r="X208" s="5">
+        <v>23.98</v>
+      </c>
+      <c r="Y208" s="5">
+        <v>96.920000000000016</v>
+      </c>
+      <c r="Z208" s="5">
+        <v>60.42</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A209" s="3">
+        <v>46004</v>
+      </c>
+      <c r="B209" t="s">
+        <v>27</v>
+      </c>
+      <c r="C209" s="5">
+        <v>158.30099999999999</v>
+      </c>
+      <c r="D209" s="5">
+        <v>468.5809999999999</v>
+      </c>
+      <c r="E209" s="5">
+        <v>254.19099999999997</v>
+      </c>
+      <c r="F209" s="5">
+        <v>136.86099999999999</v>
+      </c>
+      <c r="G209" s="5">
+        <v>360.40599999999995</v>
+      </c>
+      <c r="H209" s="5">
+        <v>74.992000000000004</v>
+      </c>
+      <c r="I209" s="5">
+        <v>221.81400000000002</v>
+      </c>
+      <c r="J209" s="5">
+        <v>64.106999999999999</v>
+      </c>
+      <c r="K209" s="5">
+        <v>253.45399999999998</v>
+      </c>
+      <c r="L209" s="5">
+        <v>586.971</v>
+      </c>
+      <c r="M209" s="5">
+        <v>313.09599999999995</v>
+      </c>
+      <c r="N209" s="5">
+        <v>192.541</v>
+      </c>
+      <c r="O209" s="5">
+        <v>494.78800000000007</v>
+      </c>
+      <c r="P209" s="5">
+        <v>942.68599999999981</v>
+      </c>
+      <c r="Q209" s="5">
+        <v>327.91899999999998</v>
+      </c>
+      <c r="R209" s="5">
+        <v>374.28499999999997</v>
+      </c>
+      <c r="S209" s="5">
+        <v>339.3</v>
+      </c>
+      <c r="T209" s="5">
+        <v>69.37</v>
+      </c>
+      <c r="U209" s="5">
+        <v>198.678</v>
+      </c>
+      <c r="V209" s="5">
+        <v>34.974000000000004</v>
+      </c>
+      <c r="W209" s="5">
+        <v>170.49199999999999</v>
+      </c>
+      <c r="X209" s="5">
+        <v>156.88999999999999</v>
+      </c>
+      <c r="Y209" s="5">
+        <v>19.813000000000002</v>
+      </c>
+      <c r="Z209" s="5">
+        <v>1.887</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z209"/>
+  <dimension ref="A1:Z211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F212" sqref="F212"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="G214" sqref="G214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17211,6 +17211,166 @@
         <v>1.887</v>
       </c>
     </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A210" s="3">
+        <v>46005</v>
+      </c>
+      <c r="B210" t="s">
+        <v>26</v>
+      </c>
+      <c r="C210" s="5">
+        <v>558.97300000000018</v>
+      </c>
+      <c r="D210" s="5">
+        <v>1168.5979999999997</v>
+      </c>
+      <c r="E210" s="5">
+        <v>739.18599999999992</v>
+      </c>
+      <c r="F210" s="5">
+        <v>556.86599999999999</v>
+      </c>
+      <c r="G210" s="5">
+        <v>248.26899999999998</v>
+      </c>
+      <c r="H210" s="5">
+        <v>473.452</v>
+      </c>
+      <c r="I210" s="5">
+        <v>584.495</v>
+      </c>
+      <c r="J210" s="5">
+        <v>304.97000000000003</v>
+      </c>
+      <c r="K210" s="5">
+        <v>192.11699999999999</v>
+      </c>
+      <c r="L210" s="5">
+        <v>46.24</v>
+      </c>
+      <c r="M210" s="5">
+        <v>170.94800000000001</v>
+      </c>
+      <c r="N210" s="5">
+        <v>126.673</v>
+      </c>
+      <c r="O210" s="5">
+        <v>752.3850000000001</v>
+      </c>
+      <c r="P210" s="5">
+        <v>1096.3379999999997</v>
+      </c>
+      <c r="Q210" s="5">
+        <v>468.38</v>
+      </c>
+      <c r="R210" s="5">
+        <v>455.47199999999998</v>
+      </c>
+      <c r="S210" s="5">
+        <v>273.91399999999999</v>
+      </c>
+      <c r="T210" s="5">
+        <v>127.44799999999998</v>
+      </c>
+      <c r="U210" s="5">
+        <v>113.64899999999999</v>
+      </c>
+      <c r="V210" s="5">
+        <v>67.44</v>
+      </c>
+      <c r="W210" s="5">
+        <v>62.34</v>
+      </c>
+      <c r="X210" s="5">
+        <v>20.02</v>
+      </c>
+      <c r="Y210" s="5">
+        <v>74.88000000000001</v>
+      </c>
+      <c r="Z210" s="5">
+        <v>42.879999999999995</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A211" s="3">
+        <v>46005</v>
+      </c>
+      <c r="B211" t="s">
+        <v>27</v>
+      </c>
+      <c r="C211" s="5">
+        <v>331.04500000000002</v>
+      </c>
+      <c r="D211" s="5">
+        <v>1130.3259999999998</v>
+      </c>
+      <c r="E211" s="5">
+        <v>244.03399999999999</v>
+      </c>
+      <c r="F211" s="5">
+        <v>59.242000000000004</v>
+      </c>
+      <c r="G211" s="5">
+        <v>58.344000000000001</v>
+      </c>
+      <c r="H211" s="5">
+        <v>169.29300000000001</v>
+      </c>
+      <c r="I211" s="5">
+        <v>298.66200000000003</v>
+      </c>
+      <c r="J211" s="5">
+        <v>118.024</v>
+      </c>
+      <c r="K211" s="5">
+        <v>267.358</v>
+      </c>
+      <c r="L211" s="5">
+        <v>107.18100000000001</v>
+      </c>
+      <c r="M211" s="5">
+        <v>157.387</v>
+      </c>
+      <c r="N211" s="5">
+        <v>284.95299999999997</v>
+      </c>
+      <c r="O211" s="5">
+        <v>400.72899999999993</v>
+      </c>
+      <c r="P211" s="5">
+        <v>574.24300000000017</v>
+      </c>
+      <c r="Q211" s="5">
+        <v>272.51099999999997</v>
+      </c>
+      <c r="R211" s="5">
+        <v>58.443000000000005</v>
+      </c>
+      <c r="S211" s="5">
+        <v>82.703000000000003</v>
+      </c>
+      <c r="T211" s="5">
+        <v>113.26599999999999</v>
+      </c>
+      <c r="U211" s="5">
+        <v>109.96000000000001</v>
+      </c>
+      <c r="V211" s="5">
+        <v>171.34800000000001</v>
+      </c>
+      <c r="W211" s="5">
+        <v>190.702</v>
+      </c>
+      <c r="X211" s="5">
+        <v>59.914999999999999</v>
+      </c>
+      <c r="Y211" s="5">
+        <v>3.4449999999999998</v>
+      </c>
+      <c r="Z211" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z211"/>
+  <dimension ref="A1:Z213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="G214" sqref="G214"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17371,6 +17371,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A212" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B212" t="s">
+        <v>26</v>
+      </c>
+      <c r="C212" s="5">
+        <v>616.66799999999989</v>
+      </c>
+      <c r="D212" s="5">
+        <v>1198.0809999999999</v>
+      </c>
+      <c r="E212" s="5">
+        <v>388.41300000000001</v>
+      </c>
+      <c r="F212" s="5">
+        <v>342.44</v>
+      </c>
+      <c r="G212" s="5">
+        <v>124.68299999999999</v>
+      </c>
+      <c r="H212" s="5">
+        <v>537.63599999999997</v>
+      </c>
+      <c r="I212" s="5">
+        <v>587.21800000000007</v>
+      </c>
+      <c r="J212" s="5">
+        <v>146.68</v>
+      </c>
+      <c r="K212" s="5">
+        <v>64.459999999999994</v>
+      </c>
+      <c r="L212" s="5">
+        <v>127.93999999999998</v>
+      </c>
+      <c r="M212" s="5">
+        <v>220.01000000000002</v>
+      </c>
+      <c r="N212" s="5">
+        <v>128.79399999999998</v>
+      </c>
+      <c r="O212" s="5">
+        <v>674.4369999999999</v>
+      </c>
+      <c r="P212" s="5">
+        <v>1539.0340000000003</v>
+      </c>
+      <c r="Q212" s="5">
+        <v>622.79200000000003</v>
+      </c>
+      <c r="R212" s="5">
+        <v>454.25400000000002</v>
+      </c>
+      <c r="S212" s="5">
+        <v>343.87799999999999</v>
+      </c>
+      <c r="T212" s="5">
+        <v>247.16399999999999</v>
+      </c>
+      <c r="U212" s="5">
+        <v>135.017</v>
+      </c>
+      <c r="V212" s="5">
+        <v>62.64</v>
+      </c>
+      <c r="W212" s="5">
+        <v>120.98</v>
+      </c>
+      <c r="X212" s="5">
+        <v>111.2</v>
+      </c>
+      <c r="Y212" s="5">
+        <v>55.04</v>
+      </c>
+      <c r="Z212" s="5">
+        <v>10.350000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A213" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B213" t="s">
+        <v>27</v>
+      </c>
+      <c r="C213" s="5">
+        <v>617.90500000000009</v>
+      </c>
+      <c r="D213" s="5">
+        <v>521.30399999999997</v>
+      </c>
+      <c r="E213" s="5">
+        <v>116.17000000000002</v>
+      </c>
+      <c r="F213" s="5">
+        <v>129.5</v>
+      </c>
+      <c r="G213" s="5">
+        <v>55.073999999999998</v>
+      </c>
+      <c r="H213" s="5">
+        <v>57.328999999999994</v>
+      </c>
+      <c r="I213" s="5">
+        <v>359.96199999999999</v>
+      </c>
+      <c r="J213" s="5">
+        <v>18.888000000000002</v>
+      </c>
+      <c r="K213" s="5">
+        <v>167.64000000000001</v>
+      </c>
+      <c r="L213" s="5">
+        <v>390.18899999999996</v>
+      </c>
+      <c r="M213" s="5">
+        <v>662.06700000000001</v>
+      </c>
+      <c r="N213" s="5">
+        <v>238.17400000000001</v>
+      </c>
+      <c r="O213" s="5">
+        <v>749.00999999999988</v>
+      </c>
+      <c r="P213" s="5">
+        <v>638.21799999999985</v>
+      </c>
+      <c r="Q213" s="5">
+        <v>283.52</v>
+      </c>
+      <c r="R213" s="5">
+        <v>219.53799999999998</v>
+      </c>
+      <c r="S213" s="5">
+        <v>173.53499999999997</v>
+      </c>
+      <c r="T213" s="5">
+        <v>109.79300000000001</v>
+      </c>
+      <c r="U213" s="5">
+        <v>14.648999999999999</v>
+      </c>
+      <c r="V213" s="5">
+        <v>65.75</v>
+      </c>
+      <c r="W213" s="5">
+        <v>46.350999999999999</v>
+      </c>
+      <c r="X213" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y213" s="5">
+        <v>12.601000000000001</v>
+      </c>
+      <c r="Z213" s="5">
+        <v>22.18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z213"/>
+  <dimension ref="A1:Z219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+      <selection activeCell="D226" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17531,6 +17531,486 @@
         <v>22.18</v>
       </c>
     </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A214" s="3">
+        <v>46007</v>
+      </c>
+      <c r="B214" t="s">
+        <v>26</v>
+      </c>
+      <c r="C214" s="5">
+        <v>626.23399999999992</v>
+      </c>
+      <c r="D214" s="5">
+        <v>1225.2180000000003</v>
+      </c>
+      <c r="E214" s="5">
+        <v>394.75000000000006</v>
+      </c>
+      <c r="F214" s="5">
+        <v>327.44</v>
+      </c>
+      <c r="G214" s="5">
+        <v>96.724999999999994</v>
+      </c>
+      <c r="H214" s="5">
+        <v>536.00300000000004</v>
+      </c>
+      <c r="I214" s="5">
+        <v>304.06199999999995</v>
+      </c>
+      <c r="J214" s="5">
+        <v>90.1</v>
+      </c>
+      <c r="K214" s="5">
+        <v>96.079999999999984</v>
+      </c>
+      <c r="L214" s="5">
+        <v>54.74</v>
+      </c>
+      <c r="M214" s="5">
+        <v>239.29599999999996</v>
+      </c>
+      <c r="N214" s="5">
+        <v>299.88800000000003</v>
+      </c>
+      <c r="O214" s="5">
+        <v>583.71799999999996</v>
+      </c>
+      <c r="P214" s="5">
+        <v>1265.8440000000001</v>
+      </c>
+      <c r="Q214" s="5">
+        <v>476.36300000000006</v>
+      </c>
+      <c r="R214" s="5">
+        <v>420.721</v>
+      </c>
+      <c r="S214" s="5">
+        <v>190.25599999999997</v>
+      </c>
+      <c r="T214" s="5">
+        <v>181.13799999999998</v>
+      </c>
+      <c r="U214" s="5">
+        <v>83.837000000000003</v>
+      </c>
+      <c r="V214" s="5">
+        <v>145.26</v>
+      </c>
+      <c r="W214" s="5">
+        <v>138.06</v>
+      </c>
+      <c r="X214" s="5">
+        <v>34.488999999999997</v>
+      </c>
+      <c r="Y214" s="5">
+        <v>59.3</v>
+      </c>
+      <c r="Z214" s="5">
+        <v>105.56</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A215" s="3">
+        <v>46007</v>
+      </c>
+      <c r="B215" t="s">
+        <v>27</v>
+      </c>
+      <c r="C215" s="5">
+        <v>300.29500000000002</v>
+      </c>
+      <c r="D215" s="5">
+        <v>305.34400000000005</v>
+      </c>
+      <c r="E215" s="5">
+        <v>181.21899999999999</v>
+      </c>
+      <c r="F215" s="5">
+        <v>51.633000000000003</v>
+      </c>
+      <c r="G215" s="5">
+        <v>136.82</v>
+      </c>
+      <c r="H215" s="5">
+        <v>155.149</v>
+      </c>
+      <c r="I215" s="5">
+        <v>57.414999999999999</v>
+      </c>
+      <c r="J215" s="5">
+        <v>118.492</v>
+      </c>
+      <c r="K215" s="5">
+        <v>300.14400000000001</v>
+      </c>
+      <c r="L215" s="5">
+        <v>214.71899999999999</v>
+      </c>
+      <c r="M215" s="5">
+        <v>163.04399999999998</v>
+      </c>
+      <c r="N215" s="5">
+        <v>242.07400000000001</v>
+      </c>
+      <c r="O215" s="5">
+        <v>359.23199999999997</v>
+      </c>
+      <c r="P215" s="5">
+        <v>531.774</v>
+      </c>
+      <c r="Q215" s="5">
+        <v>322.73500000000001</v>
+      </c>
+      <c r="R215" s="5">
+        <v>382.74999999999994</v>
+      </c>
+      <c r="S215" s="5">
+        <v>210.345</v>
+      </c>
+      <c r="T215" s="5">
+        <v>131.49600000000001</v>
+      </c>
+      <c r="U215" s="5">
+        <v>5.7969999999999997</v>
+      </c>
+      <c r="V215" s="5">
+        <v>117.97500000000002</v>
+      </c>
+      <c r="W215" s="5">
+        <v>41.796999999999997</v>
+      </c>
+      <c r="X215" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y215" s="5">
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="Z215" s="5">
+        <v>26.243000000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A216" s="3">
+        <v>46008</v>
+      </c>
+      <c r="B216" t="s">
+        <v>26</v>
+      </c>
+      <c r="C216" s="5">
+        <v>628.17699999999991</v>
+      </c>
+      <c r="D216" s="5">
+        <v>836.79600000000005</v>
+      </c>
+      <c r="E216" s="5">
+        <v>432.36399999999998</v>
+      </c>
+      <c r="F216" s="5">
+        <v>251.66</v>
+      </c>
+      <c r="G216" s="5">
+        <v>350.26900000000001</v>
+      </c>
+      <c r="H216" s="5">
+        <v>627.99300000000017</v>
+      </c>
+      <c r="I216" s="5">
+        <v>350.75900000000007</v>
+      </c>
+      <c r="J216" s="5">
+        <v>92.686000000000007</v>
+      </c>
+      <c r="K216" s="5">
+        <v>206.798</v>
+      </c>
+      <c r="L216" s="5">
+        <v>131.328</v>
+      </c>
+      <c r="M216" s="5">
+        <v>154.80800000000002</v>
+      </c>
+      <c r="N216" s="5">
+        <v>249.24600000000001</v>
+      </c>
+      <c r="O216" s="5">
+        <v>572.50900000000013</v>
+      </c>
+      <c r="P216" s="5">
+        <v>1241.4489999999998</v>
+      </c>
+      <c r="Q216" s="5">
+        <v>362.82</v>
+      </c>
+      <c r="R216" s="5">
+        <v>309.15699999999998</v>
+      </c>
+      <c r="S216" s="5">
+        <v>413.01299999999998</v>
+      </c>
+      <c r="T216" s="5">
+        <v>100.22999999999999</v>
+      </c>
+      <c r="U216" s="5">
+        <v>117.482</v>
+      </c>
+      <c r="V216" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="W216" s="5">
+        <v>105.06</v>
+      </c>
+      <c r="X216" s="5">
+        <v>62.260000000000005</v>
+      </c>
+      <c r="Y216" s="5">
+        <v>77.910000000000011</v>
+      </c>
+      <c r="Z216" s="5">
+        <v>113.00699999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A217" s="3">
+        <v>46008</v>
+      </c>
+      <c r="B217" t="s">
+        <v>27</v>
+      </c>
+      <c r="C217" s="5">
+        <v>451.41900000000004</v>
+      </c>
+      <c r="D217" s="5">
+        <v>503.24100000000004</v>
+      </c>
+      <c r="E217" s="5">
+        <v>119.28100000000001</v>
+      </c>
+      <c r="F217" s="5">
+        <v>20.484000000000002</v>
+      </c>
+      <c r="G217" s="5">
+        <v>15.797000000000001</v>
+      </c>
+      <c r="H217" s="5">
+        <v>99.397999999999996</v>
+      </c>
+      <c r="I217" s="5">
+        <v>330.43699999999995</v>
+      </c>
+      <c r="J217" s="5">
+        <v>159.108</v>
+      </c>
+      <c r="K217" s="5">
+        <v>130.17099999999999</v>
+      </c>
+      <c r="L217" s="5">
+        <v>321.565</v>
+      </c>
+      <c r="M217" s="5">
+        <v>167.048</v>
+      </c>
+      <c r="N217" s="5">
+        <v>186.29499999999996</v>
+      </c>
+      <c r="O217" s="5">
+        <v>294.298</v>
+      </c>
+      <c r="P217" s="5">
+        <v>597.85599999999988</v>
+      </c>
+      <c r="Q217" s="5">
+        <v>377.92500000000001</v>
+      </c>
+      <c r="R217" s="5">
+        <v>182.834</v>
+      </c>
+      <c r="S217" s="5">
+        <v>160.904</v>
+      </c>
+      <c r="T217" s="5">
+        <v>66.114999999999995</v>
+      </c>
+      <c r="U217" s="5">
+        <v>66.164999999999992</v>
+      </c>
+      <c r="V217" s="5">
+        <v>55.460999999999999</v>
+      </c>
+      <c r="W217" s="5">
+        <v>0</v>
+      </c>
+      <c r="X217" s="5">
+        <v>94.836999999999989</v>
+      </c>
+      <c r="Y217" s="5">
+        <v>18.171999999999997</v>
+      </c>
+      <c r="Z217" s="5">
+        <v>19.501000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A218" s="3">
+        <v>46009</v>
+      </c>
+      <c r="B218" t="s">
+        <v>26</v>
+      </c>
+      <c r="C218" s="5">
+        <v>565.22400000000005</v>
+      </c>
+      <c r="D218" s="5">
+        <v>891.78099999999995</v>
+      </c>
+      <c r="E218" s="5">
+        <v>254.97</v>
+      </c>
+      <c r="F218" s="5">
+        <v>432.74</v>
+      </c>
+      <c r="G218" s="5">
+        <v>325.45400000000001</v>
+      </c>
+      <c r="H218" s="5">
+        <v>520.52099999999996</v>
+      </c>
+      <c r="I218" s="5">
+        <v>419.73</v>
+      </c>
+      <c r="J218" s="5">
+        <v>196.79899999999998</v>
+      </c>
+      <c r="K218" s="5">
+        <v>25.880000000000003</v>
+      </c>
+      <c r="L218" s="5">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="M218" s="5">
+        <v>227.78299999999999</v>
+      </c>
+      <c r="N218" s="5">
+        <v>187.27799999999999</v>
+      </c>
+      <c r="O218" s="5">
+        <v>700.53400000000011</v>
+      </c>
+      <c r="P218" s="5">
+        <v>1594.0129999999999</v>
+      </c>
+      <c r="Q218" s="5">
+        <v>413.12</v>
+      </c>
+      <c r="R218" s="5">
+        <v>476.01300000000003</v>
+      </c>
+      <c r="S218" s="5">
+        <v>368.11800000000005</v>
+      </c>
+      <c r="T218" s="5">
+        <v>154.535</v>
+      </c>
+      <c r="U218" s="5">
+        <v>20.57</v>
+      </c>
+      <c r="V218" s="5">
+        <v>27.531999999999996</v>
+      </c>
+      <c r="W218" s="5">
+        <v>230.04999999999998</v>
+      </c>
+      <c r="X218" s="5">
+        <v>66.62</v>
+      </c>
+      <c r="Y218" s="5">
+        <v>58.73</v>
+      </c>
+      <c r="Z218" s="5">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A219" s="3">
+        <v>46009</v>
+      </c>
+      <c r="B219" t="s">
+        <v>27</v>
+      </c>
+      <c r="C219" s="5">
+        <v>312.73700000000002</v>
+      </c>
+      <c r="D219" s="5">
+        <v>439.03300000000002</v>
+      </c>
+      <c r="E219" s="5">
+        <v>53.146000000000001</v>
+      </c>
+      <c r="F219" s="5">
+        <v>131.03100000000001</v>
+      </c>
+      <c r="G219" s="5">
+        <v>20.609000000000002</v>
+      </c>
+      <c r="H219" s="5">
+        <v>91.194999999999993</v>
+      </c>
+      <c r="I219" s="5">
+        <v>263.75299999999999</v>
+      </c>
+      <c r="J219" s="5">
+        <v>177.23400000000001</v>
+      </c>
+      <c r="K219" s="5">
+        <v>98.015000000000001</v>
+      </c>
+      <c r="L219" s="5">
+        <v>199.70200000000003</v>
+      </c>
+      <c r="M219" s="5">
+        <v>242.45800000000003</v>
+      </c>
+      <c r="N219" s="5">
+        <v>297.16899999999993</v>
+      </c>
+      <c r="O219" s="5">
+        <v>320.98999999999995</v>
+      </c>
+      <c r="P219" s="5">
+        <v>620.17100000000005</v>
+      </c>
+      <c r="Q219" s="5">
+        <v>249.60900000000004</v>
+      </c>
+      <c r="R219" s="5">
+        <v>95.319000000000017</v>
+      </c>
+      <c r="S219" s="5">
+        <v>256.31399999999996</v>
+      </c>
+      <c r="T219" s="5">
+        <v>328.18799999999999</v>
+      </c>
+      <c r="U219" s="5">
+        <v>51.202999999999996</v>
+      </c>
+      <c r="V219" s="5">
+        <v>0</v>
+      </c>
+      <c r="W219" s="5">
+        <v>0</v>
+      </c>
+      <c r="X219" s="5">
+        <v>67.262</v>
+      </c>
+      <c r="Y219" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z219" s="5">
+        <v>23.422000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z219"/>
+  <dimension ref="A1:Z221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+      <selection activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18011,6 +18011,166 @@
         <v>23.422000000000001</v>
       </c>
     </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A220" s="3">
+        <v>46010</v>
+      </c>
+      <c r="B220" t="s">
+        <v>26</v>
+      </c>
+      <c r="C220" s="5">
+        <v>462.14299999999997</v>
+      </c>
+      <c r="D220" s="5">
+        <v>809.52400000000011</v>
+      </c>
+      <c r="E220" s="5">
+        <v>492.37100000000004</v>
+      </c>
+      <c r="F220" s="5">
+        <v>451.65600000000001</v>
+      </c>
+      <c r="G220" s="5">
+        <v>313.41800000000001</v>
+      </c>
+      <c r="H220" s="5">
+        <v>577.86099999999999</v>
+      </c>
+      <c r="I220" s="5">
+        <v>513.57100000000003</v>
+      </c>
+      <c r="J220" s="5">
+        <v>106.70700000000001</v>
+      </c>
+      <c r="K220" s="5">
+        <v>51.999000000000002</v>
+      </c>
+      <c r="L220" s="5">
+        <v>117.25</v>
+      </c>
+      <c r="M220" s="5">
+        <v>108.19799999999999</v>
+      </c>
+      <c r="N220" s="5">
+        <v>205.06</v>
+      </c>
+      <c r="O220" s="5">
+        <v>739.64200000000005</v>
+      </c>
+      <c r="P220" s="5">
+        <v>1442.048</v>
+      </c>
+      <c r="Q220" s="5">
+        <v>344.50000000000006</v>
+      </c>
+      <c r="R220" s="5">
+        <v>537.75200000000007</v>
+      </c>
+      <c r="S220" s="5">
+        <v>335.05500000000001</v>
+      </c>
+      <c r="T220" s="5">
+        <v>249.58199999999999</v>
+      </c>
+      <c r="U220" s="5">
+        <v>115.15600000000001</v>
+      </c>
+      <c r="V220" s="5">
+        <v>158.63999999999999</v>
+      </c>
+      <c r="W220" s="5">
+        <v>51.040000000000006</v>
+      </c>
+      <c r="X220" s="5">
+        <v>35.06</v>
+      </c>
+      <c r="Y220" s="5">
+        <v>26.88</v>
+      </c>
+      <c r="Z220" s="5">
+        <v>13.989000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A221" s="3">
+        <v>46010</v>
+      </c>
+      <c r="B221" t="s">
+        <v>27</v>
+      </c>
+      <c r="C221" s="5">
+        <v>598.18299999999999</v>
+      </c>
+      <c r="D221" s="5">
+        <v>468.22199999999998</v>
+      </c>
+      <c r="E221" s="5">
+        <v>185.35300000000001</v>
+      </c>
+      <c r="F221" s="5">
+        <v>80.516000000000005</v>
+      </c>
+      <c r="G221" s="5">
+        <v>110.673</v>
+      </c>
+      <c r="H221" s="5">
+        <v>303.06</v>
+      </c>
+      <c r="I221" s="5">
+        <v>267.48500000000001</v>
+      </c>
+      <c r="J221" s="5">
+        <v>107.94800000000001</v>
+      </c>
+      <c r="K221" s="5">
+        <v>111.04700000000001</v>
+      </c>
+      <c r="L221" s="5">
+        <v>222.846</v>
+      </c>
+      <c r="M221" s="5">
+        <v>152.62300000000002</v>
+      </c>
+      <c r="N221" s="5">
+        <v>281.06099999999998</v>
+      </c>
+      <c r="O221" s="5">
+        <v>486.05999999999995</v>
+      </c>
+      <c r="P221" s="5">
+        <v>564.48400000000004</v>
+      </c>
+      <c r="Q221" s="5">
+        <v>342.64800000000008</v>
+      </c>
+      <c r="R221" s="5">
+        <v>179.48899999999998</v>
+      </c>
+      <c r="S221" s="5">
+        <v>80.070999999999998</v>
+      </c>
+      <c r="T221" s="5">
+        <v>17.343</v>
+      </c>
+      <c r="U221" s="5">
+        <v>9.8439999999999994</v>
+      </c>
+      <c r="V221" s="5">
+        <v>59.671999999999997</v>
+      </c>
+      <c r="W221" s="5">
+        <v>143.68699999999998</v>
+      </c>
+      <c r="X221" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y221" s="5">
+        <v>28.977</v>
+      </c>
+      <c r="Z221" s="5">
+        <v>112.248</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z221"/>
+  <dimension ref="A1:Z225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="F224" sqref="F224"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18171,6 +18171,326 @@
         <v>112.248</v>
       </c>
     </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A222" s="3">
+        <v>46011</v>
+      </c>
+      <c r="B222" t="s">
+        <v>26</v>
+      </c>
+      <c r="C222" s="5">
+        <v>738.42200000000014</v>
+      </c>
+      <c r="D222" s="5">
+        <v>1192.8929999999998</v>
+      </c>
+      <c r="E222" s="5">
+        <v>342.24</v>
+      </c>
+      <c r="F222" s="5">
+        <v>349.19800000000004</v>
+      </c>
+      <c r="G222" s="5">
+        <v>358.55</v>
+      </c>
+      <c r="H222" s="5">
+        <v>571.59299999999996</v>
+      </c>
+      <c r="I222" s="5">
+        <v>196.892</v>
+      </c>
+      <c r="J222" s="5">
+        <v>140.143</v>
+      </c>
+      <c r="K222" s="5">
+        <v>65.59</v>
+      </c>
+      <c r="L222" s="5">
+        <v>98</v>
+      </c>
+      <c r="M222" s="5">
+        <v>78.330000000000013</v>
+      </c>
+      <c r="N222" s="5">
+        <v>317.072</v>
+      </c>
+      <c r="O222" s="5">
+        <v>489.29699999999997</v>
+      </c>
+      <c r="P222" s="5">
+        <v>1091.0220000000002</v>
+      </c>
+      <c r="Q222" s="5">
+        <v>420.45699999999999</v>
+      </c>
+      <c r="R222" s="5">
+        <v>491.32</v>
+      </c>
+      <c r="S222" s="5">
+        <v>283.803</v>
+      </c>
+      <c r="T222" s="5">
+        <v>169.42099999999999</v>
+      </c>
+      <c r="U222" s="5">
+        <v>53.608999999999995</v>
+      </c>
+      <c r="V222" s="5">
+        <v>73.348000000000013</v>
+      </c>
+      <c r="W222" s="5">
+        <v>212.55199999999996</v>
+      </c>
+      <c r="X222" s="5">
+        <v>14.12</v>
+      </c>
+      <c r="Y222" s="5">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="Z222" s="5">
+        <v>6.04</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A223" s="3">
+        <v>46011</v>
+      </c>
+      <c r="B223" t="s">
+        <v>27</v>
+      </c>
+      <c r="C223" s="5">
+        <v>339.21600000000001</v>
+      </c>
+      <c r="D223" s="5">
+        <v>385.84699999999998</v>
+      </c>
+      <c r="E223" s="5">
+        <v>101.503</v>
+      </c>
+      <c r="F223" s="5">
+        <v>43.39</v>
+      </c>
+      <c r="G223" s="5">
+        <v>59.664999999999992</v>
+      </c>
+      <c r="H223" s="5">
+        <v>193.81299999999999</v>
+      </c>
+      <c r="I223" s="5">
+        <v>71.132999999999996</v>
+      </c>
+      <c r="J223" s="5">
+        <v>127.31899999999999</v>
+      </c>
+      <c r="K223" s="5">
+        <v>197.911</v>
+      </c>
+      <c r="L223" s="5">
+        <v>103.24600000000001</v>
+      </c>
+      <c r="M223" s="5">
+        <v>58.265999999999998</v>
+      </c>
+      <c r="N223" s="5">
+        <v>213.904</v>
+      </c>
+      <c r="O223" s="5">
+        <v>643.09899999999993</v>
+      </c>
+      <c r="P223" s="5">
+        <v>539.68200000000002</v>
+      </c>
+      <c r="Q223" s="5">
+        <v>170.53</v>
+      </c>
+      <c r="R223" s="5">
+        <v>349.88500000000005</v>
+      </c>
+      <c r="S223" s="5">
+        <v>211.16800000000001</v>
+      </c>
+      <c r="T223" s="5">
+        <v>303.64400000000001</v>
+      </c>
+      <c r="U223" s="5">
+        <v>54.347999999999999</v>
+      </c>
+      <c r="V223" s="5">
+        <v>69.923000000000002</v>
+      </c>
+      <c r="W223" s="5">
+        <v>47.854999999999997</v>
+      </c>
+      <c r="X223" s="5">
+        <v>26.902999999999999</v>
+      </c>
+      <c r="Y223" s="5">
+        <v>58.808</v>
+      </c>
+      <c r="Z223" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A224" s="3">
+        <v>46012</v>
+      </c>
+      <c r="B224" t="s">
+        <v>26</v>
+      </c>
+      <c r="C224" s="5">
+        <v>634.08500000000004</v>
+      </c>
+      <c r="D224" s="5">
+        <v>1174.76</v>
+      </c>
+      <c r="E224" s="5">
+        <v>469.85599999999999</v>
+      </c>
+      <c r="F224" s="5">
+        <v>432.012</v>
+      </c>
+      <c r="G224" s="5">
+        <v>295.95999999999998</v>
+      </c>
+      <c r="H224" s="5">
+        <v>523.94000000000005</v>
+      </c>
+      <c r="I224" s="5">
+        <v>411.51299999999998</v>
+      </c>
+      <c r="J224" s="5">
+        <v>122.46499999999999</v>
+      </c>
+      <c r="K224" s="5">
+        <v>239.99299999999999</v>
+      </c>
+      <c r="L224" s="5">
+        <v>230.91</v>
+      </c>
+      <c r="M224" s="5">
+        <v>189.822</v>
+      </c>
+      <c r="N224" s="5">
+        <v>250.99099999999999</v>
+      </c>
+      <c r="O224" s="5">
+        <v>559.76799999999992</v>
+      </c>
+      <c r="P224" s="5">
+        <v>1191.6080000000002</v>
+      </c>
+      <c r="Q224" s="5">
+        <v>492.6049999999999</v>
+      </c>
+      <c r="R224" s="5">
+        <v>600.24900000000014</v>
+      </c>
+      <c r="S224" s="5">
+        <v>563.41399999999987</v>
+      </c>
+      <c r="T224" s="5">
+        <v>128.232</v>
+      </c>
+      <c r="U224" s="5">
+        <v>176.84999999999997</v>
+      </c>
+      <c r="V224" s="5">
+        <v>162.66000000000003</v>
+      </c>
+      <c r="W224" s="5">
+        <v>105.87</v>
+      </c>
+      <c r="X224" s="5">
+        <v>30.25</v>
+      </c>
+      <c r="Y224" s="5">
+        <v>47.7</v>
+      </c>
+      <c r="Z224" s="5">
+        <v>115.33</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A225" s="3">
+        <v>46012</v>
+      </c>
+      <c r="B225" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225" s="5">
+        <v>567.57199999999989</v>
+      </c>
+      <c r="D225" s="5">
+        <v>503.05400000000003</v>
+      </c>
+      <c r="E225" s="5">
+        <v>350.964</v>
+      </c>
+      <c r="F225" s="5">
+        <v>125.53100000000001</v>
+      </c>
+      <c r="G225" s="5">
+        <v>0</v>
+      </c>
+      <c r="H225" s="5">
+        <v>72.586000000000013</v>
+      </c>
+      <c r="I225" s="5">
+        <v>65.852000000000004</v>
+      </c>
+      <c r="J225" s="5">
+        <v>98.063999999999993</v>
+      </c>
+      <c r="K225" s="5">
+        <v>95.123000000000005</v>
+      </c>
+      <c r="L225" s="5">
+        <v>233.97499999999999</v>
+      </c>
+      <c r="M225" s="5">
+        <v>168.14099999999999</v>
+      </c>
+      <c r="N225" s="5">
+        <v>491.94099999999992</v>
+      </c>
+      <c r="O225" s="5">
+        <v>441.12199999999996</v>
+      </c>
+      <c r="P225" s="5">
+        <v>615.82999999999993</v>
+      </c>
+      <c r="Q225" s="5">
+        <v>237.38199999999998</v>
+      </c>
+      <c r="R225" s="5">
+        <v>114.78299999999999</v>
+      </c>
+      <c r="S225" s="5">
+        <v>114.607</v>
+      </c>
+      <c r="T225" s="5">
+        <v>87.84</v>
+      </c>
+      <c r="U225" s="5">
+        <v>66.484000000000009</v>
+      </c>
+      <c r="V225" s="5">
+        <v>76.557999999999993</v>
+      </c>
+      <c r="W225" s="5">
+        <v>0</v>
+      </c>
+      <c r="X225" s="5">
+        <v>124.25</v>
+      </c>
+      <c r="Y225" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z225" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z225"/>
+  <dimension ref="A1:Z227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228"/>
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18491,6 +18491,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A226" s="3">
+        <v>46013</v>
+      </c>
+      <c r="B226" t="s">
+        <v>26</v>
+      </c>
+      <c r="C226" s="5">
+        <v>426.82499999999999</v>
+      </c>
+      <c r="D226" s="5">
+        <v>1283.1209999999999</v>
+      </c>
+      <c r="E226" s="5">
+        <v>137.17999999999998</v>
+      </c>
+      <c r="F226" s="5">
+        <v>300.86500000000001</v>
+      </c>
+      <c r="G226" s="5">
+        <v>426.52</v>
+      </c>
+      <c r="H226" s="5">
+        <v>675.96299999999997</v>
+      </c>
+      <c r="I226" s="5">
+        <v>313.71000000000004</v>
+      </c>
+      <c r="J226" s="5">
+        <v>110.84199999999998</v>
+      </c>
+      <c r="K226" s="5">
+        <v>211.77199999999996</v>
+      </c>
+      <c r="L226" s="5">
+        <v>139.92400000000001</v>
+      </c>
+      <c r="M226" s="5">
+        <v>256.05399999999997</v>
+      </c>
+      <c r="N226" s="5">
+        <v>210.53199999999998</v>
+      </c>
+      <c r="O226" s="5">
+        <v>703.25099999999986</v>
+      </c>
+      <c r="P226" s="5">
+        <v>1472.6900000000005</v>
+      </c>
+      <c r="Q226" s="5">
+        <v>548.76400000000001</v>
+      </c>
+      <c r="R226" s="5">
+        <v>417.79999999999995</v>
+      </c>
+      <c r="S226" s="5">
+        <v>467.30100000000004</v>
+      </c>
+      <c r="T226" s="5">
+        <v>236.63700000000003</v>
+      </c>
+      <c r="U226" s="5">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="V226" s="5">
+        <v>66.37</v>
+      </c>
+      <c r="W226" s="5">
+        <v>78.34</v>
+      </c>
+      <c r="X226" s="5">
+        <v>93.34</v>
+      </c>
+      <c r="Y226" s="5">
+        <v>16.14</v>
+      </c>
+      <c r="Z226" s="5">
+        <v>239.1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A227" s="3">
+        <v>46013</v>
+      </c>
+      <c r="B227" t="s">
+        <v>27</v>
+      </c>
+      <c r="C227" s="5">
+        <v>501.12100000000004</v>
+      </c>
+      <c r="D227" s="5">
+        <v>513.52299999999991</v>
+      </c>
+      <c r="E227" s="5">
+        <v>217.05600000000001</v>
+      </c>
+      <c r="F227" s="5">
+        <v>156.91500000000002</v>
+      </c>
+      <c r="G227" s="5">
+        <v>57.558</v>
+      </c>
+      <c r="H227" s="5">
+        <v>80.929999999999993</v>
+      </c>
+      <c r="I227" s="5">
+        <v>140.30099999999999</v>
+      </c>
+      <c r="J227" s="5">
+        <v>138.613</v>
+      </c>
+      <c r="K227" s="5">
+        <v>324.32499999999999</v>
+      </c>
+      <c r="L227" s="5">
+        <v>674.80000000000007</v>
+      </c>
+      <c r="M227" s="5">
+        <v>359.18800000000005</v>
+      </c>
+      <c r="N227" s="5">
+        <v>231.084</v>
+      </c>
+      <c r="O227" s="5">
+        <v>456.56600000000003</v>
+      </c>
+      <c r="P227" s="5">
+        <v>460.14699999999999</v>
+      </c>
+      <c r="Q227" s="5">
+        <v>239.584</v>
+      </c>
+      <c r="R227" s="5">
+        <v>366.45599999999996</v>
+      </c>
+      <c r="S227" s="5">
+        <v>301.89200000000005</v>
+      </c>
+      <c r="T227" s="5">
+        <v>191.81800000000001</v>
+      </c>
+      <c r="U227" s="5">
+        <v>78.195999999999998</v>
+      </c>
+      <c r="V227" s="5">
+        <v>22.727</v>
+      </c>
+      <c r="W227" s="5">
+        <v>28.968</v>
+      </c>
+      <c r="X227" s="5">
+        <v>58.71</v>
+      </c>
+      <c r="Y227" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z227" s="5">
+        <v>20.977</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z227"/>
+  <dimension ref="A1:Z229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+      <selection activeCell="F234" sqref="F234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18651,6 +18651,166 @@
         <v>20.977</v>
       </c>
     </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A228" s="3">
+        <v>46014</v>
+      </c>
+      <c r="B228" t="s">
+        <v>26</v>
+      </c>
+      <c r="C228" s="5">
+        <v>660.22500000000014</v>
+      </c>
+      <c r="D228" s="5">
+        <v>1125.2740000000003</v>
+      </c>
+      <c r="E228" s="5">
+        <v>220.76999999999998</v>
+      </c>
+      <c r="F228" s="5">
+        <v>324.60000000000002</v>
+      </c>
+      <c r="G228" s="5">
+        <v>301.14800000000002</v>
+      </c>
+      <c r="H228" s="5">
+        <v>415.32699999999994</v>
+      </c>
+      <c r="I228" s="5">
+        <v>391.97700000000003</v>
+      </c>
+      <c r="J228" s="5">
+        <v>96.869</v>
+      </c>
+      <c r="K228" s="5">
+        <v>132.26</v>
+      </c>
+      <c r="L228" s="5">
+        <v>114.78</v>
+      </c>
+      <c r="M228" s="5">
+        <v>94.63300000000001</v>
+      </c>
+      <c r="N228" s="5">
+        <v>240.46899999999999</v>
+      </c>
+      <c r="O228" s="5">
+        <v>711.42700000000002</v>
+      </c>
+      <c r="P228" s="5">
+        <v>1534.2179999999998</v>
+      </c>
+      <c r="Q228" s="5">
+        <v>698.96799999999996</v>
+      </c>
+      <c r="R228" s="5">
+        <v>538.803</v>
+      </c>
+      <c r="S228" s="5">
+        <v>402.95600000000002</v>
+      </c>
+      <c r="T228" s="5">
+        <v>285.35199999999998</v>
+      </c>
+      <c r="U228" s="5">
+        <v>223.28500000000003</v>
+      </c>
+      <c r="V228" s="5">
+        <v>105.53400000000001</v>
+      </c>
+      <c r="W228" s="5">
+        <v>61.819999999999993</v>
+      </c>
+      <c r="X228" s="5">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="Y228" s="5">
+        <v>28.86</v>
+      </c>
+      <c r="Z228" s="5">
+        <v>10.399999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A229" s="3">
+        <v>46014</v>
+      </c>
+      <c r="B229" t="s">
+        <v>27</v>
+      </c>
+      <c r="C229" s="5">
+        <v>493.17799999999994</v>
+      </c>
+      <c r="D229" s="5">
+        <v>351.49099999999999</v>
+      </c>
+      <c r="E229" s="5">
+        <v>199.298</v>
+      </c>
+      <c r="F229" s="5">
+        <v>82.570999999999998</v>
+      </c>
+      <c r="G229" s="5">
+        <v>51.161999999999999</v>
+      </c>
+      <c r="H229" s="5">
+        <v>240.96800000000002</v>
+      </c>
+      <c r="I229" s="5">
+        <v>161.767</v>
+      </c>
+      <c r="J229" s="5">
+        <v>176.07900000000001</v>
+      </c>
+      <c r="K229" s="5">
+        <v>244.619</v>
+      </c>
+      <c r="L229" s="5">
+        <v>208.517</v>
+      </c>
+      <c r="M229" s="5">
+        <v>101.127</v>
+      </c>
+      <c r="N229" s="5">
+        <v>109.503</v>
+      </c>
+      <c r="O229" s="5">
+        <v>479.54</v>
+      </c>
+      <c r="P229" s="5">
+        <v>600.19400000000007</v>
+      </c>
+      <c r="Q229" s="5">
+        <v>328.94099999999997</v>
+      </c>
+      <c r="R229" s="5">
+        <v>471.81600000000009</v>
+      </c>
+      <c r="S229" s="5">
+        <v>151.59899999999996</v>
+      </c>
+      <c r="T229" s="5">
+        <v>202.62899999999999</v>
+      </c>
+      <c r="U229" s="5">
+        <v>90.661000000000001</v>
+      </c>
+      <c r="V229" s="5">
+        <v>28.053000000000001</v>
+      </c>
+      <c r="W229" s="5">
+        <v>34.148000000000003</v>
+      </c>
+      <c r="X229" s="5">
+        <v>130.64400000000001</v>
+      </c>
+      <c r="Y229" s="5">
+        <v>78.378999999999991</v>
+      </c>
+      <c r="Z229" s="5">
+        <v>57.351999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z229"/>
+  <dimension ref="A1:Z231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="F234" sqref="F234"/>
+      <selection activeCell="I241" sqref="I241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18811,6 +18811,166 @@
         <v>57.351999999999997</v>
       </c>
     </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A230" s="3">
+        <v>46015</v>
+      </c>
+      <c r="B230" t="s">
+        <v>26</v>
+      </c>
+      <c r="C230" s="5">
+        <v>557.87100000000009</v>
+      </c>
+      <c r="D230" s="5">
+        <v>1417.4389999999999</v>
+      </c>
+      <c r="E230" s="5">
+        <v>621.85299999999995</v>
+      </c>
+      <c r="F230" s="5">
+        <v>415.34</v>
+      </c>
+      <c r="G230" s="5">
+        <v>372.91700000000003</v>
+      </c>
+      <c r="H230" s="5">
+        <v>226.00899999999999</v>
+      </c>
+      <c r="I230" s="5">
+        <v>503.53699999999998</v>
+      </c>
+      <c r="J230" s="5">
+        <v>202.476</v>
+      </c>
+      <c r="K230" s="5">
+        <v>175.322</v>
+      </c>
+      <c r="L230" s="5">
+        <v>114.69999999999999</v>
+      </c>
+      <c r="M230" s="5">
+        <v>102.76</v>
+      </c>
+      <c r="N230" s="5">
+        <v>317.96300000000002</v>
+      </c>
+      <c r="O230" s="5">
+        <v>924.03100000000006</v>
+      </c>
+      <c r="P230" s="5">
+        <v>1729.7050000000002</v>
+      </c>
+      <c r="Q230" s="5">
+        <v>993.48800000000028</v>
+      </c>
+      <c r="R230" s="5">
+        <v>551.33400000000006</v>
+      </c>
+      <c r="S230" s="5">
+        <v>616.74599999999998</v>
+      </c>
+      <c r="T230" s="5">
+        <v>198.61500000000001</v>
+      </c>
+      <c r="U230" s="5">
+        <v>187.42100000000002</v>
+      </c>
+      <c r="V230" s="5">
+        <v>94.025000000000006</v>
+      </c>
+      <c r="W230" s="5">
+        <v>166.12</v>
+      </c>
+      <c r="X230" s="5">
+        <v>30.66</v>
+      </c>
+      <c r="Y230" s="5">
+        <v>167.64000000000001</v>
+      </c>
+      <c r="Z230" s="5">
+        <v>66.320000000000007</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A231" s="3">
+        <v>46015</v>
+      </c>
+      <c r="B231" t="s">
+        <v>27</v>
+      </c>
+      <c r="C231" s="5">
+        <v>554.36900000000003</v>
+      </c>
+      <c r="D231" s="5">
+        <v>354.06400000000002</v>
+      </c>
+      <c r="E231" s="5">
+        <v>12.117000000000001</v>
+      </c>
+      <c r="F231" s="5">
+        <v>0</v>
+      </c>
+      <c r="G231" s="5">
+        <v>15.438000000000001</v>
+      </c>
+      <c r="H231" s="5">
+        <v>126.429</v>
+      </c>
+      <c r="I231" s="5">
+        <v>242.47399999999999</v>
+      </c>
+      <c r="J231" s="5">
+        <v>133.37400000000002</v>
+      </c>
+      <c r="K231" s="5">
+        <v>180.565</v>
+      </c>
+      <c r="L231" s="5">
+        <v>277.19200000000001</v>
+      </c>
+      <c r="M231" s="5">
+        <v>407.06500000000005</v>
+      </c>
+      <c r="N231" s="5">
+        <v>203.46700000000001</v>
+      </c>
+      <c r="O231" s="5">
+        <v>411.78200000000004</v>
+      </c>
+      <c r="P231" s="5">
+        <v>881.14099999999996</v>
+      </c>
+      <c r="Q231" s="5">
+        <v>425.76599999999996</v>
+      </c>
+      <c r="R231" s="5">
+        <v>204.3</v>
+      </c>
+      <c r="S231" s="5">
+        <v>237.767</v>
+      </c>
+      <c r="T231" s="5">
+        <v>188.881</v>
+      </c>
+      <c r="U231" s="5">
+        <v>66.016999999999996</v>
+      </c>
+      <c r="V231" s="5">
+        <v>9.5039999999999996</v>
+      </c>
+      <c r="W231" s="5">
+        <v>58.122</v>
+      </c>
+      <c r="X231" s="5">
+        <v>125.72900000000001</v>
+      </c>
+      <c r="Y231" s="5">
+        <v>18.835999999999999</v>
+      </c>
+      <c r="Z231" s="5">
+        <v>13.531000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z231"/>
+  <dimension ref="A1:Z233"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="I241" sqref="I241"/>
+      <selection activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18971,6 +18971,166 @@
         <v>13.531000000000001</v>
       </c>
     </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A232" s="3">
+        <v>46016</v>
+      </c>
+      <c r="B232" t="s">
+        <v>26</v>
+      </c>
+      <c r="C232" s="5">
+        <v>781.07599999999979</v>
+      </c>
+      <c r="D232" s="5">
+        <v>1418.9070000000004</v>
+      </c>
+      <c r="E232" s="5">
+        <v>730.38200000000006</v>
+      </c>
+      <c r="F232" s="5">
+        <v>395.37</v>
+      </c>
+      <c r="G232" s="5">
+        <v>351.47200000000004</v>
+      </c>
+      <c r="H232" s="5">
+        <v>416.73699999999997</v>
+      </c>
+      <c r="I232" s="5">
+        <v>669.17100000000005</v>
+      </c>
+      <c r="J232" s="5">
+        <v>177.27100000000002</v>
+      </c>
+      <c r="K232" s="5">
+        <v>65.671999999999997</v>
+      </c>
+      <c r="L232" s="5">
+        <v>236.37</v>
+      </c>
+      <c r="M232" s="5">
+        <v>239.88</v>
+      </c>
+      <c r="N232" s="5">
+        <v>211.05599999999998</v>
+      </c>
+      <c r="O232" s="5">
+        <v>855.13100000000009</v>
+      </c>
+      <c r="P232" s="5">
+        <v>1876.0309999999999</v>
+      </c>
+      <c r="Q232" s="5">
+        <v>712.76300000000015</v>
+      </c>
+      <c r="R232" s="5">
+        <v>317.80700000000002</v>
+      </c>
+      <c r="S232" s="5">
+        <v>354.11599999999999</v>
+      </c>
+      <c r="T232" s="5">
+        <v>257.46999999999997</v>
+      </c>
+      <c r="U232" s="5">
+        <v>126.59</v>
+      </c>
+      <c r="V232" s="5">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="W232" s="5">
+        <v>16.3</v>
+      </c>
+      <c r="X232" s="5">
+        <v>94.9</v>
+      </c>
+      <c r="Y232" s="5">
+        <v>58.879999999999995</v>
+      </c>
+      <c r="Z232" s="5">
+        <v>48.22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A233" s="3">
+        <v>46016</v>
+      </c>
+      <c r="B233" t="s">
+        <v>27</v>
+      </c>
+      <c r="C233" s="5">
+        <v>441.74900000000002</v>
+      </c>
+      <c r="D233" s="5">
+        <v>773.73900000000003</v>
+      </c>
+      <c r="E233" s="5">
+        <v>161.25</v>
+      </c>
+      <c r="F233" s="5">
+        <v>73</v>
+      </c>
+      <c r="G233" s="5">
+        <v>52.140999999999998</v>
+      </c>
+      <c r="H233" s="5">
+        <v>212.02400000000003</v>
+      </c>
+      <c r="I233" s="5">
+        <v>219.94200000000004</v>
+      </c>
+      <c r="J233" s="5">
+        <v>93.203000000000003</v>
+      </c>
+      <c r="K233" s="5">
+        <v>190.34099999999998</v>
+      </c>
+      <c r="L233" s="5">
+        <v>174.60900000000001</v>
+      </c>
+      <c r="M233" s="5">
+        <v>118.94199999999999</v>
+      </c>
+      <c r="N233" s="5">
+        <v>400.93</v>
+      </c>
+      <c r="O233" s="5">
+        <v>607.96800000000007</v>
+      </c>
+      <c r="P233" s="5">
+        <v>868.86400000000003</v>
+      </c>
+      <c r="Q233" s="5">
+        <v>358.39899999999994</v>
+      </c>
+      <c r="R233" s="5">
+        <v>309.68000000000006</v>
+      </c>
+      <c r="S233" s="5">
+        <v>416.54899999999998</v>
+      </c>
+      <c r="T233" s="5">
+        <v>436.66300000000001</v>
+      </c>
+      <c r="U233" s="5">
+        <v>444.137</v>
+      </c>
+      <c r="V233" s="5">
+        <v>5.32</v>
+      </c>
+      <c r="W233" s="5">
+        <v>45.503999999999998</v>
+      </c>
+      <c r="X233" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y233" s="5">
+        <v>87.043999999999997</v>
+      </c>
+      <c r="Z233" s="5">
+        <v>48.302</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z233"/>
+  <dimension ref="A1:Z235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="D237" sqref="D237"/>
+      <selection activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19131,6 +19131,166 @@
         <v>48.302</v>
       </c>
     </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A234" s="3">
+        <v>46017</v>
+      </c>
+      <c r="B234" t="s">
+        <v>26</v>
+      </c>
+      <c r="C234" s="5">
+        <v>362.87900000000002</v>
+      </c>
+      <c r="D234" s="5">
+        <v>1562.0520000000001</v>
+      </c>
+      <c r="E234" s="5">
+        <v>621.37900000000002</v>
+      </c>
+      <c r="F234" s="5">
+        <v>436.90500000000009</v>
+      </c>
+      <c r="G234" s="5">
+        <v>304.26599999999996</v>
+      </c>
+      <c r="H234" s="5">
+        <v>602.08799999999997</v>
+      </c>
+      <c r="I234" s="5">
+        <v>625.80499999999995</v>
+      </c>
+      <c r="J234" s="5">
+        <v>137.27699999999999</v>
+      </c>
+      <c r="K234" s="5">
+        <v>159.244</v>
+      </c>
+      <c r="L234" s="5">
+        <v>119.23400000000001</v>
+      </c>
+      <c r="M234" s="5">
+        <v>341.90199999999999</v>
+      </c>
+      <c r="N234" s="5">
+        <v>345.79300000000001</v>
+      </c>
+      <c r="O234" s="5">
+        <v>791.89400000000001</v>
+      </c>
+      <c r="P234" s="5">
+        <v>1748.6379999999999</v>
+      </c>
+      <c r="Q234" s="5">
+        <v>493.95399999999995</v>
+      </c>
+      <c r="R234" s="5">
+        <v>551.00400000000002</v>
+      </c>
+      <c r="S234" s="5">
+        <v>416.86700000000002</v>
+      </c>
+      <c r="T234" s="5">
+        <v>270.48900000000003</v>
+      </c>
+      <c r="U234" s="5">
+        <v>114.94</v>
+      </c>
+      <c r="V234" s="5">
+        <v>83.844999999999999</v>
+      </c>
+      <c r="W234" s="5">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="X234" s="5">
+        <v>101.68</v>
+      </c>
+      <c r="Y234" s="5">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="Z234" s="5">
+        <v>182.44</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A235" s="3">
+        <v>46017</v>
+      </c>
+      <c r="B235" t="s">
+        <v>27</v>
+      </c>
+      <c r="C235" s="5">
+        <v>388.74099999999999</v>
+      </c>
+      <c r="D235" s="5">
+        <v>713.51200000000006</v>
+      </c>
+      <c r="E235" s="5">
+        <v>157.67599999999999</v>
+      </c>
+      <c r="F235" s="5">
+        <v>111.91499999999999</v>
+      </c>
+      <c r="G235" s="5">
+        <v>74.661000000000001</v>
+      </c>
+      <c r="H235" s="5">
+        <v>43.125</v>
+      </c>
+      <c r="I235" s="5">
+        <v>313.41399999999999</v>
+      </c>
+      <c r="J235" s="5">
+        <v>135.65299999999999</v>
+      </c>
+      <c r="K235" s="5">
+        <v>255.39400000000001</v>
+      </c>
+      <c r="L235" s="5">
+        <v>178.852</v>
+      </c>
+      <c r="M235" s="5">
+        <v>323.30500000000001</v>
+      </c>
+      <c r="N235" s="5">
+        <v>215.22499999999997</v>
+      </c>
+      <c r="O235" s="5">
+        <v>608.0200000000001</v>
+      </c>
+      <c r="P235" s="5">
+        <v>905.92600000000004</v>
+      </c>
+      <c r="Q235" s="5">
+        <v>288.53400000000005</v>
+      </c>
+      <c r="R235" s="5">
+        <v>580.17999999999995</v>
+      </c>
+      <c r="S235" s="5">
+        <v>383.971</v>
+      </c>
+      <c r="T235" s="5">
+        <v>70.168000000000006</v>
+      </c>
+      <c r="U235" s="5">
+        <v>98.325000000000003</v>
+      </c>
+      <c r="V235" s="5">
+        <v>37.736000000000004</v>
+      </c>
+      <c r="W235" s="5">
+        <v>96.296999999999997</v>
+      </c>
+      <c r="X235" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y235" s="5">
+        <v>29.749000000000002</v>
+      </c>
+      <c r="Z235" s="5">
+        <v>57.713000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z235"/>
+  <dimension ref="A1:Z237"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C238" sqref="C238"/>
+      <selection activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19291,6 +19291,166 @@
         <v>57.713000000000001</v>
       </c>
     </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A236" s="3">
+        <v>46018</v>
+      </c>
+      <c r="B236" t="s">
+        <v>26</v>
+      </c>
+      <c r="C236" s="5">
+        <v>512.8119999999999</v>
+      </c>
+      <c r="D236" s="5">
+        <v>1381.3259999999998</v>
+      </c>
+      <c r="E236" s="5">
+        <v>546.64400000000001</v>
+      </c>
+      <c r="F236" s="5">
+        <v>646.30200000000002</v>
+      </c>
+      <c r="G236" s="5">
+        <v>392.57100000000003</v>
+      </c>
+      <c r="H236" s="5">
+        <v>499.33899999999994</v>
+      </c>
+      <c r="I236" s="5">
+        <v>355.37100000000004</v>
+      </c>
+      <c r="J236" s="5">
+        <v>150.62400000000002</v>
+      </c>
+      <c r="K236" s="5">
+        <v>214.46700000000001</v>
+      </c>
+      <c r="L236" s="5">
+        <v>73.56</v>
+      </c>
+      <c r="M236" s="5">
+        <v>116.15299999999999</v>
+      </c>
+      <c r="N236" s="5">
+        <v>264.73900000000003</v>
+      </c>
+      <c r="O236" s="5">
+        <v>792.47799999999995</v>
+      </c>
+      <c r="P236" s="5">
+        <v>1388.2740000000006</v>
+      </c>
+      <c r="Q236" s="5">
+        <v>546.33899999999994</v>
+      </c>
+      <c r="R236" s="5">
+        <v>421.21000000000004</v>
+      </c>
+      <c r="S236" s="5">
+        <v>362.33299999999997</v>
+      </c>
+      <c r="T236" s="5">
+        <v>222.46</v>
+      </c>
+      <c r="U236" s="5">
+        <v>142.184</v>
+      </c>
+      <c r="V236" s="5">
+        <v>47.272000000000006</v>
+      </c>
+      <c r="W236" s="5">
+        <v>52.580000000000005</v>
+      </c>
+      <c r="X236" s="5">
+        <v>29.96</v>
+      </c>
+      <c r="Y236" s="5">
+        <v>7.24</v>
+      </c>
+      <c r="Z236" s="5">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A237" s="3">
+        <v>46018</v>
+      </c>
+      <c r="B237" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" s="5">
+        <v>480.334</v>
+      </c>
+      <c r="D237" s="5">
+        <v>422.81899999999996</v>
+      </c>
+      <c r="E237" s="5">
+        <v>359.07299999999992</v>
+      </c>
+      <c r="F237" s="5">
+        <v>165.05600000000001</v>
+      </c>
+      <c r="G237" s="5">
+        <v>135.785</v>
+      </c>
+      <c r="H237" s="5">
+        <v>142.995</v>
+      </c>
+      <c r="I237" s="5">
+        <v>112.53800000000001</v>
+      </c>
+      <c r="J237" s="5">
+        <v>206.17299999999997</v>
+      </c>
+      <c r="K237" s="5">
+        <v>176.261</v>
+      </c>
+      <c r="L237" s="5">
+        <v>280.12600000000003</v>
+      </c>
+      <c r="M237" s="5">
+        <v>116.42699999999999</v>
+      </c>
+      <c r="N237" s="5">
+        <v>343.15499999999997</v>
+      </c>
+      <c r="O237" s="5">
+        <v>432.56700000000001</v>
+      </c>
+      <c r="P237" s="5">
+        <v>564.77700000000004</v>
+      </c>
+      <c r="Q237" s="5">
+        <v>282.20999999999998</v>
+      </c>
+      <c r="R237" s="5">
+        <v>108.658</v>
+      </c>
+      <c r="S237" s="5">
+        <v>212.13299999999998</v>
+      </c>
+      <c r="T237" s="5">
+        <v>185.697</v>
+      </c>
+      <c r="U237" s="5">
+        <v>46.753999999999998</v>
+      </c>
+      <c r="V237" s="5">
+        <v>60.194000000000003</v>
+      </c>
+      <c r="W237" s="5">
+        <v>11.913</v>
+      </c>
+      <c r="X237" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y237" s="5">
+        <v>32.015999999999998</v>
+      </c>
+      <c r="Z237" s="5">
+        <v>7.4610000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z237"/>
+  <dimension ref="A1:Z239"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241"/>
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19451,6 +19451,166 @@
         <v>7.4610000000000003</v>
       </c>
     </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A238" s="3">
+        <v>46019</v>
+      </c>
+      <c r="B238" t="s">
+        <v>26</v>
+      </c>
+      <c r="C238" s="5">
+        <v>828.17500000000018</v>
+      </c>
+      <c r="D238" s="5">
+        <v>932.36</v>
+      </c>
+      <c r="E238" s="5">
+        <v>714.221</v>
+      </c>
+      <c r="F238" s="5">
+        <v>515.33199999999988</v>
+      </c>
+      <c r="G238" s="5">
+        <v>517.53</v>
+      </c>
+      <c r="H238" s="5">
+        <v>534.42500000000007</v>
+      </c>
+      <c r="I238" s="5">
+        <v>413.21099999999996</v>
+      </c>
+      <c r="J238" s="5">
+        <v>105.15100000000001</v>
+      </c>
+      <c r="K238" s="5">
+        <v>130.28500000000003</v>
+      </c>
+      <c r="L238" s="5">
+        <v>138.50400000000002</v>
+      </c>
+      <c r="M238" s="5">
+        <v>104.23800000000001</v>
+      </c>
+      <c r="N238" s="5">
+        <v>262.60500000000002</v>
+      </c>
+      <c r="O238" s="5">
+        <v>690.44100000000003</v>
+      </c>
+      <c r="P238" s="5">
+        <v>1243.1569999999999</v>
+      </c>
+      <c r="Q238" s="5">
+        <v>464.87899999999991</v>
+      </c>
+      <c r="R238" s="5">
+        <v>372.45299999999997</v>
+      </c>
+      <c r="S238" s="5">
+        <v>392.85699999999997</v>
+      </c>
+      <c r="T238" s="5">
+        <v>350.077</v>
+      </c>
+      <c r="U238" s="5">
+        <v>219.31599999999997</v>
+      </c>
+      <c r="V238" s="5">
+        <v>144.74</v>
+      </c>
+      <c r="W238" s="5">
+        <v>182.43999999999997</v>
+      </c>
+      <c r="X238" s="5">
+        <v>81.893000000000001</v>
+      </c>
+      <c r="Y238" s="5">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="Z238" s="5">
+        <v>32.773000000000003</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A239" s="3">
+        <v>46019</v>
+      </c>
+      <c r="B239" t="s">
+        <v>27</v>
+      </c>
+      <c r="C239" s="5">
+        <v>433.78399999999999</v>
+      </c>
+      <c r="D239" s="5">
+        <v>865.65599999999995</v>
+      </c>
+      <c r="E239" s="5">
+        <v>291.04700000000003</v>
+      </c>
+      <c r="F239" s="5">
+        <v>120.78900000000002</v>
+      </c>
+      <c r="G239" s="5">
+        <v>103.614</v>
+      </c>
+      <c r="H239" s="5">
+        <v>81.61699999999999</v>
+      </c>
+      <c r="I239" s="5">
+        <v>132.18699999999998</v>
+      </c>
+      <c r="J239" s="5">
+        <v>103.38200000000001</v>
+      </c>
+      <c r="K239" s="5">
+        <v>365.17599999999999</v>
+      </c>
+      <c r="L239" s="5">
+        <v>274.45899999999995</v>
+      </c>
+      <c r="M239" s="5">
+        <v>143.499</v>
+      </c>
+      <c r="N239" s="5">
+        <v>254.57599999999999</v>
+      </c>
+      <c r="O239" s="5">
+        <v>380.76799999999986</v>
+      </c>
+      <c r="P239" s="5">
+        <v>887.44500000000016</v>
+      </c>
+      <c r="Q239" s="5">
+        <v>320.29700000000003</v>
+      </c>
+      <c r="R239" s="5">
+        <v>153.316</v>
+      </c>
+      <c r="S239" s="5">
+        <v>75.012</v>
+      </c>
+      <c r="T239" s="5">
+        <v>136.85</v>
+      </c>
+      <c r="U239" s="5">
+        <v>132.78200000000001</v>
+      </c>
+      <c r="V239" s="5">
+        <v>51.046999999999997</v>
+      </c>
+      <c r="W239" s="5">
+        <v>22.59</v>
+      </c>
+      <c r="X239" s="5">
+        <v>16.077999999999999</v>
+      </c>
+      <c r="Y239" s="5">
+        <v>77.84899999999999</v>
+      </c>
+      <c r="Z239" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z239"/>
+  <dimension ref="A1:Z241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+      <selection activeCell="J246" sqref="J246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19611,6 +19611,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A240" s="3">
+        <v>46020</v>
+      </c>
+      <c r="B240" t="s">
+        <v>26</v>
+      </c>
+      <c r="C240" s="5">
+        <v>471.48</v>
+      </c>
+      <c r="D240" s="5">
+        <v>966.48400000000026</v>
+      </c>
+      <c r="E240" s="5">
+        <v>504.50200000000007</v>
+      </c>
+      <c r="F240" s="5">
+        <v>446.16299999999995</v>
+      </c>
+      <c r="G240" s="5">
+        <v>378.01199999999994</v>
+      </c>
+      <c r="H240" s="5">
+        <v>497.31</v>
+      </c>
+      <c r="I240" s="5">
+        <v>509.02999999999992</v>
+      </c>
+      <c r="J240" s="5">
+        <v>160.86799999999999</v>
+      </c>
+      <c r="K240" s="5">
+        <v>67.456000000000003</v>
+      </c>
+      <c r="L240" s="5">
+        <v>271.03399999999999</v>
+      </c>
+      <c r="M240" s="5">
+        <v>282.88599999999997</v>
+      </c>
+      <c r="N240" s="5">
+        <v>230.536</v>
+      </c>
+      <c r="O240" s="5">
+        <v>811.17200000000014</v>
+      </c>
+      <c r="P240" s="5">
+        <v>1634.5170000000001</v>
+      </c>
+      <c r="Q240" s="5">
+        <v>599.99000000000012</v>
+      </c>
+      <c r="R240" s="5">
+        <v>626.47799999999995</v>
+      </c>
+      <c r="S240" s="5">
+        <v>191.142</v>
+      </c>
+      <c r="T240" s="5">
+        <v>308.97199999999998</v>
+      </c>
+      <c r="U240" s="5">
+        <v>114.11599999999999</v>
+      </c>
+      <c r="V240" s="5">
+        <v>103.01</v>
+      </c>
+      <c r="W240" s="5">
+        <v>98.72</v>
+      </c>
+      <c r="X240" s="5">
+        <v>35.6</v>
+      </c>
+      <c r="Y240" s="5">
+        <v>46.69</v>
+      </c>
+      <c r="Z240" s="5">
+        <v>71.66</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A241" s="3">
+        <v>46020</v>
+      </c>
+      <c r="B241" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241" s="5">
+        <v>552.66499999999996</v>
+      </c>
+      <c r="D241" s="5">
+        <v>613.12399999999991</v>
+      </c>
+      <c r="E241" s="5">
+        <v>205.82900000000001</v>
+      </c>
+      <c r="F241" s="5">
+        <v>74.382999999999996</v>
+      </c>
+      <c r="G241" s="5">
+        <v>79.944999999999993</v>
+      </c>
+      <c r="H241" s="5">
+        <v>162.02000000000001</v>
+      </c>
+      <c r="I241" s="5">
+        <v>152.17699999999999</v>
+      </c>
+      <c r="J241" s="5">
+        <v>175.07500000000002</v>
+      </c>
+      <c r="K241" s="5">
+        <v>251.56700000000001</v>
+      </c>
+      <c r="L241" s="5">
+        <v>254.24100000000001</v>
+      </c>
+      <c r="M241" s="5">
+        <v>271.89799999999997</v>
+      </c>
+      <c r="N241" s="5">
+        <v>250.76599999999999</v>
+      </c>
+      <c r="O241" s="5">
+        <v>668.38300000000015</v>
+      </c>
+      <c r="P241" s="5">
+        <v>636.85200000000009</v>
+      </c>
+      <c r="Q241" s="5">
+        <v>572.56899999999996</v>
+      </c>
+      <c r="R241" s="5">
+        <v>242.75299999999999</v>
+      </c>
+      <c r="S241" s="5">
+        <v>175.28399999999999</v>
+      </c>
+      <c r="T241" s="5">
+        <v>77.253999999999991</v>
+      </c>
+      <c r="U241" s="5">
+        <v>89.777000000000001</v>
+      </c>
+      <c r="V241" s="5">
+        <v>51.695</v>
+      </c>
+      <c r="W241" s="5">
+        <v>30.143999999999998</v>
+      </c>
+      <c r="X241" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y241" s="5">
+        <v>34.738999999999997</v>
+      </c>
+      <c r="Z241" s="5">
+        <v>13.734</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z241"/>
+  <dimension ref="A1:Z253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="J246" sqref="J246"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="G257" sqref="G257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19771,6 +19771,966 @@
         <v>13.734</v>
       </c>
     </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A242" s="3">
+        <v>46021</v>
+      </c>
+      <c r="B242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C242" s="5">
+        <v>450.23099999999999</v>
+      </c>
+      <c r="D242" s="5">
+        <v>927.96400000000017</v>
+      </c>
+      <c r="E242" s="5">
+        <v>298.94199999999995</v>
+      </c>
+      <c r="F242" s="5">
+        <v>230.80199999999996</v>
+      </c>
+      <c r="G242" s="5">
+        <v>183.19699999999997</v>
+      </c>
+      <c r="H242" s="5">
+        <v>443.97500000000002</v>
+      </c>
+      <c r="I242" s="5">
+        <v>649.09099999999989</v>
+      </c>
+      <c r="J242" s="5">
+        <v>191.62099999999998</v>
+      </c>
+      <c r="K242" s="5">
+        <v>185.75500000000002</v>
+      </c>
+      <c r="L242" s="5">
+        <v>166.01000000000002</v>
+      </c>
+      <c r="M242" s="5">
+        <v>131.47999999999999</v>
+      </c>
+      <c r="N242" s="5">
+        <v>218.66</v>
+      </c>
+      <c r="O242" s="5">
+        <v>642.95900000000006</v>
+      </c>
+      <c r="P242" s="5">
+        <v>1454.6390000000004</v>
+      </c>
+      <c r="Q242" s="5">
+        <v>374.44</v>
+      </c>
+      <c r="R242" s="5">
+        <v>501.95499999999998</v>
+      </c>
+      <c r="S242" s="5">
+        <v>374.92399999999998</v>
+      </c>
+      <c r="T242" s="5">
+        <v>253.92200000000003</v>
+      </c>
+      <c r="U242" s="5">
+        <v>71.819999999999993</v>
+      </c>
+      <c r="V242" s="5">
+        <v>45.134</v>
+      </c>
+      <c r="W242" s="5">
+        <v>22.24</v>
+      </c>
+      <c r="X242" s="5">
+        <v>42.06</v>
+      </c>
+      <c r="Y242" s="5">
+        <v>96.78</v>
+      </c>
+      <c r="Z242" s="5">
+        <v>88.86</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A243" s="3">
+        <v>46021</v>
+      </c>
+      <c r="B243" t="s">
+        <v>27</v>
+      </c>
+      <c r="C243" s="5">
+        <v>282.90299999999996</v>
+      </c>
+      <c r="D243" s="5">
+        <v>736.18700000000001</v>
+      </c>
+      <c r="E243" s="5">
+        <v>383.12300000000005</v>
+      </c>
+      <c r="F243" s="5">
+        <v>58.122</v>
+      </c>
+      <c r="G243" s="5">
+        <v>59.213999999999999</v>
+      </c>
+      <c r="H243" s="5">
+        <v>252.97499999999997</v>
+      </c>
+      <c r="I243" s="5">
+        <v>68.88300000000001</v>
+      </c>
+      <c r="J243" s="5">
+        <v>107.55600000000001</v>
+      </c>
+      <c r="K243" s="5">
+        <v>129.74200000000002</v>
+      </c>
+      <c r="L243" s="5">
+        <v>218.416</v>
+      </c>
+      <c r="M243" s="5">
+        <v>83.518000000000001</v>
+      </c>
+      <c r="N243" s="5">
+        <v>223.45000000000002</v>
+      </c>
+      <c r="O243" s="5">
+        <v>471.73199999999997</v>
+      </c>
+      <c r="P243" s="5">
+        <v>844.30199999999991</v>
+      </c>
+      <c r="Q243" s="5">
+        <v>325.98500000000001</v>
+      </c>
+      <c r="R243" s="5">
+        <v>201.93399999999997</v>
+      </c>
+      <c r="S243" s="5">
+        <v>112.82300000000001</v>
+      </c>
+      <c r="T243" s="5">
+        <v>164.58600000000001</v>
+      </c>
+      <c r="U243" s="5">
+        <v>168.422</v>
+      </c>
+      <c r="V243" s="5">
+        <v>74.590999999999994</v>
+      </c>
+      <c r="W243" s="5">
+        <v>114.898</v>
+      </c>
+      <c r="X243" s="5">
+        <v>127.14100000000001</v>
+      </c>
+      <c r="Y243" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z243" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A244" s="3">
+        <v>46022</v>
+      </c>
+      <c r="B244" t="s">
+        <v>26</v>
+      </c>
+      <c r="C244" s="5">
+        <v>571.67999999999995</v>
+      </c>
+      <c r="D244" s="5">
+        <v>517.84</v>
+      </c>
+      <c r="E244" s="5">
+        <v>508.50700000000001</v>
+      </c>
+      <c r="F244" s="5">
+        <v>269.06599999999997</v>
+      </c>
+      <c r="G244" s="5">
+        <v>147.727</v>
+      </c>
+      <c r="H244" s="5">
+        <v>357.11399999999992</v>
+      </c>
+      <c r="I244" s="5">
+        <v>298.41100000000006</v>
+      </c>
+      <c r="J244" s="5">
+        <v>173.59900000000002</v>
+      </c>
+      <c r="K244" s="5">
+        <v>116.98299999999999</v>
+      </c>
+      <c r="L244" s="5">
+        <v>92.13</v>
+      </c>
+      <c r="M244" s="5">
+        <v>42.03</v>
+      </c>
+      <c r="N244" s="5">
+        <v>95.7</v>
+      </c>
+      <c r="O244" s="5">
+        <v>222.68000000000004</v>
+      </c>
+      <c r="P244" s="5">
+        <v>246.5</v>
+      </c>
+      <c r="Q244" s="5">
+        <v>145.5</v>
+      </c>
+      <c r="R244" s="5">
+        <v>66.14</v>
+      </c>
+      <c r="S244" s="5">
+        <v>36.94</v>
+      </c>
+      <c r="T244" s="5">
+        <v>84.539999999999992</v>
+      </c>
+      <c r="U244" s="5">
+        <v>112.18</v>
+      </c>
+      <c r="V244" s="5">
+        <v>6.46</v>
+      </c>
+      <c r="W244" s="5">
+        <v>0</v>
+      </c>
+      <c r="X244" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y244" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="Z244" s="5">
+        <v>81.84</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A245" s="3">
+        <v>46022</v>
+      </c>
+      <c r="B245" t="s">
+        <v>27</v>
+      </c>
+      <c r="C245" s="5">
+        <v>413.58699999999999</v>
+      </c>
+      <c r="D245" s="5">
+        <v>492.01100000000002</v>
+      </c>
+      <c r="E245" s="5">
+        <v>305.30899999999997</v>
+      </c>
+      <c r="F245" s="5">
+        <v>61.816999999999993</v>
+      </c>
+      <c r="G245" s="5">
+        <v>258.73500000000001</v>
+      </c>
+      <c r="H245" s="5">
+        <v>145.22800000000001</v>
+      </c>
+      <c r="I245" s="5">
+        <v>237.37299999999999</v>
+      </c>
+      <c r="J245" s="5">
+        <v>283.07</v>
+      </c>
+      <c r="K245" s="5">
+        <v>190.50800000000001</v>
+      </c>
+      <c r="L245" s="5">
+        <v>188.358</v>
+      </c>
+      <c r="M245" s="5">
+        <v>115.67299999999999</v>
+      </c>
+      <c r="N245" s="5">
+        <v>255.02299999999997</v>
+      </c>
+      <c r="O245" s="5">
+        <v>586.11899999999991</v>
+      </c>
+      <c r="P245" s="5">
+        <v>1016.4630000000001</v>
+      </c>
+      <c r="Q245" s="5">
+        <v>201.6</v>
+      </c>
+      <c r="R245" s="5">
+        <v>209.24600000000001</v>
+      </c>
+      <c r="S245" s="5">
+        <v>184.10299999999998</v>
+      </c>
+      <c r="T245" s="5">
+        <v>127.33000000000001</v>
+      </c>
+      <c r="U245" s="5">
+        <v>48.68</v>
+      </c>
+      <c r="V245" s="5">
+        <v>12.281000000000001</v>
+      </c>
+      <c r="W245" s="5">
+        <v>46.923999999999999</v>
+      </c>
+      <c r="X245" s="5">
+        <v>151.613</v>
+      </c>
+      <c r="Y245" s="5">
+        <v>34.367999999999995</v>
+      </c>
+      <c r="Z245" s="5">
+        <v>62.401000000000003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A246" s="3">
+        <v>46023</v>
+      </c>
+      <c r="B246" t="s">
+        <v>26</v>
+      </c>
+      <c r="C246" s="5">
+        <v>652.52</v>
+      </c>
+      <c r="D246" s="5">
+        <v>1363.22</v>
+      </c>
+      <c r="E246" s="5">
+        <v>953.31</v>
+      </c>
+      <c r="F246" s="5">
+        <v>756.58</v>
+      </c>
+      <c r="G246" s="5">
+        <v>477.43</v>
+      </c>
+      <c r="H246" s="5">
+        <v>688.85</v>
+      </c>
+      <c r="I246" s="5">
+        <v>827.54</v>
+      </c>
+      <c r="J246" s="5">
+        <v>171.22</v>
+      </c>
+      <c r="K246" s="5">
+        <v>257.81</v>
+      </c>
+      <c r="L246" s="5">
+        <v>365.46</v>
+      </c>
+      <c r="M246" s="5">
+        <v>203.21</v>
+      </c>
+      <c r="N246" s="5">
+        <v>263.18</v>
+      </c>
+      <c r="O246" s="5">
+        <v>713.86</v>
+      </c>
+      <c r="P246" s="5">
+        <v>1592.91</v>
+      </c>
+      <c r="Q246" s="5">
+        <v>1282.8900000000001</v>
+      </c>
+      <c r="R246" s="5">
+        <v>494.85</v>
+      </c>
+      <c r="S246" s="5">
+        <v>600.5</v>
+      </c>
+      <c r="T246" s="5">
+        <v>356.94</v>
+      </c>
+      <c r="U246" s="5">
+        <v>261.10000000000002</v>
+      </c>
+      <c r="V246" s="5">
+        <v>125.25</v>
+      </c>
+      <c r="W246" s="5">
+        <v>206.14</v>
+      </c>
+      <c r="X246" s="5">
+        <v>98.98</v>
+      </c>
+      <c r="Y246" s="5">
+        <v>80.16</v>
+      </c>
+      <c r="Z246" s="5">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A247" s="3">
+        <v>46023</v>
+      </c>
+      <c r="B247" t="s">
+        <v>27</v>
+      </c>
+      <c r="C247" s="5">
+        <v>417.95699999999999</v>
+      </c>
+      <c r="D247" s="5">
+        <v>743.40100000000007</v>
+      </c>
+      <c r="E247" s="5">
+        <v>200.33100000000002</v>
+      </c>
+      <c r="F247" s="5">
+        <v>32.914000000000001</v>
+      </c>
+      <c r="G247" s="5">
+        <v>84.140999999999991</v>
+      </c>
+      <c r="H247" s="5">
+        <v>138.471</v>
+      </c>
+      <c r="I247" s="5">
+        <v>189.50700000000001</v>
+      </c>
+      <c r="J247" s="5">
+        <v>0</v>
+      </c>
+      <c r="K247" s="5">
+        <v>38.875999999999998</v>
+      </c>
+      <c r="L247" s="5">
+        <v>66.670999999999992</v>
+      </c>
+      <c r="M247" s="5">
+        <v>88.406000000000006</v>
+      </c>
+      <c r="N247" s="5">
+        <v>197.572</v>
+      </c>
+      <c r="O247" s="5">
+        <v>408.95600000000002</v>
+      </c>
+      <c r="P247" s="5">
+        <v>546.70999999999992</v>
+      </c>
+      <c r="Q247" s="5">
+        <v>418.589</v>
+      </c>
+      <c r="R247" s="5">
+        <v>303.09699999999998</v>
+      </c>
+      <c r="S247" s="5">
+        <v>202.709</v>
+      </c>
+      <c r="T247" s="5">
+        <v>153.47299999999998</v>
+      </c>
+      <c r="U247" s="5">
+        <v>72.492000000000004</v>
+      </c>
+      <c r="V247" s="5">
+        <v>142.76599999999999</v>
+      </c>
+      <c r="W247" s="5">
+        <v>52.707000000000001</v>
+      </c>
+      <c r="X247" s="5">
+        <v>64.385999999999996</v>
+      </c>
+      <c r="Y247" s="5">
+        <v>43.203000000000003</v>
+      </c>
+      <c r="Z247" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A248" s="3">
+        <v>46024</v>
+      </c>
+      <c r="B248" t="s">
+        <v>26</v>
+      </c>
+      <c r="C248" s="5">
+        <v>639.6</v>
+      </c>
+      <c r="D248" s="5">
+        <v>1638.38</v>
+      </c>
+      <c r="E248" s="5">
+        <v>831.8</v>
+      </c>
+      <c r="F248" s="5">
+        <v>649.44000000000005</v>
+      </c>
+      <c r="G248" s="5">
+        <v>344.77</v>
+      </c>
+      <c r="H248" s="5">
+        <v>728.9</v>
+      </c>
+      <c r="I248" s="5">
+        <v>429.98</v>
+      </c>
+      <c r="J248" s="5">
+        <v>234.03</v>
+      </c>
+      <c r="K248" s="5">
+        <v>109.93</v>
+      </c>
+      <c r="L248" s="5">
+        <v>200.66</v>
+      </c>
+      <c r="M248" s="5">
+        <v>190.5</v>
+      </c>
+      <c r="N248" s="5">
+        <v>455.11</v>
+      </c>
+      <c r="O248" s="5">
+        <v>796.08</v>
+      </c>
+      <c r="P248" s="5">
+        <v>1764.99</v>
+      </c>
+      <c r="Q248" s="5">
+        <v>623.33000000000004</v>
+      </c>
+      <c r="R248" s="5">
+        <v>502.74</v>
+      </c>
+      <c r="S248" s="5">
+        <v>266.98</v>
+      </c>
+      <c r="T248" s="5">
+        <v>307.99</v>
+      </c>
+      <c r="U248" s="5">
+        <v>116.73</v>
+      </c>
+      <c r="V248" s="5">
+        <v>82.02</v>
+      </c>
+      <c r="W248" s="5">
+        <v>62.17</v>
+      </c>
+      <c r="X248" s="5">
+        <v>143.38</v>
+      </c>
+      <c r="Y248" s="5">
+        <v>95.6</v>
+      </c>
+      <c r="Z248" s="5">
+        <v>24.82</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A249" s="3">
+        <v>46024</v>
+      </c>
+      <c r="B249" t="s">
+        <v>27</v>
+      </c>
+      <c r="C249" s="5">
+        <v>471.34400000000005</v>
+      </c>
+      <c r="D249" s="5">
+        <v>751.96</v>
+      </c>
+      <c r="E249" s="5">
+        <v>207.03900000000002</v>
+      </c>
+      <c r="F249" s="5">
+        <v>65.289999999999992</v>
+      </c>
+      <c r="G249" s="5">
+        <v>72.733999999999995</v>
+      </c>
+      <c r="H249" s="5">
+        <v>169.34399999999999</v>
+      </c>
+      <c r="I249" s="5">
+        <v>222.554</v>
+      </c>
+      <c r="J249" s="5">
+        <v>8.93</v>
+      </c>
+      <c r="K249" s="5">
+        <v>180.38400000000001</v>
+      </c>
+      <c r="L249" s="5">
+        <v>152.69</v>
+      </c>
+      <c r="M249" s="5">
+        <v>22.398</v>
+      </c>
+      <c r="N249" s="5">
+        <v>90.205000000000013</v>
+      </c>
+      <c r="O249" s="5">
+        <v>509.99599999999998</v>
+      </c>
+      <c r="P249" s="5">
+        <v>607.63900000000001</v>
+      </c>
+      <c r="Q249" s="5">
+        <v>779.19699999999989</v>
+      </c>
+      <c r="R249" s="5">
+        <v>119.79500000000002</v>
+      </c>
+      <c r="S249" s="5">
+        <v>292.61500000000001</v>
+      </c>
+      <c r="T249" s="5">
+        <v>111.25999999999999</v>
+      </c>
+      <c r="U249" s="5">
+        <v>120.10999999999999</v>
+      </c>
+      <c r="V249" s="5">
+        <v>59.039000000000001</v>
+      </c>
+      <c r="W249" s="5">
+        <v>0</v>
+      </c>
+      <c r="X249" s="5">
+        <v>15.744999999999999</v>
+      </c>
+      <c r="Y249" s="5">
+        <v>10.367000000000001</v>
+      </c>
+      <c r="Z249" s="5">
+        <v>87.905000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A250" s="3">
+        <v>46025</v>
+      </c>
+      <c r="B250" t="s">
+        <v>26</v>
+      </c>
+      <c r="C250" s="5">
+        <v>815.64</v>
+      </c>
+      <c r="D250" s="5">
+        <v>1626.81</v>
+      </c>
+      <c r="E250" s="5">
+        <v>1042.0899999999999</v>
+      </c>
+      <c r="F250" s="5">
+        <v>665.47</v>
+      </c>
+      <c r="G250" s="5">
+        <v>349.92</v>
+      </c>
+      <c r="H250" s="5">
+        <v>773.27</v>
+      </c>
+      <c r="I250" s="5">
+        <v>377.11</v>
+      </c>
+      <c r="J250" s="5">
+        <v>212.04</v>
+      </c>
+      <c r="K250" s="5">
+        <v>124.52</v>
+      </c>
+      <c r="L250" s="5">
+        <v>171.29</v>
+      </c>
+      <c r="M250" s="5">
+        <v>215.89</v>
+      </c>
+      <c r="N250" s="5">
+        <v>303.61</v>
+      </c>
+      <c r="O250" s="5">
+        <v>769.46</v>
+      </c>
+      <c r="P250" s="5">
+        <v>1793.19</v>
+      </c>
+      <c r="Q250" s="5">
+        <v>971.51</v>
+      </c>
+      <c r="R250" s="5">
+        <v>906.47</v>
+      </c>
+      <c r="S250" s="5">
+        <v>338.83</v>
+      </c>
+      <c r="T250" s="5">
+        <v>199.85</v>
+      </c>
+      <c r="U250" s="5">
+        <v>171.14</v>
+      </c>
+      <c r="V250" s="5">
+        <v>131.02000000000001</v>
+      </c>
+      <c r="W250" s="5">
+        <v>105.91</v>
+      </c>
+      <c r="X250" s="5">
+        <v>230.6</v>
+      </c>
+      <c r="Y250" s="5">
+        <v>151.1</v>
+      </c>
+      <c r="Z250" s="5">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A251" s="3">
+        <v>46025</v>
+      </c>
+      <c r="B251" t="s">
+        <v>27</v>
+      </c>
+      <c r="C251" s="5">
+        <v>259.815</v>
+      </c>
+      <c r="D251" s="5">
+        <v>689.68000000000006</v>
+      </c>
+      <c r="E251" s="5">
+        <v>205.27500000000001</v>
+      </c>
+      <c r="F251" s="5">
+        <v>95.649000000000001</v>
+      </c>
+      <c r="G251" s="5">
+        <v>158.86699999999999</v>
+      </c>
+      <c r="H251" s="5">
+        <v>130.946</v>
+      </c>
+      <c r="I251" s="5">
+        <v>322.161</v>
+      </c>
+      <c r="J251" s="5">
+        <v>18.368000000000002</v>
+      </c>
+      <c r="K251" s="5">
+        <v>81.73599999999999</v>
+      </c>
+      <c r="L251" s="5">
+        <v>189.66500000000002</v>
+      </c>
+      <c r="M251" s="5">
+        <v>61.050999999999995</v>
+      </c>
+      <c r="N251" s="5">
+        <v>73.91</v>
+      </c>
+      <c r="O251" s="5">
+        <v>539.70500000000004</v>
+      </c>
+      <c r="P251" s="5">
+        <v>558.1629999999999</v>
+      </c>
+      <c r="Q251" s="5">
+        <v>276.89500000000004</v>
+      </c>
+      <c r="R251" s="5">
+        <v>220.51299999999998</v>
+      </c>
+      <c r="S251" s="5">
+        <v>146.251</v>
+      </c>
+      <c r="T251" s="5">
+        <v>151.124</v>
+      </c>
+      <c r="U251" s="5">
+        <v>63.411000000000001</v>
+      </c>
+      <c r="V251" s="5">
+        <v>154.352</v>
+      </c>
+      <c r="W251" s="5">
+        <v>59.530999999999999</v>
+      </c>
+      <c r="X251" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y251" s="5">
+        <v>8.6720000000000006</v>
+      </c>
+      <c r="Z251" s="5">
+        <v>5.992</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A252" s="3">
+        <v>46026</v>
+      </c>
+      <c r="B252" t="s">
+        <v>26</v>
+      </c>
+      <c r="C252" s="5">
+        <v>699.63</v>
+      </c>
+      <c r="D252" s="5">
+        <v>2073.04</v>
+      </c>
+      <c r="E252" s="5">
+        <v>1124.81</v>
+      </c>
+      <c r="F252" s="5">
+        <v>352.78</v>
+      </c>
+      <c r="G252" s="5">
+        <v>325.92</v>
+      </c>
+      <c r="H252" s="5">
+        <v>658.93</v>
+      </c>
+      <c r="I252" s="5">
+        <v>342.34</v>
+      </c>
+      <c r="J252" s="5">
+        <v>166.88</v>
+      </c>
+      <c r="K252" s="5">
+        <v>270.05</v>
+      </c>
+      <c r="L252" s="5">
+        <v>170.57</v>
+      </c>
+      <c r="M252" s="5">
+        <v>249.79</v>
+      </c>
+      <c r="N252" s="5">
+        <v>400.33</v>
+      </c>
+      <c r="O252" s="5">
+        <v>1033.0999999999999</v>
+      </c>
+      <c r="P252" s="5">
+        <v>2882.27</v>
+      </c>
+      <c r="Q252" s="5">
+        <v>1248.1600000000001</v>
+      </c>
+      <c r="R252" s="5">
+        <v>444.83</v>
+      </c>
+      <c r="S252" s="5">
+        <v>361.24</v>
+      </c>
+      <c r="T252" s="5">
+        <v>206.54</v>
+      </c>
+      <c r="U252" s="5">
+        <v>111.81</v>
+      </c>
+      <c r="V252" s="5">
+        <v>31.57</v>
+      </c>
+      <c r="W252" s="5">
+        <v>111.66</v>
+      </c>
+      <c r="X252" s="5">
+        <v>119.22</v>
+      </c>
+      <c r="Y252" s="5">
+        <v>64.72</v>
+      </c>
+      <c r="Z252" s="5">
+        <v>138.63</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A253" s="3">
+        <v>46026</v>
+      </c>
+      <c r="B253" t="s">
+        <v>27</v>
+      </c>
+      <c r="C253" s="5">
+        <v>487.99899999999997</v>
+      </c>
+      <c r="D253" s="5">
+        <v>760.447</v>
+      </c>
+      <c r="E253" s="5">
+        <v>204.73499999999999</v>
+      </c>
+      <c r="F253" s="5">
+        <v>101.899</v>
+      </c>
+      <c r="G253" s="5">
+        <v>37.055999999999997</v>
+      </c>
+      <c r="H253" s="5">
+        <v>104.99600000000001</v>
+      </c>
+      <c r="I253" s="5">
+        <v>205.154</v>
+      </c>
+      <c r="J253" s="5">
+        <v>32.162999999999997</v>
+      </c>
+      <c r="K253" s="5">
+        <v>102.43599999999999</v>
+      </c>
+      <c r="L253" s="5">
+        <v>202.37299999999999</v>
+      </c>
+      <c r="M253" s="5">
+        <v>208.58300000000003</v>
+      </c>
+      <c r="N253" s="5">
+        <v>255.15</v>
+      </c>
+      <c r="O253" s="5">
+        <v>822.04199999999992</v>
+      </c>
+      <c r="P253" s="5">
+        <v>745.02599999999995</v>
+      </c>
+      <c r="Q253" s="5">
+        <v>395.20800000000008</v>
+      </c>
+      <c r="R253" s="5">
+        <v>695.07499999999982</v>
+      </c>
+      <c r="S253" s="5">
+        <v>653.93399999999997</v>
+      </c>
+      <c r="T253" s="5">
+        <v>618.1629999999999</v>
+      </c>
+      <c r="U253" s="5">
+        <v>89.544999999999987</v>
+      </c>
+      <c r="V253" s="5">
+        <v>69.343000000000004</v>
+      </c>
+      <c r="W253" s="5">
+        <v>111.133</v>
+      </c>
+      <c r="X253" s="5">
+        <v>18.167999999999999</v>
+      </c>
+      <c r="Y253" s="5">
+        <v>31.426000000000002</v>
+      </c>
+      <c r="Z253" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z253"/>
+  <dimension ref="A1:Z255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="G257" sqref="G257"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="H262" sqref="H262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20731,6 +20731,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A254" s="3">
+        <v>46027</v>
+      </c>
+      <c r="B254" t="s">
+        <v>26</v>
+      </c>
+      <c r="C254" s="5">
+        <v>725.37</v>
+      </c>
+      <c r="D254" s="5">
+        <v>1885.95</v>
+      </c>
+      <c r="E254" s="5">
+        <v>814.47</v>
+      </c>
+      <c r="F254" s="5">
+        <v>552.45000000000005</v>
+      </c>
+      <c r="G254" s="5">
+        <v>593.04</v>
+      </c>
+      <c r="H254" s="5">
+        <v>622.45000000000005</v>
+      </c>
+      <c r="I254" s="5">
+        <v>704.08</v>
+      </c>
+      <c r="J254" s="5">
+        <v>240.06</v>
+      </c>
+      <c r="K254" s="5">
+        <v>138.83000000000001</v>
+      </c>
+      <c r="L254" s="5">
+        <v>277.51</v>
+      </c>
+      <c r="M254" s="5">
+        <v>300.36</v>
+      </c>
+      <c r="N254" s="5">
+        <v>353.72</v>
+      </c>
+      <c r="O254" s="5">
+        <v>1086.5999999999999</v>
+      </c>
+      <c r="P254" s="5">
+        <v>2392.38</v>
+      </c>
+      <c r="Q254" s="5">
+        <v>1199.6099999999999</v>
+      </c>
+      <c r="R254" s="5">
+        <v>563.36</v>
+      </c>
+      <c r="S254" s="5">
+        <v>248.61</v>
+      </c>
+      <c r="T254" s="5">
+        <v>234.12</v>
+      </c>
+      <c r="U254" s="5">
+        <v>184.49</v>
+      </c>
+      <c r="V254" s="5">
+        <v>114.42</v>
+      </c>
+      <c r="W254" s="5">
+        <v>106.06</v>
+      </c>
+      <c r="X254" s="5">
+        <v>73.59</v>
+      </c>
+      <c r="Y254" s="5">
+        <v>49.23</v>
+      </c>
+      <c r="Z254" s="5">
+        <v>138.69999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A255" s="3">
+        <v>46027</v>
+      </c>
+      <c r="B255" t="s">
+        <v>27</v>
+      </c>
+      <c r="C255" s="5">
+        <v>465.52600000000001</v>
+      </c>
+      <c r="D255" s="5">
+        <v>698.04100000000017</v>
+      </c>
+      <c r="E255" s="5">
+        <v>183.286</v>
+      </c>
+      <c r="F255" s="5">
+        <v>74.468999999999994</v>
+      </c>
+      <c r="G255" s="5">
+        <v>94.882999999999996</v>
+      </c>
+      <c r="H255" s="5">
+        <v>98.414000000000001</v>
+      </c>
+      <c r="I255" s="5">
+        <v>151.48500000000001</v>
+      </c>
+      <c r="J255" s="5">
+        <v>177.13400000000001</v>
+      </c>
+      <c r="K255" s="5">
+        <v>247.982</v>
+      </c>
+      <c r="L255" s="5">
+        <v>277.96100000000001</v>
+      </c>
+      <c r="M255" s="5">
+        <v>289.14599999999996</v>
+      </c>
+      <c r="N255" s="5">
+        <v>386.101</v>
+      </c>
+      <c r="O255" s="5">
+        <v>647.73199999999997</v>
+      </c>
+      <c r="P255" s="5">
+        <v>757.04100000000005</v>
+      </c>
+      <c r="Q255" s="5">
+        <v>477.82500000000005</v>
+      </c>
+      <c r="R255" s="5">
+        <v>196.547</v>
+      </c>
+      <c r="S255" s="5">
+        <v>256.37599999999998</v>
+      </c>
+      <c r="T255" s="5">
+        <v>149.24800000000002</v>
+      </c>
+      <c r="U255" s="5">
+        <v>84.695999999999998</v>
+      </c>
+      <c r="V255" s="5">
+        <v>92.013999999999996</v>
+      </c>
+      <c r="W255" s="5">
+        <v>71.296999999999997</v>
+      </c>
+      <c r="X255" s="5">
+        <v>27.143999999999998</v>
+      </c>
+      <c r="Y255" s="5">
+        <v>7.2110000000000003</v>
+      </c>
+      <c r="Z255" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z255"/>
+  <dimension ref="A1:Z261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="H262" sqref="H262"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="F264" sqref="F264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20891,6 +20891,486 @@
         <v>0</v>
       </c>
     </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A256" s="3">
+        <v>46028</v>
+      </c>
+      <c r="B256" t="s">
+        <v>26</v>
+      </c>
+      <c r="C256" s="5">
+        <v>905.92</v>
+      </c>
+      <c r="D256" s="5">
+        <v>1399.95</v>
+      </c>
+      <c r="E256" s="5">
+        <v>596.28</v>
+      </c>
+      <c r="F256" s="5">
+        <v>641.79999999999995</v>
+      </c>
+      <c r="G256" s="5">
+        <v>428.53</v>
+      </c>
+      <c r="H256" s="5">
+        <v>751.2</v>
+      </c>
+      <c r="I256" s="5">
+        <v>542.78</v>
+      </c>
+      <c r="J256" s="5">
+        <v>183.87</v>
+      </c>
+      <c r="K256" s="5">
+        <v>261.31</v>
+      </c>
+      <c r="L256" s="5">
+        <v>148.96</v>
+      </c>
+      <c r="M256" s="5">
+        <v>176.34</v>
+      </c>
+      <c r="N256" s="5">
+        <v>432.99</v>
+      </c>
+      <c r="O256" s="5">
+        <v>1121.33</v>
+      </c>
+      <c r="P256" s="5">
+        <v>1678.17</v>
+      </c>
+      <c r="Q256" s="5">
+        <v>686.2</v>
+      </c>
+      <c r="R256" s="5">
+        <v>663.69</v>
+      </c>
+      <c r="S256" s="5">
+        <v>387.36</v>
+      </c>
+      <c r="T256" s="5">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="U256" s="5">
+        <v>172.85</v>
+      </c>
+      <c r="V256" s="5">
+        <v>115.21</v>
+      </c>
+      <c r="W256" s="5">
+        <v>237.71</v>
+      </c>
+      <c r="X256" s="5">
+        <v>93.87</v>
+      </c>
+      <c r="Y256" s="5">
+        <v>79.38</v>
+      </c>
+      <c r="Z256" s="5">
+        <v>19.86</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A257" s="3">
+        <v>46028</v>
+      </c>
+      <c r="B257" t="s">
+        <v>27</v>
+      </c>
+      <c r="C257" s="5">
+        <v>690.1099999999999</v>
+      </c>
+      <c r="D257" s="5">
+        <v>166.51</v>
+      </c>
+      <c r="E257" s="5">
+        <v>115.38</v>
+      </c>
+      <c r="F257" s="5">
+        <v>4.96</v>
+      </c>
+      <c r="G257" s="5">
+        <v>84.449999999999989</v>
+      </c>
+      <c r="H257" s="5">
+        <v>118.50999999999999</v>
+      </c>
+      <c r="I257" s="5">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="J257" s="5">
+        <v>19.37</v>
+      </c>
+      <c r="K257" s="5">
+        <v>143.24</v>
+      </c>
+      <c r="L257" s="5">
+        <v>175.35</v>
+      </c>
+      <c r="M257" s="5">
+        <v>299.40999999999997</v>
+      </c>
+      <c r="N257" s="5">
+        <v>398.64000000000004</v>
+      </c>
+      <c r="O257" s="5">
+        <v>534.76</v>
+      </c>
+      <c r="P257" s="5">
+        <v>426.53999999999996</v>
+      </c>
+      <c r="Q257" s="5">
+        <v>396.89</v>
+      </c>
+      <c r="R257" s="5">
+        <v>152.45000000000002</v>
+      </c>
+      <c r="S257" s="5">
+        <v>247.23</v>
+      </c>
+      <c r="T257" s="5">
+        <v>74.27</v>
+      </c>
+      <c r="U257" s="5">
+        <v>89.48</v>
+      </c>
+      <c r="V257" s="5">
+        <v>237.32999999999998</v>
+      </c>
+      <c r="W257" s="5">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="X257" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y257" s="5">
+        <v>63.54</v>
+      </c>
+      <c r="Z257" s="5">
+        <v>74.13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A258" s="3">
+        <v>46029</v>
+      </c>
+      <c r="B258" t="s">
+        <v>26</v>
+      </c>
+      <c r="C258" s="5">
+        <v>839.28</v>
+      </c>
+      <c r="D258" s="5">
+        <v>1306.94</v>
+      </c>
+      <c r="E258" s="5">
+        <v>641.28</v>
+      </c>
+      <c r="F258" s="5">
+        <v>883.64</v>
+      </c>
+      <c r="G258" s="5">
+        <v>517.36</v>
+      </c>
+      <c r="H258" s="5">
+        <v>731.45</v>
+      </c>
+      <c r="I258" s="5">
+        <v>739.43</v>
+      </c>
+      <c r="J258" s="5">
+        <v>172.45</v>
+      </c>
+      <c r="K258" s="5">
+        <v>249</v>
+      </c>
+      <c r="L258" s="5">
+        <v>107.66</v>
+      </c>
+      <c r="M258" s="5">
+        <v>118.81</v>
+      </c>
+      <c r="N258" s="5">
+        <v>348.56</v>
+      </c>
+      <c r="O258" s="5">
+        <v>871.67</v>
+      </c>
+      <c r="P258" s="5">
+        <v>1576.45</v>
+      </c>
+      <c r="Q258" s="5">
+        <v>677.31</v>
+      </c>
+      <c r="R258" s="5">
+        <v>580.20000000000005</v>
+      </c>
+      <c r="S258" s="5">
+        <v>142.65</v>
+      </c>
+      <c r="T258" s="5">
+        <v>243.89</v>
+      </c>
+      <c r="U258" s="5">
+        <v>208.96</v>
+      </c>
+      <c r="V258" s="5">
+        <v>94.17</v>
+      </c>
+      <c r="W258" s="5">
+        <v>193.16</v>
+      </c>
+      <c r="X258" s="5">
+        <v>107.43</v>
+      </c>
+      <c r="Y258" s="5">
+        <v>64.81</v>
+      </c>
+      <c r="Z258" s="5">
+        <v>24.85</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A259" s="3">
+        <v>46029</v>
+      </c>
+      <c r="B259" t="s">
+        <v>27</v>
+      </c>
+      <c r="C259" s="5">
+        <v>617.50000000000011</v>
+      </c>
+      <c r="D259" s="5">
+        <v>92.609999999999985</v>
+      </c>
+      <c r="E259" s="5">
+        <v>16.59</v>
+      </c>
+      <c r="F259" s="5">
+        <v>0</v>
+      </c>
+      <c r="G259" s="5">
+        <v>52.510000000000005</v>
+      </c>
+      <c r="H259" s="5">
+        <v>157.5</v>
+      </c>
+      <c r="I259" s="5">
+        <v>60.33</v>
+      </c>
+      <c r="J259" s="5">
+        <v>30.61</v>
+      </c>
+      <c r="K259" s="5">
+        <v>221.05000000000004</v>
+      </c>
+      <c r="L259" s="5">
+        <v>486.21</v>
+      </c>
+      <c r="M259" s="5">
+        <v>102.57</v>
+      </c>
+      <c r="N259" s="5">
+        <v>198.82</v>
+      </c>
+      <c r="O259" s="5">
+        <v>658.37999999999977</v>
+      </c>
+      <c r="P259" s="5">
+        <v>426.19</v>
+      </c>
+      <c r="Q259" s="5">
+        <v>392.35</v>
+      </c>
+      <c r="R259" s="5">
+        <v>138.57</v>
+      </c>
+      <c r="S259" s="5">
+        <v>178.69</v>
+      </c>
+      <c r="T259" s="5">
+        <v>131.47000000000003</v>
+      </c>
+      <c r="U259" s="5">
+        <v>46.1</v>
+      </c>
+      <c r="V259" s="5">
+        <v>132.35</v>
+      </c>
+      <c r="W259" s="5">
+        <v>99.889999999999986</v>
+      </c>
+      <c r="X259" s="5">
+        <v>104.58</v>
+      </c>
+      <c r="Y259" s="5">
+        <v>40.510000000000005</v>
+      </c>
+      <c r="Z259" s="5">
+        <v>47.41</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A260" s="3">
+        <v>46030</v>
+      </c>
+      <c r="B260" t="s">
+        <v>26</v>
+      </c>
+      <c r="C260" s="5">
+        <v>849.21</v>
+      </c>
+      <c r="D260" s="5">
+        <v>1979.69</v>
+      </c>
+      <c r="E260" s="5">
+        <v>722.08</v>
+      </c>
+      <c r="F260" s="5">
+        <v>266.36</v>
+      </c>
+      <c r="G260" s="5">
+        <v>426.46</v>
+      </c>
+      <c r="H260" s="5">
+        <v>790.76</v>
+      </c>
+      <c r="I260" s="5">
+        <v>419.13</v>
+      </c>
+      <c r="J260" s="5">
+        <v>58.8</v>
+      </c>
+      <c r="K260" s="5">
+        <v>212.71</v>
+      </c>
+      <c r="L260" s="5">
+        <v>86.58</v>
+      </c>
+      <c r="M260" s="5">
+        <v>185.32</v>
+      </c>
+      <c r="N260" s="5">
+        <v>332.63</v>
+      </c>
+      <c r="O260" s="5">
+        <v>681.36</v>
+      </c>
+      <c r="P260" s="5">
+        <v>2203.21</v>
+      </c>
+      <c r="Q260" s="5">
+        <v>688.89</v>
+      </c>
+      <c r="R260" s="5">
+        <v>307.3</v>
+      </c>
+      <c r="S260" s="5">
+        <v>156.75</v>
+      </c>
+      <c r="T260" s="5">
+        <v>191.22</v>
+      </c>
+      <c r="U260" s="5">
+        <v>220.49</v>
+      </c>
+      <c r="V260" s="5">
+        <v>100.48</v>
+      </c>
+      <c r="W260" s="5">
+        <v>91.96</v>
+      </c>
+      <c r="X260" s="5">
+        <v>24.72</v>
+      </c>
+      <c r="Y260" s="5">
+        <v>30.56</v>
+      </c>
+      <c r="Z260" s="5">
+        <v>51.66</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A261" s="3">
+        <v>46030</v>
+      </c>
+      <c r="B261" t="s">
+        <v>27</v>
+      </c>
+      <c r="C261" s="5">
+        <v>558.13</v>
+      </c>
+      <c r="D261" s="5">
+        <v>183.7</v>
+      </c>
+      <c r="E261" s="5">
+        <v>98.080000000000013</v>
+      </c>
+      <c r="F261" s="5">
+        <v>128.32999999999998</v>
+      </c>
+      <c r="G261" s="5">
+        <v>77.17</v>
+      </c>
+      <c r="H261" s="5">
+        <v>151.72999999999999</v>
+      </c>
+      <c r="I261" s="5">
+        <v>71.37</v>
+      </c>
+      <c r="J261" s="5">
+        <v>83.54</v>
+      </c>
+      <c r="K261" s="5">
+        <v>162.66</v>
+      </c>
+      <c r="L261" s="5">
+        <v>107.35</v>
+      </c>
+      <c r="M261" s="5">
+        <v>186.85</v>
+      </c>
+      <c r="N261" s="5">
+        <v>327.39</v>
+      </c>
+      <c r="O261" s="5">
+        <v>454.59</v>
+      </c>
+      <c r="P261" s="5">
+        <v>473.75000000000011</v>
+      </c>
+      <c r="Q261" s="5">
+        <v>167.35000000000002</v>
+      </c>
+      <c r="R261" s="5">
+        <v>207.33</v>
+      </c>
+      <c r="S261" s="5">
+        <v>101.39</v>
+      </c>
+      <c r="T261" s="5">
+        <v>227.5</v>
+      </c>
+      <c r="U261" s="5">
+        <v>0</v>
+      </c>
+      <c r="V261" s="5">
+        <v>31.64</v>
+      </c>
+      <c r="W261" s="5">
+        <v>129.97</v>
+      </c>
+      <c r="X261" s="5">
+        <v>62.97</v>
+      </c>
+      <c r="Y261" s="5">
+        <v>14.28</v>
+      </c>
+      <c r="Z261" s="5">
+        <v>5.51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -476,10 +476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z261"/>
+  <dimension ref="A1:Z293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="F264" sqref="F264"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="F294" sqref="F294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21371,6 +21371,2566 @@
         <v>5.51</v>
       </c>
     </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A262" s="3">
+        <v>46031</v>
+      </c>
+      <c r="B262" t="s">
+        <v>26</v>
+      </c>
+      <c r="C262" s="5">
+        <v>688.28</v>
+      </c>
+      <c r="D262" s="5">
+        <v>1307.07</v>
+      </c>
+      <c r="E262" s="5">
+        <v>629.70000000000005</v>
+      </c>
+      <c r="F262" s="5">
+        <v>747.88</v>
+      </c>
+      <c r="G262" s="5">
+        <v>540.08000000000004</v>
+      </c>
+      <c r="H262" s="5">
+        <v>803.69</v>
+      </c>
+      <c r="I262" s="5">
+        <v>197.51</v>
+      </c>
+      <c r="J262" s="5">
+        <v>295.39</v>
+      </c>
+      <c r="K262" s="5">
+        <v>192.09</v>
+      </c>
+      <c r="L262" s="5">
+        <v>220.78</v>
+      </c>
+      <c r="M262" s="5">
+        <v>101.32</v>
+      </c>
+      <c r="N262" s="5">
+        <v>394.48</v>
+      </c>
+      <c r="O262" s="5">
+        <v>1158.01</v>
+      </c>
+      <c r="P262" s="5">
+        <v>2252.4899999999998</v>
+      </c>
+      <c r="Q262" s="5">
+        <v>1110.1199999999999</v>
+      </c>
+      <c r="R262" s="5">
+        <v>492.38</v>
+      </c>
+      <c r="S262" s="5">
+        <v>498.32</v>
+      </c>
+      <c r="T262" s="5">
+        <v>238.36</v>
+      </c>
+      <c r="U262" s="5">
+        <v>117.86</v>
+      </c>
+      <c r="V262" s="5">
+        <v>207.48</v>
+      </c>
+      <c r="W262" s="5">
+        <v>158.59</v>
+      </c>
+      <c r="X262" s="5">
+        <v>158.96</v>
+      </c>
+      <c r="Y262" s="5">
+        <v>45.54</v>
+      </c>
+      <c r="Z262" s="5">
+        <v>74.319999999999993</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A263" s="3">
+        <v>46031</v>
+      </c>
+      <c r="B263" t="s">
+        <v>27</v>
+      </c>
+      <c r="C263" s="5">
+        <v>673.18999999999994</v>
+      </c>
+      <c r="D263" s="5">
+        <v>65.47999999999999</v>
+      </c>
+      <c r="E263" s="5">
+        <v>73.5</v>
+      </c>
+      <c r="F263" s="5">
+        <v>51.53</v>
+      </c>
+      <c r="G263" s="5">
+        <v>51.31</v>
+      </c>
+      <c r="H263" s="5">
+        <v>45.89</v>
+      </c>
+      <c r="I263" s="5">
+        <v>42.4</v>
+      </c>
+      <c r="J263" s="5">
+        <v>10.82</v>
+      </c>
+      <c r="K263" s="5">
+        <v>178.18000000000004</v>
+      </c>
+      <c r="L263" s="5">
+        <v>398.95000000000005</v>
+      </c>
+      <c r="M263" s="5">
+        <v>97.74</v>
+      </c>
+      <c r="N263" s="5">
+        <v>239.71</v>
+      </c>
+      <c r="O263" s="5">
+        <v>594.95999999999992</v>
+      </c>
+      <c r="P263" s="5">
+        <v>426.01</v>
+      </c>
+      <c r="Q263" s="5">
+        <v>294.13999999999993</v>
+      </c>
+      <c r="R263" s="5">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="S263" s="5">
+        <v>170.21</v>
+      </c>
+      <c r="T263" s="5">
+        <v>72.75</v>
+      </c>
+      <c r="U263" s="5">
+        <v>92.16</v>
+      </c>
+      <c r="V263" s="5">
+        <v>242.3</v>
+      </c>
+      <c r="W263" s="5">
+        <v>62.08</v>
+      </c>
+      <c r="X263" s="5">
+        <v>127.03</v>
+      </c>
+      <c r="Y263" s="5">
+        <v>76.97</v>
+      </c>
+      <c r="Z263" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A264" s="3">
+        <v>46032</v>
+      </c>
+      <c r="B264" t="s">
+        <v>26</v>
+      </c>
+      <c r="C264" s="5">
+        <v>652.97</v>
+      </c>
+      <c r="D264" s="5">
+        <v>1413.99</v>
+      </c>
+      <c r="E264" s="5">
+        <v>747.48</v>
+      </c>
+      <c r="F264" s="5">
+        <v>713.61</v>
+      </c>
+      <c r="G264" s="5">
+        <v>516.47</v>
+      </c>
+      <c r="H264" s="5">
+        <v>697.46</v>
+      </c>
+      <c r="I264" s="5">
+        <v>487.07</v>
+      </c>
+      <c r="J264" s="5">
+        <v>271.44</v>
+      </c>
+      <c r="K264" s="5">
+        <v>126.44</v>
+      </c>
+      <c r="L264" s="5">
+        <v>137.74</v>
+      </c>
+      <c r="M264" s="5">
+        <v>279.55</v>
+      </c>
+      <c r="N264" s="5">
+        <v>524.95000000000005</v>
+      </c>
+      <c r="O264" s="5">
+        <v>842.29</v>
+      </c>
+      <c r="P264" s="5">
+        <v>2131.7399999999998</v>
+      </c>
+      <c r="Q264" s="5">
+        <v>1224.8900000000001</v>
+      </c>
+      <c r="R264" s="5">
+        <v>471.18</v>
+      </c>
+      <c r="S264" s="5">
+        <v>385.39</v>
+      </c>
+      <c r="T264" s="5">
+        <v>368.02</v>
+      </c>
+      <c r="U264" s="5">
+        <v>174.33</v>
+      </c>
+      <c r="V264" s="5">
+        <v>93.33</v>
+      </c>
+      <c r="W264" s="5">
+        <v>71.959999999999994</v>
+      </c>
+      <c r="X264" s="5">
+        <v>115.13</v>
+      </c>
+      <c r="Y264" s="5">
+        <v>45.22</v>
+      </c>
+      <c r="Z264" s="5">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A265" s="3">
+        <v>46032</v>
+      </c>
+      <c r="B265" t="s">
+        <v>27</v>
+      </c>
+      <c r="C265" s="5">
+        <v>730.46</v>
+      </c>
+      <c r="D265" s="5">
+        <v>94.64</v>
+      </c>
+      <c r="E265" s="5">
+        <v>79.350000000000009</v>
+      </c>
+      <c r="F265" s="5">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="G265" s="5">
+        <v>7.15</v>
+      </c>
+      <c r="H265" s="5">
+        <v>135.29000000000002</v>
+      </c>
+      <c r="I265" s="5">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="J265" s="5">
+        <v>32.78</v>
+      </c>
+      <c r="K265" s="5">
+        <v>472.75</v>
+      </c>
+      <c r="L265" s="5">
+        <v>332.11999999999995</v>
+      </c>
+      <c r="M265" s="5">
+        <v>247.68</v>
+      </c>
+      <c r="N265" s="5">
+        <v>224.29000000000002</v>
+      </c>
+      <c r="O265" s="5">
+        <v>673.43000000000006</v>
+      </c>
+      <c r="P265" s="5">
+        <v>282.48</v>
+      </c>
+      <c r="Q265" s="5">
+        <v>137.65</v>
+      </c>
+      <c r="R265" s="5">
+        <v>237.07</v>
+      </c>
+      <c r="S265" s="5">
+        <v>56.14</v>
+      </c>
+      <c r="T265" s="5">
+        <v>50.010000000000005</v>
+      </c>
+      <c r="U265" s="5">
+        <v>237.39</v>
+      </c>
+      <c r="V265" s="5">
+        <v>109.3</v>
+      </c>
+      <c r="W265" s="5">
+        <v>63.68</v>
+      </c>
+      <c r="X265" s="5">
+        <v>26.29</v>
+      </c>
+      <c r="Y265" s="5">
+        <v>134.61000000000001</v>
+      </c>
+      <c r="Z265" s="5">
+        <v>144.26</v>
+      </c>
+    </row>
+    <row r="266" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A266" s="3">
+        <v>46033</v>
+      </c>
+      <c r="B266" t="s">
+        <v>26</v>
+      </c>
+      <c r="C266" s="5">
+        <v>637.39</v>
+      </c>
+      <c r="D266" s="5">
+        <v>1607.17</v>
+      </c>
+      <c r="E266" s="5">
+        <v>862.26</v>
+      </c>
+      <c r="F266" s="5">
+        <v>842.35</v>
+      </c>
+      <c r="G266" s="5">
+        <v>392.77</v>
+      </c>
+      <c r="H266" s="5">
+        <v>639.38</v>
+      </c>
+      <c r="I266" s="5">
+        <v>376.49</v>
+      </c>
+      <c r="J266" s="5">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="K266" s="5">
+        <v>219.84</v>
+      </c>
+      <c r="L266" s="5">
+        <v>158.52000000000001</v>
+      </c>
+      <c r="M266" s="5">
+        <v>336.1</v>
+      </c>
+      <c r="N266" s="5">
+        <v>423.01</v>
+      </c>
+      <c r="O266" s="5">
+        <v>892.16</v>
+      </c>
+      <c r="P266" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Q266" s="5">
+        <v>884.86</v>
+      </c>
+      <c r="R266" s="5">
+        <v>484.42</v>
+      </c>
+      <c r="S266" s="5">
+        <v>564.20000000000005</v>
+      </c>
+      <c r="T266" s="5">
+        <v>265.74</v>
+      </c>
+      <c r="U266" s="5">
+        <v>123.21</v>
+      </c>
+      <c r="V266" s="5">
+        <v>111.12</v>
+      </c>
+      <c r="W266" s="5">
+        <v>188.78</v>
+      </c>
+      <c r="X266" s="5">
+        <v>107.79</v>
+      </c>
+      <c r="Y266" s="5">
+        <v>26.44</v>
+      </c>
+      <c r="Z266" s="5">
+        <v>86.16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A267" s="3">
+        <v>46033</v>
+      </c>
+      <c r="B267" t="s">
+        <v>27</v>
+      </c>
+      <c r="C267" s="5">
+        <v>363.46</v>
+      </c>
+      <c r="D267" s="5">
+        <v>77.03</v>
+      </c>
+      <c r="E267" s="5">
+        <v>160.83999999999997</v>
+      </c>
+      <c r="F267" s="5">
+        <v>36.06</v>
+      </c>
+      <c r="G267" s="5">
+        <v>24.79</v>
+      </c>
+      <c r="H267" s="5">
+        <v>85.62</v>
+      </c>
+      <c r="I267" s="5">
+        <v>100.16000000000001</v>
+      </c>
+      <c r="J267" s="5">
+        <v>85.15</v>
+      </c>
+      <c r="K267" s="5">
+        <v>203.67000000000002</v>
+      </c>
+      <c r="L267" s="5">
+        <v>225.79</v>
+      </c>
+      <c r="M267" s="5">
+        <v>96.32</v>
+      </c>
+      <c r="N267" s="5">
+        <v>244.08999999999995</v>
+      </c>
+      <c r="O267" s="5">
+        <v>623.93000000000018</v>
+      </c>
+      <c r="P267" s="5">
+        <v>460.89</v>
+      </c>
+      <c r="Q267" s="5">
+        <v>156.85</v>
+      </c>
+      <c r="R267" s="5">
+        <v>259.58999999999997</v>
+      </c>
+      <c r="S267" s="5">
+        <v>138.99</v>
+      </c>
+      <c r="T267" s="5">
+        <v>113.46000000000001</v>
+      </c>
+      <c r="U267" s="5">
+        <v>48.55</v>
+      </c>
+      <c r="V267" s="5">
+        <v>72.55</v>
+      </c>
+      <c r="W267" s="5">
+        <v>30.22</v>
+      </c>
+      <c r="X267" s="5">
+        <v>15.43</v>
+      </c>
+      <c r="Y267" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z267" s="5">
+        <v>169.55</v>
+      </c>
+    </row>
+    <row r="268" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A268" s="3">
+        <v>46034</v>
+      </c>
+      <c r="B268" t="s">
+        <v>26</v>
+      </c>
+      <c r="C268" s="5">
+        <v>625.09</v>
+      </c>
+      <c r="D268" s="5">
+        <v>1291.55</v>
+      </c>
+      <c r="E268" s="5">
+        <v>485.82</v>
+      </c>
+      <c r="F268" s="5">
+        <v>490.23</v>
+      </c>
+      <c r="G268" s="5">
+        <v>592.65</v>
+      </c>
+      <c r="H268" s="5">
+        <v>492.99</v>
+      </c>
+      <c r="I268" s="5">
+        <v>543.76</v>
+      </c>
+      <c r="J268" s="5">
+        <v>102.25</v>
+      </c>
+      <c r="K268" s="5">
+        <v>100</v>
+      </c>
+      <c r="L268" s="5">
+        <v>146.54</v>
+      </c>
+      <c r="M268" s="5">
+        <v>275.08999999999997</v>
+      </c>
+      <c r="N268" s="5">
+        <v>162.62</v>
+      </c>
+      <c r="O268" s="5">
+        <v>1064.22</v>
+      </c>
+      <c r="P268" s="5">
+        <v>1798.29</v>
+      </c>
+      <c r="Q268" s="5">
+        <v>772.67</v>
+      </c>
+      <c r="R268" s="5">
+        <v>576.47</v>
+      </c>
+      <c r="S268" s="5">
+        <v>378.18</v>
+      </c>
+      <c r="T268" s="5">
+        <v>94.44</v>
+      </c>
+      <c r="U268" s="5">
+        <v>54.69</v>
+      </c>
+      <c r="V268" s="5">
+        <v>168.28</v>
+      </c>
+      <c r="W268" s="5">
+        <v>147.47</v>
+      </c>
+      <c r="X268" s="5">
+        <v>134.76</v>
+      </c>
+      <c r="Y268" s="5">
+        <v>220.53</v>
+      </c>
+      <c r="Z268" s="5">
+        <v>80.72</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A269" s="3">
+        <v>46034</v>
+      </c>
+      <c r="B269" t="s">
+        <v>27</v>
+      </c>
+      <c r="C269" s="5">
+        <v>330.82</v>
+      </c>
+      <c r="D269" s="5">
+        <v>216.70999999999998</v>
+      </c>
+      <c r="E269" s="5">
+        <v>53.82</v>
+      </c>
+      <c r="F269" s="5">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="G269" s="5">
+        <v>50.59</v>
+      </c>
+      <c r="H269" s="5">
+        <v>66.55</v>
+      </c>
+      <c r="I269" s="5">
+        <v>32.46</v>
+      </c>
+      <c r="J269" s="5">
+        <v>42.06</v>
+      </c>
+      <c r="K269" s="5">
+        <v>110.26</v>
+      </c>
+      <c r="L269" s="5">
+        <v>236.30999999999997</v>
+      </c>
+      <c r="M269" s="5">
+        <v>107.16</v>
+      </c>
+      <c r="N269" s="5">
+        <v>254.63999999999996</v>
+      </c>
+      <c r="O269" s="5">
+        <v>414.36</v>
+      </c>
+      <c r="P269" s="5">
+        <v>560.67999999999995</v>
+      </c>
+      <c r="Q269" s="5">
+        <v>206.82</v>
+      </c>
+      <c r="R269" s="5">
+        <v>91.68</v>
+      </c>
+      <c r="S269" s="5">
+        <v>136.38</v>
+      </c>
+      <c r="T269" s="5">
+        <v>49.22</v>
+      </c>
+      <c r="U269" s="5">
+        <v>148.09</v>
+      </c>
+      <c r="V269" s="5">
+        <v>67.240000000000009</v>
+      </c>
+      <c r="W269" s="5">
+        <v>0</v>
+      </c>
+      <c r="X269" s="5">
+        <v>47.36</v>
+      </c>
+      <c r="Y269" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z269" s="5">
+        <v>204.38</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A270" s="3">
+        <v>46035</v>
+      </c>
+      <c r="B270" t="s">
+        <v>26</v>
+      </c>
+      <c r="C270" s="5">
+        <v>620.91</v>
+      </c>
+      <c r="D270" s="5">
+        <v>1650.48</v>
+      </c>
+      <c r="E270" s="5">
+        <v>510.95</v>
+      </c>
+      <c r="F270" s="5">
+        <v>793.15</v>
+      </c>
+      <c r="G270" s="5">
+        <v>489.11</v>
+      </c>
+      <c r="H270" s="5">
+        <v>525.88</v>
+      </c>
+      <c r="I270" s="5">
+        <v>314.97000000000003</v>
+      </c>
+      <c r="J270" s="5">
+        <v>120.5</v>
+      </c>
+      <c r="K270" s="5">
+        <v>196.54</v>
+      </c>
+      <c r="L270" s="5">
+        <v>182.57</v>
+      </c>
+      <c r="M270" s="5">
+        <v>192.29</v>
+      </c>
+      <c r="N270" s="5">
+        <v>286.27</v>
+      </c>
+      <c r="O270" s="5">
+        <v>1001.43</v>
+      </c>
+      <c r="P270" s="5">
+        <v>1679.83</v>
+      </c>
+      <c r="Q270" s="5">
+        <v>417.58</v>
+      </c>
+      <c r="R270" s="5">
+        <v>566.52</v>
+      </c>
+      <c r="S270" s="5">
+        <v>405.1</v>
+      </c>
+      <c r="T270" s="5">
+        <v>305.18</v>
+      </c>
+      <c r="U270" s="5">
+        <v>62.12</v>
+      </c>
+      <c r="V270" s="5">
+        <v>160.6</v>
+      </c>
+      <c r="W270" s="5">
+        <v>32.39</v>
+      </c>
+      <c r="X270" s="5">
+        <v>58.31</v>
+      </c>
+      <c r="Y270" s="5">
+        <v>15.72</v>
+      </c>
+      <c r="Z270" s="5">
+        <v>50.77</v>
+      </c>
+    </row>
+    <row r="271" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A271" s="3">
+        <v>46035</v>
+      </c>
+      <c r="B271" t="s">
+        <v>27</v>
+      </c>
+      <c r="C271" s="5">
+        <v>361.18</v>
+      </c>
+      <c r="D271" s="5">
+        <v>0</v>
+      </c>
+      <c r="E271" s="5">
+        <v>95.089999999999989</v>
+      </c>
+      <c r="F271" s="5">
+        <v>43.95</v>
+      </c>
+      <c r="G271" s="5">
+        <v>29.25</v>
+      </c>
+      <c r="H271" s="5">
+        <v>62.029999999999994</v>
+      </c>
+      <c r="I271" s="5">
+        <v>0</v>
+      </c>
+      <c r="J271" s="5">
+        <v>0</v>
+      </c>
+      <c r="K271" s="5">
+        <v>151.09</v>
+      </c>
+      <c r="L271" s="5">
+        <v>38.819999999999993</v>
+      </c>
+      <c r="M271" s="5">
+        <v>108.36</v>
+      </c>
+      <c r="N271" s="5">
+        <v>308.36</v>
+      </c>
+      <c r="O271" s="5">
+        <v>416.77</v>
+      </c>
+      <c r="P271" s="5">
+        <v>173.8</v>
+      </c>
+      <c r="Q271" s="5">
+        <v>380.54</v>
+      </c>
+      <c r="R271" s="5">
+        <v>131.08999999999997</v>
+      </c>
+      <c r="S271" s="5">
+        <v>170.86</v>
+      </c>
+      <c r="T271" s="5">
+        <v>70.48</v>
+      </c>
+      <c r="U271" s="5">
+        <v>59.69</v>
+      </c>
+      <c r="V271" s="5">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="W271" s="5">
+        <v>0</v>
+      </c>
+      <c r="X271" s="5">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="Y271" s="5">
+        <v>152.39000000000001</v>
+      </c>
+      <c r="Z271" s="5">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="272" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A272" s="3">
+        <v>46036</v>
+      </c>
+      <c r="B272" t="s">
+        <v>26</v>
+      </c>
+      <c r="C272" s="5">
+        <v>645.53</v>
+      </c>
+      <c r="D272" s="5">
+        <v>1041.94</v>
+      </c>
+      <c r="E272" s="5">
+        <v>718.5</v>
+      </c>
+      <c r="F272" s="5">
+        <v>349.02</v>
+      </c>
+      <c r="G272" s="5">
+        <v>454.26</v>
+      </c>
+      <c r="H272" s="5">
+        <v>551.34</v>
+      </c>
+      <c r="I272" s="5">
+        <v>288.62</v>
+      </c>
+      <c r="J272" s="5">
+        <v>106.78</v>
+      </c>
+      <c r="K272" s="5">
+        <v>128.91</v>
+      </c>
+      <c r="L272" s="5">
+        <v>203.95</v>
+      </c>
+      <c r="M272" s="5">
+        <v>270.89</v>
+      </c>
+      <c r="N272" s="5">
+        <v>181.38</v>
+      </c>
+      <c r="O272" s="5">
+        <v>743.98</v>
+      </c>
+      <c r="P272" s="5">
+        <v>1326.92</v>
+      </c>
+      <c r="Q272" s="5">
+        <v>483.49</v>
+      </c>
+      <c r="R272" s="5">
+        <v>384.64</v>
+      </c>
+      <c r="S272" s="5">
+        <v>272.17</v>
+      </c>
+      <c r="T272" s="5">
+        <v>230.46</v>
+      </c>
+      <c r="U272" s="5">
+        <v>110.36</v>
+      </c>
+      <c r="V272" s="5">
+        <v>112.86</v>
+      </c>
+      <c r="W272" s="5">
+        <v>35.22</v>
+      </c>
+      <c r="X272" s="5">
+        <v>68.83</v>
+      </c>
+      <c r="Y272" s="5">
+        <v>51.6</v>
+      </c>
+      <c r="Z272" s="5">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A273" s="3">
+        <v>46036</v>
+      </c>
+      <c r="B273" t="s">
+        <v>27</v>
+      </c>
+      <c r="C273" s="5">
+        <v>484.67999999999995</v>
+      </c>
+      <c r="D273" s="5">
+        <v>35.85</v>
+      </c>
+      <c r="E273" s="5">
+        <v>0</v>
+      </c>
+      <c r="F273" s="5">
+        <v>38.93</v>
+      </c>
+      <c r="G273" s="5">
+        <v>51.03</v>
+      </c>
+      <c r="H273" s="5">
+        <v>23.64</v>
+      </c>
+      <c r="I273" s="5">
+        <v>0</v>
+      </c>
+      <c r="J273" s="5">
+        <v>0</v>
+      </c>
+      <c r="K273" s="5">
+        <v>171.97</v>
+      </c>
+      <c r="L273" s="5">
+        <v>270.38</v>
+      </c>
+      <c r="M273" s="5">
+        <v>36.67</v>
+      </c>
+      <c r="N273" s="5">
+        <v>252.94</v>
+      </c>
+      <c r="O273" s="5">
+        <v>477.7</v>
+      </c>
+      <c r="P273" s="5">
+        <v>203.45</v>
+      </c>
+      <c r="Q273" s="5">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="R273" s="5">
+        <v>89.53</v>
+      </c>
+      <c r="S273" s="5">
+        <v>93.81</v>
+      </c>
+      <c r="T273" s="5">
+        <v>132.82</v>
+      </c>
+      <c r="U273" s="5">
+        <v>0</v>
+      </c>
+      <c r="V273" s="5">
+        <v>0</v>
+      </c>
+      <c r="W273" s="5">
+        <v>22.52</v>
+      </c>
+      <c r="X273" s="5">
+        <v>122.77000000000001</v>
+      </c>
+      <c r="Y273" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Z273" s="5">
+        <v>34.03</v>
+      </c>
+    </row>
+    <row r="274" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A274" s="3">
+        <v>46037</v>
+      </c>
+      <c r="B274" t="s">
+        <v>26</v>
+      </c>
+      <c r="C274" s="5">
+        <v>391.43</v>
+      </c>
+      <c r="D274" s="5">
+        <v>994.55</v>
+      </c>
+      <c r="E274" s="5">
+        <v>358.67</v>
+      </c>
+      <c r="F274" s="5">
+        <v>386.34</v>
+      </c>
+      <c r="G274" s="5">
+        <v>371.98</v>
+      </c>
+      <c r="H274" s="5">
+        <v>558.92999999999995</v>
+      </c>
+      <c r="I274" s="5">
+        <v>148.71</v>
+      </c>
+      <c r="J274" s="5">
+        <v>82.11</v>
+      </c>
+      <c r="K274" s="5">
+        <v>145.13</v>
+      </c>
+      <c r="L274" s="5">
+        <v>232.75</v>
+      </c>
+      <c r="M274" s="5">
+        <v>217.19</v>
+      </c>
+      <c r="N274" s="5">
+        <v>167.33</v>
+      </c>
+      <c r="O274" s="5">
+        <v>444.78</v>
+      </c>
+      <c r="P274" s="5">
+        <v>949.32</v>
+      </c>
+      <c r="Q274" s="5">
+        <v>400.22</v>
+      </c>
+      <c r="R274" s="5">
+        <v>337.05</v>
+      </c>
+      <c r="S274" s="5">
+        <v>361.92</v>
+      </c>
+      <c r="T274" s="5">
+        <v>76.95</v>
+      </c>
+      <c r="U274" s="5">
+        <v>95.67</v>
+      </c>
+      <c r="V274" s="5">
+        <v>14.78</v>
+      </c>
+      <c r="W274" s="5">
+        <v>0</v>
+      </c>
+      <c r="X274" s="5">
+        <v>54.95</v>
+      </c>
+      <c r="Y274" s="5">
+        <v>46.29</v>
+      </c>
+      <c r="Z274" s="5">
+        <v>25.56</v>
+      </c>
+    </row>
+    <row r="275" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A275" s="3">
+        <v>46037</v>
+      </c>
+      <c r="B275" t="s">
+        <v>27</v>
+      </c>
+      <c r="C275" s="5">
+        <v>154.11000000000001</v>
+      </c>
+      <c r="D275" s="5">
+        <v>47.519999999999996</v>
+      </c>
+      <c r="E275" s="5">
+        <v>0</v>
+      </c>
+      <c r="F275" s="5">
+        <v>43.26</v>
+      </c>
+      <c r="G275" s="5">
+        <v>61.61</v>
+      </c>
+      <c r="H275" s="5">
+        <v>15.79</v>
+      </c>
+      <c r="I275" s="5">
+        <v>0</v>
+      </c>
+      <c r="J275" s="5">
+        <v>0</v>
+      </c>
+      <c r="K275" s="5">
+        <v>43.83</v>
+      </c>
+      <c r="L275" s="5">
+        <v>0</v>
+      </c>
+      <c r="M275" s="5">
+        <v>27.67</v>
+      </c>
+      <c r="N275" s="5">
+        <v>73.22</v>
+      </c>
+      <c r="O275" s="5">
+        <v>330.79999999999995</v>
+      </c>
+      <c r="P275" s="5">
+        <v>65.63</v>
+      </c>
+      <c r="Q275" s="5">
+        <v>36.97</v>
+      </c>
+      <c r="R275" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="S275" s="5">
+        <v>0</v>
+      </c>
+      <c r="T275" s="5">
+        <v>30.61</v>
+      </c>
+      <c r="U275" s="5">
+        <v>0</v>
+      </c>
+      <c r="V275" s="5">
+        <v>62.070000000000007</v>
+      </c>
+      <c r="W275" s="5">
+        <v>38.96</v>
+      </c>
+      <c r="X275" s="5">
+        <v>80.650000000000006</v>
+      </c>
+      <c r="Y275" s="5">
+        <v>40.1</v>
+      </c>
+      <c r="Z275" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A276" s="3">
+        <v>46038</v>
+      </c>
+      <c r="B276" t="s">
+        <v>26</v>
+      </c>
+      <c r="C276" s="5">
+        <v>324.92</v>
+      </c>
+      <c r="D276" s="5">
+        <v>560.37</v>
+      </c>
+      <c r="E276" s="5">
+        <v>356.31</v>
+      </c>
+      <c r="F276" s="5">
+        <v>279.13</v>
+      </c>
+      <c r="G276" s="5">
+        <v>237.19</v>
+      </c>
+      <c r="H276" s="5">
+        <v>239.32</v>
+      </c>
+      <c r="I276" s="5">
+        <v>48.7</v>
+      </c>
+      <c r="J276" s="5">
+        <v>22.08</v>
+      </c>
+      <c r="K276" s="5">
+        <v>28.54</v>
+      </c>
+      <c r="L276" s="5">
+        <v>111.76</v>
+      </c>
+      <c r="M276" s="5">
+        <v>208.24</v>
+      </c>
+      <c r="N276" s="5">
+        <v>42.45</v>
+      </c>
+      <c r="O276" s="5">
+        <v>304.52</v>
+      </c>
+      <c r="P276" s="5">
+        <v>580.38</v>
+      </c>
+      <c r="Q276" s="5">
+        <v>361.53</v>
+      </c>
+      <c r="R276" s="5">
+        <v>235.55</v>
+      </c>
+      <c r="S276" s="5">
+        <v>222.36</v>
+      </c>
+      <c r="T276" s="5">
+        <v>145.11000000000001</v>
+      </c>
+      <c r="U276" s="5">
+        <v>20.48</v>
+      </c>
+      <c r="V276" s="5">
+        <v>76.17</v>
+      </c>
+      <c r="W276" s="5">
+        <v>135</v>
+      </c>
+      <c r="X276" s="5">
+        <v>164.29</v>
+      </c>
+      <c r="Y276" s="5">
+        <v>57.37</v>
+      </c>
+      <c r="Z276" s="5">
+        <v>65.28</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A277" s="3">
+        <v>46038</v>
+      </c>
+      <c r="B277" t="s">
+        <v>27</v>
+      </c>
+      <c r="C277" s="5">
+        <v>74.84</v>
+      </c>
+      <c r="D277" s="5">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="E277" s="5">
+        <v>0</v>
+      </c>
+      <c r="F277" s="5">
+        <v>0</v>
+      </c>
+      <c r="G277" s="5">
+        <v>18.84</v>
+      </c>
+      <c r="H277" s="5">
+        <v>0</v>
+      </c>
+      <c r="I277" s="5">
+        <v>0</v>
+      </c>
+      <c r="J277" s="5">
+        <v>0</v>
+      </c>
+      <c r="K277" s="5">
+        <v>0</v>
+      </c>
+      <c r="L277" s="5">
+        <v>66.38</v>
+      </c>
+      <c r="M277" s="5">
+        <v>101.66</v>
+      </c>
+      <c r="N277" s="5">
+        <v>0</v>
+      </c>
+      <c r="O277" s="5">
+        <v>57.26</v>
+      </c>
+      <c r="P277" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q277" s="5">
+        <v>34.93</v>
+      </c>
+      <c r="R277" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="S277" s="5">
+        <v>0</v>
+      </c>
+      <c r="T277" s="5">
+        <v>144.92000000000002</v>
+      </c>
+      <c r="U277" s="5">
+        <v>0</v>
+      </c>
+      <c r="V277" s="5">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="W277" s="5">
+        <v>0</v>
+      </c>
+      <c r="X277" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y277" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z277" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A278" s="3">
+        <v>46039</v>
+      </c>
+      <c r="B278" t="s">
+        <v>26</v>
+      </c>
+      <c r="C278" s="5">
+        <v>114.48</v>
+      </c>
+      <c r="D278" s="5">
+        <v>687.93</v>
+      </c>
+      <c r="E278" s="5">
+        <v>281.33999999999997</v>
+      </c>
+      <c r="F278" s="5">
+        <v>260.86</v>
+      </c>
+      <c r="G278" s="5">
+        <v>0</v>
+      </c>
+      <c r="H278" s="5">
+        <v>174.36</v>
+      </c>
+      <c r="I278" s="5">
+        <v>114.54</v>
+      </c>
+      <c r="J278" s="5">
+        <v>50.44</v>
+      </c>
+      <c r="K278" s="5">
+        <v>0</v>
+      </c>
+      <c r="L278" s="5">
+        <v>68.39</v>
+      </c>
+      <c r="M278" s="5">
+        <v>69.56</v>
+      </c>
+      <c r="N278" s="5">
+        <v>95.1</v>
+      </c>
+      <c r="O278" s="5">
+        <v>232.53</v>
+      </c>
+      <c r="P278" s="5">
+        <v>440.4</v>
+      </c>
+      <c r="Q278" s="5">
+        <v>295.98</v>
+      </c>
+      <c r="R278" s="5">
+        <v>82.16</v>
+      </c>
+      <c r="S278" s="5">
+        <v>183.16</v>
+      </c>
+      <c r="T278" s="5">
+        <v>22.94</v>
+      </c>
+      <c r="U278" s="5">
+        <v>54.92</v>
+      </c>
+      <c r="V278" s="5">
+        <v>178.64</v>
+      </c>
+      <c r="W278" s="5">
+        <v>0</v>
+      </c>
+      <c r="X278" s="5">
+        <v>20.38</v>
+      </c>
+      <c r="Y278" s="5">
+        <v>64.67</v>
+      </c>
+      <c r="Z278" s="5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A279" s="3">
+        <v>46039</v>
+      </c>
+      <c r="B279" t="s">
+        <v>27</v>
+      </c>
+      <c r="C279" s="5">
+        <v>118.14000000000001</v>
+      </c>
+      <c r="D279" s="5">
+        <v>0</v>
+      </c>
+      <c r="E279" s="5">
+        <v>50.26</v>
+      </c>
+      <c r="F279" s="5">
+        <v>20.69</v>
+      </c>
+      <c r="G279" s="5">
+        <v>0</v>
+      </c>
+      <c r="H279" s="5">
+        <v>23.62</v>
+      </c>
+      <c r="I279" s="5">
+        <v>0</v>
+      </c>
+      <c r="J279" s="5">
+        <v>0</v>
+      </c>
+      <c r="K279" s="5">
+        <v>0</v>
+      </c>
+      <c r="L279" s="5">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="M279" s="5">
+        <v>0</v>
+      </c>
+      <c r="N279" s="5">
+        <v>0</v>
+      </c>
+      <c r="O279" s="5">
+        <v>158.18</v>
+      </c>
+      <c r="P279" s="5">
+        <v>37.1</v>
+      </c>
+      <c r="Q279" s="5">
+        <v>77.349999999999994</v>
+      </c>
+      <c r="R279" s="5">
+        <v>50.120000000000005</v>
+      </c>
+      <c r="S279" s="5">
+        <v>54.54</v>
+      </c>
+      <c r="T279" s="5">
+        <v>81.12</v>
+      </c>
+      <c r="U279" s="5">
+        <v>11.6</v>
+      </c>
+      <c r="V279" s="5">
+        <v>30.77</v>
+      </c>
+      <c r="W279" s="5">
+        <v>39.479999999999997</v>
+      </c>
+      <c r="X279" s="5">
+        <v>113.28</v>
+      </c>
+      <c r="Y279" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z279" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A280" s="3">
+        <v>46040</v>
+      </c>
+      <c r="B280" t="s">
+        <v>26</v>
+      </c>
+      <c r="C280" s="5">
+        <v>376.79</v>
+      </c>
+      <c r="D280" s="5">
+        <v>663.63</v>
+      </c>
+      <c r="E280" s="5">
+        <v>242.95</v>
+      </c>
+      <c r="F280" s="5">
+        <v>258.02</v>
+      </c>
+      <c r="G280" s="5">
+        <v>63.12</v>
+      </c>
+      <c r="H280" s="5">
+        <v>260.38</v>
+      </c>
+      <c r="I280" s="5">
+        <v>67.8</v>
+      </c>
+      <c r="J280" s="5">
+        <v>33.64</v>
+      </c>
+      <c r="K280" s="5">
+        <v>113.49</v>
+      </c>
+      <c r="L280" s="5">
+        <v>36.53</v>
+      </c>
+      <c r="M280" s="5">
+        <v>36.28</v>
+      </c>
+      <c r="N280" s="5">
+        <v>199.74</v>
+      </c>
+      <c r="O280" s="5">
+        <v>289.99</v>
+      </c>
+      <c r="P280" s="5">
+        <v>721.38</v>
+      </c>
+      <c r="Q280" s="5">
+        <v>290.06</v>
+      </c>
+      <c r="R280" s="5">
+        <v>171.2</v>
+      </c>
+      <c r="S280" s="5">
+        <v>229.21</v>
+      </c>
+      <c r="T280" s="5">
+        <v>237.01</v>
+      </c>
+      <c r="U280" s="5">
+        <v>107.2</v>
+      </c>
+      <c r="V280" s="5">
+        <v>64.13</v>
+      </c>
+      <c r="W280" s="5">
+        <v>34.31</v>
+      </c>
+      <c r="X280" s="5">
+        <v>123.01</v>
+      </c>
+      <c r="Y280" s="5">
+        <v>81.12</v>
+      </c>
+      <c r="Z280" s="5">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A281" s="3">
+        <v>46040</v>
+      </c>
+      <c r="B281" t="s">
+        <v>27</v>
+      </c>
+      <c r="C281" s="5">
+        <v>204.01999999999998</v>
+      </c>
+      <c r="D281" s="5">
+        <v>38.26</v>
+      </c>
+      <c r="E281" s="5">
+        <v>0</v>
+      </c>
+      <c r="F281" s="5">
+        <v>0</v>
+      </c>
+      <c r="G281" s="5">
+        <v>0</v>
+      </c>
+      <c r="H281" s="5">
+        <v>16.05</v>
+      </c>
+      <c r="I281" s="5">
+        <v>0</v>
+      </c>
+      <c r="J281" s="5">
+        <v>55.680000000000007</v>
+      </c>
+      <c r="K281" s="5">
+        <v>22.2</v>
+      </c>
+      <c r="L281" s="5">
+        <v>16.23</v>
+      </c>
+      <c r="M281" s="5">
+        <v>0</v>
+      </c>
+      <c r="N281" s="5">
+        <v>165.82999999999998</v>
+      </c>
+      <c r="O281" s="5">
+        <v>231.35000000000002</v>
+      </c>
+      <c r="P281" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q281" s="5">
+        <v>11.46</v>
+      </c>
+      <c r="R281" s="5">
+        <v>73.75</v>
+      </c>
+      <c r="S281" s="5">
+        <v>0</v>
+      </c>
+      <c r="T281" s="5">
+        <v>14.69</v>
+      </c>
+      <c r="U281" s="5">
+        <v>46.57</v>
+      </c>
+      <c r="V281" s="5">
+        <v>0</v>
+      </c>
+      <c r="W281" s="5">
+        <v>111.38999999999999</v>
+      </c>
+      <c r="X281" s="5">
+        <v>65.83</v>
+      </c>
+      <c r="Y281" s="5">
+        <v>46.41</v>
+      </c>
+      <c r="Z281" s="5">
+        <v>33.31</v>
+      </c>
+    </row>
+    <row r="282" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A282" s="3">
+        <v>46041</v>
+      </c>
+      <c r="B282" t="s">
+        <v>26</v>
+      </c>
+      <c r="C282" s="5">
+        <v>390.44</v>
+      </c>
+      <c r="D282" s="5">
+        <v>632.99</v>
+      </c>
+      <c r="E282" s="5">
+        <v>303.27</v>
+      </c>
+      <c r="F282" s="5">
+        <v>413.09</v>
+      </c>
+      <c r="G282" s="5">
+        <v>57.78</v>
+      </c>
+      <c r="H282" s="5">
+        <v>218.13</v>
+      </c>
+      <c r="I282" s="5">
+        <v>93.44</v>
+      </c>
+      <c r="J282" s="5">
+        <v>45.24</v>
+      </c>
+      <c r="K282" s="5">
+        <v>134.68</v>
+      </c>
+      <c r="L282" s="5">
+        <v>40.79</v>
+      </c>
+      <c r="M282" s="5">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="N282" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="O282" s="5">
+        <v>406.93</v>
+      </c>
+      <c r="P282" s="5">
+        <v>850.69</v>
+      </c>
+      <c r="Q282" s="5">
+        <v>166.06</v>
+      </c>
+      <c r="R282" s="5">
+        <v>392.84</v>
+      </c>
+      <c r="S282" s="5">
+        <v>140</v>
+      </c>
+      <c r="T282" s="5">
+        <v>116.62</v>
+      </c>
+      <c r="U282" s="5">
+        <v>79.31</v>
+      </c>
+      <c r="V282" s="5">
+        <v>147.13</v>
+      </c>
+      <c r="W282" s="5">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="X282" s="5">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="Y282" s="5">
+        <v>136.88</v>
+      </c>
+      <c r="Z282" s="5">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A283" s="3">
+        <v>46041</v>
+      </c>
+      <c r="B283" t="s">
+        <v>27</v>
+      </c>
+      <c r="C283" s="5">
+        <v>172.24</v>
+      </c>
+      <c r="D283" s="5">
+        <v>12.09</v>
+      </c>
+      <c r="E283" s="5">
+        <v>99.45</v>
+      </c>
+      <c r="F283" s="5">
+        <v>33.11</v>
+      </c>
+      <c r="G283" s="5">
+        <v>31.95</v>
+      </c>
+      <c r="H283" s="5">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="I283" s="5">
+        <v>0</v>
+      </c>
+      <c r="J283" s="5">
+        <v>0</v>
+      </c>
+      <c r="K283" s="5">
+        <v>0</v>
+      </c>
+      <c r="L283" s="5">
+        <v>25.1</v>
+      </c>
+      <c r="M283" s="5">
+        <v>0</v>
+      </c>
+      <c r="N283" s="5">
+        <v>0</v>
+      </c>
+      <c r="O283" s="5">
+        <v>54.3</v>
+      </c>
+      <c r="P283" s="5">
+        <v>108.28999999999999</v>
+      </c>
+      <c r="Q283" s="5">
+        <v>140.33000000000001</v>
+      </c>
+      <c r="R283" s="5">
+        <v>0</v>
+      </c>
+      <c r="S283" s="5">
+        <v>49.36</v>
+      </c>
+      <c r="T283" s="5">
+        <v>0</v>
+      </c>
+      <c r="U283" s="5">
+        <v>0</v>
+      </c>
+      <c r="V283" s="5">
+        <v>54.47</v>
+      </c>
+      <c r="W283" s="5">
+        <v>83.85</v>
+      </c>
+      <c r="X283" s="5">
+        <v>63.790000000000006</v>
+      </c>
+      <c r="Y283" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z283" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A284" s="3">
+        <v>46042</v>
+      </c>
+      <c r="B284" t="s">
+        <v>26</v>
+      </c>
+      <c r="C284" s="5">
+        <v>505.4</v>
+      </c>
+      <c r="D284" s="5">
+        <v>802.78</v>
+      </c>
+      <c r="E284" s="5">
+        <v>464.23</v>
+      </c>
+      <c r="F284" s="5">
+        <v>281.27</v>
+      </c>
+      <c r="G284" s="5">
+        <v>155.83000000000001</v>
+      </c>
+      <c r="H284" s="5">
+        <v>270.10000000000002</v>
+      </c>
+      <c r="I284" s="5">
+        <v>88.82</v>
+      </c>
+      <c r="J284" s="5">
+        <v>4.84</v>
+      </c>
+      <c r="K284" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="L284" s="5">
+        <v>49.96</v>
+      </c>
+      <c r="M284" s="5">
+        <v>69.03</v>
+      </c>
+      <c r="N284" s="5">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="O284" s="5">
+        <v>452.52</v>
+      </c>
+      <c r="P284" s="5">
+        <v>715.47</v>
+      </c>
+      <c r="Q284" s="5">
+        <v>187.22</v>
+      </c>
+      <c r="R284" s="5">
+        <v>427.46</v>
+      </c>
+      <c r="S284" s="5">
+        <v>289.36</v>
+      </c>
+      <c r="T284" s="5">
+        <v>146.1</v>
+      </c>
+      <c r="U284" s="5">
+        <v>148.46</v>
+      </c>
+      <c r="V284" s="5">
+        <v>15.3</v>
+      </c>
+      <c r="W284" s="5">
+        <v>112.16</v>
+      </c>
+      <c r="X284" s="5">
+        <v>40.08</v>
+      </c>
+      <c r="Y284" s="5">
+        <v>57.31</v>
+      </c>
+      <c r="Z284" s="5">
+        <v>146.32</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A285" s="3">
+        <v>46042</v>
+      </c>
+      <c r="B285" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285" s="5">
+        <v>148.13</v>
+      </c>
+      <c r="D285" s="5">
+        <v>141.36000000000001</v>
+      </c>
+      <c r="E285" s="5">
+        <v>0</v>
+      </c>
+      <c r="F285" s="5">
+        <v>58.930000000000007</v>
+      </c>
+      <c r="G285" s="5">
+        <v>10.95</v>
+      </c>
+      <c r="H285" s="5">
+        <v>14.36</v>
+      </c>
+      <c r="I285" s="5">
+        <v>0</v>
+      </c>
+      <c r="J285" s="5">
+        <v>0</v>
+      </c>
+      <c r="K285" s="5">
+        <v>16.91</v>
+      </c>
+      <c r="L285" s="5">
+        <v>0</v>
+      </c>
+      <c r="M285" s="5">
+        <v>52.82</v>
+      </c>
+      <c r="N285" s="5">
+        <v>0</v>
+      </c>
+      <c r="O285" s="5">
+        <v>85.36</v>
+      </c>
+      <c r="P285" s="5">
+        <v>64.260000000000005</v>
+      </c>
+      <c r="Q285" s="5">
+        <v>81.22999999999999</v>
+      </c>
+      <c r="R285" s="5">
+        <v>135.46</v>
+      </c>
+      <c r="S285" s="5">
+        <v>199.72000000000003</v>
+      </c>
+      <c r="T285" s="5">
+        <v>43.269999999999996</v>
+      </c>
+      <c r="U285" s="5">
+        <v>0</v>
+      </c>
+      <c r="V285" s="5">
+        <v>0</v>
+      </c>
+      <c r="W285" s="5">
+        <v>88.1</v>
+      </c>
+      <c r="X285" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y285" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z285" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A286" s="3">
+        <v>46043</v>
+      </c>
+      <c r="B286" t="s">
+        <v>26</v>
+      </c>
+      <c r="C286" s="5">
+        <v>263.76</v>
+      </c>
+      <c r="D286" s="5">
+        <v>1071.1500000000001</v>
+      </c>
+      <c r="E286" s="5">
+        <v>508.16</v>
+      </c>
+      <c r="F286" s="5">
+        <v>272.17</v>
+      </c>
+      <c r="G286" s="5">
+        <v>350.48</v>
+      </c>
+      <c r="H286" s="5">
+        <v>275.99</v>
+      </c>
+      <c r="I286" s="5">
+        <v>126.1</v>
+      </c>
+      <c r="J286" s="5">
+        <v>102.96</v>
+      </c>
+      <c r="K286" s="5">
+        <v>116.85</v>
+      </c>
+      <c r="L286" s="5">
+        <v>13.98</v>
+      </c>
+      <c r="M286" s="5">
+        <v>82.56</v>
+      </c>
+      <c r="N286" s="5">
+        <v>142.97999999999999</v>
+      </c>
+      <c r="O286" s="5">
+        <v>535.27</v>
+      </c>
+      <c r="P286" s="5">
+        <v>799.45</v>
+      </c>
+      <c r="Q286" s="5">
+        <v>292.77</v>
+      </c>
+      <c r="R286" s="5">
+        <v>324.24</v>
+      </c>
+      <c r="S286" s="5">
+        <v>298.45999999999998</v>
+      </c>
+      <c r="T286" s="5">
+        <v>20.84</v>
+      </c>
+      <c r="U286" s="5">
+        <v>97.72</v>
+      </c>
+      <c r="V286" s="5">
+        <v>6.58</v>
+      </c>
+      <c r="W286" s="5">
+        <v>107.07</v>
+      </c>
+      <c r="X286" s="5">
+        <v>43.33</v>
+      </c>
+      <c r="Y286" s="5">
+        <v>58.86</v>
+      </c>
+      <c r="Z286" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A287" s="3">
+        <v>46043</v>
+      </c>
+      <c r="B287" t="s">
+        <v>27</v>
+      </c>
+      <c r="C287" s="5">
+        <v>116.42999999999999</v>
+      </c>
+      <c r="D287" s="5">
+        <v>110.8</v>
+      </c>
+      <c r="E287" s="5">
+        <v>26.74</v>
+      </c>
+      <c r="F287" s="5">
+        <v>23.6</v>
+      </c>
+      <c r="G287" s="5">
+        <v>64.19</v>
+      </c>
+      <c r="H287" s="5">
+        <v>11.46</v>
+      </c>
+      <c r="I287" s="5">
+        <v>0</v>
+      </c>
+      <c r="J287" s="5">
+        <v>0</v>
+      </c>
+      <c r="K287" s="5">
+        <v>0</v>
+      </c>
+      <c r="L287" s="5">
+        <v>95.85</v>
+      </c>
+      <c r="M287" s="5">
+        <v>0</v>
+      </c>
+      <c r="N287" s="5">
+        <v>224.92</v>
+      </c>
+      <c r="O287" s="5">
+        <v>209.9</v>
+      </c>
+      <c r="P287" s="5">
+        <v>100.2</v>
+      </c>
+      <c r="Q287" s="5">
+        <v>73.94</v>
+      </c>
+      <c r="R287" s="5">
+        <v>63.14</v>
+      </c>
+      <c r="S287" s="5">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="T287" s="5">
+        <v>13.55</v>
+      </c>
+      <c r="U287" s="5">
+        <v>0</v>
+      </c>
+      <c r="V287" s="5">
+        <v>0</v>
+      </c>
+      <c r="W287" s="5">
+        <v>107.45</v>
+      </c>
+      <c r="X287" s="5">
+        <v>37.459999999999994</v>
+      </c>
+      <c r="Y287" s="5">
+        <v>36.97</v>
+      </c>
+      <c r="Z287" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A288" s="3">
+        <v>46044</v>
+      </c>
+      <c r="B288" t="s">
+        <v>26</v>
+      </c>
+      <c r="C288" s="5">
+        <v>303.3</v>
+      </c>
+      <c r="D288" s="5">
+        <v>1094.77</v>
+      </c>
+      <c r="E288" s="5">
+        <v>278.44</v>
+      </c>
+      <c r="F288" s="5">
+        <v>371.64</v>
+      </c>
+      <c r="G288" s="5">
+        <v>416.74</v>
+      </c>
+      <c r="H288" s="5">
+        <v>363.67</v>
+      </c>
+      <c r="I288" s="5">
+        <v>226.65</v>
+      </c>
+      <c r="J288" s="5">
+        <v>157.63999999999999</v>
+      </c>
+      <c r="K288" s="5">
+        <v>29.98</v>
+      </c>
+      <c r="L288" s="5">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="M288" s="5">
+        <v>62.06</v>
+      </c>
+      <c r="N288" s="5">
+        <v>186.84</v>
+      </c>
+      <c r="O288" s="5">
+        <v>477.31</v>
+      </c>
+      <c r="P288" s="5">
+        <v>1169.8699999999999</v>
+      </c>
+      <c r="Q288" s="5">
+        <v>480.01</v>
+      </c>
+      <c r="R288" s="5">
+        <v>252.93</v>
+      </c>
+      <c r="S288" s="5">
+        <v>297.57</v>
+      </c>
+      <c r="T288" s="5">
+        <v>248.67</v>
+      </c>
+      <c r="U288" s="5">
+        <v>242.16</v>
+      </c>
+      <c r="V288" s="5">
+        <v>81.62</v>
+      </c>
+      <c r="W288" s="5">
+        <v>23.64</v>
+      </c>
+      <c r="X288" s="5">
+        <v>123.47</v>
+      </c>
+      <c r="Y288" s="5">
+        <v>39.6</v>
+      </c>
+      <c r="Z288" s="5">
+        <v>44.41</v>
+      </c>
+    </row>
+    <row r="289" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A289" s="3">
+        <v>46044</v>
+      </c>
+      <c r="B289" t="s">
+        <v>27</v>
+      </c>
+      <c r="C289" s="5">
+        <v>238.26</v>
+      </c>
+      <c r="D289" s="5">
+        <v>27.36</v>
+      </c>
+      <c r="E289" s="5">
+        <v>0</v>
+      </c>
+      <c r="F289" s="5">
+        <v>13.69</v>
+      </c>
+      <c r="G289" s="5">
+        <v>42.53</v>
+      </c>
+      <c r="H289" s="5">
+        <v>14.46</v>
+      </c>
+      <c r="I289" s="5">
+        <v>0</v>
+      </c>
+      <c r="J289" s="5">
+        <v>0</v>
+      </c>
+      <c r="K289" s="5">
+        <v>63.62</v>
+      </c>
+      <c r="L289" s="5">
+        <v>75.3</v>
+      </c>
+      <c r="M289" s="5">
+        <v>21.77</v>
+      </c>
+      <c r="N289" s="5">
+        <v>116.28</v>
+      </c>
+      <c r="O289" s="5">
+        <v>239.87000000000003</v>
+      </c>
+      <c r="P289" s="5">
+        <v>32.6</v>
+      </c>
+      <c r="Q289" s="5">
+        <v>75.56</v>
+      </c>
+      <c r="R289" s="5">
+        <v>68.179999999999993</v>
+      </c>
+      <c r="S289" s="5">
+        <v>0</v>
+      </c>
+      <c r="T289" s="5">
+        <v>40.909999999999997</v>
+      </c>
+      <c r="U289" s="5">
+        <v>80.739999999999995</v>
+      </c>
+      <c r="V289" s="5">
+        <v>0</v>
+      </c>
+      <c r="W289" s="5">
+        <v>79.789999999999992</v>
+      </c>
+      <c r="X289" s="5">
+        <v>66.63</v>
+      </c>
+      <c r="Y289" s="5">
+        <v>18.05</v>
+      </c>
+      <c r="Z289" s="5">
+        <v>30.54</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A290" s="3">
+        <v>46045</v>
+      </c>
+      <c r="B290" t="s">
+        <v>26</v>
+      </c>
+      <c r="C290" s="5">
+        <v>498.05</v>
+      </c>
+      <c r="D290" s="5">
+        <v>823.05</v>
+      </c>
+      <c r="E290" s="5">
+        <v>249.02</v>
+      </c>
+      <c r="F290" s="5">
+        <v>653.07000000000005</v>
+      </c>
+      <c r="G290" s="5">
+        <v>374.22</v>
+      </c>
+      <c r="H290" s="5">
+        <v>349.88</v>
+      </c>
+      <c r="I290" s="5">
+        <v>161.62</v>
+      </c>
+      <c r="J290" s="5">
+        <v>66.27</v>
+      </c>
+      <c r="K290" s="5">
+        <v>140.28</v>
+      </c>
+      <c r="L290" s="5">
+        <v>91.39</v>
+      </c>
+      <c r="M290" s="5">
+        <v>125.89</v>
+      </c>
+      <c r="N290" s="5">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="O290" s="5">
+        <v>623.91999999999996</v>
+      </c>
+      <c r="P290" s="5">
+        <v>1301.81</v>
+      </c>
+      <c r="Q290" s="5">
+        <v>330.25</v>
+      </c>
+      <c r="R290" s="5">
+        <v>279.85000000000002</v>
+      </c>
+      <c r="S290" s="5">
+        <v>256.55</v>
+      </c>
+      <c r="T290" s="5">
+        <v>83.95</v>
+      </c>
+      <c r="U290" s="5">
+        <v>136.86000000000001</v>
+      </c>
+      <c r="V290" s="5">
+        <v>104.24</v>
+      </c>
+      <c r="W290" s="5">
+        <v>102.27</v>
+      </c>
+      <c r="X290" s="5">
+        <v>159.28</v>
+      </c>
+      <c r="Y290" s="5">
+        <v>103.1</v>
+      </c>
+      <c r="Z290" s="5">
+        <v>225.6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A291" s="3">
+        <v>46045</v>
+      </c>
+      <c r="B291" t="s">
+        <v>27</v>
+      </c>
+      <c r="C291" s="5">
+        <v>286.27</v>
+      </c>
+      <c r="D291" s="5">
+        <v>95.37</v>
+      </c>
+      <c r="E291" s="5">
+        <v>21</v>
+      </c>
+      <c r="F291" s="5">
+        <v>0</v>
+      </c>
+      <c r="G291" s="5">
+        <v>0</v>
+      </c>
+      <c r="H291" s="5">
+        <v>47.839999999999996</v>
+      </c>
+      <c r="I291" s="5">
+        <v>0</v>
+      </c>
+      <c r="J291" s="5">
+        <v>0</v>
+      </c>
+      <c r="K291" s="5">
+        <v>37.620000000000005</v>
+      </c>
+      <c r="L291" s="5">
+        <v>147.03</v>
+      </c>
+      <c r="M291" s="5">
+        <v>78.22</v>
+      </c>
+      <c r="N291" s="5">
+        <v>206.02</v>
+      </c>
+      <c r="O291" s="5">
+        <v>303.70999999999998</v>
+      </c>
+      <c r="P291" s="5">
+        <v>147.16999999999996</v>
+      </c>
+      <c r="Q291" s="5">
+        <v>191.23</v>
+      </c>
+      <c r="R291" s="5">
+        <v>37.620000000000005</v>
+      </c>
+      <c r="S291" s="5">
+        <v>143.61000000000001</v>
+      </c>
+      <c r="T291" s="5">
+        <v>67.16</v>
+      </c>
+      <c r="U291" s="5">
+        <v>21.11</v>
+      </c>
+      <c r="V291" s="5">
+        <v>76.72</v>
+      </c>
+      <c r="W291" s="5">
+        <v>0</v>
+      </c>
+      <c r="X291" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y291" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="Z291" s="5">
+        <v>37.51</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A292" s="3">
+        <v>46046</v>
+      </c>
+      <c r="B292" t="s">
+        <v>26</v>
+      </c>
+      <c r="C292" s="5">
+        <v>612.58000000000004</v>
+      </c>
+      <c r="D292" s="5">
+        <v>996.74</v>
+      </c>
+      <c r="E292" s="5">
+        <v>553.36</v>
+      </c>
+      <c r="F292" s="5">
+        <v>256.89</v>
+      </c>
+      <c r="G292" s="5">
+        <v>695.26</v>
+      </c>
+      <c r="H292" s="5">
+        <v>616.04999999999995</v>
+      </c>
+      <c r="I292" s="5">
+        <v>231.29</v>
+      </c>
+      <c r="J292" s="5">
+        <v>196.17</v>
+      </c>
+      <c r="K292" s="5">
+        <v>166.81</v>
+      </c>
+      <c r="L292" s="5">
+        <v>313.98</v>
+      </c>
+      <c r="M292" s="5">
+        <v>105.94</v>
+      </c>
+      <c r="N292" s="5">
+        <v>286.35000000000002</v>
+      </c>
+      <c r="O292" s="5">
+        <v>762.22</v>
+      </c>
+      <c r="P292" s="5">
+        <v>1388.65</v>
+      </c>
+      <c r="Q292" s="5">
+        <v>806.62</v>
+      </c>
+      <c r="R292" s="5">
+        <v>337.29</v>
+      </c>
+      <c r="S292" s="5">
+        <v>377.76</v>
+      </c>
+      <c r="T292" s="5">
+        <v>166.53</v>
+      </c>
+      <c r="U292" s="5">
+        <v>75.37</v>
+      </c>
+      <c r="V292" s="5">
+        <v>73.3</v>
+      </c>
+      <c r="W292" s="5">
+        <v>114.83</v>
+      </c>
+      <c r="X292" s="5">
+        <v>170.32</v>
+      </c>
+      <c r="Y292" s="5">
+        <v>53.12</v>
+      </c>
+      <c r="Z292" s="5">
+        <v>42.54</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A293" s="3">
+        <v>46046</v>
+      </c>
+      <c r="B293" t="s">
+        <v>27</v>
+      </c>
+      <c r="C293" s="5">
+        <v>107.74000000000001</v>
+      </c>
+      <c r="D293" s="5">
+        <v>22</v>
+      </c>
+      <c r="E293" s="5">
+        <v>38.14</v>
+      </c>
+      <c r="F293" s="5">
+        <v>92.31</v>
+      </c>
+      <c r="G293" s="5">
+        <v>0</v>
+      </c>
+      <c r="H293" s="5">
+        <v>141.32</v>
+      </c>
+      <c r="I293" s="5">
+        <v>28.75</v>
+      </c>
+      <c r="J293" s="5">
+        <v>0</v>
+      </c>
+      <c r="K293" s="5">
+        <v>79.240000000000009</v>
+      </c>
+      <c r="L293" s="5">
+        <v>112.39</v>
+      </c>
+      <c r="M293" s="5">
+        <v>174.92</v>
+      </c>
+      <c r="N293" s="5">
+        <v>213.68</v>
+      </c>
+      <c r="O293" s="5">
+        <v>424.15000000000009</v>
+      </c>
+      <c r="P293" s="5">
+        <v>222.84999999999997</v>
+      </c>
+      <c r="Q293" s="5">
+        <v>87.570000000000007</v>
+      </c>
+      <c r="R293" s="5">
+        <v>206.39</v>
+      </c>
+      <c r="S293" s="5">
+        <v>133.28</v>
+      </c>
+      <c r="T293" s="5">
+        <v>253.54999999999998</v>
+      </c>
+      <c r="U293" s="5">
+        <v>139.91</v>
+      </c>
+      <c r="V293" s="5">
+        <v>194.09999999999997</v>
+      </c>
+      <c r="W293" s="5">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="X293" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y293" s="5">
+        <v>46.89</v>
+      </c>
+      <c r="Z293" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -106,6 +106,9 @@
   <si>
     <t>高岭站充电量(kw)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2026-2-29</t>
   </si>
 </sst>
 </file>
@@ -478,8 +481,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="F294" sqref="F294"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20093,7 +20096,7 @@
     </row>
     <row r="246" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A246" s="3">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="B246" t="s">
         <v>26</v>
@@ -20173,7 +20176,7 @@
     </row>
     <row r="247" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A247" s="3">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="B247" t="s">
         <v>27</v>
@@ -20253,7 +20256,7 @@
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A248" s="3">
-        <v>46024</v>
+        <v>46055</v>
       </c>
       <c r="B248" t="s">
         <v>26</v>
@@ -20333,7 +20336,7 @@
     </row>
     <row r="249" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A249" s="3">
-        <v>46024</v>
+        <v>46055</v>
       </c>
       <c r="B249" t="s">
         <v>27</v>
@@ -20413,7 +20416,7 @@
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A250" s="3">
-        <v>46025</v>
+        <v>46056</v>
       </c>
       <c r="B250" t="s">
         <v>26</v>
@@ -20493,7 +20496,7 @@
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A251" s="3">
-        <v>46025</v>
+        <v>46056</v>
       </c>
       <c r="B251" t="s">
         <v>27</v>
@@ -20573,7 +20576,7 @@
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A252" s="3">
-        <v>46026</v>
+        <v>46057</v>
       </c>
       <c r="B252" t="s">
         <v>26</v>
@@ -20653,7 +20656,7 @@
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A253" s="3">
-        <v>46026</v>
+        <v>46057</v>
       </c>
       <c r="B253" t="s">
         <v>27</v>
@@ -20733,7 +20736,7 @@
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A254" s="3">
-        <v>46027</v>
+        <v>46058</v>
       </c>
       <c r="B254" t="s">
         <v>26</v>
@@ -20813,7 +20816,7 @@
     </row>
     <row r="255" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A255" s="3">
-        <v>46027</v>
+        <v>46058</v>
       </c>
       <c r="B255" t="s">
         <v>27</v>
@@ -20893,7 +20896,7 @@
     </row>
     <row r="256" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A256" s="3">
-        <v>46028</v>
+        <v>46059</v>
       </c>
       <c r="B256" t="s">
         <v>26</v>
@@ -20973,7 +20976,7 @@
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A257" s="3">
-        <v>46028</v>
+        <v>46059</v>
       </c>
       <c r="B257" t="s">
         <v>27</v>
@@ -21053,7 +21056,7 @@
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A258" s="3">
-        <v>46029</v>
+        <v>46060</v>
       </c>
       <c r="B258" t="s">
         <v>26</v>
@@ -21133,7 +21136,7 @@
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A259" s="3">
-        <v>46029</v>
+        <v>46060</v>
       </c>
       <c r="B259" t="s">
         <v>27</v>
@@ -21213,7 +21216,7 @@
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A260" s="3">
-        <v>46030</v>
+        <v>46061</v>
       </c>
       <c r="B260" t="s">
         <v>26</v>
@@ -21293,7 +21296,7 @@
     </row>
     <row r="261" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A261" s="3">
-        <v>46030</v>
+        <v>46061</v>
       </c>
       <c r="B261" t="s">
         <v>27</v>
@@ -21373,7 +21376,7 @@
     </row>
     <row r="262" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A262" s="3">
-        <v>46031</v>
+        <v>46062</v>
       </c>
       <c r="B262" t="s">
         <v>26</v>
@@ -21453,7 +21456,7 @@
     </row>
     <row r="263" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A263" s="3">
-        <v>46031</v>
+        <v>46062</v>
       </c>
       <c r="B263" t="s">
         <v>27</v>
@@ -21533,7 +21536,7 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A264" s="3">
-        <v>46032</v>
+        <v>46073</v>
       </c>
       <c r="B264" t="s">
         <v>26</v>
@@ -21613,7 +21616,7 @@
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A265" s="3">
-        <v>46032</v>
+        <v>46073</v>
       </c>
       <c r="B265" t="s">
         <v>27</v>
@@ -21693,7 +21696,7 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A266" s="3">
-        <v>46033</v>
+        <v>46075</v>
       </c>
       <c r="B266" t="s">
         <v>26</v>
@@ -21773,7 +21776,7 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A267" s="3">
-        <v>46033</v>
+        <v>46075</v>
       </c>
       <c r="B267" t="s">
         <v>27</v>
@@ -21853,7 +21856,7 @@
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
-        <v>46034</v>
+        <v>46075</v>
       </c>
       <c r="B268" t="s">
         <v>26</v>
@@ -21933,7 +21936,7 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A269" s="3">
-        <v>46034</v>
+        <v>46075</v>
       </c>
       <c r="B269" t="s">
         <v>27</v>
@@ -22013,7 +22016,7 @@
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A270" s="3">
-        <v>46035</v>
+        <v>46076</v>
       </c>
       <c r="B270" t="s">
         <v>26</v>
@@ -22093,7 +22096,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A271" s="3">
-        <v>46035</v>
+        <v>46076</v>
       </c>
       <c r="B271" t="s">
         <v>27</v>
@@ -22173,7 +22176,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
-        <v>46036</v>
+        <v>46077</v>
       </c>
       <c r="B272" t="s">
         <v>26</v>
@@ -22253,7 +22256,7 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A273" s="3">
-        <v>46036</v>
+        <v>46077</v>
       </c>
       <c r="B273" t="s">
         <v>27</v>
@@ -22333,7 +22336,7 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A274" s="3">
-        <v>46037</v>
+        <v>46078</v>
       </c>
       <c r="B274" t="s">
         <v>26</v>
@@ -22413,7 +22416,7 @@
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A275" s="3">
-        <v>46037</v>
+        <v>46078</v>
       </c>
       <c r="B275" t="s">
         <v>27</v>
@@ -22493,7 +22496,7 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
-        <v>46038</v>
+        <v>46079</v>
       </c>
       <c r="B276" t="s">
         <v>26</v>
@@ -22573,7 +22576,7 @@
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A277" s="3">
-        <v>46038</v>
+        <v>46079</v>
       </c>
       <c r="B277" t="s">
         <v>27</v>
@@ -22653,7 +22656,7 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A278" s="3">
-        <v>46039</v>
+        <v>46080</v>
       </c>
       <c r="B278" t="s">
         <v>26</v>
@@ -22733,7 +22736,7 @@
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A279" s="3">
-        <v>46039</v>
+        <v>46080</v>
       </c>
       <c r="B279" t="s">
         <v>27</v>
@@ -22813,7 +22816,7 @@
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
-        <v>46040</v>
+        <v>46081</v>
       </c>
       <c r="B280" t="s">
         <v>26</v>
@@ -22893,7 +22896,7 @@
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A281" s="3">
-        <v>46040</v>
+        <v>46081</v>
       </c>
       <c r="B281" t="s">
         <v>27</v>
@@ -22972,8 +22975,8 @@
       </c>
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A282" s="3">
-        <v>46041</v>
+      <c r="A282" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B282" t="s">
         <v>26</v>
@@ -23052,8 +23055,8 @@
       </c>
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A283" s="3">
-        <v>46041</v>
+      <c r="A283" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B283" t="s">
         <v>27</v>
@@ -23133,7 +23136,7 @@
     </row>
     <row r="284" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A284" s="3">
-        <v>46042</v>
+        <v>46073</v>
       </c>
       <c r="B284" t="s">
         <v>26</v>
@@ -23213,7 +23216,7 @@
     </row>
     <row r="285" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A285" s="3">
-        <v>46042</v>
+        <v>46073</v>
       </c>
       <c r="B285" t="s">
         <v>27</v>
@@ -23293,7 +23296,7 @@
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A286" s="3">
-        <v>46043</v>
+        <v>46075</v>
       </c>
       <c r="B286" t="s">
         <v>26</v>
@@ -23373,7 +23376,7 @@
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A287" s="3">
-        <v>46043</v>
+        <v>46075</v>
       </c>
       <c r="B287" t="s">
         <v>27</v>
@@ -23453,7 +23456,7 @@
     </row>
     <row r="288" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A288" s="3">
-        <v>46044</v>
+        <v>46075</v>
       </c>
       <c r="B288" t="s">
         <v>26</v>
@@ -23533,7 +23536,7 @@
     </row>
     <row r="289" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A289" s="3">
-        <v>46044</v>
+        <v>46075</v>
       </c>
       <c r="B289" t="s">
         <v>27</v>
@@ -23613,7 +23616,7 @@
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A290" s="3">
-        <v>46045</v>
+        <v>46076</v>
       </c>
       <c r="B290" t="s">
         <v>26</v>
@@ -23693,7 +23696,7 @@
     </row>
     <row r="291" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A291" s="3">
-        <v>46045</v>
+        <v>46076</v>
       </c>
       <c r="B291" t="s">
         <v>27</v>
@@ -23773,7 +23776,7 @@
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A292" s="3">
-        <v>46046</v>
+        <v>46077</v>
       </c>
       <c r="B292" t="s">
         <v>26</v>
@@ -23853,7 +23856,7 @@
     </row>
     <row r="293" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A293" s="3">
-        <v>46046</v>
+        <v>46077</v>
       </c>
       <c r="B293" t="s">
         <v>27</v>

--- a/data/yhxw.xlsx
+++ b/data/yhxw.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -106,9 +106,6 @@
   <si>
     <t>高岭站充电量(kw)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2026-2-29</t>
   </si>
 </sst>
 </file>
@@ -481,8 +478,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="B288" sqref="B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21536,7 +21533,7 @@
     </row>
     <row r="264" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A264" s="3">
-        <v>46073</v>
+        <v>46063</v>
       </c>
       <c r="B264" t="s">
         <v>26</v>
@@ -21616,7 +21613,7 @@
     </row>
     <row r="265" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A265" s="3">
-        <v>46073</v>
+        <v>46063</v>
       </c>
       <c r="B265" t="s">
         <v>27</v>
@@ -21696,7 +21693,7 @@
     </row>
     <row r="266" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A266" s="3">
-        <v>46075</v>
+        <v>46064</v>
       </c>
       <c r="B266" t="s">
         <v>26</v>
@@ -21776,7 +21773,7 @@
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A267" s="3">
-        <v>46075</v>
+        <v>46064</v>
       </c>
       <c r="B267" t="s">
         <v>27</v>
@@ -21856,7 +21853,7 @@
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A268" s="3">
-        <v>46075</v>
+        <v>46065</v>
       </c>
       <c r="B268" t="s">
         <v>26</v>
@@ -21936,7 +21933,7 @@
     </row>
     <row r="269" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A269" s="3">
-        <v>46075</v>
+        <v>46065</v>
       </c>
       <c r="B269" t="s">
         <v>27</v>
@@ -22016,7 +22013,7 @@
     </row>
     <row r="270" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A270" s="3">
-        <v>46076</v>
+        <v>46066</v>
       </c>
       <c r="B270" t="s">
         <v>26</v>
@@ -22096,7 +22093,7 @@
     </row>
     <row r="271" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A271" s="3">
-        <v>46076</v>
+        <v>46066</v>
       </c>
       <c r="B271" t="s">
         <v>27</v>
@@ -22176,7 +22173,7 @@
     </row>
     <row r="272" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A272" s="3">
-        <v>46077</v>
+        <v>46067</v>
       </c>
       <c r="B272" t="s">
         <v>26</v>
@@ -22256,7 +22253,7 @@
     </row>
     <row r="273" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A273" s="3">
-        <v>46077</v>
+        <v>46067</v>
       </c>
       <c r="B273" t="s">
         <v>27</v>
@@ -22336,7 +22333,7 @@
     </row>
     <row r="274" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A274" s="3">
-        <v>46078</v>
+        <v>46068</v>
       </c>
       <c r="B274" t="s">
         <v>26</v>
@@ -22416,7 +22413,7 @@
     </row>
     <row r="275" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A275" s="3">
-        <v>46078</v>
+        <v>46068</v>
       </c>
       <c r="B275" t="s">
         <v>27</v>
@@ -22496,7 +22493,7 @@
     </row>
     <row r="276" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A276" s="3">
-        <v>46079</v>
+        <v>46069</v>
       </c>
       <c r="B276" t="s">
         <v>26</v>
@@ -22576,7 +22573,7 @@
     </row>
     <row r="277" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A277" s="3">
-        <v>46079</v>
+        <v>46069</v>
       </c>
       <c r="B277" t="s">
         <v>27</v>
@@ -22656,7 +22653,7 @@
     </row>
     <row r="278" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A278" s="3">
-        <v>46080</v>
+        <v>46070</v>
       </c>
       <c r="B278" t="s">
         <v>26</v>
@@ -22736,7 +22733,7 @@
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A279" s="3">
-        <v>46080</v>
+        <v>46070</v>
       </c>
       <c r="B279" t="s">
         <v>27</v>
@@ -22816,7 +22813,7 @@
     </row>
     <row r="280" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A280" s="3">
-        <v>46081</v>
+        <v>46071</v>
       </c>
       <c r="B280" t="s">
         <v>26</v>
@@ -22896,7 +22893,7 @@
     </row>
     <row r="281" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A281" s="3">
-        <v>46081</v>
+        <v>46071</v>
       </c>
       <c r="B281" t="s">
         <v>27</v>
@@ -22975,8 +22972,8 @@
       </c>
     </row>
     <row r="282" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A282" s="3" t="s">
-        <v>30</v>
+      <c r="A282" s="3">
+        <v>46072</v>
       </c>
       <c r="B282" t="s">
         <v>26</v>
@@ -23055,8 +23052,8 @@
       </c>
     </row>
     <row r="283" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A283" s="3" t="s">
-        <v>30</v>
+      <c r="A283" s="3">
+        <v>46072</v>
       </c>
       <c r="B283" t="s">
         <v>27</v>
@@ -23296,7 +23293,7 @@
     </row>
     <row r="286" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A286" s="3">
-        <v>46075</v>
+        <v>46074</v>
       </c>
       <c r="B286" t="s">
         <v>26</v>
@@ -23376,7 +23373,7 @@
     </row>
     <row r="287" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A287" s="3">
-        <v>46075</v>
+        <v>46074</v>
       </c>
       <c r="B287" t="s">
         <v>27</v>
